--- a/BMW_SecOc.xlsx
+++ b/BMW_SecOc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_XuhuaRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A35FE04-AF55-4D28-9128-AA7FE1F3041F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84A7BCD-F8AA-4D08-9E92-F5C7F36ADA7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-8640" windowWidth="38640" windowHeight="21240" xr2:uid="{EE3554E5-5B85-4F6F-95D2-24E55C4E92D2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Part 1: Common part, regadless of its direction</t>
   </si>
@@ -36,45 +36,610 @@
     <t>Part 3: RX secured IPDU</t>
   </si>
   <si>
-    <t>DsBusCustomCode_onApplicationInitPrivate(pduFeatureHandle)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>DsBusCustomCode_onPduFeatureExecutionPrivate(pduFeatureHandle)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>DsBusCustomCode_onPduFeatureExecutionPrivate(pduFeatureHandle)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>PduPropertiesContainer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> *</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+{
+        //Properties for PDU Features general
+        DsBusCustomCodePduFeatureHandle PduFeatureHandle;
+        uint32 AuthType;
+        char *KeyAsString;
+        boolean IsTx;
+        boolean IsRx;
+        ClusterAgentStruct *ClusterAgent;
+        DsBusCustomCodeEcuHandle EcuHandle;
+        char *EcuName;
+        boolean IsCounterMessage;
+        boolean IsCounterResponseMessage;
+        boolean IsAnyCounterMessage;
+        boolean HasSlManipulationBlock;
+        boolean *FreshnessOverwriteEnable;
+        uint32 *FreshnessOverwriteValue;
+        boolean *AuthenticatorBytesOverwriteEnable[MAX_NUM_MAC_DATA_BYTES];
+        uint8 *AuthenticatorBytesOverwriteValue[MAX_NUM_MAC_DATA_BYTES];
+        //Properties for Secured PDU 
+        DsBusCustomCodePduHandle SecuredIPdu_PduHandle;
+        char *SecuredIPdu_Name;
+        uint8 *SecuredIPdu_SduDataPtr;
+        uint32 SecuredIPdu_SduLength;
+        uint16 SecuredIPdu_DataId;
+        uint32 SecuredIPdu_KeyId;
+        uint32 SecuredIPdu_AuthenticIPduPosition;
+        uint32 MacPosition; // = in Bits
+        uint32 MacTruncatedLength; // = AuthInfoTxLength = Length in Bits
+        uint32 FreshnessValuePosition; //Position in Bits
+        uint32 FreshnessValLength; // = Length in Bits
+        uint32 FreshnessValTruncatedLength; // = Length in Bits
+        boolean UseSecuredPduAsCryptoPduForMsgSplitUp;
+        uint32 SecuredIPdu_MessageLinkPosition;
+        uint16 MessageLinkPosition; // = Position in Bits
+        uint16 MessageLinkLength; // = Length in Bits
+        //int HasLimitedSecuredPayloadArea;
+        uint32 SecuredAreaOffset;
+        uint32 SecuredAreaLength; // = Length in Bytes
+        //Properties for Authentic PDU
+        DsBusCustomCodePduHandle AuthenticIPdu_PduHandle;
+        char *AuthenticIPdu_Name;
+        uint8 *AuthenticIPdu_SduDataPtr;
+        uint32 AuthenticIPdu_SduLength; // = Length in Bytes
+        uint32 AuthenticIPdu_ActualSduLength; // = Length in Bytes
+        uint8 AuthPduHeaderLength; // = Length in Bytes
+    } </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>PduPropertiesContainer</t>
+    </r>
   </si>
   <si>
-    <t>DsBusCustomCode_onApplicationInitPrivateUnhandled(pduFeatureHandle)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;PduPropertiesContainer = (uint8*)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+    <t>DsBusCustomCode_onApplicationInitPrivate(pduFeatureHandle) / DsBusCustomCode_onApplicationInitPrivateUnhandled(pduFeatureHandle)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>ECU-Infos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;EcuHandle = ecuHandle;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;EcuName = ecuName;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Secured IPDU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;SecuredIPdu_PduHandle = securedIPdu_PduHandle;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;SecuredIPdu_Name = securedIPdu_Name;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;IsTx = isTx;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;IsRx = !isTx;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;SecuredIPdu_SduLength = securedIPdu_SduLength
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;SecuredIPdu_DataId = dataId
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;MacTruncatedLength = authInfoTxLength
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;UseSecuredPduAsCryptoPduForMsgSplitUp = useAsCryptographicPdu;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;MessageLinkLength = messageLinkLength;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;MessageLinkPosition = messageLinkPosition;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;AuthPduHeaderLength = authPduHeaderLength
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;SecuredIPdu_AuthenticIPduPosition = securedIPduAuthenticIPduPosition
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Authentic PDU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;AuthenticIPdu_PduHandle = authenticIPdu_PduHandle;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;AuthenticIPdu_SduLength = authenticIPdu_SduLength;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;AuthenticIPdu_Name = authenticIPdu_Name;</t>
+    </r>
+  </si>
+  <si>
+    <t>UserCode_FeatureData</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
       </rPr>
       <t>UserCode_FeatureData</t>
     </r>
     <r>
       <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> *pduFeatData
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> *</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
 pduFeatDataPtr = (uint8*)pduFeatData;
 DsBusCustomCodePduFeature_setFeatureDataPtr(pduFeatureHandle, pduFeatDataPtr)
 {
-    uint8 *PduPropertiesContainer;
+    uint8 *</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>PduPropertiesContainer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">;
     char* FeatureDescriptor;
     uint8* CsmJobHandle;
     uint8  IsInitialized; // Set to 1 if everything for the feature handle was set up
@@ -89,13 +654,190 @@
     <r>
       <rPr>
         <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>UserCode_FeatureData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">;
+</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Assign the instantiated UserCode_FeatureData struct via its pduFeatData pointer to the featureDataPtr pointer.
+Assign the featureDataPtr pointer to the PDUFeatureHandle.
+</t>
+    </r>
+    <r>
+      <rPr>
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Put UserCode pointer in DsPduFeatureHandle structure</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DsBusCustomCode_collectStaticPduProperties(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>)
+DsBusCustomCode_collectStaticPduPropertiesEx(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">)
+_____________________________________________________________
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Cluster-Infos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+DsBusCustomCode_createClusterAgent(pduFeatData)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>ECU-Infos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+GetPropertiesForEcu(pduProps-&gt;PduFeatureHandle, &amp;ecuHandle, &amp;ecuName)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Secured IPDU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+DsBusCustomCodePduFeature_getPdu(pduProps-&gt;PduFeatureHandle, &amp;securedIPdu_PduHandle)
+DsBusCustomCode_getName(securedIPdu_PduHandle, &amp;securedIPdu_Name)
+DsBusCustomCodePdu_getIsTx(securedIPdu_PduHandle, &amp;isTx)
+DsBusCustomCodePdu_getSduLength(securedIPdu_PduHandle, &amp;securedIPdu_SduLength)
+DsBusCustomCodeSecuredIPdu_getDataId(securedIPdu_PduHandle, &amp;dataId)
+DsBusCustomCodeSecuredIPdu_getAuthInfoTxLength(securedIPdu_PduHandle,&amp;authInfoTxLength)
+IdentifyPropertiesForSplitUpCryptoPdu(pduFeatData, &amp;useAsCryptographicPdu,&amp;messageLinkLength, &amp;messageLinkPosition)
+DsBusCustomCodeSecuredIPdu_getAuthPduHeaderLength(securedIPdu_PduHandle, &amp;authPduHeaderLength)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Authentic PDU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+DsBusCustomCodeSecuredIPdu_getAuthenticPdu(securedIPdu_PduHandle, &amp;authenticIPdu_PduHandle)
+DsBusCustomCodePdu_getSduLength(authenticIPdu_PduHandle, &amp;authenticIPdu_SduLength)
+DsBusCustomCode_getName(authenticIPdu_PduHandle, &amp;authenticIPdu_Name)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">get </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
       </rPr>
       <t>UserCode_FeatureData</t>
     </r>
@@ -104,20 +846,1186 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatDataPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> pointer set in pduFeatureHandle before to access the data</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>UserCode_Csm_Init(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;PduFeatureHandle)
+_____________________________________________________________
+DsBusCustomCodePduFeature_getFeatureDataPtr(pduFeatureHandle, &amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatDataPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>UserCode_FeatureData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> *</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>UserCode_FeatureData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>*)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatDataPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>CsmJobHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = NULL;
+</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>_UserCode_Csm_Init(DsBusCustomCodePduFeatureHandle pduFeatureHandle, boolean atRuntime), atRuntime = FALSE
+_____________________________________________________________
+DsBusCustomCodePduFeature_getFeatureDataPtr(pduFeatureHandle, &amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatDataPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>UserCode_FeatureData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>*)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatDataPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">; 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>PduPropertiesContainer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>*)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>PduPropertiesContainer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>;
+DsBusCustomCodeSecuredIPdu_getFreshnessValueLength(securedIPdu_PduHandle, &amp;freshnessValueLength)
+dataToAuthentictatorLenInBytes = sizeof(uint16) + authenticIPdu_SduLength + (freshnessValueLength + 7) / 8
+UserCode_SecOCHelper_Create_CryptoJob_For_CMAC_AES_128_Authentication(&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>CsmJobHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">,dataToAuthentictatorLenInBytes)
+_____________________________________________________________
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_Job</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>UserCode_CryptoJob_Register(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_Job</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>, &amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>csmJobHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, &amp;jobIdInternal)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>CsmJobHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>csmJobHandle</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>UserCode_CryptoJob_Register(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_Job</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>, &amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>csmJobHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, &amp;jobIdInternal)
+_______________________________
+{
+    struct </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>AES_ctx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>CTX_Handle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">;
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_JobType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_Job</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">;
+} </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>CsmJobHandle_Type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>CsmJobHandle_Type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>jobHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>CsmJobHandle_Type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>*)rtlib_malloc(sizeof(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>CsmJobHandle_Type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">))
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>jobHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Crypto_Job </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_Job</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>CsmJobHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = (uint8*) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">jobHandle
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Note:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">CsmJobHandle </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>CsmJobHandle_Type</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>UserCode_Csm_KeyElementInit(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>CsmJobHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, CRYPTO_KE_MAC_KEY), CRYPTO_KE_MAC_KEY = 0x01
+_____________________________________________________________
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>CsmJobHandle_Type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>jobHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>CsmJobHandle_Type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>*)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>CsmJobHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+struct </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>AES_ctx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>handle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = Ds_CMAC_New();
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>jobHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>CTX_Handle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>handle</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ds_CMAC_New()
+_____________________________________________________________
+struct </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>AES_ctx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> *</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>ctx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = (struct </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>AES_ctx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">*)rtlib_calloc(1, sizeof(struct </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>AES_ctx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">));
+return </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>ctx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
       </rPr>
       <t>;</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSM
+Key</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,13 +2074,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="15"/>
-      <color theme="1"/>
-      <name val="Bahnschrift"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
@@ -183,28 +2084,119 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Cascadia Mono SemiLight"/>
       <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cascadia Mono SemiLight"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Cascadia Mono SemiLight"/>
       <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Cascadia Mono SemiLight"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF00FF"/>
+      <name val="Cascadia Mono SemiLight"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cascadia Mono SemiLight"/>
+      <family val="3"/>
     </font>
     <font>
       <b/>
       <i/>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Cascadia Mono SemiLight"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Cascadia Mono SemiLight"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Cascadia Mono SemiLight"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Cascadia Mono SemiLight"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="Cascadia Mono SemiLight"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Cascadia Mono SemiLight"/>
       <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Cascadia Mono SemiLight"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cascadia Mono SemiLight"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Cascadia Mono SemiBold"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Cascadia Mono SemiLight"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Cascadia Mono SemiLight"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="5">
@@ -426,32 +2418,14 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -459,20 +2433,38 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -482,10 +2474,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF5050"/>
       <color rgb="FFFF00FF"/>
       <color rgb="FFFDBC53"/>
       <color rgb="FFEB65BE"/>
-      <color rgb="FFFF5050"/>
     </mruColors>
   </colors>
   <extLst>
@@ -798,174 +2790,198 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E38B81CE-79E3-4568-BB50-9E45BADB5D49}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="22.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="133.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="138.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="147.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="51.375" style="21" customWidth="1"/>
+    <col min="3" max="3" width="51.375" style="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
-        <v>3</v>
+      <c r="A1" s="19" t="s">
+        <v>6</v>
       </c>
       <c r="B1" s="3"/>
-      <c r="C1" s="17"/>
+      <c r="C1" s="27"/>
     </row>
-    <row r="2" spans="1:3" ht="254.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
+    <row r="2" spans="1:3" ht="275.10000000000002" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="408.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="32" t="s">
-        <v>6</v>
+      <c r="C3" s="25"/>
+    </row>
+    <row r="4" spans="1:3" ht="339.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
+        <v>11</v>
       </c>
-      <c r="C2" s="18"/>
+      <c r="B4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="26"/>
     </row>
-    <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="18"/>
+    <row r="5" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="19"/>
+    <row r="6" spans="1:3" ht="270" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="25"/>
     </row>
-    <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="22"/>
-    </row>
-    <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="23"/>
-    </row>
-    <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="24"/>
+    <row r="7" spans="1:3" ht="114" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="26"/>
     </row>
     <row r="8" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="9"/>
-      <c r="C8" s="23"/>
+      <c r="C8" s="24"/>
     </row>
     <row r="9" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="8"/>
-      <c r="C9" s="24"/>
+      <c r="C9" s="26"/>
     </row>
     <row r="10" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
-      <c r="C10" s="25"/>
+      <c r="C10" s="28"/>
     </row>
     <row r="11" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
       <c r="B11" s="11"/>
-      <c r="C11" s="23"/>
+      <c r="C11" s="24"/>
     </row>
     <row r="12" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="30" t="s">
-        <v>4</v>
+      <c r="A12" s="17" t="s">
+        <v>3</v>
       </c>
       <c r="B12" s="12"/>
-      <c r="C12" s="17"/>
+      <c r="C12" s="27"/>
     </row>
     <row r="13" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
     </row>
     <row r="14" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="18"/>
+      <c r="C14" s="29"/>
     </row>
     <row r="15" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
-      <c r="C15" s="18"/>
+      <c r="C15" s="29"/>
     </row>
     <row r="16" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="8"/>
-      <c r="C16" s="23"/>
+      <c r="C16" s="24"/>
     </row>
     <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
-      <c r="C17" s="28"/>
+      <c r="C17" s="25"/>
     </row>
     <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="8"/>
-      <c r="C18" s="24"/>
+      <c r="C18" s="26"/>
     </row>
     <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="9"/>
-      <c r="C19" s="18"/>
+      <c r="C19" s="29"/>
     </row>
     <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
     </row>
     <row r="21" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
-      <c r="C21" s="18"/>
+      <c r="C21" s="29"/>
     </row>
     <row r="22" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="18"/>
+      <c r="C22" s="29"/>
     </row>
     <row r="23" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
-      <c r="C23" s="23"/>
+      <c r="C23" s="24"/>
     </row>
     <row r="24" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
-      <c r="C24" s="24"/>
+      <c r="C24" s="26"/>
     </row>
     <row r="25" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="7"/>
-      <c r="C25" s="23"/>
+      <c r="C25" s="24"/>
     </row>
     <row r="26" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" s="5"/>
-      <c r="C26" s="24"/>
+      <c r="C26" s="26"/>
     </row>
     <row r="27" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="B27" s="5"/>
-      <c r="C27" s="18"/>
+      <c r="C27" s="29"/>
     </row>
     <row r="28" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B28" s="14"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C6:C7"/>
+  <mergeCells count="9">
+    <mergeCell ref="C2:C4"/>
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="A13:C13"/>
@@ -973,8 +2989,9 @@
     <mergeCell ref="C16:C18"/>
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C5:C7"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/BMW_SecOc.xlsx
+++ b/BMW_SecOc.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_XuhuaRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84A7BCD-F8AA-4D08-9E92-F5C7F36ADA7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90123AA8-8513-462C-B3DC-B4668E1C4E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-8640" windowWidth="38640" windowHeight="21240" xr2:uid="{EE3554E5-5B85-4F6F-95D2-24E55C4E92D2}"/>
   </bookViews>
   <sheets>
     <sheet name="BMW" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,10 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>Part 1: Common part, regadless of its direction</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Part 2: TX secured IPDU</t>
   </si>
@@ -37,7 +35,7 @@
   </si>
   <si>
     <t>DsBusCustomCode_onPduFeatureExecutionPrivate(pduFeatureHandle)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -136,445 +134,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;PduPropertiesContainer = (uint8*)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
     <t>DsBusCustomCode_onApplicationInitPrivate(pduFeatureHandle) / DsBusCustomCode_onApplicationInitPrivateUnhandled(pduFeatureHandle)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF00FF"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>ECU-Infos</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;EcuHandle = ecuHandle;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;EcuName = ecuName;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF00FF"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>Secured IPDU</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;SecuredIPdu_PduHandle = securedIPdu_PduHandle;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;SecuredIPdu_Name = securedIPdu_Name;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;IsTx = isTx;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;IsRx = !isTx;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;SecuredIPdu_SduLength = securedIPdu_SduLength
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;SecuredIPdu_DataId = dataId
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;MacTruncatedLength = authInfoTxLength
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;UseSecuredPduAsCryptoPduForMsgSplitUp = useAsCryptographicPdu;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;MessageLinkLength = messageLinkLength;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;MessageLinkPosition = messageLinkPosition;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;AuthPduHeaderLength = authPduHeaderLength
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;SecuredIPdu_AuthenticIPduPosition = securedIPduAuthenticIPduPosition
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF00FF"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>Authentic PDU</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;AuthenticIPdu_PduHandle = authenticIPdu_PduHandle;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;AuthenticIPdu_SduLength = authenticIPdu_SduLength;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;AuthenticIPdu_Name = authenticIPdu_Name;</t>
-    </r>
   </si>
   <si>
     <t>UserCode_FeatureData</t>
@@ -671,7 +231,7 @@
       <t xml:space="preserve">;
 </t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -689,7 +249,492 @@
       </rPr>
       <t>Put UserCode pointer in DsPduFeatureHandle structure</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>UserCode_Csm_Init(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;PduFeatureHandle)
+_____________________________________________________________
+DsBusCustomCodePduFeature_getFeatureDataPtr(pduFeatureHandle, &amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatDataPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>UserCode_FeatureData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> *</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>UserCode_FeatureData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>*)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatDataPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>CsmJobHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = NULL;
+</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>UserCode_Csm_KeyElementInit(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>CsmJobHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, CRYPTO_KE_MAC_KEY), CRYPTO_KE_MAC_KEY = 0x01
+_____________________________________________________________
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>CsmJobHandle_Type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>jobHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>CsmJobHandle_Type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>*)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>CsmJobHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+struct </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>AES_ctx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>handle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = Ds_CMAC_New();
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>jobHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>CTX_Handle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>handle</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ds_CMAC_New()
+_____________________________________________________________
+struct </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>AES_ctx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> *</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>ctx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = (struct </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>AES_ctx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">*)rtlib_calloc(1, sizeof(struct </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>AES_ctx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">));
+return </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>ctx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSM
+Key</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DsBusCustomCode_onPduFeatureExecutionPrivateUnhandled</t>
   </si>
   <si>
     <r>
@@ -824,7 +869,6 @@
 DsBusCustomCodePdu_getSduLength(authenticIPdu_PduHandle, &amp;authenticIPdu_SduLength)
 DsBusCustomCode_getName(authenticIPdu_PduHandle, &amp;authenticIPdu_Name)</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -833,7 +877,6 @@
     <r>
       <rPr>
         <b/>
-        <i/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Cascadia Mono SemiLight"/>
@@ -843,7 +886,6 @@
     </r>
     <r>
       <rPr>
-        <i/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Cascadia Mono SemiLight"/>
@@ -854,7 +896,6 @@
     <r>
       <rPr>
         <b/>
-        <i/>
         <sz val="11"/>
         <color rgb="FF00B0F0"/>
         <rFont val="Cascadia Mono SemiLight"/>
@@ -864,7 +905,6 @@
     </r>
     <r>
       <rPr>
-        <i/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Cascadia Mono SemiLight"/>
@@ -872,42 +912,1278 @@
       </rPr>
       <t xml:space="preserve"> pointer set in pduFeatureHandle before to access the data</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>UserCode_Csm_Init(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;PduFeatureHandle)
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;PduPropertiesContainer = (uint8*)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">pduProps
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">{
+    char *Name;
+    uint8 Ident;
+    int LinkedSlBlockId;
+    DsBusCustomCodeCommunicationClusterHandle ComClusterHandle;
+    UserDefsOfSecOCCounterMsgsStruct *UserDefsOfSecOCCounterMsgs; 
+    uint8 *ClientCntManagerInstance; //type SingleClientCntManagerInstance
+    boolean CounterMessageMacErrorIgnore;
+    unsigned long CounterMessageMacErrorCount;
+    UserCode_FeatureData *TxCntMsgFeatData;
+    UserCode_FeatureData *TxCntRespMsgFeatData;
+    UserCode_FeatureData *RxCntMsgFeatData;
+    UserCode_FeatureData *RxCntRespMsgFeatData;
+} </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>ClusterAgentStruct</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>freshnessValueLength
+UserCode_CryptoJob_Register(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_Job</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>, &amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>csmJobHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, &amp;jobIdInternal)
+_______________________________
+{
+    struct </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>AES_ctx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>CTX_Handle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">;
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_JobType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_Job</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">;
+} </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>CsmJobHandle_Type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>CsmJobHandle_Type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>jobHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>CsmJobHandle_Type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>*)rtlib_malloc(sizeof(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>CsmJobHandle_Type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">))
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>jobHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Crypto_Job </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_Job</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>CsmJobHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = (uint8*) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">jobHandle
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Note:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">CsmJobHandle </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>CsmJobHandle_Type</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;SecuredIPdu_PduHandle = securedIPdu_PduHandle
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;IsTx = isTx;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;IsRx = !isTx;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;SecuredIPdu_SduDataPtr = securedIPdu_SduDataPtr
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;AuthenticIPdu_SduDataPtr = authenticIPdu_SduDataPtr
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;AuthenticIPdu_ActualSduLength = authenticIPdu_ActualLength
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;MacPosition = securedIPduAuthenticatorPosition;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;SecuredIPdu_MessageLinkPosition = securedIPduMessageLinkerPosition
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;SecuredAreaLength = actualSecuredAreaLength;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;SecuredAreaOffset = actualSecuredAreaOffset;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Cluster-Infos
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;ClusterAgent = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>clusterAgent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+ECU-Infos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;EcuHandle = ecuHandle;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;EcuName = ecuName;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Secured IPDU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;SecuredIPdu_PduHandle = securedIPdu_PduHandle;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;SecuredIPdu_Name = securedIPdu_Name;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;IsTx = isTx;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;IsRx = !isTx;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;SecuredIPdu_SduLength = securedIPdu_SduLength
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;SecuredIPdu_DataId = dataId
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;MacTruncatedLength = authInfoTxLength
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;UseSecuredPduAsCryptoPduForMsgSplitUp = useAsCryptographicPdu;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;MessageLinkLength = messageLinkLength;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;MessageLinkPosition = messageLinkPosition;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;AuthPduHeaderLength = authPduHeaderLength
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;SecuredIPdu_AuthenticIPduPosition = securedIPduAuthenticIPduPosition
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Authentic PDU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;AuthenticIPdu_PduHandle = authenticIPdu_PduHandle;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;AuthenticIPdu_SduLength = authenticIPdu_SduLength;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;AuthenticIPdu_Name = authenticIPdu_Name;</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>UserCode_Csm_CheckKeyAvailability(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (!IsSecOCKeyIdValid(pduProps-&gt;SecuredIPdu_KeyId)
+    &amp;&amp; pduProps-&gt;IsAnyCounterMessage &amp;&amp; pduProps-&gt;IsRx) {
+    //For Rx-CounterMessages authentication check is skipped if key is not available
+    //nevertheless key-availability-check is "ok"
+    return E_OK;
+}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;IsCounterMessage
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;IsCounterResponseMessage 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;IsAnyCounterMessage
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;FreshnessValLength
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;FreshnessValTruncatedLength(freshnessValueTxLength)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;SecuredIPdu_KeyId
+SetSecuredIPdu_KeyIdSource(keyIdSource,  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;SecuredIPdu_Name)
+dataId</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DsBusCustomCode_collectStaticPduPropertiesDuringRuntime(UserCode_FeatureData *</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>)
 _____________________________________________________________
-DsBusCustomCodePduFeature_getFeatureDataPtr(pduFeatureHandle, &amp;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatDataPtr</t>
+DsBusCustomCode_collectStaticPduPropertiesDuringRuntimeEx(UserCode_FeatureData *</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
     </r>
     <r>
       <rPr>
@@ -917,7 +2193,27 @@
         <family val="3"/>
       </rPr>
       <t xml:space="preserve">)
-</t>
+_____________________________________________________________
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = (</t>
     </r>
     <r>
       <rPr>
@@ -927,16 +2223,16 @@
         <rFont val="Cascadia Mono SemiLight"/>
         <family val="3"/>
       </rPr>
-      <t>UserCode_FeatureData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> *</t>
+      <t>PduPropertiesContainer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>*)</t>
     </r>
     <r>
       <rPr>
@@ -955,7 +2251,7 @@
         <rFont val="Cascadia Mono SemiLight"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve"> = (</t>
+      <t>-&gt;</t>
     </r>
     <r>
       <rPr>
@@ -965,77 +2261,49 @@
         <rFont val="Cascadia Mono SemiLight"/>
         <family val="3"/>
       </rPr>
-      <t>UserCode_FeatureData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>*)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatDataPtr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>CsmJobHandle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> = NULL;
-</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+      <t>PduPropertiesContainer(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatureHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">DsBusCustomCodeSecuredIPdu_getFreshnessValueLength(securedIPdu_PduHandle, &amp;freshnessValueLength)
+DsBusCustomCodeSecuredIPdu_getFreshnessValueTxLength(securedIPdu_PduHandle, &amp;freshnessValueTxLength)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+DsBusCustomCodeSecuredIPdu_getKeyId(securedIPdu_PduHandle, &amp;keyId)
+DsBusCustomCodeSecuredIPdu_getDataId(securedIPdu_PduHandle, &amp;dataId)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1352,15 +2620,478 @@
       </rPr>
       <t>csmJobHandle</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
+      <t>DsBusCustomCode_collectDynamicPduProperties(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>UserCode_FeatureData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> *</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>)
+DsBusCustomCode_collectDynamicPduPropertiesEx(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>)
+_____________________________________________________________
+DsBusCustomCodePduFeature_getPdu(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;PduFeatureHandle, &amp;securedIPdu_PduHandle)
+DsBusCustomCodePdu_getIsTx(securedIPdu_PduHandle, &amp;isTx)
+DsBusCustomCodePdu_getSduDataPtr(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;SecuredIPdu_PduHandle,&amp;securedIPdu_SduDataPtr)
+DsBusCustomCodePdu_getSduDataPtr(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;AuthenticIPdu_PduHandle,&amp;authenticIPdu_SduDataPtr)
+IdentifyAuthenticIPduActualLength(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>, &amp;authenticIPdu_ActualLength)
+if (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;IsAnyCounterMessage)
+if (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;UseSecuredPduAsCryptoPduForMsgSplitUp)
+securedIPduAuthenticatorPosition
+securedIPduMessageLinkerPosition = securedIPduAuthenticatorPosition + pduProps-&gt;MacTruncatedLength
+IdentifySecuredAreaProperties(pduFeatData,&amp;actualSecuredAreaLength, &amp;actualSecuredAreaOffset)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Already been set in OnApplicationInit. For </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>CounterMsg-PDUs</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> freshnessLength is unknown, hence Crypto-job can not yet been initialized.
+Second call is done in DsBusCustomCode_collectStaticPduPropertiesDuringRuntime()
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+UserCode_Csm_Init_AtRuntime(pduProps-&gt;PduFeatureHandle)
+_UserCode_Csm_Init(DsBusCustomCodePduFeatureHandle pduFeatureHandle, boolean atRuntime), atRuntime = TRUE
+_____________________________________________________________
+DsBusCustomCodePduFeature_getFeatureDataPtr(pduFeatureHandle, &amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatDataPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>UserCode_FeatureData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>*)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatDataPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">; 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>PduPropertiesContainer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>*)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>PduPropertiesContainer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>;
+DsBusCustomCodeSecuredIPdu_getFreshnessValueLength(securedIPdu_PduHandle, &amp;freshnessValueLength)
+dataToAuthentictatorLenInBytes = sizeof(uint16) + authenticIPdu_SduLength + (freshnessValueLength + 7) / 8
+UserCode_SecOCHelper_Create_CryptoJob_For_CMAC_AES_128_Authentication(&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>CsmJobHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">,dataToAuthentictatorLenInBytes)
+_____________________________________________________________
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_Job</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
       <t>UserCode_CryptoJob_Register(</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <u/>
         <sz val="11"/>
         <color rgb="FF00B050"/>
         <rFont val="Cascadia Mono SemiLight"/>
@@ -1370,6 +3101,7 @@
     </r>
     <r>
       <rPr>
+        <u/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Cascadia Mono SemiLight"/>
@@ -1380,6 +3112,7 @@
     <r>
       <rPr>
         <b/>
+        <u/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Cascadia Mono SemiLight"/>
@@ -1389,238 +3122,14 @@
     </r>
     <r>
       <rPr>
+        <u/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Cascadia Mono SemiLight"/>
         <family val="3"/>
       </rPr>
       <t xml:space="preserve">, &amp;jobIdInternal)
-_______________________________
-{
-    struct </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="9" tint="-0.499984740745262"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>AES_ctx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">* </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="9" tint="-0.499984740745262"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>CTX_Handle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">;
-    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>Crypto_JobType</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">* </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>Crypto_Job</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">;
-} </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>CsmJobHandle_Type</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>CsmJobHandle_Type</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">* </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>jobHandle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> = (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>CsmJobHandle_Type</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>*)rtlib_malloc(sizeof(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>CsmJobHandle_Type</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">))
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>jobHandle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">Crypto_Job </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">= </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>Crypto_Job</t>
+</t>
     </r>
     <r>
       <rPr>
@@ -1636,7 +3145,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF00B050"/>
         <rFont val="Cascadia Mono SemiLight"/>
         <family val="3"/>
       </rPr>
@@ -1649,254 +3158,6 @@
         <rFont val="Cascadia Mono SemiLight"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve"> = (uint8*) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">jobHandle
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>Note:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">CsmJobHandle </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">is </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>CsmJobHandle_Type</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>UserCode_Csm_KeyElementInit(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>CsmJobHandle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, CRYPTO_KE_MAC_KEY), CRYPTO_KE_MAC_KEY = 0x01
-_____________________________________________________________
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>CsmJobHandle_Type</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">* </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>jobHandle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> = (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>CsmJobHandle_Type</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>*)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>CsmJobHandle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-struct </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="9" tint="-0.499984740745262"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>AES_ctx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">* </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>handle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> = Ds_CMAC_New();
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>jobHandle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="9" tint="-0.499984740745262"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>CTX_Handle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
       <t xml:space="preserve"> = </t>
     </r>
     <r>
@@ -1907,125 +3168,16 @@
         <rFont val="Cascadia Mono SemiLight"/>
         <family val="3"/>
       </rPr>
-      <t>handle</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Ds_CMAC_New()
-_____________________________________________________________
-struct </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="9" tint="-0.499984740745262"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>AES_ctx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> *</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="9" tint="-0.499984740745262"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>ctx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> = (struct </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="9" tint="-0.499984740745262"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>AES_ctx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">*)rtlib_calloc(1, sizeof(struct </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="9" tint="-0.499984740745262"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>AES_ctx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">));
-return </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="9" tint="-0.499984740745262"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>ctx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSM
-Key</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+      <t>csmJobHandle</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2046,29 +3198,6 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF92D050"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2121,23 +3250,7 @@
       <family val="3"/>
     </font>
     <font>
-      <b/>
-      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Cascadia Mono SemiLight"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Cascadia Mono SemiLight"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF00B0F0"/>
       <name val="Cascadia Mono SemiLight"/>
       <family val="3"/>
     </font>
@@ -2195,6 +3308,36 @@
       <b/>
       <sz val="11"/>
       <color theme="9" tint="-0.499984740745262"/>
+      <name val="Cascadia Mono SemiLight"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Cascadia Mono SemiLight"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Cascadia Mono SemiLight"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cascadia Mono SemiLight"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Cascadia Mono SemiLight"/>
       <family val="3"/>
     </font>
@@ -2368,7 +3511,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2394,9 +3537,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2412,59 +3552,47 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2788,210 +3916,225 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E38B81CE-79E3-4568-BB50-9E45BADB5D49}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="138.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="147.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="51.375" style="31" customWidth="1"/>
+    <col min="3" max="3" width="51.375" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="18"/>
+    </row>
+    <row r="2" spans="1:3" ht="275.10000000000002" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="27"/>
-    </row>
-    <row r="2" spans="1:3" ht="275.10000000000002" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
-        <v>9</v>
+      <c r="B2" s="14" t="s">
+        <v>7</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>8</v>
+      <c r="C2" s="22" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="408.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
-        <v>4</v>
+      <c r="A3" s="14" t="s">
+        <v>3</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>5</v>
+      <c r="B3" s="14" t="s">
+        <v>15</v>
       </c>
-      <c r="C3" s="25"/>
+      <c r="C3" s="23"/>
     </row>
     <row r="4" spans="1:3" ht="339.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
-        <v>11</v>
+      <c r="A4" s="14" t="s">
+        <v>13</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>7</v>
+      <c r="B4" s="14" t="s">
+        <v>18</v>
       </c>
-      <c r="C4" s="26"/>
+      <c r="C4" s="24"/>
     </row>
     <row r="5" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="22" t="s">
-        <v>13</v>
+      <c r="A5" s="16" t="s">
+        <v>8</v>
       </c>
-      <c r="B5" s="23" t="s">
-        <v>12</v>
+      <c r="B5" s="14" t="s">
+        <v>14</v>
       </c>
-      <c r="C5" s="32" t="s">
-        <v>18</v>
+      <c r="C5" s="26" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="270" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
-        <v>14</v>
+      <c r="A6" s="14" t="s">
+        <v>23</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="25"/>
-    </row>
-    <row r="7" spans="1:3" ht="114" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+      <c r="B6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="C6" s="23"/>
+    </row>
+    <row r="7" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="24"/>
+    </row>
+    <row r="8" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="17"/>
+    </row>
+    <row r="9" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="18"/>
+    </row>
+    <row r="10" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="18"/>
+    </row>
+    <row r="11" spans="1:3" ht="240" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="26"/>
+      <c r="C11" s="22"/>
     </row>
-    <row r="8" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="24"/>
-    </row>
-    <row r="9" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="26"/>
-    </row>
-    <row r="10" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="28"/>
-    </row>
-    <row r="11" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="24"/>
-    </row>
-    <row r="12" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
-        <v>3</v>
+    <row r="12" spans="1:3" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>19</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="27"/>
+      <c r="B12" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="23"/>
     </row>
     <row r="13" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="6"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="24"/>
+    </row>
+    <row r="14" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-    </row>
-    <row r="14" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="29"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
     </row>
     <row r="15" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="29"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="19"/>
     </row>
     <row r="16" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="24"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="19"/>
     </row>
     <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
-      <c r="C17" s="25"/>
+      <c r="C17" s="22"/>
     </row>
     <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="26"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="24"/>
     </row>
     <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="29"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="22"/>
     </row>
     <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="6"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="24"/>
+    </row>
+    <row r="21" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="6"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="19"/>
+    </row>
+    <row r="22" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-    </row>
-    <row r="21" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="29"/>
-    </row>
-    <row r="22" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="29"/>
-    </row>
-    <row r="23" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="24"/>
-    </row>
-    <row r="24" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="26"/>
-    </row>
-    <row r="25" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="24"/>
-    </row>
-    <row r="26" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="6"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="26"/>
-    </row>
-    <row r="27" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="6"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="29"/>
-    </row>
-    <row r="28" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="30"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="6">
     <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C17:C18"/>
     <mergeCell ref="C5:C7"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48426D71-A9D2-4765-8952-428E08E6A5AA}">
+  <dimension ref="A7:B9"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="138.5" customWidth="1"/>
+    <col min="2" max="2" width="147.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="1:2" ht="189.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="360" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="27"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/BMW_SecOc.xlsx
+++ b/BMW_SecOc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_XuhuaRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90123AA8-8513-462C-B3DC-B4668E1C4E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA15C41F-5086-48CD-94DF-A9B654007CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-8640" windowWidth="38640" windowHeight="21240" xr2:uid="{EE3554E5-5B85-4F6F-95D2-24E55C4E92D2}"/>
   </bookViews>
@@ -26,10 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
-  <si>
-    <t>Part 2: TX secured IPDU</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>Part 3: RX secured IPDU</t>
   </si>
@@ -738,140 +735,6 @@
   </si>
   <si>
     <r>
-      <t>DsBusCustomCode_collectStaticPduProperties(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>)
-DsBusCustomCode_collectStaticPduPropertiesEx(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">)
-_____________________________________________________________
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF00FF"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>Cluster-Infos</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-DsBusCustomCode_createClusterAgent(pduFeatData)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF00FF"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>ECU-Infos</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-GetPropertiesForEcu(pduProps-&gt;PduFeatureHandle, &amp;ecuHandle, &amp;ecuName)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF00FF"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>Secured IPDU</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-DsBusCustomCodePduFeature_getPdu(pduProps-&gt;PduFeatureHandle, &amp;securedIPdu_PduHandle)
-DsBusCustomCode_getName(securedIPdu_PduHandle, &amp;securedIPdu_Name)
-DsBusCustomCodePdu_getIsTx(securedIPdu_PduHandle, &amp;isTx)
-DsBusCustomCodePdu_getSduLength(securedIPdu_PduHandle, &amp;securedIPdu_SduLength)
-DsBusCustomCodeSecuredIPdu_getDataId(securedIPdu_PduHandle, &amp;dataId)
-DsBusCustomCodeSecuredIPdu_getAuthInfoTxLength(securedIPdu_PduHandle,&amp;authInfoTxLength)
-IdentifyPropertiesForSplitUpCryptoPdu(pduFeatData, &amp;useAsCryptographicPdu,&amp;messageLinkLength, &amp;messageLinkPosition)
-DsBusCustomCodeSecuredIPdu_getAuthPduHeaderLength(securedIPdu_PduHandle, &amp;authPduHeaderLength)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF00FF"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>Authentic PDU</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-DsBusCustomCodeSecuredIPdu_getAuthenticPdu(securedIPdu_PduHandle, &amp;authenticIPdu_PduHandle)
-DsBusCustomCodePdu_getSduLength(authenticIPdu_PduHandle, &amp;authenticIPdu_SduLength)
-DsBusCustomCode_getName(authenticIPdu_PduHandle, &amp;authenticIPdu_Name)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">get </t>
     </r>
     <r>
@@ -1999,15 +1862,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>if (!IsSecOCKeyIdValid(pduProps-&gt;SecuredIPdu_KeyId)
-    &amp;&amp; pduProps-&gt;IsAnyCounterMessage &amp;&amp; pduProps-&gt;IsRx) {
-    //For Rx-CounterMessages authentication check is skipped if key is not available
-    //nevertheless key-availability-check is "ok"
-    return E_OK;
-}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -2147,161 +2001,6 @@
       </rPr>
       <t>-&gt;SecuredIPdu_Name)
 dataId</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>DsBusCustomCode_collectStaticPduPropertiesDuringRuntime(UserCode_FeatureData *</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>)
-_____________________________________________________________
-DsBusCustomCode_collectStaticPduPropertiesDuringRuntimeEx(UserCode_FeatureData *</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">)
-_____________________________________________________________
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> = (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>PduPropertiesContainer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>*)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>PduPropertiesContainer(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatureHandle</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">DsBusCustomCodeSecuredIPdu_getFreshnessValueLength(securedIPdu_PduHandle, &amp;freshnessValueLength)
-DsBusCustomCodeSecuredIPdu_getFreshnessValueTxLength(securedIPdu_PduHandle, &amp;freshnessValueTxLength)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-DsBusCustomCodeSecuredIPdu_getKeyId(securedIPdu_PduHandle, &amp;keyId)
-DsBusCustomCodeSecuredIPdu_getDataId(securedIPdu_PduHandle, &amp;dataId)</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2619,195 +2318,6 @@
         <family val="3"/>
       </rPr>
       <t>csmJobHandle</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>DsBusCustomCode_collectDynamicPduProperties(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>UserCode_FeatureData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> *</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>)
-DsBusCustomCode_collectDynamicPduPropertiesEx(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>)
-_____________________________________________________________
-DsBusCustomCodePduFeature_getPdu(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;PduFeatureHandle, &amp;securedIPdu_PduHandle)
-DsBusCustomCodePdu_getIsTx(securedIPdu_PduHandle, &amp;isTx)
-DsBusCustomCodePdu_getSduDataPtr(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;SecuredIPdu_PduHandle,&amp;securedIPdu_SduDataPtr)
-DsBusCustomCodePdu_getSduDataPtr(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;AuthenticIPdu_PduHandle,&amp;authenticIPdu_SduDataPtr)
-IdentifyAuthenticIPduActualLength(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>, &amp;authenticIPdu_ActualLength)
-if (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;IsAnyCounterMessage)
-if (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;UseSecuredPduAsCryptoPduForMsgSplitUp)
-securedIPduAuthenticatorPosition
-securedIPduMessageLinkerPosition = securedIPduAuthenticatorPosition + pduProps-&gt;MacTruncatedLength
-IdentifySecuredAreaProperties(pduFeatData,&amp;actualSecuredAreaLength, &amp;actualSecuredAreaOffset)</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3169,6 +2679,1768 @@
         <family val="3"/>
       </rPr>
       <t>csmJobHandle</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX secured IPDU</t>
+  </si>
+  <si>
+    <t>DsBusCustomCode_onPduFeatureExecutionPrivateTx</t>
+  </si>
+  <si>
+    <r>
+      <t>DsBusCustomCode_collectDynamicPduProperties(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>UserCode_FeatureData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> *</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>)
+DsBusCustomCode_collectDynamicPduPropertiesEx(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>)
+_____________________________________________________________
+DsBusCustomCodePduFeature_getPdu(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;PduFeatureHandle, &amp;securedIPdu_PduHandle)
+DsBusCustomCodePdu_getIsTx(securedIPdu_PduHandle, &amp;isTx)
+DsBusCustomCodePdu_getSduDataPtr(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;SecuredIPdu_PduHandle,&amp;securedIPdu_SduDataPtr)
+DsBusCustomCodePdu_getSduDataPtr(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;AuthenticIPdu_PduHandle,&amp;authenticIPdu_SduDataPtr)
+IdentifyAuthenticIPduActualLength(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>, &amp;authenticIPdu_ActualLength)
+if (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;IsAnyCounterMessage)
+if (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;UseSecuredPduAsCryptoPduForMsgSplitUp)
+securedIPduAuthenticatorPosition
+securedIPduMessageLinkerPosition = securedIPduAuthenticatorPosition + pduProps-&gt;MacTruncatedLength
+IdentifySecuredAreaProperties(pduFeatData,&amp;actualSecuredAreaLength, &amp;actualSecuredAreaOffset)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>UserCode_CopyMessageLinkToCryptoPdu(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+_____________________________________________________________
+ if (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;UseSecuredPduAsCryptoPduForMsgSplitUp)
+if (isBitCountingPolicyMontone == 1) {
+    CopyBitsBE(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;SecuredIPdu_SduDataPtr,
+               </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;SecuredIPdu_MessageLinkPosition,
+               </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;AuthenticIPdu_SduDataPtr,
+               </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;MessageLinkPosition, pduProps-&gt;MessageLinkLength);
+}
+else {
+    uint16 SawtoothMessageLinkPosition = SwapBits(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;MessageLinkPosition, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;MessageLinkLength);
+    CopyBitsBE(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;SecuredIPdu_SduDataPtr,
+               </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;SecuredIPdu_MessageLinkPosition,
+               </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;AuthenticIPdu_SduDataPtr,
+               SawtoothMessageLinkPosition, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;MessageLinkLength);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>SecOCUseMessageLink</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">        SecOC links an Authentic I-PDU and Cryptographic I-PDU together by repeating a specific part (Message Linker) of the Authentic I-PDU in the Cryptographic I-PDU. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>SecOCMessageLinkPos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">         The position of the Message Linker inside the Authentic I-PDU in bits. The bit counting is done according to 01068 and the bit ordering is done according to TPS_SYST_01069
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>SecOCMessageLinkLen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">       Length of the Message Linker inside the Authentic I-PDU in bits</t>
+    </r>
+  </si>
+  <si>
+    <t>Cryptographic I-PDU</t>
+  </si>
+  <si>
+    <t>None Cryptographic SecuredPduData</t>
+  </si>
+  <si>
+    <t>freshnessValue</t>
+  </si>
+  <si>
+    <r>
+      <t>if (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;IsAnyCounterMessage) {
+    DSBUSCUSTOMCODE_TRY_S(fD, UserCodeForCntMsgs_IdentifyProperTxFreshness(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>, &amp;freshnessValue));
+}
+else {
+    DSBUSCUSTOMCODE_TRY_S(fD, UserCode_IdentifyProperTxFreshness(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>, &amp;freshnessValue));
+}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>UserCodeForCntMsgs_WriteTxFreshnessValueToPduData
+_____________________________________________________________
+if (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;IsCounterMessage)
+    SecOCCounterMessageWriteTxFreshnessValueToPduData(userDefsOfSecOCCounterMsgs,counterValue, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;AuthenticIPdu_SduDataPtr);
+else if (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;IsCounterResponseMessage)
+    SecOCCounterResponseMessageWriteTxFreshnessValueToPduData(userDefsOfSecOCCounterMsgs,counterValue, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;AuthenticIPdu_SduDataPtr);
+UserCode_WriteTxFreshnessValueToPduData(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, freshnessValue)
+_____________________________________________________________
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">// Use local variable copies to avoid problems due to different internal and SecOC freshness length </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">       
+uint64 freshnessValue_BE = USER_CODE_INT64_TO_BE((uint64)freshnVal);
+uint32 freshnessSourceStartPos = sizeof(uint64) * 8 - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;FreshnessValTruncatedLength;
+uint8* freshnessSourcePtr = (uint8*)&amp;freshnessValue_BE;
+CopyBitsBE(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;SecuredIPdu_SduDataPtr, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;FreshnessValuePosition,
+                              freshnessSourcePtr, freshnessSourceStartPos, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;FreshnessValTruncatedLength);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>if (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;IsAnyCounterMessage)
+    UserCodeForCntMsgs_WriteTxFreshnessValueToPduData(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>, freshnessValue);
+else
+    UserCode_WriteTxFreshnessValueToPduData(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>, freshnessValue);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>DsBusCustomCode_onPduFeatureExecutionPrivateTxAuthenticationHandling(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>UserCode_FeatureData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> *</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>UserCode_CopyAuthPduDataToSecuredPduData(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>)
+_____________________________________________________________
+memcpy(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;SecuredIPdu_SduDataPtr + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;AuthPduHeaderLength,
+       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;AuthenticIPdu_SduDataPtr,
+       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;AuthenticIPdu_ActualSduLength);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>if (!IsSecOCKeyIdValid(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;SecuredIPdu_KeyId)
+    &amp;&amp; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;IsAnyCounterMessage &amp;&amp; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;IsRx) {
+    //For Rx-CounterMessages authentication check is skipped if key is not available
+    //nevertheless key-availability-check is "ok"
+    return E_OK;
+}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>DsBusCustomCode_collectStaticPduPropertiesDuringRuntime is called in SecOCMainSetupSFunc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+DsBusCustomCode_collectStaticPduPropertiesDuringRuntime(UserCode_FeatureData *</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>)
+_____________________________________________________________
+DsBusCustomCode_collectStaticPduPropertiesDuringRuntimeEx(UserCode_FeatureData *</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">)
+_____________________________________________________________
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>PduPropertiesContainer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>*)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>PduPropertiesContainer(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatureHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">DsBusCustomCodeSecuredIPdu_getFreshnessValueLength(securedIPdu_PduHandle, &amp;freshnessValueLength)
+DsBusCustomCodeSecuredIPdu_getFreshnessValueTxLength(securedIPdu_PduHandle, &amp;freshnessValueTxLength)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+DsBusCustomCodeSecuredIPdu_getKeyId(securedIPdu_PduHandle, &amp;keyId)
+DsBusCustomCodeSecuredIPdu_getDataId(securedIPdu_PduHandle, &amp;dataId)
+_UserCode_Csm_Init
+_____________________________________________________________</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SecOCMainSetupSFunc
+FreshnessValLength(CounterMessage) 
+CSM</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>CounterMessage</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+KeyID
+DataID</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DsBusCustomCode_collectStaticPduProperties(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>)
+DsBusCustomCode_collectStaticPduPropertiesEx(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">)
+_____________________________________________________________
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Cluster-Infos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+DsBusCustomCode_createClusterAgent(pduFeatData)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>ECU-Infos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+GetPropertiesForEcu(pduProps-&gt;PduFeatureHandle, &amp;ecuHandle, &amp;ecuName)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Secured IPDU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+DsBusCustomCodePduFeature_getPdu(pduProps-&gt;PduFeatureHandle, &amp;securedIPdu_PduHandle)
+DsBusCustomCode_getName(securedIPdu_PduHandle, &amp;securedIPdu_Name)
+DsBusCustomCodePdu_getIsTx(securedIPdu_PduHandle, &amp;isTx)
+DsBusCustomCodePdu_getSduLength(securedIPdu_PduHandle, &amp;securedIPdu_SduLength)
+DsBusCustomCodeSecuredIPdu_getDataId(securedIPdu_PduHandle, &amp;dataId)
+DsBusCustomCodeSecuredIPdu_getAuthInfoTxLength(securedIPdu_PduHandle,&amp;authInfoTxLength)
+IdentifyPropertiesForSplitUpCryptoPdu(pduFeatData, &amp;useAsCryptographicPdu,&amp;messageLinkLength, &amp;messageLinkPosition)
+DsBusCustomCodeSecuredIPdu_getAuthPduHeaderLength(securedIPdu_PduHandle, &amp;authPduHeaderLength)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Authentic PDU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+DsBusCustomCodeSecuredIPdu_getAuthenticPdu(securedIPdu_PduHandle, &amp;authenticIPdu_PduHandle)
+DsBusCustomCodePdu_getSduLength(authenticIPdu_PduHandle, &amp;authenticIPdu_SduLength)
+DsBusCustomCode_getName(authenticIPdu_PduHandle, &amp;authenticIPdu_Name)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>DsBusCustomCode_collectStaticPduPropertiesDuringRuntime is called in SecOCMainSetupSFunc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+DsBusCustomCode_collectStaticPduPropertiesDuringRuntime(UserCode_FeatureData *</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>)
+_____________________________________________________________
+DsBusCustomCode_collectStaticPduPropertiesDuringRuntimeEx(UserCode_FeatureData *</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">)
+_____________________________________________________________
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>PduPropertiesContainer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>*)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>PduPropertiesContainer(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatureHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>if (!pduProps-&gt;IsAnyCounterMessage)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">DsBusCustomCodeSecuredIPdu_getFreshnessValueLength(securedIPdu_PduHandle, &amp;freshnessValueLength)
+DsBusCustomCodeSecuredIPdu_getFreshnessValueTxLength(securedIPdu_PduHandle, &amp;freshnessValueTxLength)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">else
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>//CntMsg FreshnessVaLength is 0, not taken into account of MAC calculation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;FreshnessValLength = 0
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>if (!pduProps-&gt;IsAnyCounterMessage)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+DsBusCustomCodeSecuredIPdu_getKeyId(securedIPdu_PduHandle, &amp;keyId)
+DsBusCustomCodeSecuredIPdu_getDataId(securedIPdu_PduHandle, &amp;dataId)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">else
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>TBD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+_UserCode_Csm_Init
+_____________________________________________________________</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>IsAnyCounterMessage: UserCodeForCntMsgs_ReadFreshnessValueFromPduData(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>)
+!IsAnyCounterMessage: GetMasterCntValueGlobal()</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3177,7 +4449,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3338,6 +4610,30 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Cascadia Mono SemiLight"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Cascadia Mono SemiBold"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
       <name val="Cascadia Mono SemiLight"/>
       <family val="3"/>
     </font>
@@ -3511,7 +4807,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -3521,9 +4817,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -3576,6 +4869,12 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3591,8 +4890,8 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3916,183 +5215,217 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E38B81CE-79E3-4568-BB50-9E45BADB5D49}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="138.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="147.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="51.375" style="21" customWidth="1"/>
+    <col min="3" max="3" width="54.875" style="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
-        <v>4</v>
+      <c r="A1" s="14" t="s">
+        <v>3</v>
       </c>
       <c r="B1" s="3"/>
-      <c r="C1" s="18"/>
+      <c r="C1" s="17"/>
     </row>
     <row r="2" spans="1:3" ht="275.10000000000002" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>5</v>
+      <c r="C2" s="23" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="408.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
-        <v>3</v>
+      <c r="A3" s="13" t="s">
+        <v>2</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="23"/>
-    </row>
-    <row r="4" spans="1:3" ht="339.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>18</v>
+      <c r="C3" s="24"/>
+    </row>
+    <row r="4" spans="1:3" ht="339.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>37</v>
       </c>
-      <c r="C4" s="24"/>
+      <c r="B4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="25"/>
     </row>
     <row r="5" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
-        <v>8</v>
+      <c r="A5" s="15" t="s">
+        <v>7</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>14</v>
+      <c r="B5" s="13" t="s">
+        <v>12</v>
       </c>
-      <c r="C5" s="26" t="s">
-        <v>11</v>
+      <c r="C5" s="27" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="270" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="24"/>
+    </row>
+    <row r="7" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="25"/>
+    </row>
+    <row r="8" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="16"/>
+    </row>
+    <row r="9" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="17"/>
+    </row>
+    <row r="10" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="17"/>
+    </row>
+    <row r="11" spans="1:3" ht="370.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="240" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="23"/>
-    </row>
-    <row r="7" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="24"/>
-    </row>
-    <row r="8" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="17"/>
-    </row>
-    <row r="9" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="18"/>
-    </row>
-    <row r="10" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="18"/>
-    </row>
-    <row r="11" spans="1:3" ht="240" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="22"/>
-    </row>
-    <row r="12" spans="1:3" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>20</v>
+      <c r="B12" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="C12" s="23"/>
     </row>
-    <row r="13" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="8"/>
+    <row r="13" spans="1:3" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>34</v>
+      </c>
       <c r="C13" s="24"/>
     </row>
     <row r="14" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="25"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="7"/>
       <c r="C14" s="25"/>
     </row>
     <row r="15" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="19"/>
+      <c r="A15" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
     </row>
     <row r="16" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="19"/>
+      <c r="A16" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="17"/>
     </row>
-    <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="22"/>
+    <row r="17" spans="1:3" ht="270.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="24"/>
+    <row r="18" spans="1:3" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="18" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="22"/>
+    <row r="19" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
-      <c r="B20" s="5"/>
+    <row r="20" spans="1:3" ht="294" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="C20" s="24"/>
     </row>
-    <row r="21" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="19"/>
+    <row r="21" spans="1:3" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="22"/>
     </row>
     <row r="22" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="12" t="s">
-        <v>1</v>
+      <c r="A22" s="5"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="18"/>
+    </row>
+    <row r="23" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="11" t="s">
+        <v>0</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="20"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="C2:C4"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C5:C7"/>
     <mergeCell ref="C19:C20"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C5:C7"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4104,8 +5437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48426D71-A9D2-4765-8952-428E08E6A5AA}">
   <dimension ref="A7:B9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4114,24 +5447,24 @@
     <col min="2" max="2" width="147.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:2" ht="189.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
-        <v>22</v>
+    <row r="7" spans="1:2" ht="300" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>35</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>21</v>
+      <c r="B7" s="13" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="360" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
-        <v>25</v>
+      <c r="A8" s="13" t="s">
+        <v>20</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>16</v>
+      <c r="B8" s="13" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="27"/>
+      <c r="A9" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/BMW_SecOc.xlsx
+++ b/BMW_SecOc.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_XuhuaRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA15C41F-5086-48CD-94DF-A9B654007CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1AA8C2-FB92-4707-8729-198CC3CF9D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-8640" windowWidth="38640" windowHeight="21240" xr2:uid="{EE3554E5-5B85-4F6F-95D2-24E55C4E92D2}"/>
   </bookViews>
   <sheets>
     <sheet name="BMW" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="UserCode_Csm_InitKey" sheetId="3" r:id="rId2"/>
+    <sheet name="ReadFreshnessValueFromPduData" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Part 3: RX secured IPDU</t>
   </si>
@@ -2322,367 +2323,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">Already been set in OnApplicationInit. For </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>CounterMsg-PDUs</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> freshnessLength is unknown, hence Crypto-job can not yet been initialized.
-Second call is done in DsBusCustomCode_collectStaticPduPropertiesDuringRuntime()
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-UserCode_Csm_Init_AtRuntime(pduProps-&gt;PduFeatureHandle)
-_UserCode_Csm_Init(DsBusCustomCodePduFeatureHandle pduFeatureHandle, boolean atRuntime), atRuntime = TRUE
-_____________________________________________________________
-DsBusCustomCodePduFeature_getFeatureDataPtr(pduFeatureHandle, &amp;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatDataPtr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> = (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>UserCode_FeatureData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>*)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatDataPtr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">; 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> = (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>PduPropertiesContainer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>*)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>PduPropertiesContainer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>;
-DsBusCustomCodeSecuredIPdu_getFreshnessValueLength(securedIPdu_PduHandle, &amp;freshnessValueLength)
-dataToAuthentictatorLenInBytes = sizeof(uint16) + authenticIPdu_SduLength + (freshnessValueLength + 7) / 8
-UserCode_SecOCHelper_Create_CryptoJob_For_CMAC_AES_128_Authentication(&amp;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>CsmJobHandle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">,dataToAuthentictatorLenInBytes)
-_____________________________________________________________
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>Crypto_Job</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>UserCode_CryptoJob_Register(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>Crypto_Job</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>, &amp;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>csmJobHandle</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, &amp;jobIdInternal)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>CsmJobHandle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> = </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>csmJobHandle</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>TX secured IPDU</t>
   </si>
   <si>
@@ -3205,395 +2845,6 @@
   </si>
   <si>
     <r>
-      <t>if (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;IsAnyCounterMessage) {
-    DSBUSCUSTOMCODE_TRY_S(fD, UserCodeForCntMsgs_IdentifyProperTxFreshness(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>, &amp;freshnessValue));
-}
-else {
-    DSBUSCUSTOMCODE_TRY_S(fD, UserCode_IdentifyProperTxFreshness(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>, &amp;freshnessValue));
-}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>UserCodeForCntMsgs_WriteTxFreshnessValueToPduData
-_____________________________________________________________
-if (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;IsCounterMessage)
-    SecOCCounterMessageWriteTxFreshnessValueToPduData(userDefsOfSecOCCounterMsgs,counterValue, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;AuthenticIPdu_SduDataPtr);
-else if (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;IsCounterResponseMessage)
-    SecOCCounterResponseMessageWriteTxFreshnessValueToPduData(userDefsOfSecOCCounterMsgs,counterValue, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;AuthenticIPdu_SduDataPtr);
-UserCode_WriteTxFreshnessValueToPduData(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, freshnessValue)
-_____________________________________________________________
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">// Use local variable copies to avoid problems due to different internal and SecOC freshness length </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">       
-uint64 freshnessValue_BE = USER_CODE_INT64_TO_BE((uint64)freshnVal);
-uint32 freshnessSourceStartPos = sizeof(uint64) * 8 - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;FreshnessValTruncatedLength;
-uint8* freshnessSourcePtr = (uint8*)&amp;freshnessValue_BE;
-CopyBitsBE(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;SecuredIPdu_SduDataPtr, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;FreshnessValuePosition,
-                              freshnessSourcePtr, freshnessSourceStartPos, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;FreshnessValTruncatedLength);</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>if (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;IsAnyCounterMessage)
-    UserCodeForCntMsgs_WriteTxFreshnessValueToPduData(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>, freshnessValue);
-else
-    UserCode_WriteTxFreshnessValueToPduData(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>, freshnessValue);</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>DsBusCustomCode_onPduFeatureExecutionPrivateTxAuthenticationHandling(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>UserCode_FeatureData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> *</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>UserCode_CopyAuthPduDataToSecuredPduData(</t>
     </r>
     <r>
@@ -3762,181 +3013,6 @@
     return E_OK;
 }</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>DsBusCustomCode_collectStaticPduPropertiesDuringRuntime is called in SecOCMainSetupSFunc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-DsBusCustomCode_collectStaticPduPropertiesDuringRuntime(UserCode_FeatureData *</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>)
-_____________________________________________________________
-DsBusCustomCode_collectStaticPduPropertiesDuringRuntimeEx(UserCode_FeatureData *</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">)
-_____________________________________________________________
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> = (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>PduPropertiesContainer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>*)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>PduPropertiesContainer(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatureHandle</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">DsBusCustomCodeSecuredIPdu_getFreshnessValueLength(securedIPdu_PduHandle, &amp;freshnessValueLength)
-DsBusCustomCodeSecuredIPdu_getFreshnessValueTxLength(securedIPdu_PduHandle, &amp;freshnessValueTxLength)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-DsBusCustomCodeSecuredIPdu_getKeyId(securedIPdu_PduHandle, &amp;keyId)
-DsBusCustomCodeSecuredIPdu_getDataId(securedIPdu_PduHandle, &amp;dataId)
-_UserCode_Csm_Init
-_____________________________________________________________</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4133,6 +3209,1718 @@
     <r>
       <rPr>
         <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>IsAnyCounterMessage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>: UserCodeForCntMsgs_ReadFreshnessValueFromPduData(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">)
+_____________________________________________________________
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>IsCounterMessage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) 
+freshnessVal = SecOCCounterMessageReadFreshnessValueFromPduData(userDefsOfSecOCCounterMsgs, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;AuthenticIPdu_SduDataPtr)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">else if </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>IsCounterResponseMessage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>)
+freshnessVal = SecOCCounterResponseMessageReadFreshnessValueFromPduData(userDefsOfSecOCCounterMsgs,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;AuthenticIPdu_SduDataPtr)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>!IsAnyCounterMessage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>: GetMasterCntValueGlobal() / GetClientCounterValue(clientCntMgInstance)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>if (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;IsAnyCounterMessage)
+DSBUSCUSTOMCODE_TRY_S(fD, UserCodeForCntMsgs_IdentifyProperTxFreshness(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>, &amp;freshnessValue));
+else
+DSBUSCUSTOMCODE_TRY_S(fD, UserCode_IdentifyProperTxFreshness(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>, &amp;freshnessValue));
+DsBusCustomCodeSecOCTxPduFeature_setCalculatedFreshnessValue(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;PduFeatureHandle,freshnessValue)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">SecOCCounterMessageReadFreshnessValueFromPduData(UserDefsOfSecOCCounterMsgsStruct *userDefsOfSecOCCounterMsgs,  uint8 *authPduDataPtr) </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> uint32 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bitLength</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = userDefsOfSecOCCounterMsgs-&gt;SecOCCounterSignalBitLength;
+ uint32 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bitPosition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = userDefsOfSecOCCounterMsgs-&gt;SecOCCounterMessageSignalCounterBitPosition;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ReadBitsLE_Max64Bits(authPduDataPtr, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bitPosition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bitLength</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>CopyBitsLE_Max64Bits(uint8 *destPtr, uint32 destStartBit,
+                                               uint8 *sourcePtr, uint32 sourceStartBit, uint32 bitCount)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CopyBitsLE_Max64Bits((uint8*)&amp;readValue, 0, 
+                                                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>authPduDataPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bitPosition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bitLength</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>_CommonReadValueFromPduData(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>authPduDataPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bitPosition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bitLength</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>authPduDataPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> += (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bitPosition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / 8);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sourceStartBit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> %= 8;
+uint64 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sourceVal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = *(uint64*)(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>authPduDataPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">//adapt &amp;readValue and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>authPduDataPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> positioning
+//move </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>authPduDataPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to targetPosition</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">//move </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp;readValue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to targetPosition</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp;readValue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> += (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bitPosition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / 8);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bitPosition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> %= 8;
+uint64 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>destVal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = *(uint64*)(&amp;readValue);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">keyValue
+keyLength
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatureHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.SecOCPduFeature.KeyPtr = KeyPtr
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatureHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.SecOCPduFeature.KeyPtr = KeyLength
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>CsmJobHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_Job</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;jobPrimitiveInfo-&gt;cryIfKeyId = keyId</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CsmInitKeysForAllSecOCMsgs
+_____________________________________________________________
+for (unsigned int i = 0; i &lt; filteredSecOCMsgs-&gt;itemCount; i++) {
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = (UserCode_FeatureData *)GetById(filteredSecOCMsgs, i);
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>UserCode_Csm_InitKey</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">);
+}
+_________________________________
+uint32 keyId = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;SecuredIPdu_KeyId
+char *keyAsString = GetKeyAsString(keyId)
+UserCode_ConvertHexInStringToInt(keyAsString, &amp;keyPtr, &amp;keyLength)) 
+DsBusCustomCodeSecOCPduFeature_setKeyPtr(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatureHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>, keyPtr)); 
+DsBusCustomCodeSecOCPduFeature_setKeyLength(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatureHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>, keyLength));
+UserCode_Csm_KeyElementSet(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>CsmJobHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, keyId, keyPtr, keyLength));
+_________________________________
+Ds_CMAC_Init(keyPtr, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>CsmJobHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;CTX_Handle);</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;key keyID="1"&gt;3152FC49CF515C187782D7EEB100B18E&lt;/key&gt;
+&lt;key keyID="2"&gt;0BB884DAC7B84EA4C284D768AFDCC4C7&lt;/key&gt;
+&lt;key keyID="3"&gt;00A270BD3B2D09BF9B9BA52F895095EE&lt;/key&gt;
+&lt;key keyID="4"&gt;D873C3B33DC642AB960AE01AE655EC22&lt;/key&gt;
+&lt;key keyID="5"&gt;0009CD997E611B966AD38F95A4C8531C&lt;/key&gt;
+&lt;key keyID="6"&gt;07CA047246FB3ABD47A4F9B4E08A5477&lt;/key&gt;
+&lt;key keyID="7"&gt;0ED52DF8ED85EE359B8F1FD821311490&lt;/key&gt;
+&lt;key keyID="8"&gt;06705EFA516B6611E0AE5B7D4ABD47EF&lt;/key&gt;
+&lt;key keyID="9"&gt;9885FD8FDD0E395CDE53F197B00B66E3&lt;/key&gt;
+&lt;key keyID="10"&gt;97A77606B8F0C00C6853406380EE46C8&lt;/key&gt;
+&lt;key keyID="11"&gt;7F47471EA2A59FE4530A382653FFB3EE&lt;/key&gt;
+&lt;key keyID="12"&gt;DCD1781EA2DA4E29B6D9CF2A4C036D0A&lt;/key&gt;
+&lt;key keyID="13"&gt;1467C1427143D4726555C7F9C4109AAF&lt;/key&gt;
+&lt;key keyID="14"&gt;577DC1EF4F30C7FDB9BC5403DA3DA53D&lt;/key&gt;
+&lt;key keyID="15"&gt;5DF432E866B06DB0F625D2936D94EFB3&lt;/key&gt;
+&lt;key keyID="16"&gt;0A6B8EF42A8F33FFF9A96652E8C22F09&lt;/key&gt;
+&lt;key keyID="17"&gt;00E56DEFECFDF2B078B24874730A4D2C&lt;/key&gt;
+&lt;key keyID="18"&gt;F5D76E02717C5A6963BA4EDA69365120&lt;/key&gt;
+&lt;key keyID="19"&gt;8E74E32F27FACC867A7130C2E6E7BC11&lt;/key&gt;
+&lt;key keyID="20"&gt;4104802C5CFC447F108D76506E564C8B&lt;/key&gt;
+&lt;key keyID="21"&gt;0FFCE2DA74458B08388E4B87AA69F7C3&lt;/key&gt;
+&lt;key keyID="22"&gt;AFDC889956D9B753B76D8B217A58F8F6&lt;/key&gt;
+&lt;key keyID="23"&gt;6ACC18128BB0C7D8D21A1F2249CDCA66&lt;/key&gt;
+&lt;key keyID="24"&gt;759826FC3D22DD3BA69965C0CF4355C8&lt;/key&gt;
+&lt;key keyID="25"&gt;098A3B7A43545CB6BBEBAC2A65A64BD2&lt;/key&gt;
+&lt;key keyID="26"&gt;00D8FC4F55CAFFB139D8C56FF3BC2B56&lt;/key&gt;
+&lt;key keyID="144"&gt;82FEA86D2302352868FD21BD6C48DC1D&lt;/key&gt;
+&lt;key keyID="28"&gt;0915A7E7A494375509060745751CD2F1&lt;/key&gt;
+&lt;key keyID="29"&gt;22884D4A468A71F1A04D90618381F3F6&lt;/key&gt;
+&lt;key keyID="30"&gt;CE6AB6CFCAACAE652B323B15D1B58E38&lt;/key&gt;
+&lt;key keyID="31"&gt;006343EB0C8FBFCEEBC5D81528502D22&lt;/key&gt;
+&lt;key keyID="32"&gt;599CCF8DEBD836C7B96DC86D31243F53&lt;/key&gt;
+&lt;key keyID="33"&gt;4E27775CED1460F5218B1548CDDCC400&lt;/key&gt;
+&lt;key keyID="34"&gt;0E1E5355FF078EE94A72FA1D97061CBD&lt;/key&gt;
+&lt;key keyID="35"&gt;04FCBB76251789096832C9E6A3F5C29F&lt;/key&gt;
+&lt;key keyID="36"&gt;018EDFB66FBF87CDC8B6DED78076B06A&lt;/key&gt;
+&lt;key keyID="37"&gt;0FF061014464869FB039B64C5409DDBF&lt;/key&gt;
+&lt;key keyID="38"&gt;140E4596AB03936969876B157FD4526E&lt;/key&gt;
+&lt;key keyID="50"&gt;06DD741B51E1A2A6EBFDFED3F3048E3E&lt;/key&gt;
+&lt;key keyID="24268"&gt;B63779C8E5F226CBDD3AD529430A8E80&lt;/key&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TransmitKeys(SimStruct *S)
+_____________________________________________________________
+ InputUInt32PtrsType inEncryptKeyIdsPtr = \
+     (InputUInt32PtrsType)ssGetInputPortSignalPtrs(S, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>I_ENCRYPT_KEY_IDS_PORT_ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">);
+ InputUInt8PtrsType inEncryptKeyStringsPtr = \
+     (InputUInt8PtrsType)ssGetInputPortSignalPtrs(S, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>I_ENCRYPT_KEY_STRINGS_PORT_ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">);
+InitKeysStruct()
+for (iChar = 0; iChar &lt; MAX_KEY_STRING_LENGTH; iChar++)
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>encryptKeyString</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">[iChar] = (char)(*inEncryptKeyStringsPtr[iRow + iChar * NUMBER_KEYS]);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>encryptKeyId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = (int)(*inEncryptKeyIdsPtr[iRow]);
+SetKey(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>encryptKeyId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>encryptKeyString</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">#define I_CONFIRM_KEY_TRANSMISSION_PORT_ID                    0
+#define </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>I_ENCRYPT_KEY_IDS_PORT_ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">                             1
+#define </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>I_ENCRYPT_KEY_STRINGS_PORT_ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">                         2
+#define I_GLOBAL_ENABLE_RX_MAC_VERIFICATION_PORT_ID           3
+#define I_DEBUG_SKIP_ON_PDU_FEATURE_EXEC_PORT_ID              4
+#define I_DEBUG_ALWAYS_RETURN_RX_VERIFCATION_SUCCESS_PORT_ID  5
+#define I_BIT_COUNTING_POLICY_MONTONE_ID                      6
+#define I_DATA_KEY_ID_PAIRS_DATA_ID                           7
+#define I_DATA_KEY_ID_PAIRS_KEY_ID                            8
+uint32 keyId;
+char </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>keyAsString</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">[MAX_KEY_STRING_LENGTH];
+unsigned int keyIsSet;
+} </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>KeyProperties</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>if (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;IsAnyCounterMessage)
+    UserCodeForCntMsgs_WriteTxFreshnessValueToPduData(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>, freshnessValue);
+else
+    UserCode_WriteTxFreshnessValueToPduData(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, freshnessValue);
+</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UserCodeForCntMsgs_WriteTxFreshnessValueToPduData
+_____________________________________________________________
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>if (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;IsCounterMessage)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+    SecOCCounterMessageWriteTxFreshnessValueToPduData(userDefsOfSecOCCounterMsgs,counterValue, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;AuthenticIPdu_SduDataPtr);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>else if (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;IsCounterResponseMessage)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+    SecOCCounterResponseMessageWriteTxFreshnessValueToPduData(userDefsOfSecOCCounterMsgs,counterValue, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;AuthenticIPdu_SduDataPtr);
+UserCode_WriteTxFreshnessValueToPduData(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, freshnessValue)
+_____________________________________________________________
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">// Use local variable copies to avoid problems due to different internal and SecOC freshness length </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">       
+uint64 freshnessValue_BE = USER_CODE_INT64_TO_BE((uint64)freshnVal);
+uint32 freshnessSourceStartPos = sizeof(uint64) * 8 - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;FreshnessValTruncatedLength;
+uint8* freshnessSourcePtr = (uint8*)&amp;freshnessValue_BE;
+CopyBitsBE(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;SecuredIPdu_SduDataPtr, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;FreshnessValuePosition, freshnessSourcePtr, freshnessSourceStartPos, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;FreshnessValTruncatedLength);</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DsBusCustomCode_onPduFeatureExecutionPrivateTxAuthenticationHandling(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>UserCode_FeatureData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> *</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <i/>
         <sz val="11"/>
         <color theme="1"/>
@@ -4360,87 +5148,21 @@
         <family val="3"/>
       </rPr>
       <t xml:space="preserve">-&gt;FreshnessValLength = 0
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>if (!pduProps-&gt;IsAnyCounterMessage)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
 DsBusCustomCodeSecuredIPdu_getKeyId(securedIPdu_PduHandle, &amp;keyId)
 DsBusCustomCodeSecuredIPdu_getDataId(securedIPdu_PduHandle, &amp;dataId)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">else
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>TBD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
 _UserCode_Csm_Init
-_____________________________________________________________</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>IsAnyCounterMessage: UserCodeForCntMsgs_ReadFreshnessValueFromPduData(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>)
-!IsAnyCounterMessage: GetMasterCntValueGlobal()</t>
+_____________________________________________________________
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>//Already been set in OnApplicationInit. For CounterMsg-PDUs freshnessLength is unknown, hence Crypto-job can not yet been initialized.Second call is done in DsBusCustomCode_collectStaticPduPropertiesDuringRuntime()</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -4607,15 +5329,6 @@
     <font>
       <b/>
       <i/>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Cascadia Mono SemiLight"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
       <sz val="15"/>
       <color theme="1"/>
       <name val="Cascadia Mono SemiBold"/>
@@ -4631,11 +5344,19 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF7030A0"/>
-      <name val="Cascadia Mono SemiLight"/>
-      <family val="3"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -4807,7 +5528,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -4875,6 +5596,15 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4888,9 +5618,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4916,6 +5643,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1657</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30D3034E-A80A-1469-59C5-5F51DEE0B656}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21821055" y="1072563"/>
+          <a:ext cx="6196052" cy="3800451"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5217,7 +5993,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E38B81CE-79E3-4568-BB50-9E45BADB5D49}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -5242,7 +6018,7 @@
       <c r="B2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="26" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5253,16 +6029,16 @@
       <c r="B3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="24"/>
+      <c r="C3" s="27"/>
     </row>
     <row r="4" spans="1:3" ht="339.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="25"/>
+      <c r="C4" s="28"/>
     </row>
     <row r="5" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
@@ -5271,7 +6047,7 @@
       <c r="B5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="30" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5282,7 +6058,7 @@
       <c r="B6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="24"/>
+      <c r="C6" s="27"/>
     </row>
     <row r="7" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
@@ -5291,7 +6067,7 @@
       <c r="B7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="25"/>
+      <c r="C7" s="28"/>
     </row>
     <row r="8" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
@@ -5312,97 +6088,97 @@
       <c r="B10" s="10"/>
       <c r="C10" s="17"/>
     </row>
-    <row r="11" spans="1:3" ht="370.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="360" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="28" t="s">
-        <v>36</v>
+      <c r="C11" s="23" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="240" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="23"/>
+      <c r="C12" s="26"/>
     </row>
     <row r="13" spans="1:3" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
-      <c r="C13" s="24"/>
+      <c r="C13" s="27"/>
     </row>
     <row r="14" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="7"/>
-      <c r="C14" s="25"/>
+      <c r="C14" s="28"/>
     </row>
     <row r="15" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="26" t="s">
-        <v>21</v>
+      <c r="A15" s="29" t="s">
+        <v>20</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
     </row>
     <row r="16" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="17"/>
     </row>
     <row r="17" spans="1:3" ht="270.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="C17" s="18" t="s">
         <v>25</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="150" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
-      <c r="C19" s="23" t="s">
-        <v>28</v>
+      <c r="C19" s="26" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="294" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
-      <c r="C20" s="24"/>
+      <c r="C20" s="27"/>
     </row>
     <row r="21" spans="1:3" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="22"/>
@@ -5435,36 +6211,107 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48426D71-A9D2-4765-8952-428E08E6A5AA}">
-  <dimension ref="A7:B9"/>
+  <dimension ref="A7:M9"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="138.5" customWidth="1"/>
     <col min="2" max="2" width="147.5" customWidth="1"/>
+    <col min="13" max="13" width="58.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:2" ht="300" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="300" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="M7" s="21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="289.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBEB009D-8109-40EB-910F-58A5C0FAB48B}">
+  <dimension ref="B3:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="106.25" style="25" customWidth="1"/>
+    <col min="3" max="3" width="58.375" style="25" customWidth="1"/>
+    <col min="4" max="4" width="47.625" style="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B4" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>18</v>
+    </row>
+    <row r="5" spans="2:4" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="25" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="360" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>14</v>
+    <row r="6" spans="2:4" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="24" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="21"/>
+    <row r="7" spans="2:4" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B10" s="24"/>
+      <c r="C10" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/BMW_SecOc.xlsx
+++ b/BMW_SecOc.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_XuhuaRepo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DspaceDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1AA8C2-FB92-4707-8729-198CC3CF9D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA56686-1704-4D5D-A37B-D0DA9EAB55F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-8640" windowWidth="38640" windowHeight="21240" xr2:uid="{EE3554E5-5B85-4F6F-95D2-24E55C4E92D2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EE3554E5-5B85-4F6F-95D2-24E55C4E92D2}"/>
   </bookViews>
   <sheets>
     <sheet name="BMW" sheetId="2" r:id="rId1"/>
-    <sheet name="UserCode_Csm_InitKey" sheetId="3" r:id="rId2"/>
-    <sheet name="ReadFreshnessValueFromPduData" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
   <si>
     <t>Part 3: RX secured IPDU</t>
   </si>
@@ -1854,7 +1854,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2008,6 +2008,367 @@
   <si>
     <r>
       <t>_UserCode_Csm_Init(DsBusCustomCodePduFeatureHandle pduFeatureHandle, boolean atRuntime), atRuntime = FALSE
+_____________________________________________________________
+DsBusCustomCodePduFeature_getFeatureDataPtr(pduFeatureHandle, &amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatDataPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>UserCode_FeatureData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>*)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatDataPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">; 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>PduPropertiesContainer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>*)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>PduPropertiesContainer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>;
+DsBusCustomCodeSecuredIPdu_getFreshnessValueLength(securedIPdu_PduHandle, &amp;freshnessValueLength)
+dataToAuthentictatorLenInBytes = sizeof(uint16) + authenticIPdu_SduLength + (freshnessValueLength + 7) / 8
+UserCode_SecOCHelper_Create_CryptoJob_For_CMAC_AES_128_Authentication(&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>CsmJobHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">,dataToAuthentictatorLenInBytes)
+_____________________________________________________________
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_Job</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>UserCode_CryptoJob_Register(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_Job</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>, &amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>csmJobHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, &amp;jobIdInternal)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>CsmJobHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>csmJobHandle</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Already been set in OnApplicationInit. For </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>CounterMsg-PDUs</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> freshnessLength is unknown, hence Crypto-job can not yet been initialized.
+Second call is done in DsBusCustomCode_collectStaticPduPropertiesDuringRuntime()
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+UserCode_Csm_Init_AtRuntime(pduProps-&gt;PduFeatureHandle)
+_UserCode_Csm_Init(DsBusCustomCodePduFeatureHandle pduFeatureHandle, boolean atRuntime), atRuntime = TRUE
 _____________________________________________________________
 DsBusCustomCodePduFeature_getFeatureDataPtr(pduFeatureHandle, &amp;</t>
     </r>
@@ -2534,7 +2895,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2845,6 +3206,346 @@
   </si>
   <si>
     <r>
+      <t>if (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;IsAnyCounterMessage) {
+    DSBUSCUSTOMCODE_TRY_S(fD, UserCodeForCntMsgs_IdentifyProperTxFreshness(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>, &amp;freshnessValue));
+}
+else {
+    DSBUSCUSTOMCODE_TRY_S(fD, UserCode_IdentifyProperTxFreshness(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>, &amp;freshnessValue));
+}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>UserCodeForCntMsgs_WriteTxFreshnessValueToPduData
+_____________________________________________________________
+if (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;IsCounterMessage)
+    SecOCCounterMessageWriteTxFreshnessValueToPduData(userDefsOfSecOCCounterMsgs,counterValue, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;AuthenticIPdu_SduDataPtr);
+else if (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;IsCounterResponseMessage)
+    SecOCCounterResponseMessageWriteTxFreshnessValueToPduData(userDefsOfSecOCCounterMsgs,counterValue, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;AuthenticIPdu_SduDataPtr);
+UserCode_WriteTxFreshnessValueToPduData(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, freshnessValue)
+_____________________________________________________________
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">// Use local variable copies to avoid problems due to different internal and SecOC freshness length </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">       
+uint64 freshnessValue_BE = USER_CODE_INT64_TO_BE((uint64)freshnVal);
+uint32 freshnessSourceStartPos = sizeof(uint64) * 8 - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;FreshnessValTruncatedLength;
+uint8* freshnessSourcePtr = (uint8*)&amp;freshnessValue_BE;
+CopyBitsBE(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;SecuredIPdu_SduDataPtr, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;FreshnessValuePosition,
+                              freshnessSourcePtr, freshnessSourceStartPos, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;FreshnessValTruncatedLength);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>if (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;IsAnyCounterMessage)
+    UserCodeForCntMsgs_WriteTxFreshnessValueToPduData(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>, freshnessValue);
+else
+    UserCode_WriteTxFreshnessValueToPduData(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>, freshnessValue);</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>UserCode_CopyAuthPduDataToSecuredPduData(</t>
     </r>
     <r>
@@ -3013,6 +3714,181 @@
     return E_OK;
 }</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>DsBusCustomCode_collectStaticPduPropertiesDuringRuntime is called in SecOCMainSetupSFunc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+DsBusCustomCode_collectStaticPduPropertiesDuringRuntime(UserCode_FeatureData *</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>)
+_____________________________________________________________
+DsBusCustomCode_collectStaticPduPropertiesDuringRuntimeEx(UserCode_FeatureData *</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">)
+_____________________________________________________________
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>PduPropertiesContainer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>*)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>PduPropertiesContainer(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatureHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">DsBusCustomCodeSecuredIPdu_getFreshnessValueLength(securedIPdu_PduHandle, &amp;freshnessValueLength)
+DsBusCustomCodeSecuredIPdu_getFreshnessValueTxLength(securedIPdu_PduHandle, &amp;freshnessValueTxLength)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+DsBusCustomCodeSecuredIPdu_getKeyId(securedIPdu_PduHandle, &amp;keyId)
+DsBusCustomCodeSecuredIPdu_getDataId(securedIPdu_PduHandle, &amp;dataId)
+_UserCode_Csm_Init
+_____________________________________________________________</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3207,23 +4083,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>IsAnyCounterMessage</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>: UserCodeForCntMsgs_ReadFreshnessValueFromPduData(</t>
+      <t>IsAnyCounterMessage: UserCodeForCntMsgs_ReadFreshnessValueFromPduData(</t>
     </r>
     <r>
       <rPr>
@@ -3242,1682 +4102,12 @@
         <rFont val="Cascadia Mono SemiLight"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve">)
-_____________________________________________________________
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>if</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>IsCounterMessage</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">) 
-freshnessVal = SecOCCounterMessageReadFreshnessValueFromPduData(userDefsOfSecOCCounterMsgs, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;AuthenticIPdu_SduDataPtr)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">else if </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>IsCounterResponseMessage</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
       <t>)
-freshnessVal = SecOCCounterResponseMessageReadFreshnessValueFromPduData(userDefsOfSecOCCounterMsgs,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;AuthenticIPdu_SduDataPtr)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>!IsAnyCounterMessage</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>: GetMasterCntValueGlobal() / GetClientCounterValue(clientCntMgInstance)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>if (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;IsAnyCounterMessage)
-DSBUSCUSTOMCODE_TRY_S(fD, UserCodeForCntMsgs_IdentifyProperTxFreshness(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>, &amp;freshnessValue));
-else
-DSBUSCUSTOMCODE_TRY_S(fD, UserCode_IdentifyProperTxFreshness(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>, &amp;freshnessValue));
-DsBusCustomCodeSecOCTxPduFeature_setCalculatedFreshnessValue(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;PduFeatureHandle,freshnessValue)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">SecOCCounterMessageReadFreshnessValueFromPduData(UserDefsOfSecOCCounterMsgsStruct *userDefsOfSecOCCounterMsgs,  uint8 *authPduDataPtr) </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> uint32 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>bitLength</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = userDefsOfSecOCCounterMsgs-&gt;SecOCCounterSignalBitLength;
- uint32 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>bitPosition</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = userDefsOfSecOCCounterMsgs-&gt;SecOCCounterMessageSignalCounterBitPosition;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ReadBitsLE_Max64Bits(authPduDataPtr, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>bitPosition</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>bitLength</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>CopyBitsLE_Max64Bits(uint8 *destPtr, uint32 destStartBit,
-                                               uint8 *sourcePtr, uint32 sourceStartBit, uint32 bitCount)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">CopyBitsLE_Max64Bits((uint8*)&amp;readValue, 0, 
-                                                </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>authPduDataPtr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>bitPosition</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>bitLength</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>_CommonReadValueFromPduData(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>authPduDataPtr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>bitPosition</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>bitLength</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>authPduDataPtr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> += (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>bitPosition</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> / 8);
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>sourceStartBit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> %= 8;
-uint64 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>sourceVal</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = *(uint64*)(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>authPduDataPtr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>);</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">//adapt &amp;readValue and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>authPduDataPtr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> positioning
-//move </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>authPduDataPtr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> to targetPosition</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">//move </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&amp;readValue</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> to targetPosition</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&amp;readValue</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> += (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>bitPosition</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> / 8);
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>bitPosition</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> %= 8;
-uint64 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>destVal</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = *(uint64*)(&amp;readValue);</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">keyValue
-keyLength
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatureHandle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">.SecOCPduFeature.KeyPtr = KeyPtr
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatureHandle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">.SecOCPduFeature.KeyPtr = KeyLength
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>CsmJobHandle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>Crypto_Job</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;jobPrimitiveInfo-&gt;cryIfKeyId = keyId</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">CsmInitKeysForAllSecOCMsgs
-_____________________________________________________________
-for (unsigned int i = 0; i &lt; filteredSecOCMsgs-&gt;itemCount; i++) {
-    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> = (UserCode_FeatureData *)GetById(filteredSecOCMsgs, i);
-    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>UserCode_Csm_InitKey</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">);
-}
-_________________________________
-uint32 keyId = </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;SecuredIPdu_KeyId
-char *keyAsString = GetKeyAsString(keyId)
-UserCode_ConvertHexInStringToInt(keyAsString, &amp;keyPtr, &amp;keyLength)) 
-DsBusCustomCodeSecOCPduFeature_setKeyPtr(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatureHandle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>, keyPtr)); 
-DsBusCustomCodeSecOCPduFeature_setKeyLength(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatureHandle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>, keyLength));
-UserCode_Csm_KeyElementSet(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>CsmJobHandle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, keyId, keyPtr, keyLength));
-_________________________________
-Ds_CMAC_Init(keyPtr, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>CsmJobHandle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;CTX_Handle);</t>
+!IsAnyCounterMessage: GetMasterCntValueGlobal()</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;key keyID="1"&gt;3152FC49CF515C187782D7EEB100B18E&lt;/key&gt;
-&lt;key keyID="2"&gt;0BB884DAC7B84EA4C284D768AFDCC4C7&lt;/key&gt;
-&lt;key keyID="3"&gt;00A270BD3B2D09BF9B9BA52F895095EE&lt;/key&gt;
-&lt;key keyID="4"&gt;D873C3B33DC642AB960AE01AE655EC22&lt;/key&gt;
-&lt;key keyID="5"&gt;0009CD997E611B966AD38F95A4C8531C&lt;/key&gt;
-&lt;key keyID="6"&gt;07CA047246FB3ABD47A4F9B4E08A5477&lt;/key&gt;
-&lt;key keyID="7"&gt;0ED52DF8ED85EE359B8F1FD821311490&lt;/key&gt;
-&lt;key keyID="8"&gt;06705EFA516B6611E0AE5B7D4ABD47EF&lt;/key&gt;
-&lt;key keyID="9"&gt;9885FD8FDD0E395CDE53F197B00B66E3&lt;/key&gt;
-&lt;key keyID="10"&gt;97A77606B8F0C00C6853406380EE46C8&lt;/key&gt;
-&lt;key keyID="11"&gt;7F47471EA2A59FE4530A382653FFB3EE&lt;/key&gt;
-&lt;key keyID="12"&gt;DCD1781EA2DA4E29B6D9CF2A4C036D0A&lt;/key&gt;
-&lt;key keyID="13"&gt;1467C1427143D4726555C7F9C4109AAF&lt;/key&gt;
-&lt;key keyID="14"&gt;577DC1EF4F30C7FDB9BC5403DA3DA53D&lt;/key&gt;
-&lt;key keyID="15"&gt;5DF432E866B06DB0F625D2936D94EFB3&lt;/key&gt;
-&lt;key keyID="16"&gt;0A6B8EF42A8F33FFF9A96652E8C22F09&lt;/key&gt;
-&lt;key keyID="17"&gt;00E56DEFECFDF2B078B24874730A4D2C&lt;/key&gt;
-&lt;key keyID="18"&gt;F5D76E02717C5A6963BA4EDA69365120&lt;/key&gt;
-&lt;key keyID="19"&gt;8E74E32F27FACC867A7130C2E6E7BC11&lt;/key&gt;
-&lt;key keyID="20"&gt;4104802C5CFC447F108D76506E564C8B&lt;/key&gt;
-&lt;key keyID="21"&gt;0FFCE2DA74458B08388E4B87AA69F7C3&lt;/key&gt;
-&lt;key keyID="22"&gt;AFDC889956D9B753B76D8B217A58F8F6&lt;/key&gt;
-&lt;key keyID="23"&gt;6ACC18128BB0C7D8D21A1F2249CDCA66&lt;/key&gt;
-&lt;key keyID="24"&gt;759826FC3D22DD3BA69965C0CF4355C8&lt;/key&gt;
-&lt;key keyID="25"&gt;098A3B7A43545CB6BBEBAC2A65A64BD2&lt;/key&gt;
-&lt;key keyID="26"&gt;00D8FC4F55CAFFB139D8C56FF3BC2B56&lt;/key&gt;
-&lt;key keyID="144"&gt;82FEA86D2302352868FD21BD6C48DC1D&lt;/key&gt;
-&lt;key keyID="28"&gt;0915A7E7A494375509060745751CD2F1&lt;/key&gt;
-&lt;key keyID="29"&gt;22884D4A468A71F1A04D90618381F3F6&lt;/key&gt;
-&lt;key keyID="30"&gt;CE6AB6CFCAACAE652B323B15D1B58E38&lt;/key&gt;
-&lt;key keyID="31"&gt;006343EB0C8FBFCEEBC5D81528502D22&lt;/key&gt;
-&lt;key keyID="32"&gt;599CCF8DEBD836C7B96DC86D31243F53&lt;/key&gt;
-&lt;key keyID="33"&gt;4E27775CED1460F5218B1548CDDCC400&lt;/key&gt;
-&lt;key keyID="34"&gt;0E1E5355FF078EE94A72FA1D97061CBD&lt;/key&gt;
-&lt;key keyID="35"&gt;04FCBB76251789096832C9E6A3F5C29F&lt;/key&gt;
-&lt;key keyID="36"&gt;018EDFB66FBF87CDC8B6DED78076B06A&lt;/key&gt;
-&lt;key keyID="37"&gt;0FF061014464869FB039B64C5409DDBF&lt;/key&gt;
-&lt;key keyID="38"&gt;140E4596AB03936969876B157FD4526E&lt;/key&gt;
-&lt;key keyID="50"&gt;06DD741B51E1A2A6EBFDFED3F3048E3E&lt;/key&gt;
-&lt;key keyID="24268"&gt;B63779C8E5F226CBDD3AD529430A8E80&lt;/key&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">TransmitKeys(SimStruct *S)
-_____________________________________________________________
- InputUInt32PtrsType inEncryptKeyIdsPtr = \
-     (InputUInt32PtrsType)ssGetInputPortSignalPtrs(S, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>I_ENCRYPT_KEY_IDS_PORT_ID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">);
- InputUInt8PtrsType inEncryptKeyStringsPtr = \
-     (InputUInt8PtrsType)ssGetInputPortSignalPtrs(S, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>I_ENCRYPT_KEY_STRINGS_PORT_ID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">);
-InitKeysStruct()
-for (iChar = 0; iChar &lt; MAX_KEY_STRING_LENGTH; iChar++)
-    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>encryptKeyString</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">[iChar] = (char)(*inEncryptKeyStringsPtr[iRow + iChar * NUMBER_KEYS]);
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>encryptKeyId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> = (int)(*inEncryptKeyIdsPtr[iRow]);
-SetKey(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>encryptKeyId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>encryptKeyString</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>);</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">#define I_CONFIRM_KEY_TRANSMISSION_PORT_ID                    0
-#define </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>I_ENCRYPT_KEY_IDS_PORT_ID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">                             1
-#define </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>I_ENCRYPT_KEY_STRINGS_PORT_ID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">                         2
-#define I_GLOBAL_ENABLE_RX_MAC_VERIFICATION_PORT_ID           3
-#define I_DEBUG_SKIP_ON_PDU_FEATURE_EXEC_PORT_ID              4
-#define I_DEBUG_ALWAYS_RETURN_RX_VERIFCATION_SUCCESS_PORT_ID  5
-#define I_BIT_COUNTING_POLICY_MONTONE_ID                      6
-#define I_DATA_KEY_ID_PAIRS_DATA_ID                           7
-#define I_DATA_KEY_ID_PAIRS_KEY_ID                            8
-uint32 keyId;
-char </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>keyAsString</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">[MAX_KEY_STRING_LENGTH];
-unsigned int keyIsSet;
-} </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>KeyProperties</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>if (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;IsAnyCounterMessage)
-    UserCodeForCntMsgs_WriteTxFreshnessValueToPduData(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>, freshnessValue);
-else
-    UserCode_WriteTxFreshnessValueToPduData(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, freshnessValue);
-</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">UserCodeForCntMsgs_WriteTxFreshnessValueToPduData
-_____________________________________________________________
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>if (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;IsCounterMessage)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-    SecOCCounterMessageWriteTxFreshnessValueToPduData(userDefsOfSecOCCounterMsgs,counterValue, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;AuthenticIPdu_SduDataPtr);
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>else if (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;IsCounterResponseMessage)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-    SecOCCounterResponseMessageWriteTxFreshnessValueToPduData(userDefsOfSecOCCounterMsgs,counterValue, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;AuthenticIPdu_SduDataPtr);
-UserCode_WriteTxFreshnessValueToPduData(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, freshnessValue)
-_____________________________________________________________
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">// Use local variable copies to avoid problems due to different internal and SecOC freshness length </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">       
-uint64 freshnessValue_BE = USER_CODE_INT64_TO_BE((uint64)freshnVal);
-uint32 freshnessSourceStartPos = sizeof(uint64) * 8 - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;FreshnessValTruncatedLength;
-uint8* freshnessSourcePtr = (uint8*)&amp;freshnessValue_BE;
-CopyBitsBE(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;SecuredIPdu_SduDataPtr, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;FreshnessValuePosition, freshnessSourcePtr, freshnessSourceStartPos, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;FreshnessValTruncatedLength);</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>DsBusCustomCode_onPduFeatureExecutionPrivateTxAuthenticationHandling(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>UserCode_FeatureData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> *</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -5148,10 +4338,403 @@
         <family val="3"/>
       </rPr>
       <t xml:space="preserve">-&gt;FreshnessValLength = 0
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>if (!pduProps-&gt;IsAnyCounterMessage)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
 DsBusCustomCodeSecuredIPdu_getKeyId(securedIPdu_PduHandle, &amp;keyId)
 DsBusCustomCodeSecuredIPdu_getDataId(securedIPdu_PduHandle, &amp;dataId)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">else
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>TBD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
 _UserCode_Csm_Init
+_____________________________________________________________</t>
+    </r>
+  </si>
+  <si>
+    <t>DsBusCustomCodeSecOCTxPduFeature_getAuthenticationType</t>
+  </si>
+  <si>
+    <t>SecOCTxPduFeature.AuthenticationType</t>
+  </si>
+  <si>
+    <r>
+      <t>DsBusCustomCode_onPduFeatureExecutionPrivateTxAuthenticationHandling(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>UserCode_FeatureData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> *</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>)
 _____________________________________________________________
+UserCode_Csm_CalculateAuthenticator(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, &amp;authenticatorPtr, authenticatorLengthInBytes)
+_____________________________________________________________
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>UserCode_CryptoJob_Get(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>csmJobHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>, &amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_Job</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>freshnessValue = GetAppropiateFreshnessValue(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>)
+_______________________________
+DsBusCustomCodeSecOCTxPduFeature_getCalculatedFreshnessValue(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatureHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>,&amp;freshnessValue))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>UserCode_SecOCHelper_PrepareDataToAuthenticator(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;SecuredIPdu_DataId,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;AuthenticIPdu_SduDataPtr + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;SecuredAreaOffset,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;SecuredAreaLength,freshnessValue, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;FreshnessValLength,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_Job</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;PrimitiveInputOutput-&gt;inputPtr,&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_Job</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;PrimitiveInputOutput-&gt;inputLength))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*authenticatorPtr =</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Crypto_Job</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;PrimitiveInputOutput-&gt;outputPtr;
+*authenticatorLengthInBytes = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_Job</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;jobPrimitiveInfo-&gt;primitiveInfo-&gt;resultLength;
 </t>
     </r>
     <r>
@@ -5162,20 +4745,947 @@
         <rFont val="Cascadia Mono SemiLight"/>
         <family val="3"/>
       </rPr>
-      <t>//Already been set in OnApplicationInit. For CounterMsg-PDUs freshnessLength is unknown, hence Crypto-job can not yet been initialized.Second call is done in DsBusCustomCode_collectStaticPduPropertiesDuringRuntime()</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+      <t>// CSM expects the outputLengthPtr value of a crypto job to be pre set. Set it to the expected result length of the crypto job.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+*(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_Job</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;PrimitiveInputOutput-&gt;outputLengthPtr) = *authenticatorLengthInBytes;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>// Copy authenticator (MAC)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+CopyBitsBE(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;SecuredIPdu_SduDataPtr, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;MacPosition, authenticatorPtr, 0, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;MacTruncatedLength)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>UserCode_Csm_MacGenerate(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>csmJobHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, 
+                         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_Job</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;PrimitiveInputOutput-&gt;mode,
+                         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_Job</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;PrimitiveInputOutput-&gt;inputPtr,          </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>resultPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(PrepareDataToAuthenticator)
+                         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_Job</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;PrimitiveInputOutput-&gt;inputLength,       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>resultLengthPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(PrepareDataToAuthenticator)
+                         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_Job</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;PrimitiveInputOutput-&gt;outputPtr,         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>authenticatorPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+                         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_Job</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;PrimitiveInputOutput-&gt;outputLengthPtr)   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>authenticatorLengthInBytes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+_____________________________________________________________
+Ds_CMAC_AES(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>ctx_handle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, (UInt8*)dataPtr, dataLength, macPtr)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>ctx_handle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>csmJobHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">CTX_Handle
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>dataLength</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_Job</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;PrimitiveInputOutput-&gt;inputLength     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>resultLengthPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>(PrepareDataToAuthenticator)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>(UInt8*)dataPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Crypto_Job</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;PrimitiveInputOutput-&gt;inputPtr  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>resultPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(PrepareDataToAuthenticator)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>macPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Crypto_Job</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;PrimitiveInputOutput-&gt;outputPtr)          </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>authenticatorPtr</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>uint16 dataId_BigEndian = USER_CODE_INT16_TO_BE(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>dataId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">)                        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;SecuredIPdu_DataId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+uint64 freshnessValue_BigEndian = USER_CODE_INT64_TO_BE(freshnessValue)   
+*freshnessValuePtr = &amp;freshnessValue_BigEndian;
+freshnessValuePtr += (64 - freshnessValueLength) / 8                            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>resultLengthPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = sizeof(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>dataId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>dataLength</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + freshnessValueLength / 8   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_Job</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;PrimitiveInputOutput-&gt;inputLength
+                                                                      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;SecuredIPdu_DataId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+                                                                                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;SecuredAreaLength</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_Job</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;PrimitiveInputOutput-&gt;inputPtr
+memcpy(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>resultPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>, &amp;dataId_BigEndian, sizeof(dataId_BigEndian));                
+memcpy(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>resultPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + sizeof(dataId_BigEndian), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>dataPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, dataLength)             </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;AuthenticIPdu_SduDataPtr + SecuredAreaOffset
+memcpy(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>resultPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + sizeof(dataId_BigEndian) + dataLength, freshnessValuePtr, freshnessValueLength / 8)</t>
+    </r>
+  </si>
+  <si>
+    <t>Cmac Preparare: resultPtr = 
+DataID + Authentic_IPDU + FreshnessValue</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;PduFeatureHandle.SecOCTxPduFeature.CalculatedFreshnessValue
+was set by DsBusCustomCodeSecOCTxPduFeature_setCalculatedFreshnessValue
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;PduFeatureHandle-&gt;SecOCTxPduFeature.CalculatedFreshnessValue =  (uint64)CalculatedFreshnessValue</t>
+    </r>
+  </si>
+  <si>
+    <t>MAC</t>
+  </si>
+  <si>
+    <t>SecuredPduData MAC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -5183,7 +5693,7 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -5192,13 +5702,13 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -5329,6 +5839,15 @@
     <font>
       <b/>
       <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cascadia Mono SemiLight"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
       <sz val="15"/>
       <color theme="1"/>
       <name val="Cascadia Mono SemiBold"/>
@@ -5344,19 +5863,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <color rgb="FF7030A0"/>
+      <name val="Cascadia Mono SemiLight"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="5">
@@ -5528,7 +6039,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -5542,13 +6053,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5596,14 +6101,8 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5619,6 +6118,21 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5643,55 +6157,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>22412</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>1657</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30D3034E-A80A-1469-59C5-5F51DEE0B656}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21821055" y="1072563"/>
-          <a:ext cx="6196052" cy="3800451"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5991,217 +6456,261 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E38B81CE-79E3-4568-BB50-9E45BADB5D49}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="22.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="22"/>
   <cols>
-    <col min="1" max="1" width="138.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="147.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="54.875" style="20" customWidth="1"/>
+    <col min="1" max="1" width="149.26953125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="155" style="2" customWidth="1"/>
+    <col min="3" max="3" width="54.90625" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:3" ht="20.149999999999999" customHeight="1">
+      <c r="A1" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="3"/>
-      <c r="C1" s="17"/>
+      <c r="C1" s="15"/>
     </row>
-    <row r="2" spans="1:3" ht="275.10000000000002" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:3" ht="275.14999999999998" customHeight="1">
+      <c r="A2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="22" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="408.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:3" ht="409" customHeight="1">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="27"/>
+      <c r="C3" s="23"/>
     </row>
-    <row r="4" spans="1:3" ht="339.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
-        <v>31</v>
+    <row r="4" spans="1:3" ht="339.75" customHeight="1">
+      <c r="A4" s="11" t="s">
+        <v>36</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="28"/>
+      <c r="C4" s="24"/>
     </row>
-    <row r="5" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
+    <row r="5" spans="1:3" ht="100" customHeight="1">
+      <c r="A5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="26" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="270" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:3" ht="270" customHeight="1">
+      <c r="A6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="27"/>
+      <c r="C6" s="23"/>
     </row>
-    <row r="7" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:3" ht="90" customHeight="1">
+      <c r="A7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="28"/>
+      <c r="C7" s="24"/>
     </row>
-    <row r="8" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="16"/>
+    <row r="8" spans="1:3" ht="20.149999999999999" customHeight="1">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="14"/>
     </row>
-    <row r="9" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
+    <row r="9" spans="1:3" ht="20.149999999999999" customHeight="1">
+      <c r="A9" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="17"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="15"/>
     </row>
-    <row r="10" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
+    <row r="10" spans="1:3" ht="20.149999999999999" customHeight="1">
+      <c r="A10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="17"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="15"/>
     </row>
-    <row r="11" spans="1:3" ht="360" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
-        <v>52</v>
+    <row r="11" spans="1:3" ht="370.5" customHeight="1">
+      <c r="A11" s="13" t="s">
+        <v>38</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="23" t="s">
-        <v>30</v>
+      <c r="C11" s="21" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="240" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
+    <row r="12" spans="1:3" ht="240" customHeight="1">
+      <c r="A12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="22"/>
+    </row>
+    <row r="13" spans="1:3" ht="110.15" customHeight="1">
+      <c r="A13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="23"/>
+    </row>
+    <row r="14" spans="1:3" ht="20.149999999999999" customHeight="1">
+      <c r="A14" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="26"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="15"/>
     </row>
-    <row r="13" spans="1:3" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="27"/>
-    </row>
-    <row r="14" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="28"/>
-    </row>
-    <row r="15" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-    </row>
-    <row r="16" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="17"/>
-    </row>
-    <row r="17" spans="1:3" ht="270.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="13" t="s">
+    <row r="15" spans="1:3" ht="270.75" customHeight="1">
+      <c r="A15" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="B15" s="11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="99" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="18" t="s">
+      <c r="C15" s="16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="150" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="13" t="s">
+    <row r="16" spans="1:3" ht="99" customHeight="1">
+      <c r="A16" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="B16" s="5"/>
+      <c r="C16" s="16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="294" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
+    <row r="17" spans="1:3" ht="100" customHeight="1">
+      <c r="A17" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="294" customHeight="1">
+      <c r="A18" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="23"/>
+    </row>
+    <row r="19" spans="1:3" ht="20.149999999999999" customHeight="1">
+      <c r="A19" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+    </row>
+    <row r="20" spans="1:3" ht="81.5" customHeight="1">
+      <c r="A20" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="20"/>
+    </row>
+    <row r="21" spans="1:3" ht="36.5" customHeight="1">
+      <c r="A21" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="13" t="s">
+    </row>
+    <row r="22" spans="1:3" ht="67.5" customHeight="1">
+      <c r="A22" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="27"/>
+      <c r="C22" s="30"/>
     </row>
-    <row r="21" spans="1:3" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
+    <row r="23" spans="1:3" ht="210" customHeight="1">
+      <c r="A23" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="29"/>
+    </row>
+    <row r="24" spans="1:3" ht="110" customHeight="1">
+      <c r="A24" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="28"/>
+      <c r="C24" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="22"/>
     </row>
-    <row r="22" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="18"/>
+    <row r="25" spans="1:3" ht="224.5" customHeight="1">
+      <c r="A25" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="28"/>
+      <c r="C25" s="31"/>
     </row>
-    <row r="23" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="11" t="s">
+    <row r="26" spans="1:3" ht="70.5" customHeight="1">
+      <c r="A26" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="28"/>
+      <c r="C26" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="20.149999999999999" customHeight="1">
+      <c r="A27" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="19"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C24:C25"/>
     <mergeCell ref="C2:C4"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="C12:C13"/>
     <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C17:C18"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6211,110 +6720,66 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48426D71-A9D2-4765-8952-428E08E6A5AA}">
-  <dimension ref="A7:M9"/>
+  <dimension ref="A7:B9"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="138.5" customWidth="1"/>
-    <col min="2" max="2" width="147.5" customWidth="1"/>
-    <col min="13" max="13" width="58.875" customWidth="1"/>
+    <col min="1" max="1" width="138.453125" customWidth="1"/>
+    <col min="2" max="2" width="147.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:13" ht="300" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
-        <v>47</v>
+    <row r="7" spans="1:2" ht="300" customHeight="1">
+      <c r="A7" s="13" t="s">
+        <v>34</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M7" s="21" t="s">
-        <v>46</v>
+      <c r="B7" s="11" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="289.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
-        <v>45</v>
+    <row r="8" spans="1:2" ht="360" customHeight="1">
+      <c r="A8" s="11" t="s">
+        <v>20</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>44</v>
+      <c r="B8" s="11" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="21"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBEB009D-8109-40EB-910F-58A5C0FAB48B}">
-  <dimension ref="B3:D10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="106.25" style="25" customWidth="1"/>
-    <col min="3" max="3" width="58.375" style="25" customWidth="1"/>
-    <col min="4" max="4" width="47.625" style="25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:4" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B4" s="24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B10" s="24"/>
-      <c r="C10" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>42</v>
-      </c>
+    <row r="9" spans="1:2">
+      <c r="A9" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06561689-C44D-4EA2-806A-B66B3DE3C564}">
+  <dimension ref="A5:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="67.81640625" customWidth="1"/>
+    <col min="2" max="2" width="37" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/BMW_SecOc.xlsx
+++ b/BMW_SecOc.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DspaceDocument\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_XuhuaRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA56686-1704-4D5D-A37B-D0DA9EAB55F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22D83E7-ED72-4DF6-87F7-E61D20FA6D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EE3554E5-5B85-4F6F-95D2-24E55C4E92D2}"/>
+    <workbookView xWindow="28680" yWindow="-8640" windowWidth="38640" windowHeight="21240" xr2:uid="{EE3554E5-5B85-4F6F-95D2-24E55C4E92D2}"/>
   </bookViews>
   <sheets>
     <sheet name="BMW" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
+    <sheet name="UserCode_Csm_InitKey" sheetId="3" r:id="rId2"/>
+    <sheet name="ReadFreshnessValueFromPduData" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>Part 3: RX secured IPDU</t>
   </si>
@@ -1854,7 +1854,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2008,367 +2008,6 @@
   <si>
     <r>
       <t>_UserCode_Csm_Init(DsBusCustomCodePduFeatureHandle pduFeatureHandle, boolean atRuntime), atRuntime = FALSE
-_____________________________________________________________
-DsBusCustomCodePduFeature_getFeatureDataPtr(pduFeatureHandle, &amp;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatDataPtr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> = (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>UserCode_FeatureData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>*)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatDataPtr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">; 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> = (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>PduPropertiesContainer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>*)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>PduPropertiesContainer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>;
-DsBusCustomCodeSecuredIPdu_getFreshnessValueLength(securedIPdu_PduHandle, &amp;freshnessValueLength)
-dataToAuthentictatorLenInBytes = sizeof(uint16) + authenticIPdu_SduLength + (freshnessValueLength + 7) / 8
-UserCode_SecOCHelper_Create_CryptoJob_For_CMAC_AES_128_Authentication(&amp;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>CsmJobHandle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">,dataToAuthentictatorLenInBytes)
-_____________________________________________________________
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>Crypto_Job</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>UserCode_CryptoJob_Register(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>Crypto_Job</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>, &amp;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>csmJobHandle</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, &amp;jobIdInternal)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>CsmJobHandle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> = </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>csmJobHandle</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">Already been set in OnApplicationInit. For </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>CounterMsg-PDUs</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> freshnessLength is unknown, hence Crypto-job can not yet been initialized.
-Second call is done in DsBusCustomCode_collectStaticPduPropertiesDuringRuntime()
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-UserCode_Csm_Init_AtRuntime(pduProps-&gt;PduFeatureHandle)
-_UserCode_Csm_Init(DsBusCustomCodePduFeatureHandle pduFeatureHandle, boolean atRuntime), atRuntime = TRUE
 _____________________________________________________________
 DsBusCustomCodePduFeature_getFeatureDataPtr(pduFeatureHandle, &amp;</t>
     </r>
@@ -2895,7 +2534,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3206,346 +2845,6 @@
   </si>
   <si>
     <r>
-      <t>if (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;IsAnyCounterMessage) {
-    DSBUSCUSTOMCODE_TRY_S(fD, UserCodeForCntMsgs_IdentifyProperTxFreshness(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>, &amp;freshnessValue));
-}
-else {
-    DSBUSCUSTOMCODE_TRY_S(fD, UserCode_IdentifyProperTxFreshness(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>, &amp;freshnessValue));
-}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>UserCodeForCntMsgs_WriteTxFreshnessValueToPduData
-_____________________________________________________________
-if (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;IsCounterMessage)
-    SecOCCounterMessageWriteTxFreshnessValueToPduData(userDefsOfSecOCCounterMsgs,counterValue, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;AuthenticIPdu_SduDataPtr);
-else if (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;IsCounterResponseMessage)
-    SecOCCounterResponseMessageWriteTxFreshnessValueToPduData(userDefsOfSecOCCounterMsgs,counterValue, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;AuthenticIPdu_SduDataPtr);
-UserCode_WriteTxFreshnessValueToPduData(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, freshnessValue)
-_____________________________________________________________
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">// Use local variable copies to avoid problems due to different internal and SecOC freshness length </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">       
-uint64 freshnessValue_BE = USER_CODE_INT64_TO_BE((uint64)freshnVal);
-uint32 freshnessSourceStartPos = sizeof(uint64) * 8 - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;FreshnessValTruncatedLength;
-uint8* freshnessSourcePtr = (uint8*)&amp;freshnessValue_BE;
-CopyBitsBE(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;SecuredIPdu_SduDataPtr, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;FreshnessValuePosition,
-                              freshnessSourcePtr, freshnessSourceStartPos, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;FreshnessValTruncatedLength);</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>if (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;IsAnyCounterMessage)
-    UserCodeForCntMsgs_WriteTxFreshnessValueToPduData(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>, freshnessValue);
-else
-    UserCode_WriteTxFreshnessValueToPduData(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>, freshnessValue);</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>UserCode_CopyAuthPduDataToSecuredPduData(</t>
     </r>
     <r>
@@ -3714,181 +3013,6 @@
     return E_OK;
 }</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>DsBusCustomCode_collectStaticPduPropertiesDuringRuntime is called in SecOCMainSetupSFunc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-DsBusCustomCode_collectStaticPduPropertiesDuringRuntime(UserCode_FeatureData *</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>)
-_____________________________________________________________
-DsBusCustomCode_collectStaticPduPropertiesDuringRuntimeEx(UserCode_FeatureData *</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">)
-_____________________________________________________________
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> = (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>PduPropertiesContainer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>*)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>PduPropertiesContainer(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatureHandle</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">DsBusCustomCodeSecuredIPdu_getFreshnessValueLength(securedIPdu_PduHandle, &amp;freshnessValueLength)
-DsBusCustomCodeSecuredIPdu_getFreshnessValueTxLength(securedIPdu_PduHandle, &amp;freshnessValueTxLength)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-DsBusCustomCodeSecuredIPdu_getKeyId(securedIPdu_PduHandle, &amp;keyId)
-DsBusCustomCodeSecuredIPdu_getDataId(securedIPdu_PduHandle, &amp;dataId)
-_UserCode_Csm_Init
-_____________________________________________________________</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4082,8 +3206,604 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>IsAnyCounterMessage: UserCodeForCntMsgs_ReadFreshnessValueFromPduData(</t>
+    <t xml:space="preserve">SecOCCounterMessageReadFreshnessValueFromPduData(UserDefsOfSecOCCounterMsgsStruct *userDefsOfSecOCCounterMsgs,  uint8 *authPduDataPtr) </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> uint32 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bitLength</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = userDefsOfSecOCCounterMsgs-&gt;SecOCCounterSignalBitLength;
+ uint32 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bitPosition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = userDefsOfSecOCCounterMsgs-&gt;SecOCCounterMessageSignalCounterBitPosition;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ReadBitsLE_Max64Bits(authPduDataPtr, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bitPosition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bitLength</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>CopyBitsLE_Max64Bits(uint8 *destPtr, uint32 destStartBit,
+                                               uint8 *sourcePtr, uint32 sourceStartBit, uint32 bitCount)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CopyBitsLE_Max64Bits((uint8*)&amp;readValue, 0, 
+                                                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>authPduDataPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bitPosition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bitLength</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>_CommonReadValueFromPduData(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>authPduDataPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bitPosition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bitLength</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>authPduDataPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> += (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bitPosition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / 8);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sourceStartBit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> %= 8;
+uint64 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sourceVal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = *(uint64*)(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>authPduDataPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">//adapt &amp;readValue and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>authPduDataPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> positioning
+//move </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>authPduDataPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to targetPosition</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">//move </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp;readValue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to targetPosition</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp;readValue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> += (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bitPosition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / 8);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bitPosition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> %= 8;
+uint64 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>destVal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = *(uint64*)(&amp;readValue);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">keyValue
+keyLength
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatureHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.SecOCPduFeature.KeyPtr = KeyPtr
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatureHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.SecOCPduFeature.KeyPtr = KeyLength
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>CsmJobHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_Job</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;jobPrimitiveInfo-&gt;cryIfKeyId = keyId</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CsmInitKeysForAllSecOCMsgs
+_____________________________________________________________
+for (unsigned int i = 0; i &lt; filteredSecOCMsgs-&gt;itemCount; i++) {
+    </t>
     </r>
     <r>
       <rPr>
@@ -4102,12 +3822,441 @@
         <rFont val="Cascadia Mono SemiLight"/>
         <family val="3"/>
       </rPr>
-      <t>)
-!IsAnyCounterMessage: GetMasterCntValueGlobal()</t>
+      <t xml:space="preserve"> = (UserCode_FeatureData *)GetById(filteredSecOCMsgs, i);
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>UserCode_Csm_InitKey</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">);
+}
+_________________________________
+uint32 keyId = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;SecuredIPdu_KeyId
+char *keyAsString = GetKeyAsString(keyId)
+UserCode_ConvertHexInStringToInt(keyAsString, &amp;keyPtr, &amp;keyLength)) 
+DsBusCustomCodeSecOCPduFeature_setKeyPtr(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatureHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>, keyPtr)); 
+DsBusCustomCodeSecOCPduFeature_setKeyLength(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatureHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>, keyLength));
+UserCode_Csm_KeyElementSet(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>CsmJobHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, keyId, keyPtr, keyLength));
+_________________________________
+Ds_CMAC_Init(keyPtr, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>CsmJobHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;CTX_Handle);</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>&lt;key keyID="1"&gt;3152FC49CF515C187782D7EEB100B18E&lt;/key&gt;
+&lt;key keyID="2"&gt;0BB884DAC7B84EA4C284D768AFDCC4C7&lt;/key&gt;
+&lt;key keyID="3"&gt;00A270BD3B2D09BF9B9BA52F895095EE&lt;/key&gt;
+&lt;key keyID="4"&gt;D873C3B33DC642AB960AE01AE655EC22&lt;/key&gt;
+&lt;key keyID="5"&gt;0009CD997E611B966AD38F95A4C8531C&lt;/key&gt;
+&lt;key keyID="6"&gt;07CA047246FB3ABD47A4F9B4E08A5477&lt;/key&gt;
+&lt;key keyID="7"&gt;0ED52DF8ED85EE359B8F1FD821311490&lt;/key&gt;
+&lt;key keyID="8"&gt;06705EFA516B6611E0AE5B7D4ABD47EF&lt;/key&gt;
+&lt;key keyID="9"&gt;9885FD8FDD0E395CDE53F197B00B66E3&lt;/key&gt;
+&lt;key keyID="10"&gt;97A77606B8F0C00C6853406380EE46C8&lt;/key&gt;
+&lt;key keyID="11"&gt;7F47471EA2A59FE4530A382653FFB3EE&lt;/key&gt;
+&lt;key keyID="12"&gt;DCD1781EA2DA4E29B6D9CF2A4C036D0A&lt;/key&gt;
+&lt;key keyID="13"&gt;1467C1427143D4726555C7F9C4109AAF&lt;/key&gt;
+&lt;key keyID="14"&gt;577DC1EF4F30C7FDB9BC5403DA3DA53D&lt;/key&gt;
+&lt;key keyID="15"&gt;5DF432E866B06DB0F625D2936D94EFB3&lt;/key&gt;
+&lt;key keyID="16"&gt;0A6B8EF42A8F33FFF9A96652E8C22F09&lt;/key&gt;
+&lt;key keyID="17"&gt;00E56DEFECFDF2B078B24874730A4D2C&lt;/key&gt;
+&lt;key keyID="18"&gt;F5D76E02717C5A6963BA4EDA69365120&lt;/key&gt;
+&lt;key keyID="19"&gt;8E74E32F27FACC867A7130C2E6E7BC11&lt;/key&gt;
+&lt;key keyID="20"&gt;4104802C5CFC447F108D76506E564C8B&lt;/key&gt;
+&lt;key keyID="21"&gt;0FFCE2DA74458B08388E4B87AA69F7C3&lt;/key&gt;
+&lt;key keyID="22"&gt;AFDC889956D9B753B76D8B217A58F8F6&lt;/key&gt;
+&lt;key keyID="23"&gt;6ACC18128BB0C7D8D21A1F2249CDCA66&lt;/key&gt;
+&lt;key keyID="24"&gt;759826FC3D22DD3BA69965C0CF4355C8&lt;/key&gt;
+&lt;key keyID="25"&gt;098A3B7A43545CB6BBEBAC2A65A64BD2&lt;/key&gt;
+&lt;key keyID="26"&gt;00D8FC4F55CAFFB139D8C56FF3BC2B56&lt;/key&gt;
+&lt;key keyID="144"&gt;82FEA86D2302352868FD21BD6C48DC1D&lt;/key&gt;
+&lt;key keyID="28"&gt;0915A7E7A494375509060745751CD2F1&lt;/key&gt;
+&lt;key keyID="29"&gt;22884D4A468A71F1A04D90618381F3F6&lt;/key&gt;
+&lt;key keyID="30"&gt;CE6AB6CFCAACAE652B323B15D1B58E38&lt;/key&gt;
+&lt;key keyID="31"&gt;006343EB0C8FBFCEEBC5D81528502D22&lt;/key&gt;
+&lt;key keyID="32"&gt;599CCF8DEBD836C7B96DC86D31243F53&lt;/key&gt;
+&lt;key keyID="33"&gt;4E27775CED1460F5218B1548CDDCC400&lt;/key&gt;
+&lt;key keyID="34"&gt;0E1E5355FF078EE94A72FA1D97061CBD&lt;/key&gt;
+&lt;key keyID="35"&gt;04FCBB76251789096832C9E6A3F5C29F&lt;/key&gt;
+&lt;key keyID="36"&gt;018EDFB66FBF87CDC8B6DED78076B06A&lt;/key&gt;
+&lt;key keyID="37"&gt;0FF061014464869FB039B64C5409DDBF&lt;/key&gt;
+&lt;key keyID="38"&gt;140E4596AB03936969876B157FD4526E&lt;/key&gt;
+&lt;key keyID="50"&gt;06DD741B51E1A2A6EBFDFED3F3048E3E&lt;/key&gt;
+&lt;key keyID="24268"&gt;B63779C8E5F226CBDD3AD529430A8E80&lt;/key&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TransmitKeys(SimStruct *S)
+_____________________________________________________________
+ InputUInt32PtrsType inEncryptKeyIdsPtr = \
+     (InputUInt32PtrsType)ssGetInputPortSignalPtrs(S, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>I_ENCRYPT_KEY_IDS_PORT_ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">);
+ InputUInt8PtrsType inEncryptKeyStringsPtr = \
+     (InputUInt8PtrsType)ssGetInputPortSignalPtrs(S, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>I_ENCRYPT_KEY_STRINGS_PORT_ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">);
+InitKeysStruct()
+for (iChar = 0; iChar &lt; MAX_KEY_STRING_LENGTH; iChar++)
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>encryptKeyString</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">[iChar] = (char)(*inEncryptKeyStringsPtr[iRow + iChar * NUMBER_KEYS]);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>encryptKeyId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = (int)(*inEncryptKeyIdsPtr[iRow]);
+SetKey(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>encryptKeyId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>encryptKeyString</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">#define I_CONFIRM_KEY_TRANSMISSION_PORT_ID                    0
+#define </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>I_ENCRYPT_KEY_IDS_PORT_ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">                             1
+#define </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>I_ENCRYPT_KEY_STRINGS_PORT_ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">                         2
+#define I_GLOBAL_ENABLE_RX_MAC_VERIFICATION_PORT_ID           3
+#define I_DEBUG_SKIP_ON_PDU_FEATURE_EXEC_PORT_ID              4
+#define I_DEBUG_ALWAYS_RETURN_RX_VERIFCATION_SUCCESS_PORT_ID  5
+#define I_BIT_COUNTING_POLICY_MONTONE_ID                      6
+#define I_DATA_KEY_ID_PAIRS_DATA_ID                           7
+#define I_DATA_KEY_ID_PAIRS_KEY_ID                            8
+uint32 keyId;
+char </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>keyAsString</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">[MAX_KEY_STRING_LENGTH];
+unsigned int keyIsSet;
+} </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>KeyProperties</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -4338,68 +4487,389 @@
         <family val="3"/>
       </rPr>
       <t xml:space="preserve">-&gt;FreshnessValLength = 0
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>if (!pduProps-&gt;IsAnyCounterMessage)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
 DsBusCustomCodeSecuredIPdu_getKeyId(securedIPdu_PduHandle, &amp;keyId)
 DsBusCustomCodeSecuredIPdu_getDataId(securedIPdu_PduHandle, &amp;dataId)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">else
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>TBD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
 _UserCode_Csm_Init
-_____________________________________________________________</t>
-    </r>
+_____________________________________________________________
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>//Already been set in OnApplicationInit. For CounterMsg-PDUs freshnessLength is unknown, hence Crypto-job can not yet been initialized.Second call is done in DsBusCustomCode_collectStaticPduPropertiesDuringRuntime()</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>DsBusCustomCodeSecOCTxPduFeature_getAuthenticationType</t>
+    <r>
+      <t>if (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;IsAnyCounterMessage) {
+    DSBUSCUSTOMCODE_TRY_S(fD, UserCodeForCntMsgs_IdentifyProperTxFreshness(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>, &amp;freshnessValue));
+}
+else {
+    DSBUSCUSTOMCODE_TRY_S(fD, UserCode_IdentifyProperTxFreshness(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>, &amp;freshnessValue));
+}</t>
+    </r>
   </si>
   <si>
-    <t>SecOCTxPduFeature.AuthenticationType</t>
+    <r>
+      <t>IsAnyCounterMessage: UserCodeForCntMsgs_ReadFreshnessValueFromPduData(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>)
+!IsAnyCounterMessage: GetMasterCntValueGlobal()</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>if (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;IsAnyCounterMessage)
+    UserCodeForCntMsgs_WriteTxFreshnessValueToPduData(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>, freshnessValue);
+else
+    UserCode_WriteTxFreshnessValueToPduData(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>, freshnessValue);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>UserCodeForCntMsgs_WriteTxFreshnessValueToPduData
+_____________________________________________________________
+if (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;IsCounterMessage)
+    SecOCCounterMessageWriteTxFreshnessValueToPduData(userDefsOfSecOCCounterMsgs,counterValue, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;AuthenticIPdu_SduDataPtr);
+else if (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;IsCounterResponseMessage)
+    SecOCCounterResponseMessageWriteTxFreshnessValueToPduData(userDefsOfSecOCCounterMsgs,counterValue, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;AuthenticIPdu_SduDataPtr);
+UserCode_WriteTxFreshnessValueToPduData(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, freshnessValue)
+_____________________________________________________________
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">// Use local variable copies to avoid problems due to different internal and SecOC freshness length </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">       
+uint64 freshnessValue_BE = USER_CODE_INT64_TO_BE((uint64)freshnVal);
+uint32 freshnessSourceStartPos = sizeof(uint64) * 8 - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;FreshnessValTruncatedLength;
+uint8* freshnessSourcePtr = (uint8*)&amp;freshnessValue_BE;
+CopyBitsBE(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;SecuredIPdu_SduDataPtr, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;FreshnessValuePosition,
+                              freshnessSourcePtr, freshnessSourceStartPos, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;FreshnessValTruncatedLength);</t>
+    </r>
   </si>
   <si>
     <r>
@@ -4508,1120 +4978,6 @@
         <family val="3"/>
       </rPr>
       <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>freshnessValue = GetAppropiateFreshnessValue(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>)
-_______________________________
-DsBusCustomCodeSecOCTxPduFeature_getCalculatedFreshnessValue(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatureHandle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>,&amp;freshnessValue))</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>UserCode_SecOCHelper_PrepareDataToAuthenticator(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;SecuredIPdu_DataId,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;AuthenticIPdu_SduDataPtr + </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;SecuredAreaOffset,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;SecuredAreaLength,freshnessValue, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;FreshnessValLength,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>Crypto_Job</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;PrimitiveInputOutput-&gt;inputPtr,&amp;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>Crypto_Job</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;PrimitiveInputOutput-&gt;inputLength))</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>*authenticatorPtr =</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> Crypto_Job</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;PrimitiveInputOutput-&gt;outputPtr;
-*authenticatorLengthInBytes = </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>Crypto_Job</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;jobPrimitiveInfo-&gt;primitiveInfo-&gt;resultLength;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>// CSM expects the outputLengthPtr value of a crypto job to be pre set. Set it to the expected result length of the crypto job.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-*(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>Crypto_Job</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;PrimitiveInputOutput-&gt;outputLengthPtr) = *authenticatorLengthInBytes;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>// Copy authenticator (MAC)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-CopyBitsBE(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;SecuredIPdu_SduDataPtr, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;MacPosition, authenticatorPtr, 0, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;MacTruncatedLength)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>UserCode_Csm_MacGenerate(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>csmJobHandle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, 
-                         </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>Crypto_Job</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;PrimitiveInputOutput-&gt;mode,
-                         </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>Crypto_Job</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;PrimitiveInputOutput-&gt;inputPtr,          </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>resultPtr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">(PrepareDataToAuthenticator)
-                         </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>Crypto_Job</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;PrimitiveInputOutput-&gt;inputLength,       </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>resultLengthPtr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">(PrepareDataToAuthenticator)
-                         </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>Crypto_Job</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;PrimitiveInputOutput-&gt;outputPtr,         </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>authenticatorPtr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-                         </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>Crypto_Job</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;PrimitiveInputOutput-&gt;outputLengthPtr)   </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>authenticatorLengthInBytes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-_____________________________________________________________
-Ds_CMAC_AES(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>ctx_handle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, (UInt8*)dataPtr, dataLength, macPtr)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>ctx_handle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>csmJobHandle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">CTX_Handle
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>dataLength</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>Crypto_Job</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;PrimitiveInputOutput-&gt;inputLength     </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>resultLengthPtr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>(PrepareDataToAuthenticator)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>(UInt8*)dataPtr</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> Crypto_Job</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;PrimitiveInputOutput-&gt;inputPtr  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>resultPtr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">(PrepareDataToAuthenticator)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>macPtr</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> Crypto_Job</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;PrimitiveInputOutput-&gt;outputPtr)          </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>authenticatorPtr</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>uint16 dataId_BigEndian = USER_CODE_INT16_TO_BE(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>dataId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">)                        </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;SecuredIPdu_DataId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-uint64 freshnessValue_BigEndian = USER_CODE_INT64_TO_BE(freshnessValue)   
-*freshnessValuePtr = &amp;freshnessValue_BigEndian;
-freshnessValuePtr += (64 - freshnessValueLength) / 8                            </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>resultLengthPtr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> = sizeof(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>dataId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">) + </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>dataLength</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + freshnessValueLength / 8   </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>&amp;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>Crypto_Job</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;PrimitiveInputOutput-&gt;inputLength
-                                                                      </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;SecuredIPdu_DataId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-                                                                                </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;SecuredAreaLength</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>Crypto_Job</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;PrimitiveInputOutput-&gt;inputPtr
-memcpy(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>resultPtr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>, &amp;dataId_BigEndian, sizeof(dataId_BigEndian));                
-memcpy(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>resultPtr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + sizeof(dataId_BigEndian), </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>dataPtr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, dataLength)             </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;AuthenticIPdu_SduDataPtr + SecuredAreaOffset
-memcpy(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>resultPtr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + sizeof(dataId_BigEndian) + dataLength, freshnessValuePtr, freshnessValueLength / 8)</t>
     </r>
   </si>
   <si>
@@ -5630,6 +4986,51 @@
   </si>
   <si>
     <r>
+      <t>freshnessValue = GetAppropiateFreshnessValue(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>)
+_______________________________
+DsBusCustomCodeSecOCTxPduFeature_getCalculatedFreshnessValue(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatureHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>,&amp;freshnessValue))</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -5668,10 +5069,1079 @@
         <family val="3"/>
       </rPr>
       <t>-&gt;PduFeatureHandle-&gt;SecOCTxPduFeature.CalculatedFreshnessValue =  (uint64)CalculatedFreshnessValue</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>UserCode_SecOCHelper_PrepareDataToAuthenticator(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;SecuredIPdu_DataId,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;AuthenticIPdu_SduDataPtr + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;SecuredAreaOffset,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;SecuredAreaLength,freshnessValue, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;FreshnessValLength,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_Job</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;PrimitiveInputOutput-&gt;inputPtr,&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_Job</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;PrimitiveInputOutput-&gt;inputLength))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>uint16 dataId_BigEndian = USER_CODE_INT16_TO_BE(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>dataId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">)                        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;SecuredIPdu_DataId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+uint64 freshnessValue_BigEndian = USER_CODE_INT64_TO_BE(freshnessValue)   
+*freshnessValuePtr = &amp;freshnessValue_BigEndian;
+freshnessValuePtr += (64 - freshnessValueLength) / 8                            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>resultLengthPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = sizeof(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>dataId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>dataLength</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + freshnessValueLength / 8   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_Job</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;PrimitiveInputOutput-&gt;inputLength
+                                                                      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;SecuredIPdu_DataId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+                                                                                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;SecuredAreaLength</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_Job</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;PrimitiveInputOutput-&gt;inputPtr
+memcpy(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>resultPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>, &amp;dataId_BigEndian, sizeof(dataId_BigEndian));                
+memcpy(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>resultPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + sizeof(dataId_BigEndian), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>dataPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, dataLength)             </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;AuthenticIPdu_SduDataPtr + SecuredAreaOffset
+memcpy(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>resultPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + sizeof(dataId_BigEndian) + dataLength, freshnessValuePtr, freshnessValueLength / 8)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*authenticatorPtr =</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Crypto_Job</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;PrimitiveInputOutput-&gt;outputPtr;
+*authenticatorLengthInBytes = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_Job</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;jobPrimitiveInfo-&gt;primitiveInfo-&gt;resultLength;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>// CSM expects the outputLengthPtr value of a crypto job to be pre set. Set it to the expected result length of the crypto job.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+*(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_Job</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;PrimitiveInputOutput-&gt;outputLengthPtr) = *authenticatorLengthInBytes;</t>
     </r>
   </si>
   <si>
     <t>MAC</t>
+  </si>
+  <si>
+    <r>
+      <t>UserCode_Csm_MacGenerate(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>csmJobHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, 
+                         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_Job</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;PrimitiveInputOutput-&gt;mode,
+                         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_Job</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;PrimitiveInputOutput-&gt;inputPtr,          </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>resultPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(PrepareDataToAuthenticator)
+                         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_Job</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;PrimitiveInputOutput-&gt;inputLength,       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>resultLengthPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(PrepareDataToAuthenticator)
+                         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_Job</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;PrimitiveInputOutput-&gt;outputPtr,         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>authenticatorPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+                         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_Job</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;PrimitiveInputOutput-&gt;outputLengthPtr)   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>authenticatorLengthInBytes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+_____________________________________________________________
+Ds_CMAC_AES(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>ctx_handle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, (UInt8*)dataPtr, dataLength, macPtr)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>ctx_handle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>csmJobHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">CTX_Handle
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>dataLength</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_Job</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;PrimitiveInputOutput-&gt;inputLength     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>resultLengthPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>(PrepareDataToAuthenticator)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>(UInt8*)dataPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Crypto_Job</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;PrimitiveInputOutput-&gt;inputPtr  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>resultPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(PrepareDataToAuthenticator)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>macPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Crypto_Job</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;PrimitiveInputOutput-&gt;outputPtr)          </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>authenticatorPtr</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>// Copy authenticator (MAC)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+CopyBitsBE(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;SecuredIPdu_SduDataPtr, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;MacPosition, authenticatorPtr, 0, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;MacTruncatedLength)</t>
+    </r>
   </si>
   <si>
     <t>SecuredPduData MAC</t>
@@ -5681,11 +6151,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -5693,7 +6163,7 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -5702,13 +6172,13 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -5796,13 +6266,6 @@
       <family val="3"/>
     </font>
     <font>
-      <i/>
-      <sz val="15"/>
-      <color theme="1"/>
-      <name val="Cascadia Mono SemiBold"/>
-      <family val="3"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <name val="Cascadia Mono SemiLight"/>
@@ -5839,15 +6302,6 @@
     <font>
       <b/>
       <i/>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Cascadia Mono SemiLight"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
       <sz val="15"/>
       <color theme="1"/>
       <name val="Cascadia Mono SemiBold"/>
@@ -5863,11 +6317,19 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF7030A0"/>
-      <name val="Cascadia Mono SemiLight"/>
-      <family val="3"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -6039,7 +6501,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -6053,7 +6515,13 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6080,44 +6548,20 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -6125,13 +6569,43 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6157,6 +6631,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1657</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30D3034E-A80A-1469-59C5-5F51DEE0B656}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21821055" y="1072563"/>
+          <a:ext cx="6196052" cy="3800451"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6456,261 +6979,266 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E38B81CE-79E3-4568-BB50-9E45BADB5D49}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="22"/>
+  <sheetFormatPr defaultRowHeight="22.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="149.26953125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="155" style="2" customWidth="1"/>
-    <col min="3" max="3" width="54.90625" style="18" customWidth="1"/>
+    <col min="1" max="1" width="138.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="147.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="54.875" style="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.149999999999999" customHeight="1">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="3"/>
-      <c r="C1" s="15"/>
+      <c r="C1" s="23"/>
     </row>
-    <row r="2" spans="1:3" ht="275.14999999999998" customHeight="1">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:3" ht="275.10000000000002" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="409" customHeight="1">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:3" ht="408.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="23"/>
+      <c r="C3" s="25"/>
     </row>
-    <row r="4" spans="1:3" ht="339.75" customHeight="1">
-      <c r="A4" s="11" t="s">
-        <v>36</v>
+    <row r="4" spans="1:3" ht="339.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>31</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="24"/>
+      <c r="C4" s="26"/>
     </row>
-    <row r="5" spans="1:3" ht="100" customHeight="1">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="27" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="270" customHeight="1">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:3" ht="270" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="23"/>
+      <c r="C6" s="25"/>
     </row>
-    <row r="7" spans="1:3" ht="90" customHeight="1">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="24"/>
+      <c r="C7" s="26"/>
     </row>
-    <row r="8" spans="1:3" ht="20.149999999999999" customHeight="1">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="14"/>
+    <row r="8" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="28"/>
     </row>
-    <row r="9" spans="1:3" ht="20.149999999999999" customHeight="1">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="15"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="23"/>
     </row>
-    <row r="10" spans="1:3" ht="20.149999999999999" customHeight="1">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="15"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="23"/>
     </row>
-    <row r="11" spans="1:3" ht="370.5" customHeight="1">
-      <c r="A11" s="13" t="s">
-        <v>38</v>
+    <row r="11" spans="1:3" ht="360" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>47</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="21" t="s">
-        <v>35</v>
+      <c r="C11" s="17" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="240" customHeight="1">
-      <c r="A12" s="11" t="s">
+    <row r="12" spans="1:3" ht="266.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="24"/>
+    </row>
+    <row r="13" spans="1:3" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="25"/>
+    </row>
+    <row r="14" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="26"/>
+    </row>
+    <row r="15" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="23"/>
+    </row>
+    <row r="16" spans="1:3" ht="270.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="22"/>
-    </row>
-    <row r="13" spans="1:3" ht="110.15" customHeight="1">
-      <c r="A13" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="23"/>
-    </row>
-    <row r="14" spans="1:3" ht="20.149999999999999" customHeight="1">
-      <c r="A14" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="15"/>
-    </row>
-    <row r="15" spans="1:3" ht="270.75" customHeight="1">
-      <c r="A15" s="11" t="s">
+      <c r="B16" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="C16" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="16" t="s">
+    </row>
+    <row r="17" spans="1:3" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="99" customHeight="1">
-      <c r="A16" s="11" t="s">
-        <v>32</v>
+    <row r="18" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
+        <v>48</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="16" t="s">
+      <c r="B18" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="100" customHeight="1">
-      <c r="A17" s="11" t="s">
-        <v>29</v>
+    <row r="19" spans="1:3" ht="294" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="15" t="s">
+        <v>50</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>37</v>
+      <c r="B19" s="13" t="s">
+        <v>51</v>
       </c>
-      <c r="C17" s="22" t="s">
-        <v>28</v>
+      <c r="C19" s="25"/>
+    </row>
+    <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+    </row>
+    <row r="21" spans="1:3" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="35"/>
+    </row>
+    <row r="22" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="27" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="294" customHeight="1">
-      <c r="A18" s="13" t="s">
-        <v>31</v>
+    <row r="23" spans="1:3" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="21" t="s">
+        <v>55</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>30</v>
+      <c r="B23" s="15" t="s">
+        <v>56</v>
       </c>
-      <c r="C18" s="23"/>
+      <c r="C23" s="30"/>
     </row>
-    <row r="19" spans="1:3" ht="20.149999999999999" customHeight="1">
-      <c r="A19" s="25" t="s">
-        <v>21</v>
+    <row r="24" spans="1:3" ht="210" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="15" t="s">
+        <v>57</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
+      <c r="B24" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="31"/>
     </row>
-    <row r="20" spans="1:3" ht="81.5" customHeight="1">
-      <c r="A20" s="13" t="s">
-        <v>41</v>
+    <row r="25" spans="1:3" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="22" t="s">
+        <v>59</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="20"/>
-    </row>
-    <row r="21" spans="1:3" ht="36.5" customHeight="1">
-      <c r="A21" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="26" t="s">
-        <v>49</v>
+      <c r="B25" s="22"/>
+      <c r="C25" s="32" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="67.5" customHeight="1">
-      <c r="A22" s="27" t="s">
-        <v>43</v>
+    <row r="26" spans="1:3" ht="224.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="22" t="s">
+        <v>61</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>50</v>
+      <c r="B26" s="22"/>
+      <c r="C26" s="32"/>
+    </row>
+    <row r="27" spans="1:3" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="22" t="s">
+        <v>62</v>
       </c>
-      <c r="C22" s="30"/>
-    </row>
-    <row r="23" spans="1:3" ht="210" customHeight="1">
-      <c r="A23" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="29"/>
-    </row>
-    <row r="24" spans="1:3" ht="110" customHeight="1">
-      <c r="A24" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="31" t="s">
-        <v>51</v>
+      <c r="B27" s="22"/>
+      <c r="C27" s="29" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="224.5" customHeight="1">
-      <c r="A25" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="31"/>
-    </row>
-    <row r="26" spans="1:3" ht="70.5" customHeight="1">
-      <c r="A26" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="20.149999999999999" customHeight="1">
-      <c r="A27" s="9" t="s">
+    <row r="28" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="17"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="C25:C26"/>
     <mergeCell ref="C2:C4"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C12:C14"/>
     <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C17:C18"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6720,66 +7248,110 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48426D71-A9D2-4765-8952-428E08E6A5AA}">
-  <dimension ref="A7:B9"/>
+  <dimension ref="A7:M9"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="138.453125" customWidth="1"/>
-    <col min="2" max="2" width="147.453125" customWidth="1"/>
+    <col min="1" max="1" width="138.5" customWidth="1"/>
+    <col min="2" max="2" width="147.5" customWidth="1"/>
+    <col min="13" max="13" width="58.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:2" ht="300" customHeight="1">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:13" ht="300" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="289.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="16"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBEB009D-8109-40EB-910F-58A5C0FAB48B}">
+  <dimension ref="B3:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="106.25" style="19" customWidth="1"/>
+    <col min="3" max="3" width="58.375" style="19" customWidth="1"/>
+    <col min="4" max="4" width="47.625" style="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B4" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>18</v>
+    </row>
+    <row r="7" spans="2:4" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="18" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="360" customHeight="1">
-      <c r="A8" s="11" t="s">
-        <v>20</v>
+    <row r="9" spans="2:4" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="18" t="s">
+        <v>35</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>14</v>
+      <c r="C9" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="19"/>
+    <row r="10" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B10" s="18"/>
+      <c r="C10" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06561689-C44D-4EA2-806A-B66B3DE3C564}">
-  <dimension ref="A5:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="67.81640625" customWidth="1"/>
-    <col min="2" max="2" width="37" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/BMW_SecOc.xlsx
+++ b/BMW_SecOc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_XuhuaRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22D83E7-ED72-4DF6-87F7-E61D20FA6D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69391B07-F886-4BBA-9362-3A738C0F6DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-8640" windowWidth="38640" windowHeight="21240" xr2:uid="{EE3554E5-5B85-4F6F-95D2-24E55C4E92D2}"/>
   </bookViews>
@@ -2518,263 +2518,6 @@
   </si>
   <si>
     <r>
-      <t>UserCode_CopyMessageLinkToCryptoPdu(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-_____________________________________________________________
- if (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;UseSecuredPduAsCryptoPduForMsgSplitUp)
-if (isBitCountingPolicyMontone == 1) {
-    CopyBitsBE(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;SecuredIPdu_SduDataPtr,
-               </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;SecuredIPdu_MessageLinkPosition,
-               </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;AuthenticIPdu_SduDataPtr,
-               </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;MessageLinkPosition, pduProps-&gt;MessageLinkLength);
-}
-else {
-    uint16 SawtoothMessageLinkPosition = SwapBits(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;MessageLinkPosition, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;MessageLinkLength);
-    CopyBitsBE(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;SecuredIPdu_SduDataPtr,
-               </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;SecuredIPdu_MessageLinkPosition,
-               </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;AuthenticIPdu_SduDataPtr,
-               SawtoothMessageLinkPosition, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;MessageLinkLength);</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -2833,119 +2576,9 @@
       </rPr>
       <t xml:space="preserve">       Length of the Message Linker inside the Authentic I-PDU in bits</t>
     </r>
-  </si>
-  <si>
-    <t>Cryptographic I-PDU</t>
-  </si>
-  <si>
-    <t>None Cryptographic SecuredPduData</t>
   </si>
   <si>
     <t>freshnessValue</t>
-  </si>
-  <si>
-    <r>
-      <t>UserCode_CopyAuthPduDataToSecuredPduData(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>)
-_____________________________________________________________
-memcpy(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;SecuredIPdu_SduDataPtr + </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;AuthPduHeaderLength,
-       </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;AuthenticIPdu_SduDataPtr,
-       </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;AuthenticIPdu_ActualSduLength);</t>
-    </r>
   </si>
   <si>
     <r>
@@ -4507,372 +4140,6 @@
   </si>
   <si>
     <r>
-      <t>if (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;IsAnyCounterMessage) {
-    DSBUSCUSTOMCODE_TRY_S(fD, UserCodeForCntMsgs_IdentifyProperTxFreshness(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>, &amp;freshnessValue));
-}
-else {
-    DSBUSCUSTOMCODE_TRY_S(fD, UserCode_IdentifyProperTxFreshness(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>, &amp;freshnessValue));
-}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>IsAnyCounterMessage: UserCodeForCntMsgs_ReadFreshnessValueFromPduData(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>)
-!IsAnyCounterMessage: GetMasterCntValueGlobal()</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>if (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;IsAnyCounterMessage)
-    UserCodeForCntMsgs_WriteTxFreshnessValueToPduData(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>, freshnessValue);
-else
-    UserCode_WriteTxFreshnessValueToPduData(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>, freshnessValue);</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>UserCodeForCntMsgs_WriteTxFreshnessValueToPduData
-_____________________________________________________________
-if (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;IsCounterMessage)
-    SecOCCounterMessageWriteTxFreshnessValueToPduData(userDefsOfSecOCCounterMsgs,counterValue, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;AuthenticIPdu_SduDataPtr);
-else if (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;IsCounterResponseMessage)
-    SecOCCounterResponseMessageWriteTxFreshnessValueToPduData(userDefsOfSecOCCounterMsgs,counterValue, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;AuthenticIPdu_SduDataPtr);
-UserCode_WriteTxFreshnessValueToPduData(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, freshnessValue)
-_____________________________________________________________
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">// Use local variable copies to avoid problems due to different internal and SecOC freshness length </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">       
-uint64 freshnessValue_BE = USER_CODE_INT64_TO_BE((uint64)freshnVal);
-uint32 freshnessSourceStartPos = sizeof(uint64) * 8 - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;FreshnessValTruncatedLength;
-uint8* freshnessSourcePtr = (uint8*)&amp;freshnessValue_BE;
-CopyBitsBE(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;SecuredIPdu_SduDataPtr, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;FreshnessValuePosition,
-                              freshnessSourcePtr, freshnessSourceStartPos, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;FreshnessValTruncatedLength);</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>DsBusCustomCode_onPduFeatureExecutionPrivateTxAuthenticationHandling(</t>
     </r>
     <r>
@@ -5031,48 +4298,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;PduFeatureHandle.SecOCTxPduFeature.CalculatedFreshnessValue
-was set by DsBusCustomCodeSecOCTxPduFeature_setCalculatedFreshnessValue
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;PduFeatureHandle-&gt;SecOCTxPduFeature.CalculatedFreshnessValue =  (uint64)CalculatedFreshnessValue</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>UserCode_SecOCHelper_PrepareDataToAuthenticator(</t>
     </r>
     <r>
@@ -6145,13 +5370,998 @@
   </si>
   <si>
     <t>SecuredPduData MAC</t>
+  </si>
+  <si>
+    <r>
+      <t>if (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;IsAnyCounterMessage)
+    UserCodeForCntMsgs_WriteTxFreshnessValueToPduData(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>, freshnessValue);
+else
+    UserCode_WriteTxFreshnessValueToPduData(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>, freshnessValue);</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>if (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;IsAnyCounterMessage)
+DSBUSCUSTOMCODE_TRY_S(fD, UserCodeForCntMsgs_IdentifyProperTxFreshness(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>, &amp;freshnessValue))
+else
+DSBUSCUSTOMCODE_TRY_S(fD, UserCode_IdentifyProperTxFreshness(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>, &amp;freshnessValue))</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">IsAnyCounterMessage: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>UserCodeForCntMsgs_ReadFreshnessValueFromPduData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>)
+_____________________________________________________________
+freshnessVal = SecOCCounterMessageReadFreshnessValueFromPduData(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>userDefsOfSecOCCounterMsgs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;AuthenticIPdu_SduDataPtr)
+________________________________
+bitLength = userDefsOfSecOCCounterMsgs-&gt;SecOCCounterSignalBitLength
+bitPosition = userDefsOfSecOCCounterMsgs-&gt;SecOCCounterMessageSignalCounterBitPosition
+return (uint32)_CommonReadValueFromPduData(authPduDataPtr, bitPosition, bitLength)
+________________
+ReadBitsLE_Max64Bits(authPduDataPtr, authPduDataStartBit, bitCount)
+________
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>CopyBitsLE_Max64Bits((uint8*)&amp;readValue, 0, sourcePtr, sourceStartBit, bitCount)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+!IsAnyCounterMessage: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>GetMasterCntValueGlobal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>UserCodeForCntMsgs_WriteTxFreshnessValueToPduData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+_____________________________________________________________
+if (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;IsCounterMessage)
+    SecOCCounterMessageWriteTxFreshnessValueToPduData(userDefsOfSecOCCounterMsgs,counterValue, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;AuthenticIPdu_SduDataPtr)
+_______________________________
+        uint32 bitLength = userDefsOfSecOCCounterMsgs-&gt;SecOCCounterSignalBitLength;
+        uint32 bitPosition = userDefsOfSecOCCounterMsgs-&gt;SecOCCounterMessageSignalCounterBitPosition;
+        USERCODE_DEBUG_PRINT("SecOCCounterMessageWriteTxFreshnessValueToPduData, Counterval: %d\n", counterValue)
+        _CommonWriteValueToPduData(authPduDataPtr, bitPosition,(uint8*)&amp;counterValue, bitLength)
+________________
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>CopyBitsLE_Max64Bits(authPduDataPtr, authPduDataStartBit, sourceDataPtr, 0, bitCount)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+else if (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;IsCounterResponseMessage)
+    SecOCCounterResponseMessageWriteTxFreshnessValueToPduData(userDefsOfSecOCCounterMsgs,counterValue, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;AuthenticIPdu_SduDataPtr);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>UserCode_WriteTxFreshnessValueToPduData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, freshnessValue)
+_____________________________________________________________
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">// Use local variable copies to avoid problems due to different internal and SecOC freshness length </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">       
+uint64 freshnessValue_BE = USER_CODE_INT64_TO_BE((uint64)freshnVal);
+uint32 freshnessSourceStartPos = sizeof(uint64) * 8 - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;FreshnessValTruncatedLength;
+uint8* freshnessSourcePtr = (uint8*)&amp;freshnessValue_BE;
+CopyBitsBE(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;SecuredIPdu_SduDataPtr, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;FreshnessValuePosition,freshnessSourcePtr, freshnessSourceStartPos, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;FreshnessValTruncatedLength);</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DsBusCustomCodeSecOCTxPduFeature_setCalculatedFreshnessValue(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;PduFeatureHandle,freshnessValue)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;PduFeatureHandle-&gt;SecOCTxPduFeature.CalculatedFreshnessValue = freshnessValue</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;PduFeatureHandle.SecOCTxPduFeature.CalculatedFreshnessValue
+was set by DsBusCustomCodeSecOCTxPduFeature_setCalculatedFreshnessValue
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;PduFeatureHandle-&gt;SecOCTxPduFeature.CalculatedFreshnessValue =  freshnessValue</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>if (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;UseSecuredPduAsCryptoPduForMsgSplitUp)
+UserCode_CopyMessageLinkToCryptoPdu(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+_____________________________________________________________
+if (isBitCountingPolicyMontone == 1) {
+    CopyBitsBE(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;SecuredIPdu_SduDataPtr,
+               </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;SecuredIPdu_MessageLinkPosition,
+               </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;AuthenticIPdu_SduDataPtr,
+               </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;MessageLinkPosition, pduProps-&gt;MessageLinkLength);
+}
+else {
+    uint16 SawtoothMessageLinkPosition = SwapBits(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;MessageLinkPosition, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;MessageLinkLength);
+    CopyBitsBE(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;SecuredIPdu_SduDataPtr,
+               </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;SecuredIPdu_MessageLinkPosition,
+               </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;AuthenticIPdu_SduDataPtr,
+               SawtoothMessageLinkPosition, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;MessageLinkLength);
+if (!</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;UseSecuredPduAsCryptoPduForMsgSplitUp)
+UserCode_CopyAuthPduDataToSecuredPduData(pduFeatData)
+_____________________________________________________________
+memcpy(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;SecuredIPdu_SduDataPtr + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;AuthPduHeaderLength,
+       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;AuthenticIPdu_SduDataPtr,
+       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;AuthenticIPdu_ActualSduLength);</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AuthenticIPDU in
+Cryptographic I-PDU 
+&amp;None Cryptographic </t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6330,6 +6540,12 @@
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7"/>
+      <name val="Cascadia Mono SemiLight"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="5">
@@ -6518,9 +6734,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -6560,9 +6773,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -6575,20 +6785,29 @@
     <xf numFmtId="0" fontId="21" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6599,14 +6818,11 @@
     <xf numFmtId="0" fontId="21" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6981,258 +7197,258 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E38B81CE-79E3-4568-BB50-9E45BADB5D49}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="138.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="147.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="54.875" style="34" customWidth="1"/>
+    <col min="3" max="3" width="54.875" style="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="3"/>
-      <c r="C1" s="23"/>
+      <c r="C1" s="21"/>
     </row>
     <row r="2" spans="1:3" ht="275.10000000000002" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="27" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="408.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="25"/>
+      <c r="C3" s="28"/>
     </row>
     <row r="4" spans="1:3" ht="339.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
-        <v>31</v>
+      <c r="A4" s="12" t="s">
+        <v>27</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="26"/>
+      <c r="C4" s="34"/>
     </row>
     <row r="5" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="30" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="270" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="25"/>
+      <c r="C6" s="28"/>
     </row>
     <row r="7" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="26"/>
+      <c r="C7" s="34"/>
     </row>
     <row r="8" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="28"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="22"/>
     </row>
     <row r="9" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="23"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="21"/>
     </row>
     <row r="10" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="23"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="21"/>
     </row>
     <row r="11" spans="1:3" ht="360" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
-        <v>47</v>
+      <c r="A11" s="14" t="s">
+        <v>43</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="17" t="s">
-        <v>30</v>
+      <c r="C11" s="16" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="266.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="24"/>
+      <c r="C12" s="27"/>
     </row>
     <row r="13" spans="1:3" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>29</v>
+      <c r="B13" s="12" t="s">
+        <v>25</v>
       </c>
-      <c r="C13" s="25"/>
+      <c r="C13" s="28"/>
     </row>
     <row r="14" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="26"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="34"/>
     </row>
     <row r="15" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="23"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="21"/>
     </row>
-    <row r="16" spans="1:3" ht="270.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
+    <row r="16" spans="1:3" ht="390.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="C16" s="35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="201" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="29" t="s">
-        <v>25</v>
+    </row>
+    <row r="18" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="28"/>
+    </row>
+    <row r="19" spans="1:3" ht="396.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="28"/>
+    </row>
+    <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+    </row>
+    <row r="21" spans="1:3" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="23"/>
+    </row>
+    <row r="22" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="30" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="99" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
-        <v>28</v>
+    <row r="23" spans="1:3" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="19" t="s">
+        <v>47</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="29" t="s">
-        <v>26</v>
+      <c r="B23" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="31"/>
+    </row>
+    <row r="24" spans="1:3" ht="242.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="32"/>
+    </row>
+    <row r="25" spans="1:3" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="20"/>
+      <c r="C25" s="33" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="294" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="25"/>
-    </row>
-    <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-    </row>
-    <row r="21" spans="1:3" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
+    <row r="26" spans="1:3" ht="224.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="35"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="33"/>
     </row>
-    <row r="22" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="15" t="s">
+    <row r="27" spans="1:3" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="27" t="s">
+      <c r="B27" s="20"/>
+      <c r="C27" s="24" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="30"/>
-    </row>
-    <row r="24" spans="1:3" ht="210" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="31"/>
-    </row>
-    <row r="25" spans="1:3" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="224.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="32"/>
-    </row>
-    <row r="27" spans="1:3" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27" s="22"/>
-      <c r="C27" s="29" t="s">
-        <v>63</v>
-      </c>
-    </row>
     <row r="28" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="33"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C17:C19"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="C22:C24"/>
     <mergeCell ref="C25:C26"/>
@@ -7262,26 +7478,26 @@
   </cols>
   <sheetData>
     <row r="7" spans="1:13" ht="300" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
-        <v>45</v>
+      <c r="A7" s="14" t="s">
+        <v>41</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>46</v>
+      <c r="B7" s="12" t="s">
+        <v>42</v>
       </c>
-      <c r="M7" s="16" t="s">
-        <v>44</v>
+      <c r="M7" s="15" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="289.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
-        <v>43</v>
+      <c r="A8" s="12" t="s">
+        <v>39</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>42</v>
+      <c r="B8" s="12" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
+      <c r="A9" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -7300,54 +7516,54 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="106.25" style="19" customWidth="1"/>
-    <col min="3" max="3" width="58.375" style="19" customWidth="1"/>
-    <col min="4" max="4" width="47.625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="106.25" style="18" customWidth="1"/>
+    <col min="3" max="3" width="58.375" style="18" customWidth="1"/>
+    <col min="4" max="4" width="47.625" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B4" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="17" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B4" s="18" t="s">
-        <v>33</v>
+    <row r="9" spans="2:4" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="17" t="s">
+        <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="18" t="s">
+      <c r="D9" s="17" t="s">
         <v>35</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B10" s="18"/>
-      <c r="C10" s="18" t="s">
-        <v>41</v>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17" t="s">
+        <v>37</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>40</v>
+      <c r="D10" s="18" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/BMW_SecOc.xlsx
+++ b/BMW_SecOc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_XuhuaRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69391B07-F886-4BBA-9362-3A738C0F6DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02A3110-9124-4B47-91A5-716264B151B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-8640" windowWidth="38640" windowHeight="21240" xr2:uid="{EE3554E5-5B85-4F6F-95D2-24E55C4E92D2}"/>
   </bookViews>
@@ -5635,6 +5635,461 @@
   </si>
   <si>
     <r>
+      <t>DsBusCustomCodeSecOCTxPduFeature_setCalculatedFreshnessValue(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;PduFeatureHandle,freshnessValue)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;PduFeatureHandle-&gt;SecOCTxPduFeature.CalculatedFreshnessValue = freshnessValue</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;PduFeatureHandle.SecOCTxPduFeature.CalculatedFreshnessValue
+was set by DsBusCustomCodeSecOCTxPduFeature_setCalculatedFreshnessValue
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;PduFeatureHandle-&gt;SecOCTxPduFeature.CalculatedFreshnessValue =  freshnessValue</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>if (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;UseSecuredPduAsCryptoPduForMsgSplitUp)
+UserCode_CopyMessageLinkToCryptoPdu(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+_____________________________________________________________
+if (isBitCountingPolicyMontone == 1) {
+    CopyBitsBE(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;SecuredIPdu_SduDataPtr,
+               </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;SecuredIPdu_MessageLinkPosition,
+               </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;AuthenticIPdu_SduDataPtr,
+               </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;MessageLinkPosition, pduProps-&gt;MessageLinkLength);
+}
+else {
+    uint16 SawtoothMessageLinkPosition = SwapBits(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;MessageLinkPosition, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;MessageLinkLength);
+    CopyBitsBE(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;SecuredIPdu_SduDataPtr,
+               </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;SecuredIPdu_MessageLinkPosition,
+               </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;AuthenticIPdu_SduDataPtr,
+               SawtoothMessageLinkPosition, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;MessageLinkLength);
+if (!</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;UseSecuredPduAsCryptoPduForMsgSplitUp)
+UserCode_CopyAuthPduDataToSecuredPduData(pduFeatData)
+_____________________________________________________________
+memcpy(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;SecuredIPdu_SduDataPtr + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;AuthPduHeaderLength,
+       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;AuthenticIPdu_SduDataPtr,
+       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;AuthenticIPdu_ActualSduLength);</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AuthenticIPDU in
+Cryptographic I-PDU 
+&amp;None Cryptographic </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -5672,8 +6127,27 @@
         <rFont val="Cascadia Mono SemiLight"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve">-&gt;IsCounterMessage)
-    SecOCCounterMessageWriteTxFreshnessValueToPduData(userDefsOfSecOCCounterMsgs,counterValue, </t>
+      <t>-&gt;IsCounterMessage)
+    SecOCCounterMessageWriteTxFreshnessValueToPduData(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>userDefsOfSecOCCounterMsgs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">,counterValue, </t>
     </r>
     <r>
       <rPr>
@@ -5737,8 +6211,27 @@
         <rFont val="Cascadia Mono SemiLight"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve">-&gt;IsCounterResponseMessage)
-    SecOCCounterResponseMessageWriteTxFreshnessValueToPduData(userDefsOfSecOCCounterMsgs,counterValue, </t>
+      <t>-&gt;IsCounterResponseMessage)
+    SecOCCounterResponseMessageWriteTxFreshnessValueToPduData(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>userDefsOfSecOCCounterMsgs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">,counterValue, </t>
     </r>
     <r>
       <rPr>
@@ -5899,461 +6392,6 @@
       </rPr>
       <t>-&gt;FreshnessValTruncatedLength);</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>DsBusCustomCodeSecOCTxPduFeature_setCalculatedFreshnessValue(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;PduFeatureHandle,freshnessValue)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;PduFeatureHandle-&gt;SecOCTxPduFeature.CalculatedFreshnessValue = freshnessValue</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;PduFeatureHandle.SecOCTxPduFeature.CalculatedFreshnessValue
-was set by DsBusCustomCodeSecOCTxPduFeature_setCalculatedFreshnessValue
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;PduFeatureHandle-&gt;SecOCTxPduFeature.CalculatedFreshnessValue =  freshnessValue</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>if (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;UseSecuredPduAsCryptoPduForMsgSplitUp)
-UserCode_CopyMessageLinkToCryptoPdu(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-_____________________________________________________________
-if (isBitCountingPolicyMontone == 1) {
-    CopyBitsBE(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;SecuredIPdu_SduDataPtr,
-               </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;SecuredIPdu_MessageLinkPosition,
-               </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;AuthenticIPdu_SduDataPtr,
-               </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;MessageLinkPosition, pduProps-&gt;MessageLinkLength);
-}
-else {
-    uint16 SawtoothMessageLinkPosition = SwapBits(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;MessageLinkPosition, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;MessageLinkLength);
-    CopyBitsBE(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;SecuredIPdu_SduDataPtr,
-               </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;SecuredIPdu_MessageLinkPosition,
-               </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;AuthenticIPdu_SduDataPtr,
-               SawtoothMessageLinkPosition, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;MessageLinkLength);
-if (!</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;UseSecuredPduAsCryptoPduForMsgSplitUp)
-UserCode_CopyAuthPduDataToSecuredPduData(pduFeatData)
-_____________________________________________________________
-memcpy(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;SecuredIPdu_SduDataPtr + </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;AuthPduHeaderLength,
-       </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;AuthenticIPdu_SduDataPtr,
-       </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;AuthenticIPdu_ActualSduLength);</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">AuthenticIPDU in
-Cryptographic I-PDU 
-&amp;None Cryptographic </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -6797,6 +6835,9 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6820,9 +6861,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7197,8 +7235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E38B81CE-79E3-4568-BB50-9E45BADB5D49}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" x14ac:dyDescent="0.2"/>
@@ -7222,7 +7260,7 @@
       <c r="B2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="28" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7233,7 +7271,7 @@
       <c r="B3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="28"/>
+      <c r="C3" s="29"/>
     </row>
     <row r="4" spans="1:3" ht="339.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
@@ -7242,7 +7280,7 @@
       <c r="B4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="34"/>
+      <c r="C4" s="35"/>
     </row>
     <row r="5" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
@@ -7251,7 +7289,7 @@
       <c r="B5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="31" t="s">
         <v>10</v>
       </c>
     </row>
@@ -7262,7 +7300,7 @@
       <c r="B6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="28"/>
+      <c r="C6" s="29"/>
     </row>
     <row r="7" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
@@ -7271,7 +7309,7 @@
       <c r="B7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="34"/>
+      <c r="C7" s="35"/>
     </row>
     <row r="8" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
@@ -7310,7 +7348,7 @@
       <c r="B12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="27"/>
+      <c r="C12" s="28"/>
     </row>
     <row r="13" spans="1:3" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
@@ -7319,12 +7357,12 @@
       <c r="B13" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="28"/>
+      <c r="C13" s="29"/>
     </row>
     <row r="14" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
-      <c r="C14" s="34"/>
+      <c r="C14" s="35"/>
     </row>
     <row r="15" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
@@ -7335,13 +7373,13 @@
     </row>
     <row r="16" spans="1:3" ht="390.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="35" t="s">
-        <v>63</v>
+      <c r="C16" s="27" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="201" customHeight="1" x14ac:dyDescent="0.2">
@@ -7351,34 +7389,34 @@
       <c r="B17" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="28" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="28"/>
+      <c r="C18" s="29"/>
     </row>
-    <row r="19" spans="1:3" ht="396.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="408.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>55</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
-      <c r="C19" s="28"/>
+      <c r="C19" s="29"/>
     </row>
     <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
     </row>
     <row r="21" spans="1:3" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
@@ -7392,7 +7430,7 @@
         <v>45</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="31" t="s">
         <v>46</v>
       </c>
     </row>
@@ -7401,9 +7439,9 @@
         <v>47</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
-      <c r="C23" s="31"/>
+      <c r="C23" s="32"/>
     </row>
     <row r="24" spans="1:3" ht="242.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
@@ -7412,14 +7450,14 @@
       <c r="B24" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="32"/>
+      <c r="C24" s="33"/>
     </row>
     <row r="25" spans="1:3" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
         <v>50</v>
       </c>
       <c r="B25" s="20"/>
-      <c r="C25" s="33" t="s">
+      <c r="C25" s="34" t="s">
         <v>51</v>
       </c>
     </row>
@@ -7428,7 +7466,7 @@
         <v>52</v>
       </c>
       <c r="B26" s="20"/>
-      <c r="C26" s="33"/>
+      <c r="C26" s="34"/>
     </row>
     <row r="27" spans="1:3" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">

--- a/BMW_SecOc.xlsx
+++ b/BMW_SecOc.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_XuhuaRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C73395-6439-4AF6-82F3-1A306EE092B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E919399-12A3-4DD0-837B-B5C0D8638411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-8640" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{EE3554E5-5B85-4F6F-95D2-24E55C4E92D2}"/>
+    <workbookView xWindow="28680" yWindow="-8640" windowWidth="38640" windowHeight="21240" xr2:uid="{EE3554E5-5B85-4F6F-95D2-24E55C4E92D2}"/>
   </bookViews>
   <sheets>
-    <sheet name="BMW" sheetId="2" r:id="rId1"/>
+    <sheet name="Code" sheetId="2" r:id="rId1"/>
     <sheet name="pduFeatureHandle" sheetId="5" r:id="rId2"/>
+    <sheet name="PDU" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="98">
   <si>
     <t>DsBusCustomCode_onPduFeatureExecutionPrivate(pduFeatureHandle)</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -36,323 +37,6 @@
   </si>
   <si>
     <t>UserCode_FeatureData</t>
-  </si>
-  <si>
-    <r>
-      <t>UserCode_Csm_KeyElementInit(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>CsmJobHandle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, CRYPTO_KE_MAC_KEY), CRYPTO_KE_MAC_KEY = 0x01
-_____________________________________________________________
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>CsmJobHandle_Type</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">* </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>jobHandle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> = (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>CsmJobHandle_Type</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>*)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>CsmJobHandle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-struct </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="9" tint="-0.499984740745262"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>AES_ctx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">* </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>handle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> = Ds_CMAC_New();
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>jobHandle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="9" tint="-0.499984740745262"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>CTX_Handle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> = </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>handle</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Ds_CMAC_New()
-_____________________________________________________________
-struct </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="9" tint="-0.499984740745262"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>AES_ctx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> *</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="9" tint="-0.499984740745262"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>ctx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> = (struct </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="9" tint="-0.499984740745262"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>AES_ctx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">*)rtlib_calloc(1, sizeof(struct </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="9" tint="-0.499984740745262"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>AES_ctx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">));
-return </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="9" tint="-0.499984740745262"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>ctx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DsBusCustomCode_onPduFeatureExecutionPrivateUnhandled</t>
   </si>
   <si>
     <r>
@@ -431,207 +115,6 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;SecuredIPdu_PduHandle = securedIPdu_PduHandle
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;IsTx = isTx;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;IsRx = !isTx;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;SecuredIPdu_SduDataPtr = securedIPdu_SduDataPtr
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;AuthenticIPdu_SduDataPtr = authenticIPdu_SduDataPtr
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;AuthenticIPdu_ActualSduLength = authenticIPdu_ActualLength
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;MacPosition = securedIPduAuthenticatorPosition;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;SecuredIPdu_MessageLinkPosition = securedIPduMessageLinkerPosition
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;SecuredAreaLength = actualSecuredAreaLength;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;SecuredAreaOffset = actualSecuredAreaOffset;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <sz val="11"/>
         <color rgb="FFFF00FF"/>
         <rFont val="Cascadia Mono SemiLight"/>
@@ -1093,149 +576,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;IsCounterMessage
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;IsCounterResponseMessage 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;IsAnyCounterMessage
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;FreshnessValLength
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;FreshnessValTruncatedLength(freshnessValueTxLength)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;SecuredIPdu_KeyId
-SetSecuredIPdu_KeyIdSource(keyIdSource,  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;SecuredIPdu_Name)
-dataId</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>DsBusCustomCode_onPduFeatureExecutionPrivateTx</t>
   </si>
   <si>
@@ -1298,9 +638,6 @@
       </rPr>
       <t xml:space="preserve">       Length of the Message Linker inside the Authentic I-PDU in bits</t>
     </r>
-  </si>
-  <si>
-    <t>freshnessValue</t>
   </si>
   <si>
     <r>
@@ -1670,10 +1007,6 @@
     </r>
   </si>
   <si>
-    <t>Cmac Preparare: resultPtr = 
-DataID + Authentic_IPDU + FreshnessValue</t>
-  </si>
-  <si>
     <r>
       <t>freshnessValue = GetAppropiateFreshnessValue(</t>
     </r>
@@ -2286,433 +1619,6 @@
   </si>
   <si>
     <r>
-      <t>UserCode_Csm_MacGenerate(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>csmJobHandle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, 
-                         </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>Crypto_Job</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;PrimitiveInputOutput-&gt;mode,
-                         </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>Crypto_Job</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;PrimitiveInputOutput-&gt;inputPtr,          </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>resultPtr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">(PrepareDataToAuthenticator)
-                         </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>Crypto_Job</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;PrimitiveInputOutput-&gt;inputLength,       </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>resultLengthPtr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">(PrepareDataToAuthenticator)
-                         </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>Crypto_Job</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;PrimitiveInputOutput-&gt;outputPtr,         </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>authenticatorPtr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-                         </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>Crypto_Job</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;PrimitiveInputOutput-&gt;outputLengthPtr)   </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>authenticatorLengthInBytes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-_____________________________________________________________
-Ds_CMAC_AES(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>ctx_handle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, (UInt8*)dataPtr, dataLength, macPtr)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>ctx_handle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>csmJobHandle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">CTX_Handle
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>dataLength</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>Crypto_Job</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;PrimitiveInputOutput-&gt;inputLength     </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>resultLengthPtr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>(PrepareDataToAuthenticator)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>(UInt8*)dataPtr</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> Crypto_Job</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;PrimitiveInputOutput-&gt;inputPtr  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>resultPtr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">(PrepareDataToAuthenticator)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>macPtr</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> Crypto_Job</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;PrimitiveInputOutput-&gt;outputPtr)          </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>authenticatorPtr</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <i/>
         <sz val="11"/>
@@ -2789,9 +1695,6 @@
       </rPr>
       <t>-&gt;MacTruncatedLength)</t>
     </r>
-  </si>
-  <si>
-    <t>SecuredPduData MAC</t>
   </si>
   <si>
     <r>
@@ -2861,202 +1764,6 @@
   </si>
   <si>
     <r>
-      <t>if (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;IsAnyCounterMessage)
-DSBUSCUSTOMCODE_TRY_S(fD, UserCodeForCntMsgs_IdentifyProperTxFreshness(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>, &amp;freshnessValue))
-else
-DSBUSCUSTOMCODE_TRY_S(fD, UserCode_IdentifyProperTxFreshness(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>, &amp;freshnessValue))</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">IsAnyCounterMessage: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>UserCodeForCntMsgs_ReadFreshnessValueFromPduData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>)
-_____________________________________________________________
-freshnessVal = SecOCCounterMessageReadFreshnessValueFromPduData(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>userDefsOfSecOCCounterMsgs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;AuthenticIPdu_SduDataPtr)
-________________________________
-bitLength = userDefsOfSecOCCounterMsgs-&gt;SecOCCounterSignalBitLength
-bitPosition = userDefsOfSecOCCounterMsgs-&gt;SecOCCounterMessageSignalCounterBitPosition
-return (uint32)_CommonReadValueFromPduData(authPduDataPtr, bitPosition, bitLength)
-________________
-ReadBitsLE_Max64Bits(authPduDataPtr, authPduDataStartBit, bitCount)
-________
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="7"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>CopyBitsLE_Max64Bits((uint8*)&amp;readValue, 0, sourcePtr, sourceStartBit, bitCount)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-!IsAnyCounterMessage: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>GetMasterCntValueGlobal</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>()</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>DsBusCustomCodeSecOCTxPduFeature_setCalculatedFreshnessValue(</t>
     </r>
     <r>
@@ -3142,365 +1849,6 @@
         <family val="3"/>
       </rPr>
       <t>-&gt;PduFeatureHandle-&gt;SecOCTxPduFeature.CalculatedFreshnessValue =  freshnessValue</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>if (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;UseSecuredPduAsCryptoPduForMsgSplitUp)
-UserCode_CopyMessageLinkToCryptoPdu(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-_____________________________________________________________
-if (isBitCountingPolicyMontone == 1) {
-    CopyBitsBE(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;SecuredIPdu_SduDataPtr,
-               </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;SecuredIPdu_MessageLinkPosition,
-               </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;AuthenticIPdu_SduDataPtr,
-               </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;MessageLinkPosition, pduProps-&gt;MessageLinkLength);
-}
-else {
-    uint16 SawtoothMessageLinkPosition = SwapBits(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;MessageLinkPosition, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;MessageLinkLength);
-    CopyBitsBE(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;SecuredIPdu_SduDataPtr,
-               </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;SecuredIPdu_MessageLinkPosition,
-               </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;AuthenticIPdu_SduDataPtr,
-               SawtoothMessageLinkPosition, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;MessageLinkLength);
-if (!</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;UseSecuredPduAsCryptoPduForMsgSplitUp)
-UserCode_CopyAuthPduDataToSecuredPduData(pduFeatData)
-_____________________________________________________________
-memcpy(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;SecuredIPdu_SduDataPtr + </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;AuthPduHeaderLength,
-       </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;AuthenticIPdu_SduDataPtr,
-       </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;AuthenticIPdu_ActualSduLength);</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3508,312 +1856,6 @@
     <t xml:space="preserve">AuthenticIPDU in
 Cryptographic I-PDU 
 &amp;None Cryptographic </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>UserCodeForCntMsgs_WriteTxFreshnessValueToPduData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-_____________________________________________________________
-if (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;IsCounterMessage)
-    SecOCCounterMessageWriteTxFreshnessValueToPduData(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>userDefsOfSecOCCounterMsgs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">,counterValue, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;AuthenticIPdu_SduDataPtr)
-_______________________________
-        uint32 bitLength = userDefsOfSecOCCounterMsgs-&gt;SecOCCounterSignalBitLength;
-        uint32 bitPosition = userDefsOfSecOCCounterMsgs-&gt;SecOCCounterMessageSignalCounterBitPosition;
-        USERCODE_DEBUG_PRINT("SecOCCounterMessageWriteTxFreshnessValueToPduData, Counterval: %d\n", counterValue)
-        _CommonWriteValueToPduData(authPduDataPtr, bitPosition,(uint8*)&amp;counterValue, bitLength)
-________________
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="7"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>CopyBitsLE_Max64Bits(authPduDataPtr, authPduDataStartBit, sourceDataPtr, 0, bitCount)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-else if (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;IsCounterResponseMessage)
-    SecOCCounterResponseMessageWriteTxFreshnessValueToPduData(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>userDefsOfSecOCCounterMsgs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">,counterValue, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;AuthenticIPdu_SduDataPtr);
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>UserCode_WriteTxFreshnessValueToPduData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, freshnessValue)
-_____________________________________________________________
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">// Use local variable copies to avoid problems due to different internal and SecOC freshness length </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">       
-uint64 freshnessValue_BE = USER_CODE_INT64_TO_BE((uint64)freshnVal);
-uint32 freshnessSourceStartPos = sizeof(uint64) * 8 - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;FreshnessValTruncatedLength;
-uint8* freshnessSourcePtr = (uint8*)&amp;freshnessValue_BE;
-CopyBitsBE(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;SecuredIPdu_SduDataPtr, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;FreshnessValuePosition,freshnessSourcePtr, freshnessSourceStartPos, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;FreshnessValTruncatedLength);</t>
-    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -4270,131 +2312,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">char *Name;
-uint8 Ident;
-int LinkedSlBlockId;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiBold"/>
-        <family val="3"/>
-      </rPr>
-      <t>DsBusCustomCodeCommunicationClusterHandle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> ComClusterHandle;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiBold"/>
-        <family val="3"/>
-      </rPr>
-      <t>UserDefsOfSecOCCounterMsgsStruct</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> *UserDefsOfSecOCCounterMsgs; 
-uint8 *ClientCntManagerInstance; 
-boolean CounterMessageMacErrorIgnore;
-unsigned long CounterMessageMacErrorCount;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiBold"/>
-        <family val="3"/>
-      </rPr>
-      <t>UserCode_FeatureData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> *TxCntMsgFeatData;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiBold"/>
-        <family val="3"/>
-      </rPr>
-      <t>UserCode_FeatureData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> *TxCntRespMsgFeatData;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiBold"/>
-        <family val="3"/>
-      </rPr>
-      <t>UserCode_FeatureData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> *RxCntMsgFeatData;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiBold"/>
-        <family val="3"/>
-      </rPr>
-      <t>UserCode_FeatureData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> *RxCntRespMsgFeatData;</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>UserCode_Csm_Init(</t>
     </r>
     <r>
@@ -4463,351 +2380,6 @@
 uint32 dataToAuthentictatorLenInBytes = 0;
 uint32 freshnessValueLength = 0;
 </t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>DsBusCustomCode_collectStaticPduPropertiesDuringRuntime is called in SecOCMainSetupSFunc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-DsBusCustomCode_collectStaticPduPropertiesDuringRuntime(UserCode_FeatureData *</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>)
-_____________________________________________________________
-DsBusCustomCode_collectStaticPduPropertiesDuringRuntimeEx(UserCode_FeatureData *</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>)
-_____________________________________________________________</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>if (!pduProps-&gt;IsAnyCounterMessage)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">DsBusCustomCodeSecuredIPdu_getFreshnessValueLength(securedIPdu_PduHandle, &amp;freshnessValueLength)
-DsBusCustomCodeSecuredIPdu_getFreshnessValueTxLength(securedIPdu_PduHandle, &amp;freshnessValueTxLength)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">else
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>//CntMsg FreshnessVaLength is 0, not taken into account of MAC calculation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;FreshnessValLength = 0
-DsBusCustomCodeSecuredIPdu_getKeyId(securedIPdu_PduHandle, &amp;keyId)
-DsBusCustomCodeSecuredIPdu_getDataId(securedIPdu_PduHandle, &amp;dataId)
-UserCode_Csm_Init_AtRuntime(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;PduFeatureHandle)
-_____________________________________________________________
-_UserCode_Csm_Init(pduFeatureHandle, atRuntime)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>//Already been set in OnApplicationInit. For CounterMsg-PDUs freshnessLength is unknown, hence Crypto-job can not yet been initialized.Second call is done in DsBusCustomCode_collectStaticPduPropertiesDuringRuntime()
-_UserCode_Csm_Init(DsBusCustomCodePduFeatureHandle pduFeatureHandle, boolean atRuntime), atRuntime = TRUE
-_____________________________________________________________
-DsBusCustomCodeSecuredIPdu_getFreshnessValueLength(securedIPdu_PduHandle, &amp;freshnessValueLength)
-dataToAuthentictatorLenInBytes = sizeof(uint16) + authenticIPdu_SduLength + (freshnessValueLength + 7) / 8
-UserCode_SecOCHelper_Create_CryptoJob_For_CMAC_AES_128_Authentication(&amp;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>CsmJobHandle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">,dataToAuthentictatorLenInBytes)
-_____________________________________________________________
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>Crypto_Job</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>UserCode_CryptoJob_Register(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>Crypto_Job</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>, &amp;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>csmJobHandle</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, &amp;jobIdInternal)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>CsmJobHandle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> = </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>csmJobHandle</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -5236,89 +2808,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">uint32 jobId
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiBold"/>
-        <family val="3"/>
-      </rPr>
-      <t>Crypto_JobStateType</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> state 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiBold"/>
-        <family val="3"/>
-      </rPr>
-      <t>Crypto_JobPrimitiveInputOutputType</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">* PrimitiveInputOutput
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiBold"/>
-        <family val="3"/>
-      </rPr>
-      <t>Crypto_JobPrimitiveInfoType</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">* jobPrimitiveInfo
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiBold"/>
-        <family val="3"/>
-      </rPr>
-      <t>Crypto_JobInfoType</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>* jobInfo
-uint32 cryptoKeyId</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>DsBusCustomCode_collectDynamicPduProperties(</t>
     </r>
     <r>
@@ -5582,7 +3071,4050 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>RX secured IPDU</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>SingleClientCntManagerInstance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> *clientCntMgInstance 
+= ClusterAgent-&gt;ClientCntManagerInstance</t>
+    </r>
+  </si>
+  <si>
+    <t>ClientCntValueStruct</t>
+  </si>
+  <si>
+    <t>uint32 CounterValue
+TimerStruct *CounterValReceivedTimer</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>ClusterAgentStruct</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> *ClusterAgent
+unsigned char IsEnabled
+unsigned char IsIncludedInModel
+unsigned long ClientExecutedStepCounter
+unsigned int EcuAddress
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>ClientCntValueStruct</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> *CounterValueInstance
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>ClientMessageContainerStruct</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> *ClientMessages
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>StateStruct</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> *ClientStateMachineMain
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>ClientStMachResyncData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> *ClientStateMachineMainResyncData
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>ClientStateMachineMainDataStruct</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> *ClientStateMachineMainData
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>ClientStateMachineMainTimersStruct</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> *ClientStateMachineMainTimers
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>StateStruct</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> *ClientStateMachineCyclicSync
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>ClientStMachResyncData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> *ClientStateMachineCyclicSyncResyncData
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>ClientStateMachineCyclicSyncDataStruct</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> *ClientStateMachineCyclicSyncData
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>ClientStateMachineCyclicSyncTimersStruct</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> *ClientStateMachineCyclicSyncTimers</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">char *Name
+uint8 Ident
+int LinkedSlBlockId
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>DsBusCustomCodeCommunicationClusterHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> ComClusterHandle
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>UserDefsOfSecOCCounterMsgsStruct</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> *UserDefsOfSecOCCounterMsgs 
+uint8 *ClientCntManagerInstance
+boolean CounterMessageMacErrorIgnore
+unsigned long CounterMessageMacErrorCount
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>UserCode_FeatureData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> *TxCntMsgFeatData
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>UserCode_FeatureData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> *TxCntRespMsgFeatData
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>UserCode_FeatureData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> *RxCntMsgFeatData
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>UserCode_FeatureData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> *RxCntRespMsgFeatData</t>
+    </r>
+  </si>
+  <si>
+    <t>UserDefsOfSecOCCounterMsgsStruct</t>
+  </si>
+  <si>
+    <t>sint32 SecOCMessageKeyId
+uint32 SecOCCounterSignalBitLength
+uint32 SecOCChallengeSignalBitLength
+char* SecOCCounterMessageName
+uint32 SecOCCounterMessageSignalCounterBitPosition
+char* SecOCCounterResponseMessageName
+uint32 SecOCCounterResponseMessageSignalCounterBitPosition
+uint32 SecOCCounterResponseMessageSignalChallengeBitPosition
+char* SecOCCounterRequestMessageName</t>
+  </si>
+  <si>
+    <r>
+      <t>if (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;IsAnyCounterMessage)
+DSBUSCUSTOMCODE_TRY_S(fD, UserCodeForCntMsgs_IdentifyProperTxFreshness(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>, &amp;freshnessValue))
+identifiedCounterVal = UserCodeForCntMsgs_ReadFreshnessValueFromPduData(pduFeatData)
+else
+DSBUSCUSTOMCODE_TRY_S(fD, UserCode_IdentifyProperTxFreshness(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>, &amp;freshnessValue))
+_____________________________________________________________
+!IsAnyCounterMessage: 
+GetMasterIsIncludedInModelAndEnabled：
+&amp;freshnessValue = GetMasterCntValueGlobal()
+!GetMasterIsIncludedInModelAndEnabled
+&amp;freshnessValue = GetClientCounterValue(clientCntMgInstance)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">uint32 jobId
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_JobStateType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> state 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_JobPrimitiveInputOutputType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">* PrimitiveInputOutput
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_JobPrimitiveInfoType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">* jobPrimitiveInfo
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_JobInfoType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>* jobInfo
+uint32 cryptoKeyId</t>
+    </r>
+  </si>
+  <si>
+    <t>Crypto_JobPrimitiveInputOutputType</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">uint8* inputPtr 
+uint32 inputLength
+uint8* secondaryInputPtr
+uint32 secondaryInputLength
+uint8* tertiaryInputPtr
+uint32 tertiaryInputLength
+uint8* outputPtr </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>*authenticatorPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+uint32* outputLengthPtr </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>*authenticatorLengthInBytes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+uint8* secondaryOutputPtr
+uint32* secondaryOutputLengthPtr
+uint32* verifyPtr
+uint64* output64Ptr
+Crypto_OperationModeType mode</t>
+    </r>
+  </si>
+  <si>
+    <t>None-Crypto</t>
+  </si>
+  <si>
+    <t>Crypto</t>
+  </si>
+  <si>
+    <t>None 
+CounterMsg</t>
+  </si>
+  <si>
+    <t>CounterMsg</t>
+  </si>
+  <si>
+    <t>AuthenticIPDU</t>
+  </si>
+  <si>
+    <t>FV</t>
+  </si>
+  <si>
+    <t>Linker</t>
+  </si>
+  <si>
+    <t>DsBusCustomCode_onPduFeatureExecutionPrivateRx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;SecuredIPdu_PduHandle = securedIPdu_PduHandle
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;IsTx = isTx;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;IsRx = !isTx;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;SecuredIPdu_SduDataPtr = securedIPdu_SduDataPtr
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;AuthenticIPdu_SduDataPtr = authenticIPdu_SduDataPtr
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;AuthenticIPdu_ActualSduLength = authenticIPdu_ActualLength
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>authenticIPdu_ActualLength</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>取决于</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>AuthPduHeaderLength,</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>若</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>AuthPduHeaderLength = 0,authenticIPdu_ActualLength = AuthenticIPdu_SduLength</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;MacPosition = securedIPduAuthenticatorPosition;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;SecuredIPdu_MessageLinkPosition = securedIPduMessageLinkerPosition
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;SecuredAreaLength = actualSecuredAreaLength;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;SecuredAreaOffset = actualSecuredAreaOffset;</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Header</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>跳过头部（</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>AuthPduHeaderLength</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>长度），指向有效载荷的起始位置。</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>去除安全协议头部（如加密</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>认证头部），将安全</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PDU</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SecuredIPdu</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）中的有效载荷提取到原始</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PDU</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>AuthenticIPdu</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）中。</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>UserCode_Csm_MacGenerate(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>csmJobHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, 
+                         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_Job</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;PrimitiveInputOutput-&gt;mode,
+                         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_Job</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;PrimitiveInputOutput-&gt;inputPtr,          </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>resultPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(PrepareDataToAuthenticator)
+                         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_Job</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;PrimitiveInputOutput-&gt;inputLength,       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>resultLengthPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(PrepareDataToAuthenticator)
+                         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_Job</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;PrimitiveInputOutput-&gt;outputPtr,         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>authenticatorPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+                         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_Job</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;PrimitiveInputOutput-&gt;outputLengthPtr)   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>authenticatorLengthInBytes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+_____________________________________________________________
+Ds_CMAC_AES(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>ctx_handle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, (UInt8*)dataPtr, dataLength, macPtr)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>ctx_handle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>csmJobHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">CTX_Handle
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>dataLength</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_Job</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;PrimitiveInputOutput-&gt;inputLength     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>resultLengthPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>(PrepareDataToAuthenticator)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>(UInt8*)dataPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Crypto_Job</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;PrimitiveInputOutput-&gt;inputPtr  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>resultPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(PrepareDataToAuthenticator)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>macPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Crypto_Job</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;PrimitiveInputOutput-&gt;outputPtr)          </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>authenticatorPtr</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>UserCode_CopyMessageLinkToCryptoPdu(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+_____________________________________________________________
+if (isBitCountingPolicyMontone == 1) {
+    CopyBitsBE(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;SecuredIPdu_SduDataPtr,
+               </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;SecuredIPdu_MessageLinkPosition,
+               </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;AuthenticIPdu_SduDataPtr,
+               </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;MessageLinkPosition, pduProps-&gt;MessageLinkLength);
+}
+else {
+    uint16 SawtoothMessageLinkPosition = SwapBits(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;MessageLinkPosition, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;MessageLinkLength);
+    CopyBitsBE(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;SecuredIPdu_SduDataPtr,
+               </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;SecuredIPdu_MessageLinkPosition,
+               </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;AuthenticIPdu_SduDataPtr,
+               SawtoothMessageLinkPosition, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;MessageLinkLength);
+if (!</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;UseSecuredPduAsCryptoPduForMsgSplitUp)
+UserCode_CopyAuthPduDataToSecuredPduData(pduFeatData)
+_____________________________________________________________
+memcpy(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;SecuredIPdu_SduDataPtr + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;AuthPduHeaderLength,
+       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;AuthenticIPdu_SduDataPtr,
+       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;AuthenticIPdu_ActualSduLength);</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> UserCode_CopySecuredPduDataToAuthPduData(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>)
+_____________________________________________________________
+if (!pduProps-&gt;UseSecuredPduAsCryptoPduForMsgSplitUp) {
+    // Copy data bytes from Secured IPDU to Authentic PDU, if they have distinct buffers
+    if (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;AuthenticIPdu_SduDataPtr != </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;SecuredIPdu_SduDataPtr) {
+        memcpy(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;AuthenticIPdu_SduDataPtr,
+               </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;SecuredIPdu_SduDataPtr + pduProps-&gt;AuthPduHeaderLength,
+               </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;AuthenticIPdu_ActualSduLength);
+    }
+}</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CompareBitsBE(
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;SecuredIPdu_SduDataPtr,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;SecuredIPdu_MessageLinkPosition,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;AuthenticIPdu_SduDataPtr,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;MessageLinkPosition, pduProps-&gt;MessageLinkLength)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserCode_CheckMessageLinker(pduFeatData)
+_____________________________________________________________
+if (pduProps-&gt;MessageLinkLength &gt; 0
+    &amp;&amp; pduProps-&gt;AuthenticIPdu_ActualSduLength * 8 &gt;= pduProps-&gt;MessageLinkLength)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>if (pduProps-&gt;IsAnyCounterMessage)
+if (!UserCode_CounterResponseMessageChallengeBelongsToMe(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">)) return E_OK;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>UserCodeForCntMsgs_IdentifyProperRxFreshness</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, &amp;freshnessValue)
+if !(pduProps-&gt;IsAnyCounterMessage)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>UserCode_IdentifyProperRxFreshness</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, &amp;freshnessValue)
+</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">IsAnyCounterMessage: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>UserCodeForCntMsgs_ReadFreshnessValueFromPduData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>)
+_____________________________________________________________
+freshnessVal = SecOCCounterMessageReadFreshnessValueFromPduData(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>userDefsOfSecOCCounterMsgs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;AuthenticIPdu_SduDataPtr)
+________________________________
+bitLength = userDefsOfSecOCCounterMsgs-&gt;SecOCCounterSignalBitLength
+bitPosition = userDefsOfSecOCCounterMsgs-&gt;SecOCCounterMessageSignalCounterBitPosition
+return (uint32)_CommonReadValueFromPduData(authPduDataPtr, bitPosition, bitLength)
+________________
+ReadBitsLE_Max64Bits(authPduDataPtr, authPduDataStartBit, bitCount)
+________
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>CopyBitsLE_Max64Bits((uint8*)&amp;readValue, 0, sourcePtr, sourceStartBit, bitCount)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>UserCodeForCntMsgs_WriteTxFreshnessValueToPduData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+_____________________________________________________________
+if (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;IsCounterMessage)
+SecOCCounterMessageWriteTxFreshnessValueToPduData(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>userDefsOfSecOCCounterMsgs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">,counterValue, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;AuthenticIPdu_SduDataPtr)
+_______________________________
+_CommonWriteValueToPduData(authPduDataPtr, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>bitPosition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">,(uint8*)&amp;counterValue, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>bitLength</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">)
+________________
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>CopyBitsLE_Max64Bits(authPduDataPtr, authPduDataStartBit, sourceDataPtr, 0, bitCount)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+if (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;IsCounterResponseMessage)
+SecOCCounterResponseMessageWriteTxFreshnessValueToPduData(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>userDefsOfSecOCCounterMsgs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">,counterValue, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;AuthenticIPdu_SduDataPtr);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>UserCode_WriteTxFreshnessValueToPduData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, freshnessValue)
+_____________________________________________________________
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">// Use local variable copies to avoid problems due to different internal and SecOC freshness length </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">       
+uint64 freshnessValue_BE = USER_CODE_INT64_TO_BE((uint64)freshnVal);
+uint32 freshnessSourceStartPos = sizeof(uint64) * 8 - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;FreshnessValTruncatedLength;
+uint8* freshnessSourcePtr = (uint8*)&amp;freshnessValue_BE;
+CopyBitsBE(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;SecuredIPdu_SduDataPtr, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;FreshnessValuePosition,freshnessSourcePtr, freshnessSourceStartPos, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;FreshnessValTruncatedLength);</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>UserCodeForCntMsgs_IdentifyProperRxFreshness</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>, &amp;freshnessValue)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+_____________________________________________________________
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>identifiedCounterVal = UserCodeForCntMsgs_ReadFreshnessValueFromPduData(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>)
+_______________________________
+if (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;IsCounterMessage) 
+freshnessVal = SecOCCounterMessageReadFreshnessValueFromPduData(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>userDefsOfSecOCCounterMsgs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;AuthenticIPdu_SduDataPtr)
+________________
+return (uint32)_CommonReadValueFromPduData(authPduDataPtr, bitPosition, bitLength)
+if (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;IsCounterResponseMessage)
+freshnessVal = SecOCCounterResponseMessageReadFreshnessValueFromPduData(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>userDefsOfSecOCCounterMsgs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;AuthenticIPdu_SduDataPtr)
+________________
+return (uint32)_CommonReadValueFromPduData(authPduDataPtr, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>bitPosition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>bitLength</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>UserCode_IdentifyProperRxFreshness</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>, &amp;freshnessValue)
+_____________________________________________________________
+if (GetMasterIsIncludedInModelAndEnabled()) 
+*counterValue = GetMasterCntValueGlobal()
+else
+const uint8 *truncatedFreshnessValPtr = ((uint8*)(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;SecuredIPdu_SduDataPtr)) + (uint8)(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;FreshnessValuePosition / 8)
+UserCode_SecOC_GetRxFreshness(0, (const uint32*)truncatedFreshnessValPtr,
+                              </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;FreshnessValTruncatedLength, 0,
+                              GetClientCounterValue(clientCntMgInstance),
+                              &amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>identifiedCounterVal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>,
+                              &amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;FreshnessValLength))
+*counterValue = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>identifiedCounterVal</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SecOCRxPduFeature</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CalculatedFreshnessValue</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SecOCTxPduFeature</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DsBusCustomCodeSecOCRxPduFeature_setCalculatedFreshnessValue(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatureHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>, (uint64)freshnessValue)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatureHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;SecOCRxPduFeature.CalculatedFreshnessValue</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DsBusCustomCode_onPduFeatureExecutionPrivateRxAuthenticationHandling(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>)
+_____________________________________________________________
+UserCode_Csm_CalculateAuthenticator(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>, &amp;authenticatorCalculatedPtr, &amp;authenticatorLengthInBytes)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CompareBitsBE(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;SecuredIPdu_SduDataPtr, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;MacPosition,
+              authenticatorCalculatedPtr, 0, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;MacTruncatedLength)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>refer 20 -25</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AuthenticIPdu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FreshnessValue</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;FreshnessValLength
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;FreshnessValTruncatedLength(freshnessValueTxLength)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;SecuredIPdu_KeyId
+SetSecuredIPdu_KeyIdSource(keyIdSource,  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;SecuredIPdu_Name)
+dataId</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>DsBusCustomCode_collectStaticPduPropertiesDuringRuntime is called in SecOCMainSetupSFunc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+DsBusCustomCode_collectStaticPduPropertiesDuringRuntime(UserCode_FeatureData *</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>)
+_____________________________________________________________
+DsBusCustomCode_collectStaticPduPropertiesDuringRuntimeEx(UserCode_FeatureData *</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>)
+_____________________________________________________________</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>if (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;IsAnyCounterMessage)
+AddCounterMsgToCluster(pduFeatData)
+__________________________________
+if (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;IsCounterMessage)
+if (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;IsTx) clusterAgent-&gt;TxCntMsgFeatData = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+else clusterAgent-&gt;RxCntMsgFeatData = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+else if (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;IsCounterResponseMessage) {
+if (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;IsTx) clusterAgent-&gt;TxCntRespMsgFeatData = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+else clusterAgent-&gt;RxCntRespMsgFeatData = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;IsCounterMessage
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;IsCounterResponseMessage 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;IsAnyCounterMessage
+clusterAgent-&gt;TxCntMsgFeatData
+clusterAgent-&gt;RxCntMsgFeatData</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>KeyId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DsBusCustomCode_onPduFeatureExecutionPrivateUnhandled</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">if (!pduProps-&gt;IsAnyCounterMessage)
+DsBusCustomCodeSecuredIPdu_getFreshnessValueLength(securedIPdu_PduHandle, &amp;freshnessValueLength)
+DsBusCustomCodeSecuredIPdu_getFreshnessValueTxLength(securedIPdu_PduHandle, &amp;freshnessValueTxLength)
+else
+//CntMsg FreshnessVaLength is 0, not taken into account of MAC calculation
+pduProps-&gt;FreshnessValLength = 0
+DsBusCustomCodeSecuredIPdu_getKeyId(securedIPdu_PduHandle, &amp;keyId)
+DsBusCustomCodeSecuredIPdu_getDataId(securedIPdu_PduHandle, &amp;dataId)
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//Already been set in OnApplicationInit. For CounterMsg-PDUs freshnessLength is unknown, hence Crypto-job can not yet been initialized.Second call is done in DsBusCustomCode_collectStaticPduPropertiesDuringRuntime()
+UserCode_Csm_Init_AtRuntime(pduProps-&gt;PduFeatureHandle)
+_____________________________________________________________
+_UserCode_Csm_Init(pduFeatureHandle, atRuntime), atRuntime = TRUE
+__________________________
+DsBusCustomCodeSecuredIPdu_getFreshnessValueLength(securedIPdu_PduHandle, &amp;freshnessValueLength)
+dataToAuthentictatorLenInBytes = sizeof(uint16) + authenticIPdu_SduLength + (freshnessValueLength + 7) / 8
+UserCode_SecOCHelper_Create_CryptoJob_For_CMAC_AES_128_Authentication(&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>CsmJobHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">,dataToAuthentictatorLenInBytes)
+__________________________
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_Job</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>UserCode_CryptoJob_Register(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_Job</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>, &amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>csmJobHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, &amp;jobIdInternal)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>CsmJobHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>csmJobHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>UserCode_Csm_KeyElementInit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(pduFeatData-&gt;CsmJobHandle, CRYPTO_KE_MAC_KEY), CRYPTO_KE_MAC_KEY = 0x01
+__________________________
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>CsmJobHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">_Type* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>jobHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = (CsmJobHandle_Type*)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>CsmJobHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+struct </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>AES_ctx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">* handle = Ds_CMAC_New();
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>jobHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>CTX_Handle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = handle</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>UserCode_Csm_KeyElementInit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(uint8* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>CsmJobHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, uint32 keyElementId)
+_____________________________________________________________
+Ds_CMAC_New()
+_______________________________
+struct </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>AES_ctx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> *</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>ctx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = (struct </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>AES_ctx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">*)rtlib_calloc(1, sizeof(struct </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>AES_ctx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">));
+return </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>ctx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -5590,7 +7122,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5790,8 +7322,37 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cascadia Mono SemiLight"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Cascadia Mono SemiLight"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Cascadia Mono SemiLight"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5806,18 +7367,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -5945,11 +7536,220 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -5960,43 +7760,31 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6005,61 +7793,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6071,6 +7817,165 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -6079,8 +7984,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF00FF"/>
       <color rgb="FFFF5050"/>
-      <color rgb="FFFF00FF"/>
       <color rgb="FFFDBC53"/>
       <color rgb="FFEB65BE"/>
     </mruColors>
@@ -6393,258 +8298,326 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E38B81CE-79E3-4568-BB50-9E45BADB5D49}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="138.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="147.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="54.875" style="34" customWidth="1"/>
+    <col min="2" max="2" width="154.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="54.875" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="3"/>
-      <c r="C1" s="23"/>
+      <c r="C1" s="16"/>
     </row>
     <row r="2" spans="1:3" ht="275.10000000000002" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="24" t="s">
+      <c r="A2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="44" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="25"/>
+      <c r="A3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="45"/>
     </row>
     <row r="4" spans="1:3" ht="386.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="26"/>
+      <c r="A4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="49"/>
     </row>
     <row r="5" spans="1:3" ht="200.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>44</v>
+      <c r="A5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="28"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="17"/>
     </row>
     <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="23"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="16"/>
     </row>
     <row r="8" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="16"/>
+    </row>
+    <row r="9" spans="1:3" ht="267" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="166.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="47"/>
+    </row>
+    <row r="11" spans="1:3" ht="257.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="74" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="47"/>
+    </row>
+    <row r="12" spans="1:3" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="75"/>
+      <c r="B12" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="48"/>
+    </row>
+    <row r="13" spans="1:3" ht="378.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="44"/>
+    </row>
+    <row r="14" spans="1:3" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="23"/>
-    </row>
-    <row r="9" spans="1:3" ht="321.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="264" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="21"/>
-    </row>
-    <row r="11" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="22"/>
-    </row>
-    <row r="12" spans="1:3" ht="409.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="24"/>
-    </row>
-    <row r="13" spans="1:3" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="25"/>
-    </row>
-    <row r="14" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="26"/>
+      <c r="B14" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="45"/>
     </row>
     <row r="15" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="23"/>
+      <c r="A15" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="60"/>
+      <c r="C15" s="61"/>
     </row>
     <row r="16" spans="1:3" ht="390.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>35</v>
+      <c r="A16" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="201" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>13</v>
+    <row r="17" spans="1:3" ht="223.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="44" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="25"/>
+      <c r="A18" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="45"/>
     </row>
-    <row r="19" spans="1:3" ht="408.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="25"/>
+    <row r="19" spans="1:3" ht="370.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="45"/>
     </row>
-    <row r="20" spans="1:3" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
+    <row r="20" spans="1:3" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="30"/>
     </row>
     <row r="21" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="14" t="s">
-        <v>18</v>
+      <c r="A21" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="20" t="s">
-        <v>19</v>
-      </c>
+      <c r="C21" s="73"/>
     </row>
     <row r="22" spans="1:3" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="21"/>
+      <c r="A22" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="73"/>
     </row>
     <row r="23" spans="1:3" ht="242.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="22"/>
+      <c r="A23" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="73"/>
     </row>
     <row r="24" spans="1:3" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="31" t="s">
-        <v>24</v>
-      </c>
+      <c r="A24" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="73"/>
     </row>
     <row r="25" spans="1:3" ht="224.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="31"/>
+      <c r="A25" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="73"/>
     </row>
     <row r="26" spans="1:3" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="32" t="s">
-        <v>27</v>
-      </c>
+      <c r="A26" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="12"/>
+      <c r="C26" s="70"/>
     </row>
     <row r="27" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="33"/>
+      <c r="A27" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="62"/>
+      <c r="C27" s="63"/>
     </row>
+    <row r="28" spans="1:3" ht="174" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="69" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="70"/>
+    </row>
+    <row r="30" spans="1:3" ht="234.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="69" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="226.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="67"/>
+      <c r="B31" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="73"/>
+    </row>
+    <row r="32" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="70"/>
+    </row>
+    <row r="33" spans="1:3" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="71" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" s="12"/>
+      <c r="C34" s="72"/>
+    </row>
+    <row r="35" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="10">
+    <mergeCell ref="C20:C26"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C30:C32"/>
     <mergeCell ref="C17:C19"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="C24:C25"/>
     <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C9:C12"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6654,110 +8627,320 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CBC4C05-9556-48FE-9C05-49ABCBC207BE}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.375" style="38" customWidth="1"/>
-    <col min="2" max="2" width="15.375" style="18" customWidth="1"/>
-    <col min="3" max="3" width="24.75" style="18" customWidth="1"/>
-    <col min="4" max="4" width="26.125" style="39" customWidth="1"/>
-    <col min="5" max="5" width="63" style="18" customWidth="1"/>
-    <col min="6" max="6" width="37.625" style="18" customWidth="1"/>
-    <col min="7" max="8" width="70.625" style="17" customWidth="1"/>
+    <col min="1" max="1" width="28.375" style="20" customWidth="1"/>
+    <col min="2" max="2" width="21.25" style="14" customWidth="1"/>
+    <col min="3" max="3" width="28.5" style="14" customWidth="1"/>
+    <col min="4" max="4" width="26.125" style="21" customWidth="1"/>
+    <col min="5" max="5" width="63" style="14" customWidth="1"/>
+    <col min="6" max="6" width="37.625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="70.625" style="13" customWidth="1"/>
+    <col min="8" max="8" width="57.875" style="13" customWidth="1"/>
+    <col min="9" max="9" width="82.5" style="13" customWidth="1"/>
+    <col min="10" max="10" width="68.125" style="13" customWidth="1"/>
+    <col min="11" max="11" width="46.125" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="248.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:11" ht="203.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="287.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="68"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="68"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="F3" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="254.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="68"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>48</v>
+      <c r="H4" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>57</v>
-      </c>
+    <row r="5" spans="1:11" ht="160.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="68"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="13"/>
     </row>
-    <row r="3" spans="1:8" ht="132" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="19"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>58</v>
+    <row r="6" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="68"/>
+      <c r="B6" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="174" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="19"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" s="17"/>
+    <row r="7" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="68"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="14" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19"/>
-      <c r="B5" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>61</v>
+    <row r="8" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="68"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="14" t="s">
+        <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="18" t="s">
-        <v>62</v>
+    <row r="9" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="68"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="68"/>
+      <c r="B10" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="68"/>
+      <c r="B11" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A1:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B1:B4"/>
-    <mergeCell ref="C1:C4"/>
-    <mergeCell ref="D1:D4"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
+  <mergeCells count="10">
+    <mergeCell ref="A1:A11"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="B1:B5"/>
+    <mergeCell ref="D1:D5"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="C1:C5"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96D232CB-C49D-45B0-951E-55C71D1ABED0}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="20.75" customWidth="1"/>
+    <col min="3" max="6" width="20.625" style="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="54"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="43"/>
+    </row>
+    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="54"/>
+      <c r="B4" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="54"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="30"/>
+    </row>
+    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="30"/>
+    </row>
+    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="54"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="43"/>
+    </row>
+    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="54"/>
+      <c r="B8" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="30"/>
+    </row>
+    <row r="9" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="57"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="40"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BMW_SecOc.xlsx
+++ b/BMW_SecOc.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_XuhuaRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E919399-12A3-4DD0-837B-B5C0D8638411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC4CBA5-983E-4B8D-BF82-5121D6411E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-8640" windowWidth="38640" windowHeight="21240" xr2:uid="{EE3554E5-5B85-4F6F-95D2-24E55C4E92D2}"/>
+    <workbookView xWindow="28680" yWindow="-8640" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{EE3554E5-5B85-4F6F-95D2-24E55C4E92D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Code" sheetId="2" r:id="rId1"/>
-    <sheet name="pduFeatureHandle" sheetId="5" r:id="rId2"/>
-    <sheet name="PDU" sheetId="6" r:id="rId3"/>
+    <sheet name="Code_Flow" sheetId="8" r:id="rId2"/>
+    <sheet name="pduFeatureHandle" sheetId="5" r:id="rId3"/>
+    <sheet name="PDU" sheetId="6" r:id="rId4"/>
+    <sheet name="PDU_Flow" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,16 +29,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="133">
   <si>
     <t>DsBusCustomCode_onPduFeatureExecutionPrivate(pduFeatureHandle)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>DsBusCustomCode_onApplicationInitPrivate(pduFeatureHandle) / DsBusCustomCode_onApplicationInitPrivateUnhandled(pduFeatureHandle)</t>
-  </si>
-  <si>
-    <t>UserCode_FeatureData</t>
   </si>
   <si>
     <r>
@@ -1053,485 +1052,6 @@
   </si>
   <si>
     <r>
-      <t>UserCode_SecOCHelper_PrepareDataToAuthenticator(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;SecuredIPdu_DataId,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;AuthenticIPdu_SduDataPtr + </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;SecuredAreaOffset,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;SecuredAreaLength,freshnessValue, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;FreshnessValLength,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>Crypto_Job</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;PrimitiveInputOutput-&gt;inputPtr,&amp;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>Crypto_Job</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;PrimitiveInputOutput-&gt;inputLength))</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>uint16 dataId_BigEndian = USER_CODE_INT16_TO_BE(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>dataId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">)                        </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;SecuredIPdu_DataId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-uint64 freshnessValue_BigEndian = USER_CODE_INT64_TO_BE(freshnessValue)   
-*freshnessValuePtr = &amp;freshnessValue_BigEndian;
-freshnessValuePtr += (64 - freshnessValueLength) / 8                            </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>resultLengthPtr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> = sizeof(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>dataId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">) + </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>dataLength</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + freshnessValueLength / 8   </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>&amp;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>Crypto_Job</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;PrimitiveInputOutput-&gt;inputLength
-                                                                      </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;SecuredIPdu_DataId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-                                                                                </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;SecuredAreaLength</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>Crypto_Job</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;PrimitiveInputOutput-&gt;inputPtr
-memcpy(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>resultPtr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>, &amp;dataId_BigEndian, sizeof(dataId_BigEndian));                
-memcpy(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>resultPtr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + sizeof(dataId_BigEndian), </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>dataPtr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, dataLength)             </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;AuthenticIPdu_SduDataPtr + SecuredAreaOffset
-memcpy(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>resultPtr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + sizeof(dataId_BigEndian) + dataLength, freshnessValuePtr, freshnessValueLength / 8)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>*authenticatorPtr =</t>
     </r>
     <r>
@@ -1616,85 +1136,6 @@
   </si>
   <si>
     <t>MAC</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>// Copy authenticator (MAC)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-CopyBitsBE(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;SecuredIPdu_SduDataPtr, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;MacPosition, authenticatorPtr, 0, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;MacTruncatedLength)</t>
-    </r>
   </si>
   <si>
     <r>
@@ -2384,354 +1825,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>freshnessValueLength
-UserCode_CryptoJob_Register(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>Crypto_Job</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>, &amp;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>csmJobHandle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, &amp;jobIdInternal)
-_______________________________
-{
-    struct </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="9" tint="-0.499984740745262"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>AES_ctx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">* </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="9" tint="-0.499984740745262"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>CTX_Handle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">;
-    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>Crypto_JobType</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">* </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>Crypto_Job</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">;
-} </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>CsmJobHandle_Type</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>CsmJobHandle_Type</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">* </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>jobHandle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> = (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>CsmJobHandle_Type</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>*)rtlib_malloc(sizeof(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>CsmJobHandle_Type</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">))
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>jobHandle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">Crypto_Job </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">= </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>Crypto_Job</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>CsmJobHandle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> = (uint8*) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">jobHandle
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>Note:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">CsmJobHandle </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">is </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>CsmJobHandle_Type</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>char* FeatureDescriptor;
 uint8  IsInitialized;
 boolean IsOnInitProperiesCollectedErrorFree;
@@ -3523,142 +2616,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">uint32 jobId
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiBold"/>
-        <family val="3"/>
-      </rPr>
-      <t>Crypto_JobStateType</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> state 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiBold"/>
-        <family val="3"/>
-      </rPr>
-      <t>Crypto_JobPrimitiveInputOutputType</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">* PrimitiveInputOutput
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiBold"/>
-        <family val="3"/>
-      </rPr>
-      <t>Crypto_JobPrimitiveInfoType</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">* jobPrimitiveInfo
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiBold"/>
-        <family val="3"/>
-      </rPr>
-      <t>Crypto_JobInfoType</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>* jobInfo
-uint32 cryptoKeyId</t>
-    </r>
-  </si>
-  <si>
     <t>Crypto_JobPrimitiveInputOutputType</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">uint8* inputPtr 
-uint32 inputLength
-uint8* secondaryInputPtr
-uint32 secondaryInputLength
-uint8* tertiaryInputPtr
-uint32 tertiaryInputLength
-uint8* outputPtr </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF00FF"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>*authenticatorPtr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-uint32* outputLengthPtr </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF00FF"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>*authenticatorLengthInBytes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-uint8* secondaryOutputPtr
-uint32* secondaryOutputLengthPtr
-uint32* verifyPtr
-uint64* output64Ptr
-Crypto_OperationModeType mode</t>
-    </r>
   </si>
   <si>
     <t>None-Crypto</t>
@@ -3684,270 +2642,6 @@
   </si>
   <si>
     <t>DsBusCustomCode_onPduFeatureExecutionPrivateRx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;SecuredIPdu_PduHandle = securedIPdu_PduHandle
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;IsTx = isTx;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;IsRx = !isTx;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;SecuredIPdu_SduDataPtr = securedIPdu_SduDataPtr
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;AuthenticIPdu_SduDataPtr = authenticIPdu_SduDataPtr
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;AuthenticIPdu_ActualSduLength = authenticIPdu_ActualLength
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>authenticIPdu_ActualLength</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>取决于</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>AuthPduHeaderLength,</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>若</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>AuthPduHeaderLength = 0,authenticIPdu_ActualLength = AuthenticIPdu_SduLength</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;MacPosition = securedIPduAuthenticatorPosition;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;SecuredIPdu_MessageLinkPosition = securedIPduMessageLinkerPosition
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;SecuredAreaLength = actualSecuredAreaLength;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;SecuredAreaOffset = actualSecuredAreaOffset;</t>
-    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -7117,12 +5811,1649 @@
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">freshnessValueLength
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>UserCode_CryptoJob_Register</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_Job</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>, &amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>csmJobHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, &amp;jobIdInternal)
+_______________________________
+{
+    struct </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>AES_ctx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>CTX_Handle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">;
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_JobType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_Job</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">;
+} </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>CsmJobHandle_Type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>CsmJobHandle_Type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>jobHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>CsmJobHandle_Type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>*)rtlib_malloc(sizeof(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>CsmJobHandle_Type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">))
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>jobHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Crypto_Job </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_Job</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>CsmJobHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = (uint8*) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">jobHandle
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Note:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">CsmJobHandle </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>CsmJobHandle_Type</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">uint32 jobId
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_JobStateType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> state 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_JobPrimitiveInputOutputType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">* PrimitiveInputOutput
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_JobPrimitiveInfoType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">* jobPrimitiveInfo
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_JobInfoType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>* jobInfo
+uint32 cryptoKeyId</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crypto_JobPrimitiveInfoType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">/*const*/ uint32 callbackId;
+/*const*/ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_PrimitiveInfoType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">* primitiveInfo;
+/*const*/ uint32 secureCounterId;
+/*const*/ uint32 cryIfKeyId;
+/*const*/ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_ProcessingType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> processingType;
+/*const*/ boolean callbackUpdateNotification;</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crypto_PrimitiveInfoType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">/*const*/ uint32 resultLength
+/*const*/ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_ServiceInfoType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> service
+/*const*/ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_AlgorithmInfoType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> algorithm</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">uint8* inputPtr </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>(uint8*)rtlib_malloc(dataToAuthentictatorLength * sizeof(uint8)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+uint32 inputLength </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>dataToAuthentictatorLength</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+uint8* secondaryInputPtr
+uint32 secondaryInputLength
+uint8* tertiaryInputPtr
+uint32 tertiaryInputLength
+uint8* outputPtr </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>*authenticatorPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+uint32* outputLengthPtr </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>*authenticatorLengthInBytes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+uint8* secondaryOutputPtr
+uint32* secondaryOutputLengthPtr
+uint32* verifyPtr
+uint64* output64Ptr
+Crypto_OperationModeType mode</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>securedIPdu_SduLength</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>authPduHeaderLength</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>messageLinkLength</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>messageLinkPosition</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>securedIPduAuthenticIPduPosition</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>authenticIPdu_SduLength</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linker</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AuthenticIPdu_ActualSduLength</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>actualSecuredAreaLength</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>actualSecuredAreaOffset</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserCode_CopyMessageLinkToCryptoPdu()</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>// Copy authenticator (MAC)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+CopyBitsBE(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;SecuredIPdu_SduDataPtr, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;MacPosition, authenticatorPtr, 0, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;MacTruncatedLength)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SecuredIPdu_MessageLinkPosition</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MacPosition</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MacTruncatedLength</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">useAsCryptographicPdu </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FreshnessValTruncatedLength</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;SecuredIPdu_PduHandle = securedIPdu_PduHandle
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;IsTx = isTx;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;IsRx = !isTx;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;SecuredIPdu_SduDataPtr = securedIPdu_SduDataPtr
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;AuthenticIPdu_SduDataPtr = authenticIPdu_SduDataPtr
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;AuthenticIPdu_ActualSduLength = authenticIPdu_ActualLength
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>authenticIPdu_ActualLength</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>取决于</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>AuthPduHeaderLength,</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>若</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>AuthPduHeaderLength = 0,authenticIPdu_ActualLength = AuthenticIPdu_SduLength</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;FreshnessValuePosition
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;MacPosition = securedIPduAuthenticatorPosition;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;SecuredIPdu_MessageLinkPosition = securedIPduMessageLinkerPosition
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;SecuredAreaLength = actualSecuredAreaLength
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;SecuredAreaOffset = actualSecuredAreaOffset</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FreshnessValuePosition</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserCode_WriteTxFreshnessValueToPduData</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copy authenticator (MAC)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataToAuthentictatorLenInBytes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserCode_FeatureData</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SecOCMainSetupSFunc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AuthenticIPdu / MacTruncatedLength</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>KeyID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CsmJobHandle</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PduPropertiesContainer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserCode_CopyAuthPduDataToSecuredPduData</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>securedIPdu_SduDataPtr(/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>authenticIPdu_SduDataPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MessageLink / SecuredPduData</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>UserCode_SecOCHelper_PrepareDataToAuthenticator(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;SecuredIPdu_DataId,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;AuthenticIPdu_SduDataPtr + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;SecuredAreaOffset,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;SecuredAreaLength,freshnessValue, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;FreshnessValLength,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_Job</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;PrimitiveInputOutput-&gt;inputPtr,&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_Job</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;PrimitiveInputOutput-&gt;inputLength))</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>uint16 dataId_BigEndian = USER_CODE_INT16_TO_BE(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>dataId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">)                        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;SecuredIPdu_DataId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+uint64 freshnessValue_BigEndian = USER_CODE_INT64_TO_BE(freshnessValue)   
+*freshnessValuePtr = &amp;freshnessValue_BigEndian;
+freshnessValuePtr += (64 - freshnessValueLength) / 8                            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>resultLengthPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = sizeof(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>dataId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>dataLength</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + freshnessValueLength / 8   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_Job</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;PrimitiveInputOutput-&gt;inputLength
+                                                                      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;SecuredIPdu_DataId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+                                                                                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;SecuredAreaLength</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_Job</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;PrimitiveInputOutput-&gt;inputPtr
+memcpy(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>resultPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>, &amp;dataId_BigEndian, sizeof(dataId_BigEndian));                
+memcpy(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>resultPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + sizeof(dataId_BigEndian), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>dataPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, dataLength)             </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;AuthenticIPdu_SduDataPtr + SecuredAreaOffset
+memcpy(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>resultPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + sizeof(dataId_BigEndian) + dataLength, freshnessValuePtr, freshnessValueLength / 8)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataID
+DataPtr = AuthenticIPdu_SduDataPtr + SecuredAreaOffset
+FreshnessValuePtr</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>*authenticatorPtr = 
+Crypto_Job-&gt;PrimitiveInputOutput-&gt;outputPtr
+*authenticatorLengthInBytes 
+= Crypto_Job-&gt;jobPrimitiveInfo-&gt;primitiveInfo-&gt;resultLength</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7351,8 +7682,20 @@
       <name val="Cascadia Mono SemiLight"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF00FF"/>
+      <name val="Cascadia Code SemiBold"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Cascadia Mono SemiLight"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7407,8 +7750,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="26">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -7745,11 +8124,271 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="1"/>
+      </left>
+      <right style="hair">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="hair">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF7030A0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF7030A0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF7030A0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF7030A0"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -7880,12 +8519,63 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7895,18 +8585,15 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7925,56 +8612,135 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7985,9 +8751,9 @@
   <colors>
     <mruColors>
       <color rgb="FFFF00FF"/>
+      <color rgb="FFEB65BE"/>
       <color rgb="FFFF5050"/>
       <color rgb="FFFDBC53"/>
-      <color rgb="FFEB65BE"/>
     </mruColors>
   </colors>
   <extLst>
@@ -8300,8 +9066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E38B81CE-79E3-4568-BB50-9E45BADB5D49}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" x14ac:dyDescent="0.2"/>
@@ -8320,42 +9086,42 @@
     </row>
     <row r="2" spans="1:3" ht="275.10000000000002" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="44" t="s">
-        <v>2</v>
+        <v>21</v>
+      </c>
+      <c r="C2" s="60" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="45"/>
+        <v>2</v>
+      </c>
+      <c r="C3" s="61"/>
     </row>
     <row r="4" spans="1:3" ht="386.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="49"/>
+        <v>3</v>
+      </c>
+      <c r="C4" s="62"/>
     </row>
     <row r="5" spans="1:3" ht="200.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8372,242 +9138,245 @@
     </row>
     <row r="8" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="16"/>
     </row>
     <row r="9" spans="1:3" ht="267" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C9" s="46" t="s">
-        <v>9</v>
+        <v>83</v>
+      </c>
+      <c r="C9" s="63" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="166.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" s="47"/>
+        <v>81</v>
+      </c>
+      <c r="C10" s="64"/>
     </row>
     <row r="11" spans="1:3" ht="257.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="74" t="s">
-        <v>96</v>
+      <c r="A11" s="53" t="s">
+        <v>88</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="47"/>
+        <v>90</v>
+      </c>
+      <c r="C11" s="64"/>
     </row>
     <row r="12" spans="1:3" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="75"/>
+      <c r="A12" s="54"/>
       <c r="B12" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C12" s="48"/>
+        <v>89</v>
+      </c>
+      <c r="C12" s="65"/>
     </row>
     <row r="13" spans="1:3" ht="378.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="44"/>
+        <v>114</v>
+      </c>
+      <c r="C13" s="60"/>
     </row>
     <row r="14" spans="1:3" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="45"/>
+        <v>7</v>
+      </c>
+      <c r="C14" s="61"/>
     </row>
     <row r="15" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="59" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="60"/>
-      <c r="C15" s="61"/>
+      <c r="A15" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="45"/>
+      <c r="C15" s="46"/>
     </row>
     <row r="16" spans="1:3" ht="390.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="223.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="44" t="s">
-        <v>88</v>
+        <v>66</v>
+      </c>
+      <c r="C17" s="60" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="45"/>
+        <v>17</v>
+      </c>
+      <c r="C18" s="61"/>
     </row>
     <row r="19" spans="1:3" ht="370.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="45"/>
+        <v>67</v>
+      </c>
+      <c r="C19" s="61"/>
     </row>
     <row r="20" spans="1:3" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="73" t="s">
-        <v>17</v>
+      <c r="C20" s="51" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="73"/>
+      <c r="C21" s="51"/>
     </row>
     <row r="22" spans="1:3" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="73"/>
+        <v>18</v>
+      </c>
+      <c r="C22" s="51"/>
     </row>
     <row r="23" spans="1:3" ht="242.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="73"/>
+        <v>130</v>
+      </c>
+      <c r="C23" s="51"/>
     </row>
     <row r="24" spans="1:3" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B24" s="12"/>
-      <c r="C24" s="73"/>
+      <c r="C24" s="51"/>
     </row>
     <row r="25" spans="1:3" ht="224.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B25" s="12"/>
-      <c r="C25" s="73"/>
+      <c r="C25" s="51"/>
     </row>
     <row r="26" spans="1:3" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="B26" s="12"/>
-      <c r="C26" s="70"/>
+      <c r="C26" s="52"/>
     </row>
     <row r="27" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="59" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" s="62"/>
-      <c r="C27" s="63"/>
+      <c r="A27" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="47"/>
+      <c r="C27" s="48"/>
     </row>
     <row r="28" spans="1:3" ht="174" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28" s="64" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="69" t="s">
-        <v>87</v>
+        <v>62</v>
+      </c>
+      <c r="B28" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="55" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" s="70"/>
+        <v>63</v>
+      </c>
+      <c r="C29" s="52"/>
     </row>
     <row r="30" spans="1:3" ht="234.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="66" t="s">
-        <v>73</v>
-      </c>
-      <c r="B30" s="65" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" s="69" t="s">
-        <v>88</v>
+      <c r="A30" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="55" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="226.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="67"/>
+      <c r="A31" s="57"/>
       <c r="B31" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" s="73"/>
+        <v>69</v>
+      </c>
+      <c r="C31" s="51"/>
     </row>
     <row r="32" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C32" s="70"/>
+        <v>74</v>
+      </c>
+      <c r="C32" s="52"/>
     </row>
     <row r="33" spans="1:3" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="C33" s="71" t="s">
-        <v>86</v>
+        <v>77</v>
+      </c>
+      <c r="C33" s="58" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B34" s="12"/>
-      <c r="C34" s="72"/>
+      <c r="C34" s="59"/>
     </row>
     <row r="35" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C9:C12"/>
     <mergeCell ref="C20:C26"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="C28:C29"/>
@@ -8615,9 +9384,6 @@
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="C30:C32"/>
     <mergeCell ref="C17:C19"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C9:C12"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8626,11 +9392,126 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B69B0A5-D451-48BD-90AF-D4A4F65335A9}">
+  <dimension ref="B3:C17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="49.25" style="76" customWidth="1"/>
+    <col min="3" max="3" width="65.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="108" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="126" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="110"/>
+      <c r="C4" s="126" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="107" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="127"/>
+    </row>
+    <row r="6" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="108" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="126" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="109"/>
+      <c r="C7" s="126" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="109"/>
+      <c r="C8" s="126" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="110"/>
+      <c r="C9" s="126" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="123" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="127"/>
+    </row>
+    <row r="11" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="123" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="127"/>
+    </row>
+    <row r="12" spans="2:3" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="124" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="128" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="125"/>
+      <c r="C13" s="128" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="23"/>
+    </row>
+    <row r="15" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="111" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="111" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="111" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B12:B13"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CBC4C05-9556-48FE-9C05-49ABCBC207BE}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8644,177 +9525,210 @@
     <col min="7" max="7" width="70.625" style="13" customWidth="1"/>
     <col min="8" max="8" width="57.875" style="13" customWidth="1"/>
     <col min="9" max="9" width="82.5" style="13" customWidth="1"/>
-    <col min="10" max="10" width="68.125" style="13" customWidth="1"/>
+    <col min="10" max="10" width="89.625" style="13" customWidth="1"/>
     <col min="11" max="11" width="46.125" style="13" customWidth="1"/>
+    <col min="12" max="12" width="51.5" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="203.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="68" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="50" t="s">
+    <row r="1" spans="1:12" ht="203.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="50" t="s">
+      <c r="F1" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="287.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="66"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>52</v>
+      <c r="G3" s="13" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="287.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="68"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" s="13" t="s">
+    <row r="4" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="75"/>
+    </row>
+    <row r="5" spans="1:12" ht="254.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="66"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="I5" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="J2" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>48</v>
+      <c r="J5" s="13" t="s">
+        <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="68"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50" t="s">
+    <row r="6" spans="1:12" ht="137.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="66"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="160.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="66"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="66"/>
+      <c r="B8" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>41</v>
-      </c>
     </row>
-    <row r="4" spans="1:11" ht="254.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="68"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="13" t="s">
+    <row r="9" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="66"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="I4" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>56</v>
-      </c>
     </row>
-    <row r="5" spans="1:11" ht="160.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="68"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="13"/>
+    <row r="10" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="66"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="14" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="68"/>
-      <c r="B6" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>44</v>
+    <row r="11" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="66"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="14" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="68"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="14" t="s">
-        <v>45</v>
+    <row r="12" spans="1:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="66"/>
+      <c r="B12" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="68"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="14" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="68"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="68"/>
-      <c r="B10" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="68"/>
-      <c r="B11" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>79</v>
+    <row r="13" spans="1:12" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="66"/>
+      <c r="B13" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A1:A11"/>
-    <mergeCell ref="B6:B9"/>
+  <mergeCells count="12">
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="A1:A13"/>
+    <mergeCell ref="B8:B11"/>
     <mergeCell ref="G1:G2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B1:B5"/>
-    <mergeCell ref="D1:D5"/>
+    <mergeCell ref="B1:B7"/>
+    <mergeCell ref="D1:D7"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="C1:C5"/>
+    <mergeCell ref="C1:C7"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="G5:G6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96D232CB-C49D-45B0-951E-55C71D1ABED0}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8826,108 +9740,108 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="55" t="s">
-        <v>57</v>
+      <c r="A2" s="69" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="71" t="s">
+        <v>50</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="54"/>
-      <c r="B3" s="56"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="72"/>
       <c r="C3" s="41"/>
       <c r="D3" s="42"/>
       <c r="E3" s="42"/>
       <c r="F3" s="43"/>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="54"/>
-      <c r="B4" s="56" t="s">
+      <c r="A4" s="70"/>
+      <c r="B4" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="31" t="s">
-        <v>66</v>
-      </c>
       <c r="D4" s="32" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="54"/>
-      <c r="B5" s="56"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="72"/>
       <c r="C5" s="35" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D5" s="29"/>
       <c r="E5" s="29"/>
       <c r="F5" s="30"/>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="56" t="s">
-        <v>57</v>
+      <c r="A6" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="72" t="s">
+        <v>50</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F6" s="30"/>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="54"/>
-      <c r="B7" s="56"/>
+      <c r="A7" s="70"/>
+      <c r="B7" s="72"/>
       <c r="C7" s="41"/>
       <c r="D7" s="42"/>
       <c r="E7" s="42"/>
       <c r="F7" s="43"/>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="54"/>
-      <c r="B8" s="56" t="s">
+      <c r="A8" s="70"/>
+      <c r="B8" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="31" t="s">
-        <v>66</v>
-      </c>
       <c r="D8" s="33" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E8" s="37" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F8" s="30"/>
     </row>
     <row r="9" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="57"/>
-      <c r="B9" s="58"/>
+      <c r="A9" s="73"/>
+      <c r="B9" s="74"/>
       <c r="C9" s="38" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D9" s="39"/>
       <c r="E9" s="39"/>
@@ -8945,4 +9859,213 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86808304-4150-4C1C-BB7E-BB6AAF8EC7CC}">
+  <dimension ref="B2:F19"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.75" customWidth="1"/>
+    <col min="2" max="2" width="38.75" customWidth="1"/>
+    <col min="3" max="3" width="56.75" customWidth="1"/>
+    <col min="4" max="4" width="48.75" customWidth="1"/>
+    <col min="5" max="5" width="36.75" customWidth="1"/>
+    <col min="6" max="6" width="62.375" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B2" s="83" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="82"/>
+    </row>
+    <row r="3" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="79" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="90" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="77"/>
+      <c r="E3" s="84" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" s="85"/>
+    </row>
+    <row r="4" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B4" s="78"/>
+      <c r="C4" s="98" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="85"/>
+    </row>
+    <row r="5" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B5" s="78"/>
+      <c r="C5" s="80" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="85"/>
+    </row>
+    <row r="6" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B6" s="78"/>
+      <c r="C6" s="80" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="99"/>
+      <c r="C7" s="80" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="100" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="81" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="94" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="95" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="96" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B9" s="120"/>
+      <c r="C9" s="115"/>
+      <c r="D9" s="93" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="114"/>
+      <c r="F9" s="102"/>
+    </row>
+    <row r="10" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B10" s="121" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="122"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="102"/>
+    </row>
+    <row r="11" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="119"/>
+      <c r="C11" s="101" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" s="112"/>
+      <c r="E11" s="116"/>
+      <c r="F11" s="102"/>
+    </row>
+    <row r="12" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="118"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="113" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" s="116"/>
+      <c r="F12" s="102"/>
+    </row>
+    <row r="13" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="106"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="101" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" s="102"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="106"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="87"/>
+    </row>
+    <row r="15" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="106"/>
+      <c r="C15" s="89" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" s="85"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="91" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B16" s="106"/>
+      <c r="C16" s="89" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="85"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="103"/>
+    </row>
+    <row r="17" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B17" s="106"/>
+      <c r="C17" s="92" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" s="85"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="92" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B18" s="106"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="92" t="s">
+        <v>116</v>
+      </c>
+      <c r="E18" s="86"/>
+      <c r="F18" s="85"/>
+    </row>
+    <row r="19" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B19" s="106"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="104" t="s">
+        <v>117</v>
+      </c>
+      <c r="F19" s="85"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/BMW_SecOc.xlsx
+++ b/BMW_SecOc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_XuhuaRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC4CBA5-983E-4B8D-BF82-5121D6411E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E513B3BC-00BA-4AEA-B9E2-06BC4948DB0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-8640" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{EE3554E5-5B85-4F6F-95D2-24E55C4E92D2}"/>
+    <workbookView xWindow="28680" yWindow="-8640" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{EE3554E5-5B85-4F6F-95D2-24E55C4E92D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Code" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="pduFeatureHandle" sheetId="5" r:id="rId3"/>
     <sheet name="PDU" sheetId="6" r:id="rId4"/>
     <sheet name="PDU_Flow" sheetId="7" r:id="rId5"/>
+    <sheet name="Sfn_SecOCMainSetup" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="164">
   <si>
     <t>DsBusCustomCode_onPduFeatureExecutionPrivate(pduFeatureHandle)</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -3913,117 +3914,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">IsAnyCounterMessage: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>UserCodeForCntMsgs_ReadFreshnessValueFromPduData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>)
-_____________________________________________________________
-freshnessVal = SecOCCounterMessageReadFreshnessValueFromPduData(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>userDefsOfSecOCCounterMsgs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;AuthenticIPdu_SduDataPtr)
-________________________________
-bitLength = userDefsOfSecOCCounterMsgs-&gt;SecOCCounterSignalBitLength
-bitPosition = userDefsOfSecOCCounterMsgs-&gt;SecOCCounterMessageSignalCounterBitPosition
-return (uint32)_CommonReadValueFromPduData(authPduDataPtr, bitPosition, bitLength)
-________________
-ReadBitsLE_Max64Bits(authPduDataPtr, authPduDataStartBit, bitCount)
-________
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="7"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>CopyBitsLE_Max64Bits((uint8*)&amp;readValue, 0, sourcePtr, sourceStartBit, bitCount)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -4930,344 +4820,6 @@
   </si>
   <si>
     <t>FreshnessValue</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;FreshnessValLength
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;FreshnessValTruncatedLength(freshnessValueTxLength)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;SecuredIPdu_KeyId
-SetSecuredIPdu_KeyIdSource(keyIdSource,  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;SecuredIPdu_Name)
-dataId</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>DsBusCustomCode_collectStaticPduPropertiesDuringRuntime is called in SecOCMainSetupSFunc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-DsBusCustomCode_collectStaticPduPropertiesDuringRuntime(UserCode_FeatureData *</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>)
-_____________________________________________________________
-DsBusCustomCode_collectStaticPduPropertiesDuringRuntimeEx(UserCode_FeatureData *</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>)
-_____________________________________________________________</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>if (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;IsAnyCounterMessage)
-AddCounterMsgToCluster(pduFeatData)
-__________________________________
-if (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;IsCounterMessage)
-if (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;IsTx) clusterAgent-&gt;TxCntMsgFeatData = </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-else clusterAgent-&gt;RxCntMsgFeatData = </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-else if (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;IsCounterResponseMessage) {
-if (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;IsTx) clusterAgent-&gt;TxCntRespMsgFeatData = </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-else clusterAgent-&gt;RxCntRespMsgFeatData = </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
-    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -5360,8 +4912,2238 @@
   </si>
   <si>
     <r>
-      <t>//Already been set in OnApplicationInit. For CounterMsg-PDUs freshnessLength is unknown, hence Crypto-job can not yet been initialized.Second call is done in DsBusCustomCode_collectStaticPduPropertiesDuringRuntime()
-UserCode_Csm_Init_AtRuntime(pduProps-&gt;PduFeatureHandle)
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>UserCode_Csm_KeyElementInit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(uint8* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>CsmJobHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, uint32 keyElementId)
+_____________________________________________________________
+Ds_CMAC_New()
+_______________________________
+struct </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>AES_ctx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> *</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>ctx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = (struct </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>AES_ctx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">*)rtlib_calloc(1, sizeof(struct </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>AES_ctx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">));
+return </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>ctx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">freshnessValueLength
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>UserCode_CryptoJob_Register</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_Job</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>, &amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>csmJobHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, &amp;jobIdInternal)
+_______________________________
+{
+    struct </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>AES_ctx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>CTX_Handle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">;
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_JobType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_Job</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">;
+} </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>CsmJobHandle_Type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>CsmJobHandle_Type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>jobHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>CsmJobHandle_Type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>*)rtlib_malloc(sizeof(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>CsmJobHandle_Type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">))
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>jobHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Crypto_Job </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_Job</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>CsmJobHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = (uint8*) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">jobHandle
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Note:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">CsmJobHandle </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>CsmJobHandle_Type</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">uint32 jobId
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_JobStateType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> state 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_JobPrimitiveInputOutputType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">* PrimitiveInputOutput
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_JobPrimitiveInfoType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">* jobPrimitiveInfo
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_JobInfoType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>* jobInfo
+uint32 cryptoKeyId</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crypto_JobPrimitiveInfoType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">/*const*/ uint32 callbackId;
+/*const*/ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_PrimitiveInfoType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">* primitiveInfo;
+/*const*/ uint32 secureCounterId;
+/*const*/ uint32 cryIfKeyId;
+/*const*/ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_ProcessingType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> processingType;
+/*const*/ boolean callbackUpdateNotification;</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crypto_PrimitiveInfoType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">/*const*/ uint32 resultLength
+/*const*/ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_ServiceInfoType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> service
+/*const*/ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_AlgorithmInfoType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> algorithm</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">uint8* inputPtr </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>(uint8*)rtlib_malloc(dataToAuthentictatorLength * sizeof(uint8)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+uint32 inputLength </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>dataToAuthentictatorLength</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+uint8* secondaryInputPtr
+uint32 secondaryInputLength
+uint8* tertiaryInputPtr
+uint32 tertiaryInputLength
+uint8* outputPtr </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>*authenticatorPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+uint32* outputLengthPtr </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>*authenticatorLengthInBytes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+uint8* secondaryOutputPtr
+uint32* secondaryOutputLengthPtr
+uint32* verifyPtr
+uint64* output64Ptr
+Crypto_OperationModeType mode</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>securedIPdu_SduLength</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>authPduHeaderLength</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>messageLinkLength</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>messageLinkPosition</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>securedIPduAuthenticIPduPosition</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>authenticIPdu_SduLength</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linker</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AuthenticIPdu_ActualSduLength</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>actualSecuredAreaLength</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>actualSecuredAreaOffset</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserCode_CopyMessageLinkToCryptoPdu()</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>// Copy authenticator (MAC)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+CopyBitsBE(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;SecuredIPdu_SduDataPtr, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;MacPosition, authenticatorPtr, 0, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;MacTruncatedLength)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SecuredIPdu_MessageLinkPosition</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MacPosition</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MacTruncatedLength</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">useAsCryptographicPdu </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FreshnessValTruncatedLength</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;SecuredIPdu_PduHandle = securedIPdu_PduHandle
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;IsTx = isTx;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;IsRx = !isTx;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;SecuredIPdu_SduDataPtr = securedIPdu_SduDataPtr
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;AuthenticIPdu_SduDataPtr = authenticIPdu_SduDataPtr
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;AuthenticIPdu_ActualSduLength = authenticIPdu_ActualLength
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>authenticIPdu_ActualLength</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>取决于</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>AuthPduHeaderLength,</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>若</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>AuthPduHeaderLength = 0,authenticIPdu_ActualLength = AuthenticIPdu_SduLength</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;FreshnessValuePosition
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;MacPosition = securedIPduAuthenticatorPosition;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;SecuredIPdu_MessageLinkPosition = securedIPduMessageLinkerPosition
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;SecuredAreaLength = actualSecuredAreaLength
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;SecuredAreaOffset = actualSecuredAreaOffset</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FreshnessValuePosition</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserCode_WriteTxFreshnessValueToPduData</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copy authenticator (MAC)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataToAuthentictatorLenInBytes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserCode_FeatureData</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SecOCMainSetupSFunc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AuthenticIPdu / MacTruncatedLength</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>KeyID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CsmJobHandle</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PduPropertiesContainer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserCode_CopyAuthPduDataToSecuredPduData</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>securedIPdu_SduDataPtr(/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>authenticIPdu_SduDataPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MessageLink / SecuredPduData</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>UserCode_SecOCHelper_PrepareDataToAuthenticator(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;SecuredIPdu_DataId,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;AuthenticIPdu_SduDataPtr + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;SecuredAreaOffset,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;SecuredAreaLength,freshnessValue, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;FreshnessValLength,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_Job</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;PrimitiveInputOutput-&gt;inputPtr,&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_Job</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;PrimitiveInputOutput-&gt;inputLength))</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>uint16 dataId_BigEndian = USER_CODE_INT16_TO_BE(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>dataId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">)                        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;SecuredIPdu_DataId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+uint64 freshnessValue_BigEndian = USER_CODE_INT64_TO_BE(freshnessValue)   
+*freshnessValuePtr = &amp;freshnessValue_BigEndian;
+freshnessValuePtr += (64 - freshnessValueLength) / 8                            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>resultLengthPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = sizeof(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>dataId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>dataLength</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + freshnessValueLength / 8   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_Job</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;PrimitiveInputOutput-&gt;inputLength
+                                                                      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;SecuredIPdu_DataId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+                                                                                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;SecuredAreaLength</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_Job</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;PrimitiveInputOutput-&gt;inputPtr
+memcpy(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>resultPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>, &amp;dataId_BigEndian, sizeof(dataId_BigEndian));                
+memcpy(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>resultPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + sizeof(dataId_BigEndian), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>dataPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, dataLength)             </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;AuthenticIPdu_SduDataPtr + SecuredAreaOffset
+memcpy(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>resultPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + sizeof(dataId_BigEndian) + dataLength, freshnessValuePtr, freshnessValueLength / 8)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataID
+DataPtr = AuthenticIPdu_SduDataPtr + SecuredAreaOffset
+FreshnessValuePtr</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>*authenticatorPtr = 
+Crypto_Job-&gt;PrimitiveInputOutput-&gt;outputPtr
+*authenticatorLengthInBytes 
+= Crypto_Job-&gt;jobPrimitiveInfo-&gt;primitiveInfo-&gt;resultLength</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">IsAnyCounterMessage: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>UserCodeForCntMsgs_ReadFreshnessValueFromPduData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>)
+_____________________________________________________________
+freshnessVal = SecOCCounterMessageReadFreshnessValueFromPduData(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>userDefsOfSecOCCounterMsgs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;AuthenticIPdu_SduDataPtr)
+________________________________
+bitLength = userDefsOfSecOCCounterMsgs-&gt;SecOCCounterSignalBitLength
+bitPosition = userDefsOfSecOCCounterMsgs-&gt;SecOCCounterMessageSignalCounterBitPosition
+_CommonReadValueFromPduData(authPduDataPtr, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>bitPosition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>bitLength</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">)
+________________
+ReadBitsLE_Max64Bits(authPduDataPtr, authPduDataStartBit, bitCount)
+________
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>CopyBitsLE_Max64Bits((uint8*)&amp;readValue, 0, sourcePtr, sourceStartBit, bitCount)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mdlOutputs(SimStruct *S, int_T tid)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">TransmitKeys(SimStruct *S) </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitKeysStruct()</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CsmInitKeysForAllSecOCMsgs()</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">for (unsigned int i = 0; i &lt; filteredSecOCMsgs-&gt;itemCount; i++) {
+    pduFeatData = (UserCode_FeatureData *)GetById(filteredSecOCMsgs, i);
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>UserCode_Csm_InitKey</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>(pduFeatData)
+}</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CollectStaticPduProperties(S)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DsBusCustomCode_collectStaticPduPropertiesDuringRuntimeEx(pduFeatData)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserCode_Csm_Init_AtRuntime(pduProps-&gt;PduFeatureHandle)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsCounterMessage
+IsCounterResponseMessage
+IsAnyCounterMessage
+DsBusCustomCodeSecuredIPdu_getFreshnessValueLength(securedIPdu_PduHandle, &amp;freshnessValueLength)
+DsBusCustomCodeSecuredIPdu_getFreshnessValueTxLength(securedIPdu_PduHandle, &amp;freshnessValueTxLength)
+DsBusCustomCodeSecuredIPdu_getKeyId(securedIPdu_PduHandle, &amp;keyId)
+DsBusCustomCodeSecuredIPdu_getDataId(securedIPdu_PduHandle, &amp;dataId)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserCode_SecOCHelper_Create_CryptoJob_For_CMAC_AES_128_Authentication(uint8 **CsmJobHandle, uint32 dataToAuthentictatorLength)
+UserCode_Csm_KeyElementInit(pduFeatData-&gt;CsmJobHandle, CRYPTO_KE_MAC_KEY)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>for (int iKey = 0; iKey &lt; NUMBER_KEYS; iKey++) {
+    g_keys[iKey].keyIsSet = FALSE;
+    g_keys[iKey].</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>keyId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = (uint32)-1;
+}</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserCode_Csm_KeyElementSet(pduFeatData-&gt;CsmJobHandle, keyId, keyPtr, keyLength)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">jobHandle-&gt;Crypto_Job-&gt;jobPrimitiveInfo-&gt;cryIfKeyId = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>keyId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+Ds_CMAC_Init(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>keyPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>, jobHandle-&gt;CTX_Handle)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DsBusCustomCodeSecOCPduFeature_setKeyLength(pduFeatureHandle, keyLength)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DsBusCustomCodeSecOCPduFeature_setKeyPtr(pduFeatureHandle, keyPtr)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserCode_ConvertHexInStringToInt(keyAsString, &amp;keyPtr, &amp;keyLength)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>*keyLength = (uint32)(strlen(keyAsStrForLoop)) / 2
+*keyPtr = val</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>*KeyPtr = pduProps-&gt;PduFeatureHandle-&gt;SecOCPduFeature.KeyPtr</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">for (unsigned int i = 0; i &lt; filteredSecOCMsgs-&gt;itemCount; i++) {
+pduFeatData = (UserCode_FeatureData *)GetById(filteredSecOCMsgs, i);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>DsBusCustomCode_collectStaticPduPropertiesDuringRuntime</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>(pduFeatData);
+}</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SecOCMainSetupSFunc
+mdlOutputs</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;FreshnessValLength
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;FreshnessValTruncatedLength(freshnessValueTxLength)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;SecuredIPdu_KeyId
+dataId
+SetSecuredIPdu_KeyIdSource(keyIdSource,  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;SecuredIPdu_Name)
+</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">//Already been set in OnApplicationInit. For CounterMsg-PDUs freshnessLength is unknown, hence Crypto-job can not yet been initialized.Second call is done in DsBusCustomCode_collectStaticPduPropertiesDuringRuntime()
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>UserCode_Csm_Init_AtRuntime</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>(pduProps-&gt;PduFeatureHandle)
 _____________________________________________________________
 _UserCode_Csm_Init(pduFeatureHandle, atRuntime), atRuntime = TRUE
 __________________________
@@ -5673,22 +7455,664 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>UserCode_Csm_KeyElementInit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">(uint8* </t>
+        <i/>
+        <sz val="15"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>CollectStaticPduProperties(S)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+DsBusCustomCode_collectStaticPduPropertiesDuringRuntime</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+DsBusCustomCode_collectStaticPduPropertiesDuringRuntime(UserCode_FeatureData *</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">)
+_____________________________________________________________
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>DsBusCustomCode_collectStaticPduPropertiesDuringRuntimeEx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>(UserCode_FeatureData *</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>)
+_____________________________________________________________</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>if (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;IsAnyCounterMessage)
+AddCounterMsgToCluster(pduFeatData)
+__________________________________
+if (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;IsCounterMessage)
+if (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;IsTx) clusterAgent-&gt;TxCntMsgFeatData = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+else clusterAgent-&gt;RxCntMsgFeatData = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+else if (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;IsCounterResponseMessage) {
+if (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;IsTx) clusterAgent-&gt;TxCntRespMsgFeatData = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+else clusterAgent-&gt;RxCntRespMsgFeatData = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TransmitKeys(SimStruct *S) 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>InitKeysStruct()</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="15"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cascadia Mono Light"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">for (iRow = 0; iRow &lt; NUMBER_KEYS; iRow++) {
+    for (iChar = 0; iChar &lt; MAX_KEY_STRING_LENGTH; iChar++)
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Cascadia Mono Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>encryptKeyString</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cascadia Mono Light"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">[iChar] = (char)(*inEncryptKeyStringsPtr[iRow + iChar * NUMBER_KEYS]);
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Cascadia Mono Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>encryptKeyId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cascadia Mono Light"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = (int)(*inEncryptKeyIdsPtr[iRow]);
+    SetKey(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Cascadia Mono Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>encryptKeyId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cascadia Mono Light"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Cascadia Mono Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>encryptKeyString</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cascadia Mono Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SetKey(int </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>keyId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>, char *</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>keyAsStr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>) {
+for (int iKey = 0; iKey &lt; NUMBER_KEYS; iKey++) {
+        g_keys[iKey].</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>keyId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = (uint32)keyId
+        strcpy(g_keys[iKey].</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>keyAsString</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>keyAsStr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>);
+        g_keys[iKey].keyIsSet = TRUE;
+            }</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>for (int iKey = 0; iKey &lt; NUMBER_KEYS; iKey++) {
+    g_keys[iKey].keyId = (uint32)-1;
+}
+for (int iKey = 0; iKey &lt; NUMBER_KEYS; iKey++) {
+        g_keys[iKey].keyId = (uint32)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>encryptKeyId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+        strcpy(g_keys[iKey].keyAsString, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>encryptKeyString</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>);
+        g_keys[iKey].keyIsSet = TRUE;
+            }</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CsmInitKeysForAllSecOCMsgs()
+_____________________________________________________________
+for (unsigned int i = 0; i &lt; filteredSecOCMsgs-&gt;itemCount; i++) {
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = (UserCode_FeatureData *)GetById(filteredSecOCMsgs, i);
+    UserCode_Csm_InitKey(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>)
+}</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DsBusCustomCodeSecOCPduFeature_getKeyPtr(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatureHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>, &amp;keyPtr)
+UserCode_ConvertHexInStringToInt(keyAsString, &amp;keyPtr, &amp;keyLength))
+DsBusCustomCodeSecOCPduFeature_setKeyPtr(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatureHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>, keyPtr))
+DsBusCustomCodeSecOCPduFeature_setKeyLength(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatureHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>, keyLength))
+UserCode_Csm_KeyElementSet(pduFeatData-&gt;</t>
     </r>
     <r>
       <rPr>
@@ -5707,268 +8131,154 @@
         <rFont val="Cascadia Mono SemiLight"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve">, uint32 keyElementId)
-_____________________________________________________________
-Ds_CMAC_New()
-_______________________________
-struct </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="9" tint="-0.499984740745262"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>AES_ctx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> *</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="9" tint="-0.499984740745262"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>ctx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> = (struct </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="9" tint="-0.499984740745262"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>AES_ctx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">*)rtlib_calloc(1, sizeof(struct </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="9" tint="-0.499984740745262"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>AES_ctx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">));
-return </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="9" tint="-0.499984740745262"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>ctx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">freshnessValueLength
+      <t xml:space="preserve">,keyId, keyPtr, keyLength))
 </t>
     </r>
     <r>
       <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>UserCode_CryptoJob_Register</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>Crypto_Job</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>, &amp;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>csmJobHandle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, &amp;jobIdInternal)
-_______________________________
-{
-    struct </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="9" tint="-0.499984740745262"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>AES_ctx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">* </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="9" tint="-0.499984740745262"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>CTX_Handle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">;
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;KeyIsFoundInEncryptKeyList = TRUE</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DsBusCustomCodeSecOCPduFeature_getKeyPtr(pduFeatureHandle, &amp;keyPtr)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>pduProps-&gt;PduFeatureHandle-&gt;SecOCPduFeature.KeyPtr = (uint8*)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>KeyPtr</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>pduProps-&gt;PduFeatureHandle-&gt;SecOCPduFeature.KeyLength = (uint32)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>KeyLength</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">uint8* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>keyPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = NULL;
+uint32 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>keyLength</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = 0;
+char *keyAsString = GetKeyAsString(keyId)
+uint32 keyId = pduProps-&gt;SecuredIPdu_KeyId</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>for (iRow = 0; iRow &lt; NUMBER_KEYS; iRow++) {
+    for (iChar = 0; iChar &lt; MAX_KEY_STRING_LENGTH; iChar++)
+        encryptKeyString[iChar] = (char)(*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>inEncryptKeyStringsPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">[iRow + iChar * NUMBER_KEYS]);
+    encryptKeyId = (int)(*inEncryptKeyIdsPtr[iRow]);
     </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>Crypto_JobType</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">* </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>Crypto_Job</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">;
-} </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>CsmJobHandle_Type</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>SetKey(encryptKeyId, encryptKeyString)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code Light"/>
         <family val="3"/>
       </rPr>
       <t xml:space="preserve">;
@@ -5976,1476 +8286,14 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>CsmJobHandle_Type</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">* </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>jobHandle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> = (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>CsmJobHandle_Type</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>*)rtlib_malloc(sizeof(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>CsmJobHandle_Type</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">))
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>jobHandle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">Crypto_Job </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">= </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>Crypto_Job</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>CsmJobHandle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> = (uint8*) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">jobHandle
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>Note:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">CsmJobHandle </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">is </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>CsmJobHandle_Type</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">uint32 jobId
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiBold"/>
-        <family val="3"/>
-      </rPr>
-      <t>Crypto_JobStateType</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> state 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiBold"/>
-        <family val="3"/>
-      </rPr>
-      <t>Crypto_JobPrimitiveInputOutputType</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">* PrimitiveInputOutput
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiBold"/>
-        <family val="3"/>
-      </rPr>
-      <t>Crypto_JobPrimitiveInfoType</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">* jobPrimitiveInfo
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiBold"/>
-        <family val="3"/>
-      </rPr>
-      <t>Crypto_JobInfoType</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>* jobInfo
-uint32 cryptoKeyId</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Crypto_JobPrimitiveInfoType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">/*const*/ uint32 callbackId;
-/*const*/ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiBold"/>
-        <family val="3"/>
-      </rPr>
-      <t>Crypto_PrimitiveInfoType</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">* primitiveInfo;
-/*const*/ uint32 secureCounterId;
-/*const*/ uint32 cryIfKeyId;
-/*const*/ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiBold"/>
-        <family val="3"/>
-      </rPr>
-      <t>Crypto_ProcessingType</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> processingType;
-/*const*/ boolean callbackUpdateNotification;</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Crypto_PrimitiveInfoType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">/*const*/ uint32 resultLength
-/*const*/ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiBold"/>
-        <family val="3"/>
-      </rPr>
-      <t>Crypto_ServiceInfoType</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> service
-/*const*/ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiBold"/>
-        <family val="3"/>
-      </rPr>
-      <t>Crypto_AlgorithmInfoType</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> algorithm</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">uint8* inputPtr </t>
-    </r>
-    <r>
-      <rPr>
         <sz val="11"/>
         <color rgb="FFFF00FF"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>(uint8*)rtlib_malloc(dataToAuthentictatorLength * sizeof(uint8)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-uint32 inputLength </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF00FF"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>dataToAuthentictatorLength</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-uint8* secondaryInputPtr
-uint32 secondaryInputLength
-uint8* tertiaryInputPtr
-uint32 tertiaryInputLength
-uint8* outputPtr </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF00FF"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>*authenticatorPtr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-uint32* outputLengthPtr </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF00FF"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>*authenticatorLengthInBytes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-uint8* secondaryOutputPtr
-uint32* secondaryOutputLengthPtr
-uint32* verifyPtr
-uint64* output64Ptr
-Crypto_OperationModeType mode</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>securedIPdu_SduLength</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>authPduHeaderLength</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>messageLinkLength</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>messageLinkPosition</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>securedIPduAuthenticIPduPosition</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>authenticIPdu_SduLength</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Linker</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AuthenticIPdu_ActualSduLength</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>actualSecuredAreaLength</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>actualSecuredAreaOffset</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UserCode_CopyMessageLinkToCryptoPdu()</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>// Copy authenticator (MAC)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-CopyBitsBE(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;SecuredIPdu_SduDataPtr, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;MacPosition, authenticatorPtr, 0, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;MacTruncatedLength)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SecuredIPdu_MessageLinkPosition</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MacPosition</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MacTruncatedLength</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">useAsCryptographicPdu </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FreshnessValTruncatedLength</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;SecuredIPdu_PduHandle = securedIPdu_PduHandle
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;IsTx = isTx;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;IsRx = !isTx;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;SecuredIPdu_SduDataPtr = securedIPdu_SduDataPtr
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;AuthenticIPdu_SduDataPtr = authenticIPdu_SduDataPtr
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;AuthenticIPdu_ActualSduLength = authenticIPdu_ActualLength
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>authenticIPdu_ActualLength</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>取决于</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>AuthPduHeaderLength,</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>若</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>AuthPduHeaderLength = 0,authenticIPdu_ActualLength = AuthenticIPdu_SduLength</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;FreshnessValuePosition
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;MacPosition = securedIPduAuthenticatorPosition;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;SecuredIPdu_MessageLinkPosition = securedIPduMessageLinkerPosition
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;SecuredAreaLength = actualSecuredAreaLength
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;SecuredAreaOffset = actualSecuredAreaOffset</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FreshnessValuePosition</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UserCode_WriteTxFreshnessValueToPduData</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Copy authenticator (MAC)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>dataToAuthentictatorLenInBytes</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UserCode_FeatureData</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SecOCMainSetupSFunc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AuthenticIPdu / MacTruncatedLength</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DataID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>KeyID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CsmJobHandle</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PduPropertiesContainer</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UserCode_CopyAuthPduDataToSecuredPduData</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>securedIPdu_SduDataPtr(/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>authenticIPdu_SduDataPtr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MessageLink / SecuredPduData</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>UserCode_SecOCHelper_PrepareDataToAuthenticator(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;SecuredIPdu_DataId,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;AuthenticIPdu_SduDataPtr + </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;SecuredAreaOffset,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;SecuredAreaLength,freshnessValue, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;FreshnessValLength,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>Crypto_Job</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;PrimitiveInputOutput-&gt;inputPtr,&amp;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>Crypto_Job</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;PrimitiveInputOutput-&gt;inputLength))</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>uint16 dataId_BigEndian = USER_CODE_INT16_TO_BE(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>dataId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">)                        </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;SecuredIPdu_DataId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-uint64 freshnessValue_BigEndian = USER_CODE_INT64_TO_BE(freshnessValue)   
-*freshnessValuePtr = &amp;freshnessValue_BigEndian;
-freshnessValuePtr += (64 - freshnessValueLength) / 8                            </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>resultLengthPtr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> = sizeof(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>dataId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">) + </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>dataLength</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + freshnessValueLength / 8   </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>&amp;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>Crypto_Job</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;PrimitiveInputOutput-&gt;inputLength
-                                                                      </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;SecuredIPdu_DataId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-                                                                                </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;SecuredAreaLength</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>Crypto_Job</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;PrimitiveInputOutput-&gt;inputPtr
-memcpy(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>resultPtr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>, &amp;dataId_BigEndian, sizeof(dataId_BigEndian));                
-memcpy(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>resultPtr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + sizeof(dataId_BigEndian), </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>dataPtr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, dataLength)             </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;AuthenticIPdu_SduDataPtr + SecuredAreaOffset
-memcpy(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>resultPtr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + sizeof(dataId_BigEndian) + dataLength, freshnessValuePtr, freshnessValueLength / 8)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DataID
-DataPtr = AuthenticIPdu_SduDataPtr + SecuredAreaOffset
-FreshnessValuePtr</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>*authenticatorPtr = 
-Crypto_Job-&gt;PrimitiveInputOutput-&gt;outputPtr
-*authenticatorLengthInBytes 
-= Crypto_Job-&gt;jobPrimitiveInfo-&gt;primitiveInfo-&gt;resultLength</t>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>*inEncryptKeyStringsPtr = 
+(InputUInt8PtrsType)ssGetInputPortSignalPtrs(S, I_ENCRYPT_KEY_STRINGS_PORT_ID);</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -7453,7 +8301,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7694,6 +8542,49 @@
       <name val="Cascadia Mono SemiLight"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cascadia Code Light"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cascadia Code Light"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="15"/>
+      <color rgb="FFFF00FF"/>
+      <name val="Cascadia Mono SemiBold"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Cascadia Mono Light"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Cascadia Mono Light"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Cascadia Code Light"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF00FF"/>
+      <name val="Cascadia Code Light"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="16">
     <fill>
@@ -7787,7 +8678,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="55">
     <border>
       <left/>
       <right/>
@@ -8384,11 +9275,144 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -8539,81 +9563,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -8627,12 +9576,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8668,9 +9611,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8691,15 +9631,6 @@
     <xf numFmtId="0" fontId="25" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -8712,35 +9643,235 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="15" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9064,10 +10195,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E38B81CE-79E3-4568-BB50-9E45BADB5D49}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:A12"/>
+    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" x14ac:dyDescent="0.2"/>
@@ -9091,8 +10222,8 @@
       <c r="B2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="60" t="s">
-        <v>119</v>
+      <c r="C2" s="94" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9102,7 +10233,7 @@
       <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="61"/>
+      <c r="C3" s="95"/>
     </row>
     <row r="4" spans="1:3" ht="386.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
@@ -9111,7 +10242,7 @@
       <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="62"/>
+      <c r="C4" s="96"/>
     </row>
     <row r="5" spans="1:3" ht="200.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
@@ -9138,252 +10269,281 @@
     </row>
     <row r="8" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="16"/>
     </row>
-    <row r="9" spans="1:3" ht="267" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="63" t="s">
+    <row r="9" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="137" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9" s="137"/>
+      <c r="C9" s="138"/>
+    </row>
+    <row r="10" spans="1:3" ht="287.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="129" t="s">
+        <v>152</v>
+      </c>
+      <c r="B10" s="130" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="131" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="166.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" s="64"/>
+    <row r="11" spans="1:3" ht="159.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="129" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="130" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" s="132"/>
     </row>
-    <row r="11" spans="1:3" ht="257.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="53" t="s">
-        <v>88</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="64"/>
+    <row r="12" spans="1:3" ht="257.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="133" t="s">
+        <v>151</v>
+      </c>
+      <c r="B12" s="130" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="132"/>
     </row>
-    <row r="12" spans="1:3" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="54"/>
-      <c r="B12" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" s="65"/>
+    <row r="13" spans="1:3" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="134"/>
+      <c r="B13" s="130" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="135"/>
     </row>
-    <row r="13" spans="1:3" ht="378.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+    <row r="14" spans="1:3" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="139" t="s">
+        <v>153</v>
+      </c>
+      <c r="B14" s="130" t="s">
+        <v>155</v>
+      </c>
+      <c r="C14" s="131" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="130" t="s">
+        <v>156</v>
+      </c>
+      <c r="B15" s="130" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="135"/>
+    </row>
+    <row r="16" spans="1:3" ht="378.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C13" s="60"/>
+      <c r="B16" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="94"/>
     </row>
-    <row r="14" spans="1:3" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
+    <row r="17" spans="1:3" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B17" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="61"/>
+      <c r="C17" s="95"/>
     </row>
-    <row r="15" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="44" t="s">
+    <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="46"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="46"/>
     </row>
-    <row r="16" spans="1:3" ht="390.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
+    <row r="19" spans="1:3" ht="390.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B19" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C19" s="18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="223.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
+    <row r="20" spans="1:3" ht="223.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B20" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C20" s="123" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="124"/>
+    </row>
+    <row r="22" spans="1:3" ht="370.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="60" t="s">
-        <v>80</v>
-      </c>
+      <c r="C22" s="125"/>
     </row>
-    <row r="18" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="61"/>
+    <row r="23" spans="1:3" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="97" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="19" spans="1:3" ht="370.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="8" t="s">
+    <row r="24" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="97"/>
+    </row>
+    <row r="25" spans="1:3" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="97"/>
+    </row>
+    <row r="26" spans="1:3" ht="242.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" s="97"/>
+    </row>
+    <row r="27" spans="1:3" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="C27" s="97"/>
+    </row>
+    <row r="28" spans="1:3" ht="224.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="12"/>
+      <c r="C28" s="97"/>
+    </row>
+    <row r="29" spans="1:3" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B29" s="12"/>
+      <c r="C29" s="98"/>
+    </row>
+    <row r="30" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="47"/>
+      <c r="C30" s="48"/>
+    </row>
+    <row r="31" spans="1:3" ht="174" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="99" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="98"/>
+    </row>
+    <row r="33" spans="1:3" ht="234.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="100" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="61"/>
+      <c r="C33" s="99" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="20" spans="1:3" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="51" t="s">
-        <v>78</v>
-      </c>
+    <row r="34" spans="1:3" ht="226.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="101"/>
+      <c r="B34" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="97"/>
     </row>
-    <row r="21" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="51"/>
+    <row r="35" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="98"/>
     </row>
-    <row r="22" spans="1:3" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="51"/>
+    <row r="36" spans="1:3" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="102" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="23" spans="1:3" ht="242.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="C23" s="51"/>
+    <row r="37" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="126"/>
     </row>
-    <row r="24" spans="1:3" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="51"/>
-    </row>
-    <row r="25" spans="1:3" ht="224.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="51"/>
-    </row>
-    <row r="26" spans="1:3" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="52"/>
-    </row>
-    <row r="27" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="47"/>
-      <c r="C27" s="48"/>
-    </row>
-    <row r="28" spans="1:3" ht="174" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="55" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="102" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="52"/>
-    </row>
-    <row r="30" spans="1:3" ht="234.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="B30" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="C30" s="55" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="226.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="57"/>
-      <c r="B31" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" s="51"/>
-    </row>
-    <row r="32" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C32" s="52"/>
-    </row>
-    <row r="33" spans="1:3" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C33" s="58" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="59"/>
-    </row>
-    <row r="35" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="C20:C22"/>
     <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="C20:C26"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C23:C29"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="C14:C15"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9395,104 +10555,104 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B69B0A5-D451-48BD-90AF-D4A4F65335A9}">
   <dimension ref="B3:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="49.25" style="76" customWidth="1"/>
+    <col min="2" max="2" width="49.25" style="51" customWidth="1"/>
     <col min="3" max="3" width="65.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="108" t="s">
-        <v>119</v>
-      </c>
-      <c r="C3" s="126" t="s">
-        <v>125</v>
+      <c r="B3" s="103" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="91" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="110"/>
-      <c r="C4" s="126" t="s">
-        <v>124</v>
+      <c r="B4" s="105"/>
+      <c r="C4" s="91" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="107" t="s">
-        <v>121</v>
-      </c>
-      <c r="C5" s="127"/>
+      <c r="B5" s="79" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="92"/>
     </row>
     <row r="6" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="108" t="s">
-        <v>120</v>
-      </c>
-      <c r="C6" s="126" t="s">
-        <v>122</v>
+      <c r="B6" s="103" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="91" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="109"/>
-      <c r="C7" s="126" t="s">
-        <v>123</v>
+      <c r="B7" s="104"/>
+      <c r="C7" s="91" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="109"/>
-      <c r="C8" s="126" t="s">
-        <v>118</v>
+      <c r="B8" s="104"/>
+      <c r="C8" s="91" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="110"/>
-      <c r="C9" s="126" t="s">
-        <v>124</v>
+      <c r="B9" s="105"/>
+      <c r="C9" s="91" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="123" t="s">
-        <v>128</v>
-      </c>
-      <c r="C10" s="127"/>
+      <c r="B10" s="90" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="92"/>
     </row>
     <row r="11" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="123" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" s="127"/>
+      <c r="B11" s="90" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="92"/>
     </row>
     <row r="12" spans="2:3" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="124" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="128" t="s">
-        <v>131</v>
+      <c r="B12" s="106" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="93" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="125"/>
-      <c r="C13" s="128" t="s">
-        <v>132</v>
+      <c r="B13" s="107"/>
+      <c r="C13" s="93" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="23"/>
     </row>
     <row r="15" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="111" t="s">
-        <v>79</v>
+      <c r="B15" s="80" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="111" t="s">
-        <v>80</v>
+      <c r="B16" s="80" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="111" t="s">
-        <v>78</v>
+      <c r="B17" s="80" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -9510,8 +10670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CBC4C05-9556-48FE-9C05-49ABCBC207BE}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:G6"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9531,25 +10691,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="203.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="68" t="s">
+      <c r="F1" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="68" t="s">
+      <c r="G1" s="108" t="s">
         <v>45</v>
       </c>
       <c r="H1" s="22" t="s">
@@ -9560,13 +10720,13 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="287.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="66"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
+      <c r="A2" s="109"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
       <c r="H2" s="13" t="s">
         <v>41</v>
       </c>
@@ -9581,14 +10741,14 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="66"/>
-      <c r="B3" s="67"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68" t="s">
+      <c r="A3" s="109"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="75" t="s">
+      <c r="F3" s="111" t="s">
         <v>33</v>
       </c>
       <c r="G3" s="13" t="s">
@@ -9596,68 +10756,68 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="75"/>
+      <c r="A4" s="109"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="111"/>
     </row>
     <row r="5" spans="1:12" ht="254.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="66"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="68" t="s">
+      <c r="A5" s="109"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="68" t="s">
-        <v>91</v>
+      <c r="H5" s="108" t="s">
+        <v>87</v>
       </c>
       <c r="I5" s="22" t="s">
         <v>49</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="137.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="66"/>
-      <c r="B6" s="67"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
+      <c r="A6" s="109"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="108"/>
       <c r="I6" s="22" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="160.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="66"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
+      <c r="A7" s="109"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
       <c r="E7" s="13" t="s">
         <v>32</v>
       </c>
       <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="66"/>
-      <c r="B8" s="67" t="s">
+      <c r="A8" s="109"/>
+      <c r="B8" s="110" t="s">
         <v>38</v>
       </c>
       <c r="C8" s="14" t="s">
@@ -9665,42 +10825,42 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="66"/>
-      <c r="B9" s="67"/>
+      <c r="A9" s="109"/>
+      <c r="B9" s="110"/>
       <c r="C9" s="14" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="66"/>
-      <c r="B10" s="67"/>
+      <c r="A10" s="109"/>
+      <c r="B10" s="110"/>
       <c r="C10" s="14" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="66"/>
-      <c r="B11" s="67"/>
+      <c r="A11" s="109"/>
+      <c r="B11" s="110"/>
       <c r="C11" s="14" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="66"/>
+      <c r="A12" s="109"/>
       <c r="B12" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>70</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="66"/>
+      <c r="A13" s="109"/>
       <c r="B13" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -9728,7 +10888,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9740,10 +10900,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="114" t="s">
         <v>50</v>
       </c>
       <c r="C2" s="25" t="s">
@@ -9760,16 +10920,16 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="70"/>
-      <c r="B3" s="72"/>
+      <c r="A3" s="113"/>
+      <c r="B3" s="115"/>
       <c r="C3" s="41"/>
       <c r="D3" s="42"/>
       <c r="E3" s="42"/>
       <c r="F3" s="43"/>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="70"/>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="113"/>
+      <c r="B4" s="115" t="s">
         <v>51</v>
       </c>
       <c r="C4" s="31" t="s">
@@ -9786,8 +10946,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="70"/>
-      <c r="B5" s="72"/>
+      <c r="A5" s="113"/>
+      <c r="B5" s="115"/>
       <c r="C5" s="35" t="s">
         <v>54</v>
       </c>
@@ -9796,10 +10956,10 @@
       <c r="F5" s="30"/>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="113" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="115" t="s">
         <v>50</v>
       </c>
       <c r="C6" s="31" t="s">
@@ -9814,16 +10974,16 @@
       <c r="F6" s="30"/>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="70"/>
-      <c r="B7" s="72"/>
+      <c r="A7" s="113"/>
+      <c r="B7" s="115"/>
       <c r="C7" s="41"/>
       <c r="D7" s="42"/>
       <c r="E7" s="42"/>
       <c r="F7" s="43"/>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="70"/>
-      <c r="B8" s="72" t="s">
+      <c r="A8" s="113"/>
+      <c r="B8" s="115" t="s">
         <v>51</v>
       </c>
       <c r="C8" s="31" t="s">
@@ -9838,8 +10998,8 @@
       <c r="F8" s="30"/>
     </row>
     <row r="9" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="73"/>
-      <c r="B9" s="74"/>
+      <c r="A9" s="116"/>
+      <c r="B9" s="117"/>
       <c r="C9" s="38" t="s">
         <v>54</v>
       </c>
@@ -9881,184 +11041,184 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="83" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="120" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
     </row>
     <row r="3" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="79" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3" s="90" t="s">
-        <v>101</v>
-      </c>
-      <c r="D3" s="77"/>
-      <c r="E3" s="84" t="s">
-        <v>111</v>
-      </c>
-      <c r="F3" s="85"/>
+      <c r="B3" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="52"/>
+      <c r="E3" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="58"/>
     </row>
     <row r="4" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B4" s="78"/>
-      <c r="C4" s="98" t="s">
-        <v>102</v>
-      </c>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="85"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="58"/>
     </row>
     <row r="5" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B5" s="78"/>
-      <c r="C5" s="80" t="s">
-        <v>112</v>
-      </c>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="85"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="58"/>
     </row>
     <row r="6" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B6" s="78"/>
-      <c r="C6" s="80" t="s">
-        <v>100</v>
-      </c>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88" t="s">
-        <v>100</v>
+      <c r="B6" s="53"/>
+      <c r="C6" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="99"/>
-      <c r="C7" s="80" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88" t="s">
-        <v>99</v>
+      <c r="B7" s="71"/>
+      <c r="C7" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="100" t="s">
+      <c r="B8" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="81" t="s">
+      <c r="C8" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="94" t="s">
+      <c r="D8" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="95" t="s">
+      <c r="E8" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="96" t="s">
-        <v>103</v>
+      <c r="F8" s="69" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B9" s="120"/>
-      <c r="C9" s="115"/>
-      <c r="D9" s="93" t="s">
-        <v>113</v>
-      </c>
-      <c r="E9" s="114"/>
-      <c r="F9" s="102"/>
+      <c r="B9" s="89"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="83"/>
+      <c r="F9" s="74"/>
     </row>
     <row r="10" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B10" s="121" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" s="122"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="102"/>
+      <c r="B10" s="118" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="119"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="74"/>
     </row>
     <row r="11" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="119"/>
-      <c r="C11" s="101" t="s">
-        <v>127</v>
-      </c>
-      <c r="D11" s="112"/>
-      <c r="E11" s="116"/>
-      <c r="F11" s="102"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="81"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="74"/>
     </row>
     <row r="12" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="118"/>
-      <c r="C12" s="117"/>
-      <c r="D12" s="113" t="s">
-        <v>115</v>
-      </c>
-      <c r="E12" s="116"/>
-      <c r="F12" s="102"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="85"/>
+      <c r="F12" s="74"/>
     </row>
     <row r="13" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="106"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="101" t="s">
-        <v>110</v>
-      </c>
-      <c r="F13" s="102"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="73" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" s="74"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="106"/>
-      <c r="C14" s="85"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="105"/>
-      <c r="F14" s="87"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="60"/>
     </row>
     <row r="15" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="106"/>
-      <c r="C15" s="89" t="s">
+      <c r="B15" s="78"/>
+      <c r="C15" s="62" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="58"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="64" t="s">
         <v>105</v>
-      </c>
-      <c r="D15" s="85"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="91" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B16" s="106"/>
-      <c r="C16" s="89" t="s">
-        <v>106</v>
-      </c>
-      <c r="D16" s="85"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="103"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="58"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="75"/>
     </row>
     <row r="17" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B17" s="106"/>
-      <c r="C17" s="92" t="s">
-        <v>126</v>
-      </c>
-      <c r="D17" s="85"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="92" t="s">
-        <v>107</v>
+      <c r="B17" s="78"/>
+      <c r="C17" s="65" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="58"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="65" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B18" s="106"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="92" t="s">
-        <v>116</v>
-      </c>
-      <c r="E18" s="86"/>
-      <c r="F18" s="85"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" s="59"/>
+      <c r="F18" s="58"/>
     </row>
     <row r="19" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B19" s="106"/>
-      <c r="C19" s="85"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="104" t="s">
-        <v>117</v>
-      </c>
-      <c r="F19" s="85"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="76" t="s">
+        <v>113</v>
+      </c>
+      <c r="F19" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -10068,4 +11228,168 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ABC9983-6AED-4B25-8AB6-C5125DB391F9}">
+  <dimension ref="B2:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.25" customWidth="1"/>
+    <col min="2" max="2" width="38.625" style="127" customWidth="1"/>
+    <col min="3" max="3" width="34" style="127" customWidth="1"/>
+    <col min="4" max="4" width="89.125" style="127" customWidth="1"/>
+    <col min="5" max="5" width="85.125" style="128" customWidth="1"/>
+    <col min="6" max="6" width="86.375" style="128" customWidth="1"/>
+    <col min="7" max="7" width="85.875" style="136" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="191.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="140" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="141" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="141"/>
+      <c r="E2" s="142" t="s">
+        <v>148</v>
+      </c>
+      <c r="F2" s="143" t="s">
+        <v>136</v>
+      </c>
+      <c r="G2" s="144" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="145"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="148" t="s">
+        <v>137</v>
+      </c>
+      <c r="G3" s="149" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="145"/>
+      <c r="C4" s="146" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" s="148" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" s="150" t="s">
+        <v>140</v>
+      </c>
+      <c r="F4" s="151"/>
+      <c r="G4" s="152"/>
+    </row>
+    <row r="5" spans="2:7" ht="183.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="145"/>
+      <c r="C5" s="146"/>
+      <c r="D5" s="153" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5" s="153" t="s">
+        <v>154</v>
+      </c>
+      <c r="F5" s="154"/>
+      <c r="G5" s="155"/>
+    </row>
+    <row r="6" spans="2:7" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="145"/>
+      <c r="C6" s="146"/>
+      <c r="D6" s="163" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="160" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" s="153" t="s">
+        <v>162</v>
+      </c>
+      <c r="G6" s="155"/>
+    </row>
+    <row r="7" spans="2:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="145"/>
+      <c r="C7" s="146"/>
+      <c r="D7" s="164"/>
+      <c r="E7" s="161"/>
+      <c r="F7" s="153" t="s">
+        <v>159</v>
+      </c>
+      <c r="G7" s="155" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="145"/>
+      <c r="C8" s="146"/>
+      <c r="D8" s="164"/>
+      <c r="E8" s="161"/>
+      <c r="F8" s="153" t="s">
+        <v>145</v>
+      </c>
+      <c r="G8" s="149" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="145"/>
+      <c r="C9" s="146"/>
+      <c r="D9" s="164"/>
+      <c r="E9" s="161"/>
+      <c r="F9" s="153" t="s">
+        <v>144</v>
+      </c>
+      <c r="G9" s="155" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="145"/>
+      <c r="C10" s="146"/>
+      <c r="D10" s="164"/>
+      <c r="E10" s="161"/>
+      <c r="F10" s="153" t="s">
+        <v>143</v>
+      </c>
+      <c r="G10" s="155" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="156"/>
+      <c r="C11" s="157"/>
+      <c r="D11" s="165"/>
+      <c r="E11" s="162"/>
+      <c r="F11" s="158" t="s">
+        <v>141</v>
+      </c>
+      <c r="G11" s="159" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C11"/>
+    <mergeCell ref="E6:E11"/>
+    <mergeCell ref="D6:D11"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="B2:B11"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/BMW_SecOc.xlsx
+++ b/BMW_SecOc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_XuhuaRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E513B3BC-00BA-4AEA-B9E2-06BC4948DB0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F96C53B9-2B61-4C8E-BCA3-B5DCC3DF944C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-8640" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{EE3554E5-5B85-4F6F-95D2-24E55C4E92D2}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="174">
   <si>
     <t>DsBusCustomCode_onPduFeatureExecutionPrivate(pduFeatureHandle)</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -6848,10 +6848,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>CsmInitKeysForAllSecOCMsgs()</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">for (unsigned int i = 0; i &lt; filteredSecOCMsgs-&gt;itemCount; i++) {
     pduFeatData = (UserCode_FeatureData *)GetById(filteredSecOCMsgs, i);
@@ -7001,10 +6997,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>*KeyPtr = pduProps-&gt;PduFeatureHandle-&gt;SecOCPduFeature.KeyPtr</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">for (unsigned int i = 0; i &lt; filteredSecOCMsgs-&gt;itemCount; i++) {
 pduFeatData = (UserCode_FeatureData *)GetById(filteredSecOCMsgs, i);
@@ -7845,112 +7837,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">SetKey(int </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Code Light"/>
-        <family val="3"/>
-      </rPr>
-      <t>keyId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Code Light"/>
-        <family val="3"/>
-      </rPr>
-      <t>, char *</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Code Light"/>
-        <family val="3"/>
-      </rPr>
-      <t>keyAsStr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Code Light"/>
-        <family val="3"/>
-      </rPr>
-      <t>) {
-for (int iKey = 0; iKey &lt; NUMBER_KEYS; iKey++) {
-        g_keys[iKey].</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Code Light"/>
-        <family val="3"/>
-      </rPr>
-      <t>keyId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Code Light"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> = (uint32)keyId
-        strcpy(g_keys[iKey].</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Code Light"/>
-        <family val="3"/>
-      </rPr>
-      <t>keyAsString</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Code Light"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Code Light"/>
-        <family val="3"/>
-      </rPr>
-      <t>keyAsStr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Code Light"/>
-        <family val="3"/>
-      </rPr>
-      <t>);
-        g_keys[iKey].keyIsSet = TRUE;
-            }</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>for (int iKey = 0; iKey &lt; NUMBER_KEYS; iKey++) {
     g_keys[iKey].keyId = (uint32)-1;
 }
@@ -8179,64 +8065,440 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>pduProps-&gt;PduFeatureHandle-&gt;SecOCPduFeature.KeyLength = (uint32)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
+    <t>mdlStart(SimStruct *S)</t>
+  </si>
+  <si>
+    <t>InitDataKeyIdMapping(S)</t>
+  </si>
+  <si>
+    <t>CsmInitKeysForAllSecOCMsgs()</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">for (iRow = 0; iRow &lt; NUMBER_DATA_IDS; iRow++) {
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Cascadia Code Light"/>
         <family val="3"/>
       </rPr>
-      <t>KeyLength</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">uint8* </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
+      <t>encryptDataId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Cascadia Code Light"/>
         <family val="3"/>
       </rPr>
-      <t>keyPtr</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve"> =(int)(*inDataKeyIdPairsDataPtr[iRow]);
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Cascadia Code Light"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve"> = NULL;
-uint32 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
+      <t>encryptKeyId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Cascadia Code Light"/>
         <family val="3"/>
       </rPr>
-      <t>keyLength</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve"> =(int)(*inDataKeyIdPairsKeyPtr[iRow]);
+    SetKeyId(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Cascadia Code Light"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve"> = 0;
-char *keyAsString = GetKeyAsString(keyId)
-uint32 keyId = pduProps-&gt;SecuredIPdu_KeyId</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+      <t>encryptDataId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>encryptKeyId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>);
+}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>SetKey</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(int </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>keyId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>, char *</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>keyAsStr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>) {
+for (int iKey = 0; iKey &lt; NUMBER_KEYS; iKey++) {
+        g_keys[iKey].</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>keyId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = (uint32)keyId
+        strcpy(g_keys[iKey].</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>keyAsString</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>keyAsStr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>);
+        g_keys[iKey].keyIsSet = TRUE;
+            }</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">void </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>SetKeyId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(int </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>encryptDataId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, int </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>encryptKeyId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>) {
+    if (!g_keyids[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>encryptDataId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>].keyIdIsSet) {
+        g_keyids[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>encryptDataId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>].</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>keyId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = (uint32)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>encryptKeyId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>;
+    }
+    if (g_keyids[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>encryptDataId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>].</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>keyId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> == (uint32)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>encryptKeyId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>) {
+        g_keyids[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>encryptDataId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>].keyIdIsSet = TRUE;
+    }        
+}</t>
+    </r>
   </si>
   <si>
     <r>
@@ -8293,6 +8555,230 @@
       </rPr>
       <t>*inEncryptKeyStringsPtr = 
 (InputUInt8PtrsType)ssGetInputPortSignalPtrs(S, I_ENCRYPT_KEY_STRINGS_PORT_ID);</t>
+    </r>
+  </si>
+  <si>
+    <t>*KeyPtr = pduProps-&gt;PduFeatureHandle-&gt;SecOCPduFeature.KeyPtr</t>
+  </si>
+  <si>
+    <t>KeyPtr</t>
+  </si>
+  <si>
+    <t>SecOCPduFeature</t>
+  </si>
+  <si>
+    <r>
+      <t>pduProps-&gt;PduFeatureHandle-&gt;SecOCPduFeature.KeyLength = (uint32)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>KeyLength</t>
+    </r>
+  </si>
+  <si>
+    <t>KeyLength</t>
+  </si>
+  <si>
+    <t>InitKeyIdsStruct()</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>for (int iDataId = 0; iDataId &lt; NUMBER_DATA_IDS; iDataId++) {
+    g_keyids[iDataId].keyIdIsSet = FALSE;
+    g_keyids[iDataId].keyId = (uint32)-1;
+}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">char *GetKeyAsString(int </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>keyId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>) 
+    for (int iKey = 0; iKey &lt; NUMBER_KEYS; iKey++) {
+        if (g_keys[iKey].</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>keyId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> == (uint32)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>keyId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>)
+            return g_keys[iKey].</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>keyAsString</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>;
+    }</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">uint32 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>keyId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = pduProps-&gt;SecuredIPdu_KeyId
+uint8* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>keyPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = NULL;
+uint32 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>keyLength</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = 0;
+char *</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>keyAsString</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = GetKeyAsString(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>keyId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -8301,7 +8787,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="41" x14ac:knownFonts="1">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8585,8 +9071,15 @@
       <name val="Cascadia Code Light"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Cascadia Code Light"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8677,8 +9170,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="55">
+  <borders count="58">
     <border>
       <left/>
       <right/>
@@ -9408,11 +9907,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -9476,9 +10014,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -9661,105 +10196,6 @@
     <xf numFmtId="0" fontId="5" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -9770,62 +10206,285 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="15" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="16" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="16" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -9836,43 +10495,7 @@
     <xf numFmtId="0" fontId="35" fillId="15" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -10197,8 +10820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E38B81CE-79E3-4568-BB50-9E45BADB5D49}">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" x14ac:dyDescent="0.2"/>
@@ -10222,7 +10845,7 @@
       <c r="B2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="94" t="s">
+      <c r="C2" s="120" t="s">
         <v>115</v>
       </c>
     </row>
@@ -10233,7 +10856,7 @@
       <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="95"/>
+      <c r="C3" s="121"/>
     </row>
     <row r="4" spans="1:3" ht="386.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
@@ -10242,7 +10865,7 @@
       <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="96"/>
+      <c r="C4" s="122"/>
     </row>
     <row r="5" spans="1:3" ht="200.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
@@ -10275,67 +10898,67 @@
       <c r="C8" s="16"/>
     </row>
     <row r="9" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="137" t="s">
-        <v>149</v>
-      </c>
-      <c r="B9" s="137"/>
-      <c r="C9" s="138"/>
+      <c r="A9" s="130" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9" s="130"/>
+      <c r="C9" s="131"/>
     </row>
     <row r="10" spans="1:3" ht="287.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="129" t="s">
-        <v>152</v>
-      </c>
-      <c r="B10" s="130" t="s">
+      <c r="A10" s="95" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" s="96" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="131" t="s">
+      <c r="C10" s="123" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="159.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="129" t="s">
+      <c r="A11" s="95" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="130" t="s">
-        <v>150</v>
-      </c>
-      <c r="C11" s="132"/>
+      <c r="B11" s="96" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="124"/>
     </row>
     <row r="12" spans="1:3" ht="257.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="133" t="s">
-        <v>151</v>
-      </c>
-      <c r="B12" s="130" t="s">
+      <c r="A12" s="128" t="s">
+        <v>149</v>
+      </c>
+      <c r="B12" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="132"/>
+      <c r="C12" s="124"/>
     </row>
     <row r="13" spans="1:3" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="134"/>
-      <c r="B13" s="130" t="s">
+      <c r="A13" s="129"/>
+      <c r="B13" s="96" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="135"/>
+      <c r="C13" s="125"/>
     </row>
     <row r="14" spans="1:3" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="139" t="s">
-        <v>153</v>
-      </c>
-      <c r="B14" s="130" t="s">
+      <c r="A14" s="98" t="s">
+        <v>151</v>
+      </c>
+      <c r="B14" s="96" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14" s="123" t="s">
         <v>155</v>
-      </c>
-      <c r="C14" s="131" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="130" t="s">
-        <v>156</v>
-      </c>
-      <c r="B15" s="130" t="s">
-        <v>157</v>
-      </c>
-      <c r="C15" s="135"/>
+      <c r="A15" s="96" t="s">
+        <v>153</v>
+      </c>
+      <c r="B15" s="96" t="s">
+        <v>154</v>
+      </c>
+      <c r="C15" s="125"/>
     </row>
     <row r="16" spans="1:3" ht="378.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
@@ -10344,7 +10967,7 @@
       <c r="B16" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C16" s="94"/>
+      <c r="C16" s="120"/>
     </row>
     <row r="17" spans="1:3" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
@@ -10353,14 +10976,14 @@
       <c r="B17" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="95"/>
+      <c r="C17" s="121"/>
     </row>
     <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="46"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="45"/>
     </row>
     <row r="19" spans="1:3" ht="390.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
@@ -10380,7 +11003,7 @@
       <c r="B20" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C20" s="123" t="s">
+      <c r="C20" s="137" t="s">
         <v>79</v>
       </c>
     </row>
@@ -10391,7 +11014,7 @@
       <c r="B21" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="124"/>
+      <c r="C21" s="138"/>
     </row>
     <row r="22" spans="1:3" ht="370.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
@@ -10400,14 +11023,14 @@
       <c r="B22" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="125"/>
+      <c r="C22" s="139"/>
     </row>
     <row r="23" spans="1:3" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="97" t="s">
+      <c r="C23" s="126" t="s">
         <v>77</v>
       </c>
     </row>
@@ -10416,7 +11039,7 @@
         <v>11</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="97"/>
+      <c r="C24" s="126"/>
     </row>
     <row r="25" spans="1:3" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
@@ -10425,7 +11048,7 @@
       <c r="B25" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="97"/>
+      <c r="C25" s="126"/>
     </row>
     <row r="26" spans="1:3" ht="242.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
@@ -10434,44 +11057,44 @@
       <c r="B26" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C26" s="97"/>
+      <c r="C26" s="126"/>
     </row>
     <row r="27" spans="1:3" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="12"/>
-      <c r="C27" s="97"/>
+      <c r="C27" s="126"/>
     </row>
     <row r="28" spans="1:3" ht="224.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
         <v>60</v>
       </c>
       <c r="B28" s="12"/>
-      <c r="C28" s="97"/>
+      <c r="C28" s="126"/>
     </row>
     <row r="29" spans="1:3" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
         <v>104</v>
       </c>
       <c r="B29" s="12"/>
-      <c r="C29" s="98"/>
+      <c r="C29" s="127"/>
     </row>
     <row r="30" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="44" t="s">
+      <c r="A30" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="47"/>
-      <c r="C30" s="48"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="47"/>
     </row>
     <row r="31" spans="1:3" ht="174" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="49" t="s">
+      <c r="B31" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="99" t="s">
+      <c r="C31" s="132" t="s">
         <v>78</v>
       </c>
     </row>
@@ -10482,25 +11105,25 @@
       <c r="B32" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="98"/>
+      <c r="C32" s="127"/>
     </row>
     <row r="33" spans="1:3" ht="234.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="100" t="s">
+      <c r="A33" s="133" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="50" t="s">
+      <c r="B33" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="99" t="s">
+      <c r="C33" s="132" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="226.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="101"/>
+      <c r="A34" s="134"/>
       <c r="B34" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="97"/>
+      <c r="C34" s="126"/>
     </row>
     <row r="35" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
@@ -10509,7 +11132,7 @@
       <c r="B35" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C35" s="98"/>
+      <c r="C35" s="127"/>
     </row>
     <row r="36" spans="1:3" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
@@ -10518,7 +11141,7 @@
       <c r="B36" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="102" t="s">
+      <c r="C36" s="135" t="s">
         <v>77</v>
       </c>
     </row>
@@ -10527,7 +11150,7 @@
         <v>75</v>
       </c>
       <c r="B37" s="10"/>
-      <c r="C37" s="126"/>
+      <c r="C37" s="136"/>
     </row>
     <row r="38" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
@@ -10561,97 +11184,97 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="49.25" style="51" customWidth="1"/>
+    <col min="2" max="2" width="49.25" style="50" customWidth="1"/>
     <col min="3" max="3" width="65.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="140" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="90" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="105"/>
-      <c r="C4" s="91" t="s">
+      <c r="B4" s="142"/>
+      <c r="C4" s="90" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="79" t="s">
+      <c r="B5" s="78" t="s">
         <v>117</v>
       </c>
-      <c r="C5" s="92"/>
+      <c r="C5" s="91"/>
     </row>
     <row r="6" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="103" t="s">
+      <c r="B6" s="140" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="91" t="s">
+      <c r="C6" s="90" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="104"/>
-      <c r="C7" s="91" t="s">
+      <c r="B7" s="141"/>
+      <c r="C7" s="90" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="104"/>
-      <c r="C8" s="91" t="s">
+      <c r="B8" s="141"/>
+      <c r="C8" s="90" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="105"/>
-      <c r="C9" s="91" t="s">
+      <c r="B9" s="142"/>
+      <c r="C9" s="90" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="90" t="s">
+      <c r="B10" s="89" t="s">
         <v>124</v>
       </c>
-      <c r="C10" s="92"/>
+      <c r="C10" s="91"/>
     </row>
     <row r="11" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="90" t="s">
+      <c r="B11" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="92"/>
+      <c r="C11" s="91"/>
     </row>
     <row r="12" spans="2:3" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="106" t="s">
+      <c r="B12" s="143" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="93" t="s">
+      <c r="C12" s="92" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="107"/>
-      <c r="C13" s="93" t="s">
+      <c r="B13" s="144"/>
+      <c r="C13" s="92" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="23"/>
+      <c r="B14" s="22"/>
     </row>
     <row r="15" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="80" t="s">
+      <c r="B15" s="79" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="80" t="s">
+      <c r="B16" s="79" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="80" t="s">
+      <c r="B17" s="79" t="s">
         <v>77</v>
       </c>
     </row>
@@ -10668,10 +11291,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CBC4C05-9556-48FE-9C05-49ABCBC207BE}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E2"/>
+    <sheetView topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10691,192 +11314,290 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="203.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="150" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="147" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="147" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="108" t="s">
+      <c r="E1" s="147" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="108" t="s">
+      <c r="F1" s="147" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="108" t="s">
+      <c r="G1" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="107" t="s">
         <v>47</v>
       </c>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="109"/>
     </row>
     <row r="2" spans="1:12" ht="287.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="109"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="13" t="s">
+      <c r="A2" s="151"/>
+      <c r="B2" s="146"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="111" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="112" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="111" t="s">
         <v>43</v>
       </c>
+      <c r="L2" s="113"/>
     </row>
     <row r="3" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="109"/>
-      <c r="B3" s="110"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108" t="s">
+      <c r="A3" s="151"/>
+      <c r="B3" s="146"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="145" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="111" t="s">
+      <c r="F3" s="149" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="111" t="s">
         <v>36</v>
       </c>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="113"/>
     </row>
-    <row r="4" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="109"/>
-      <c r="B4" s="110"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="111"/>
+    <row r="4" spans="1:12" ht="233.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="151"/>
+      <c r="B4" s="146"/>
+      <c r="C4" s="145"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="145"/>
+      <c r="F4" s="149"/>
+      <c r="G4" s="145" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="145" t="s">
+        <v>87</v>
+      </c>
+      <c r="I4" s="112" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="111" t="s">
+        <v>92</v>
+      </c>
+      <c r="K4" s="111"/>
+      <c r="L4" s="113"/>
     </row>
-    <row r="5" spans="1:12" ht="254.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="109"/>
-      <c r="B5" s="110"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="108" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="108" t="s">
-        <v>87</v>
-      </c>
-      <c r="I5" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>92</v>
+    <row r="5" spans="1:12" ht="113.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="151"/>
+      <c r="B5" s="146"/>
+      <c r="C5" s="145"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="145"/>
+      <c r="F5" s="149"/>
+      <c r="G5" s="145"/>
+      <c r="H5" s="145"/>
+      <c r="I5" s="112" t="s">
+        <v>88</v>
+      </c>
+      <c r="J5" s="111" t="s">
+        <v>89</v>
+      </c>
+      <c r="K5" s="112" t="s">
+        <v>90</v>
+      </c>
+      <c r="L5" s="113" t="s">
+        <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="137.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="109"/>
-      <c r="B6" s="110"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
+    <row r="6" spans="1:12" ht="160.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="151"/>
+      <c r="B6" s="146"/>
+      <c r="C6" s="145"/>
+      <c r="D6" s="145"/>
+      <c r="E6" s="111" t="s">
+        <v>32</v>
+      </c>
       <c r="F6" s="111"/>
-      <c r="G6" s="108"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="K6" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>91</v>
-      </c>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="111"/>
+      <c r="L6" s="113"/>
     </row>
-    <row r="7" spans="1:12" ht="160.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="109"/>
-      <c r="B7" s="110"/>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="13"/>
+    <row r="7" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="151"/>
+      <c r="B7" s="146" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="114" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="115"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="113"/>
     </row>
     <row r="8" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="109"/>
-      <c r="B8" s="110" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>39</v>
-      </c>
+      <c r="A8" s="151"/>
+      <c r="B8" s="146"/>
+      <c r="C8" s="114" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="115"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="111"/>
+      <c r="H8" s="111"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="111"/>
+      <c r="K8" s="111"/>
+      <c r="L8" s="113"/>
     </row>
     <row r="9" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="109"/>
-      <c r="B9" s="110"/>
-      <c r="C9" s="14" t="s">
-        <v>40</v>
-      </c>
+      <c r="A9" s="151"/>
+      <c r="B9" s="146"/>
+      <c r="C9" s="114" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="115"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="111"/>
+      <c r="H9" s="111"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="113"/>
     </row>
     <row r="10" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="109"/>
-      <c r="B10" s="110"/>
-      <c r="C10" s="14" t="s">
-        <v>81</v>
-      </c>
+      <c r="A10" s="151"/>
+      <c r="B10" s="146"/>
+      <c r="C10" s="114" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="115"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="114"/>
+      <c r="G10" s="111"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="111"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="113"/>
     </row>
-    <row r="11" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="109"/>
-      <c r="B11" s="110"/>
-      <c r="C11" s="14" t="s">
-        <v>82</v>
-      </c>
+    <row r="11" spans="1:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="151"/>
+      <c r="B11" s="110" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="114" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="115"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="111"/>
+      <c r="K11" s="111"/>
+      <c r="L11" s="113"/>
     </row>
-    <row r="12" spans="1:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="109"/>
-      <c r="B12" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="14" t="s">
+    <row r="12" spans="1:12" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="151"/>
+      <c r="B12" s="110" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="114" t="s">
         <v>70</v>
       </c>
+      <c r="D12" s="115"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="111"/>
+      <c r="H12" s="111"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="111"/>
+      <c r="L12" s="113"/>
     </row>
     <row r="13" spans="1:12" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="109"/>
-      <c r="B13" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>70</v>
-      </c>
+      <c r="A13" s="151"/>
+      <c r="B13" s="153" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13" s="114" t="s">
+        <v>166</v>
+      </c>
+      <c r="D13" s="115"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="111"/>
+      <c r="K13" s="111"/>
+      <c r="L13" s="113"/>
+    </row>
+    <row r="14" spans="1:12" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="152"/>
+      <c r="B14" s="154"/>
+      <c r="C14" s="116" t="s">
+        <v>169</v>
+      </c>
+      <c r="D14" s="117"/>
+      <c r="E14" s="116"/>
+      <c r="F14" s="116"/>
+      <c r="G14" s="118"/>
+      <c r="H14" s="118"/>
+      <c r="I14" s="118"/>
+      <c r="J14" s="118"/>
+      <c r="K14" s="118"/>
+      <c r="L14" s="119"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="A1:A13"/>
-    <mergeCell ref="B8:B11"/>
+  <mergeCells count="13">
+    <mergeCell ref="A1:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="B7:B10"/>
     <mergeCell ref="G1:G2"/>
-    <mergeCell ref="B1:B7"/>
-    <mergeCell ref="D1:D7"/>
+    <mergeCell ref="B1:B6"/>
+    <mergeCell ref="D1:D6"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="C1:C7"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="C1:C6"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="G4:G5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10893,119 +11614,119 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.125" style="24" customWidth="1"/>
+    <col min="1" max="1" width="20.125" style="23" customWidth="1"/>
     <col min="2" max="2" width="20.75" customWidth="1"/>
-    <col min="3" max="6" width="20.625" style="24" customWidth="1"/>
+    <col min="3" max="6" width="20.625" style="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="155" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="157" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="27" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="113"/>
-      <c r="B3" s="115"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="43"/>
+      <c r="A3" s="156"/>
+      <c r="B3" s="158"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="42"/>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="113"/>
-      <c r="B4" s="115" t="s">
+      <c r="A4" s="156"/>
+      <c r="B4" s="158" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="33" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="113"/>
-      <c r="B5" s="115"/>
-      <c r="C5" s="35" t="s">
+      <c r="A5" s="156"/>
+      <c r="B5" s="158"/>
+      <c r="C5" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="30"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="29"/>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="113" t="s">
+      <c r="A6" s="156" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="158" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="30"/>
+      <c r="F6" s="29"/>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="113"/>
-      <c r="B7" s="115"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="43"/>
+      <c r="A7" s="156"/>
+      <c r="B7" s="158"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="42"/>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="113"/>
-      <c r="B8" s="115" t="s">
+      <c r="A8" s="156"/>
+      <c r="B8" s="158" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="30"/>
+      <c r="F8" s="29"/>
     </row>
     <row r="9" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="116"/>
-      <c r="B9" s="117"/>
-      <c r="C9" s="38" t="s">
+      <c r="A9" s="159"/>
+      <c r="B9" s="160"/>
+      <c r="C9" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="40"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -11041,184 +11762,184 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="120" t="s">
+      <c r="B2" s="163" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="122"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="165"/>
     </row>
     <row r="3" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="57" t="s">
+      <c r="D3" s="51"/>
+      <c r="E3" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="F3" s="58"/>
+      <c r="F3" s="57"/>
     </row>
     <row r="4" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B4" s="53"/>
-      <c r="C4" s="70" t="s">
+      <c r="B4" s="52"/>
+      <c r="C4" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="58"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="57"/>
     </row>
     <row r="5" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B5" s="53"/>
-      <c r="C5" s="55" t="s">
+      <c r="B5" s="52"/>
+      <c r="C5" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="58"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="57"/>
     </row>
     <row r="6" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B6" s="53"/>
-      <c r="C6" s="55" t="s">
+      <c r="B6" s="52"/>
+      <c r="C6" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61" t="s">
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="71"/>
-      <c r="C7" s="55" t="s">
+      <c r="B7" s="70"/>
+      <c r="C7" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="67" t="s">
+      <c r="D8" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="68" t="s">
+      <c r="E8" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="69" t="s">
+      <c r="F8" s="68" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B9" s="89"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="66" t="s">
+      <c r="B9" s="88"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="E9" s="83"/>
-      <c r="F9" s="74"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="73"/>
     </row>
     <row r="10" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B10" s="118" t="s">
+      <c r="B10" s="161" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="119"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="74"/>
+      <c r="C10" s="162"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="73"/>
     </row>
     <row r="11" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="88"/>
-      <c r="C11" s="73" t="s">
+      <c r="B11" s="87"/>
+      <c r="C11" s="72" t="s">
         <v>123</v>
       </c>
-      <c r="D11" s="81"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="74"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="73"/>
     </row>
     <row r="12" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="87"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="82" t="s">
+      <c r="B12" s="86"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="81" t="s">
         <v>111</v>
       </c>
-      <c r="E12" s="85"/>
-      <c r="F12" s="74"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="73"/>
     </row>
     <row r="13" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="78"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="73" t="s">
+      <c r="B13" s="77"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="F13" s="74"/>
+      <c r="F13" s="73"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="78"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="60"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="59"/>
     </row>
     <row r="15" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="78"/>
-      <c r="C15" s="62" t="s">
+      <c r="B15" s="77"/>
+      <c r="C15" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="64" t="s">
+      <c r="D15" s="57"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="63" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B16" s="78"/>
-      <c r="C16" s="62" t="s">
+      <c r="B16" s="77"/>
+      <c r="C16" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="58"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="75"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="74"/>
     </row>
     <row r="17" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B17" s="78"/>
-      <c r="C17" s="65" t="s">
+      <c r="B17" s="77"/>
+      <c r="C17" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="65" t="s">
+      <c r="D17" s="57"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="64" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B18" s="78"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="65" t="s">
+      <c r="B18" s="77"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="64" t="s">
         <v>112</v>
       </c>
-      <c r="E18" s="59"/>
-      <c r="F18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="57"/>
     </row>
     <row r="19" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B19" s="78"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="76" t="s">
+      <c r="B19" s="77"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="F19" s="58"/>
+      <c r="F19" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -11232,162 +11953,197 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ABC9983-6AED-4B25-8AB6-C5125DB391F9}">
-  <dimension ref="B2:G11"/>
+  <dimension ref="B1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.25" customWidth="1"/>
-    <col min="2" max="2" width="38.625" style="127" customWidth="1"/>
-    <col min="3" max="3" width="34" style="127" customWidth="1"/>
-    <col min="4" max="4" width="89.125" style="127" customWidth="1"/>
-    <col min="5" max="5" width="85.125" style="128" customWidth="1"/>
-    <col min="6" max="6" width="86.375" style="128" customWidth="1"/>
-    <col min="7" max="7" width="85.875" style="136" customWidth="1"/>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="2" max="2" width="36.5" style="93" customWidth="1"/>
+    <col min="3" max="3" width="35.5" style="93" customWidth="1"/>
+    <col min="4" max="4" width="89.125" style="93" customWidth="1"/>
+    <col min="5" max="5" width="85.875" style="94" customWidth="1"/>
+    <col min="6" max="6" width="86.375" style="94" customWidth="1"/>
+    <col min="7" max="7" width="85.875" style="97" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="191.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="140" t="s">
+    <row r="1" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" ht="150.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="180" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="181" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" s="182" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" s="183" t="s">
+        <v>171</v>
+      </c>
+      <c r="F2" s="184"/>
+      <c r="G2" s="185"/>
+    </row>
+    <row r="3" spans="2:7" ht="176.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="186"/>
+      <c r="C3" s="187"/>
+      <c r="D3" s="188" t="s">
+        <v>161</v>
+      </c>
+      <c r="E3" s="188" t="s">
+        <v>163</v>
+      </c>
+      <c r="F3" s="189"/>
+      <c r="G3" s="190"/>
+    </row>
+    <row r="4" spans="2:7" ht="191.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="166" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="141" t="s">
+      <c r="C4" s="169" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="169"/>
+      <c r="E4" s="178" t="s">
+        <v>146</v>
+      </c>
+      <c r="F4" s="99" t="s">
         <v>135</v>
       </c>
-      <c r="D2" s="141"/>
-      <c r="E2" s="142" t="s">
-        <v>148</v>
-      </c>
-      <c r="F2" s="143" t="s">
+      <c r="G4" s="100" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="167"/>
+      <c r="C5" s="170"/>
+      <c r="D5" s="170"/>
+      <c r="E5" s="179"/>
+      <c r="F5" s="102" t="s">
         <v>136</v>
       </c>
-      <c r="G2" s="144" t="s">
+      <c r="G5" s="103" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="145"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="148" t="s">
-        <v>137</v>
-      </c>
-      <c r="G3" s="149" t="s">
+    <row r="6" spans="2:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="167"/>
+      <c r="C6" s="170" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" s="102" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" s="191" t="s">
         <v>139</v>
       </c>
+      <c r="F6" s="192"/>
+      <c r="G6" s="193"/>
     </row>
-    <row r="4" spans="2:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="145"/>
-      <c r="C4" s="146" t="s">
-        <v>131</v>
-      </c>
-      <c r="D4" s="148" t="s">
-        <v>132</v>
-      </c>
-      <c r="E4" s="150" t="s">
-        <v>140</v>
-      </c>
-      <c r="F4" s="151"/>
-      <c r="G4" s="152"/>
+    <row r="7" spans="2:7" ht="155.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="167"/>
+      <c r="C7" s="170"/>
+      <c r="D7" s="101" t="s">
+        <v>164</v>
+      </c>
+      <c r="E7" s="101" t="s">
+        <v>162</v>
+      </c>
+      <c r="F7" s="194"/>
+      <c r="G7" s="104"/>
     </row>
-    <row r="5" spans="2:7" ht="183.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="145"/>
-      <c r="C5" s="146"/>
-      <c r="D5" s="153" t="s">
-        <v>163</v>
-      </c>
-      <c r="E5" s="153" t="s">
-        <v>154</v>
-      </c>
-      <c r="F5" s="154"/>
-      <c r="G5" s="155"/>
-    </row>
-    <row r="6" spans="2:7" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="145"/>
-      <c r="C6" s="146"/>
-      <c r="D6" s="163" t="s">
+    <row r="8" spans="2:7" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="167"/>
+      <c r="C8" s="170"/>
+      <c r="D8" s="175" t="s">
+        <v>160</v>
+      </c>
+      <c r="E8" s="172" t="s">
         <v>133</v>
       </c>
-      <c r="E6" s="160" t="s">
-        <v>134</v>
-      </c>
-      <c r="F6" s="153" t="s">
-        <v>162</v>
-      </c>
-      <c r="G6" s="155"/>
-    </row>
-    <row r="7" spans="2:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="145"/>
-      <c r="C7" s="146"/>
-      <c r="D7" s="164"/>
-      <c r="E7" s="161"/>
-      <c r="F7" s="153" t="s">
-        <v>159</v>
-      </c>
-      <c r="G7" s="155" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="145"/>
-      <c r="C8" s="146"/>
-      <c r="D8" s="164"/>
-      <c r="E8" s="161"/>
-      <c r="F8" s="153" t="s">
-        <v>145</v>
-      </c>
-      <c r="G8" s="149" t="s">
-        <v>146</v>
+      <c r="F8" s="101" t="s">
+        <v>173</v>
+      </c>
+      <c r="G8" s="103" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="145"/>
-      <c r="C9" s="146"/>
-      <c r="D9" s="164"/>
-      <c r="E9" s="161"/>
-      <c r="F9" s="153" t="s">
-        <v>144</v>
-      </c>
-      <c r="G9" s="155" t="s">
-        <v>160</v>
+      <c r="B9" s="167"/>
+      <c r="C9" s="170"/>
+      <c r="D9" s="176"/>
+      <c r="E9" s="173"/>
+      <c r="F9" s="101" t="s">
+        <v>156</v>
+      </c>
+      <c r="G9" s="104" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="145"/>
-      <c r="C10" s="146"/>
-      <c r="D10" s="164"/>
-      <c r="E10" s="161"/>
-      <c r="F10" s="153" t="s">
-        <v>143</v>
-      </c>
-      <c r="G10" s="155" t="s">
-        <v>161</v>
+      <c r="B10" s="167"/>
+      <c r="C10" s="170"/>
+      <c r="D10" s="176"/>
+      <c r="E10" s="173"/>
+      <c r="F10" s="101" t="s">
+        <v>144</v>
+      </c>
+      <c r="G10" s="103" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="156"/>
-      <c r="C11" s="157"/>
-      <c r="D11" s="165"/>
-      <c r="E11" s="162"/>
-      <c r="F11" s="158" t="s">
+      <c r="B11" s="167"/>
+      <c r="C11" s="170"/>
+      <c r="D11" s="176"/>
+      <c r="E11" s="173"/>
+      <c r="F11" s="101" t="s">
+        <v>143</v>
+      </c>
+      <c r="G11" s="104" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="167"/>
+      <c r="C12" s="170"/>
+      <c r="D12" s="176"/>
+      <c r="E12" s="173"/>
+      <c r="F12" s="101" t="s">
+        <v>142</v>
+      </c>
+      <c r="G12" s="104" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="168"/>
+      <c r="C13" s="171"/>
+      <c r="D13" s="177"/>
+      <c r="E13" s="174"/>
+      <c r="F13" s="105" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" s="106" t="s">
         <v>141</v>
       </c>
-      <c r="G11" s="159" t="s">
-        <v>142</v>
-      </c>
     </row>
+    <row r="16" spans="2:7" ht="99" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="138" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="E8:E13"/>
+    <mergeCell ref="D8:D13"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="B4:B13"/>
+    <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C11"/>
-    <mergeCell ref="E6:E11"/>
-    <mergeCell ref="D6:D11"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C13"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BMW_SecOc.xlsx
+++ b/BMW_SecOc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_XuhuaRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F96C53B9-2B61-4C8E-BCA3-B5DCC3DF944C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B2155C-D2B7-4874-B31B-26CEAB943A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-8640" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{EE3554E5-5B85-4F6F-95D2-24E55C4E92D2}"/>
+    <workbookView xWindow="28680" yWindow="-8640" windowWidth="38640" windowHeight="21240" activeTab="6" xr2:uid="{EE3554E5-5B85-4F6F-95D2-24E55C4E92D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Code" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="PDU" sheetId="6" r:id="rId4"/>
     <sheet name="PDU_Flow" sheetId="7" r:id="rId5"/>
     <sheet name="Sfn_SecOCMainSetup" sheetId="9" r:id="rId6"/>
+    <sheet name="Static&amp;Dynamic" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="179">
   <si>
     <t>DsBusCustomCode_onPduFeatureExecutionPrivate(pduFeatureHandle)</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -2407,130 +2408,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">char *Name
-uint8 Ident
-int LinkedSlBlockId
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiBold"/>
-        <family val="3"/>
-      </rPr>
-      <t>DsBusCustomCodeCommunicationClusterHandle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> ComClusterHandle
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiBold"/>
-        <family val="3"/>
-      </rPr>
-      <t>UserDefsOfSecOCCounterMsgsStruct</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> *UserDefsOfSecOCCounterMsgs 
-uint8 *ClientCntManagerInstance
-boolean CounterMessageMacErrorIgnore
-unsigned long CounterMessageMacErrorCount
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiBold"/>
-        <family val="3"/>
-      </rPr>
-      <t>UserCode_FeatureData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> *TxCntMsgFeatData
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiBold"/>
-        <family val="3"/>
-      </rPr>
-      <t>UserCode_FeatureData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> *TxCntRespMsgFeatData
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiBold"/>
-        <family val="3"/>
-      </rPr>
-      <t>UserCode_FeatureData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> *RxCntMsgFeatData
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiBold"/>
-        <family val="3"/>
-      </rPr>
-      <t>UserCode_FeatureData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> *RxCntRespMsgFeatData</t>
-    </r>
-  </si>
-  <si>
     <t>UserDefsOfSecOCCounterMsgsStruct</t>
   </si>
   <si>
@@ -8782,12 +8659,593 @@
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">char *Name
+uint8 Ident
+int LinkedSlBlockId
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>DsBusCustomCodeCommunicationClusterHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> ComClusterHandle
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>UserDefsOfSecOCCounterMsgsStruct</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> *UserDefsOfSecOCCounterMsgs 
+uint8 *ClientCntManagerInstance
+boolean CounterMessageMacErrorIgnore
+unsigned long CounterMessageMacErrorCount
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>UserCode_FeatureData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> *TxCntMsgFeatData
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>UserCode_FeatureData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> *TxCntRespMsgFeatData
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>UserCode_FeatureData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> *RxCntMsgFeatData
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>UserCode_FeatureData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> *RxCntRespMsgFeatData</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;IsCounterMessage
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;IsCounterResponseMessage 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;IsAnyCounterMessage
+pduProps-&gt;FreshnessValLength
+pduProps-&gt;FreshnessValTruncatedLength(freshnessValueTxLength)
+pduProps-&gt;SecuredIPdu_KeyId
+dataId</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DsBusCustomCode_collect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>Static</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>PduPropertiesEx</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DsBusCustomCode_collect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>Static</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>PduProperties</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>DuringRuntime</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>Ex</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DsBusCustomCode_collect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>Dynamic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>PduPropertiesEx</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;SecuredIPdu_PduHandle = securedIPdu_PduHandle
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;IsTx = isTx
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;IsRx = !isTx
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;SecuredIPdu_SduDataPtr = securedIPdu_SduDataPtr
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;AuthenticIPdu_SduDataPtr = authenticIPdu_SduDataPtr
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;AuthenticIPdu_ActualSduLength = authenticIPdu_ActualLength
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>authenticIPdu_ActualLength</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>取决于</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>AuthPduHeaderLength,</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>若</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>AuthPduHeaderLength = 0,authenticIPdu_ActualLength = AuthenticIPdu_SduLength</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;FreshnessValuePosition
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;MacPosition = securedIPduAuthenticatorPosition
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;SecuredIPdu_MessageLinkPosition = securedIPduMessageLinkerPosition
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;SecuredAreaLength = actualSecuredAreaLength
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;SecuredAreaOffset = actualSecuredAreaOffset</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="45" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9078,6 +9536,26 @@
       <name val="Cascadia Code Light"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Cascadia Mono SemiBold"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Cascadia Mono SemiBold"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Cascadia Mono SemiLight"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="17">
     <fill>
@@ -9950,7 +10428,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="195">
+  <cellXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -10275,192 +10753,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="16" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -10472,12 +10764,6 @@
     </xf>
     <xf numFmtId="0" fontId="35" fillId="16" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="16" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -10496,6 +10782,204 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -10820,8 +11304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E38B81CE-79E3-4568-BB50-9E45BADB5D49}">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" x14ac:dyDescent="0.2"/>
@@ -10845,8 +11329,8 @@
       <c r="B2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="120" t="s">
-        <v>115</v>
+      <c r="C2" s="141" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10856,7 +11340,7 @@
       <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="121"/>
+      <c r="C3" s="142"/>
     </row>
     <row r="4" spans="1:3" ht="386.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
@@ -10865,7 +11349,7 @@
       <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="122"/>
+      <c r="C4" s="143"/>
     </row>
     <row r="5" spans="1:3" ht="200.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
@@ -10892,82 +11376,82 @@
     </row>
     <row r="8" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="16"/>
     </row>
     <row r="9" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="130" t="s">
-        <v>147</v>
-      </c>
-      <c r="B9" s="130"/>
-      <c r="C9" s="131"/>
+      <c r="A9" s="149" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" s="149"/>
+      <c r="C9" s="150"/>
     </row>
     <row r="10" spans="1:3" ht="287.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="95" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B10" s="96" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" s="123" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="144" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="159.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="95" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B11" s="96" t="s">
-        <v>148</v>
-      </c>
-      <c r="C11" s="124"/>
+        <v>147</v>
+      </c>
+      <c r="C11" s="145"/>
     </row>
     <row r="12" spans="1:3" ht="257.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="128" t="s">
-        <v>149</v>
+      <c r="A12" s="147" t="s">
+        <v>148</v>
       </c>
       <c r="B12" s="96" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" s="124"/>
+        <v>85</v>
+      </c>
+      <c r="C12" s="145"/>
     </row>
     <row r="13" spans="1:3" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="129"/>
+      <c r="A13" s="148"/>
       <c r="B13" s="96" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" s="125"/>
+        <v>84</v>
+      </c>
+      <c r="C13" s="146"/>
     </row>
     <row r="14" spans="1:3" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="98" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" s="96" t="s">
         <v>151</v>
       </c>
-      <c r="B14" s="96" t="s">
-        <v>152</v>
-      </c>
-      <c r="C14" s="123" t="s">
-        <v>155</v>
+      <c r="C14" s="144" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="96" t="s">
+        <v>152</v>
+      </c>
+      <c r="B15" s="96" t="s">
         <v>153</v>
       </c>
-      <c r="B15" s="96" t="s">
-        <v>154</v>
-      </c>
-      <c r="C15" s="125"/>
+      <c r="C15" s="146"/>
     </row>
     <row r="16" spans="1:3" ht="378.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C16" s="120"/>
+        <v>109</v>
+      </c>
+      <c r="C16" s="141"/>
     </row>
     <row r="17" spans="1:3" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
@@ -10976,7 +11460,7 @@
       <c r="B17" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="121"/>
+      <c r="C17" s="142"/>
     </row>
     <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="43" t="s">
@@ -10987,7 +11471,7 @@
     </row>
     <row r="19" spans="1:3" ht="390.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>6</v>
@@ -10998,13 +11482,13 @@
     </row>
     <row r="20" spans="1:3" ht="223.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C20" s="137" t="s">
-        <v>79</v>
+        <v>128</v>
+      </c>
+      <c r="C20" s="138" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11014,24 +11498,24 @@
       <c r="B21" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="138"/>
+      <c r="C21" s="139"/>
     </row>
     <row r="22" spans="1:3" ht="370.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="139"/>
+        <v>65</v>
+      </c>
+      <c r="C22" s="140"/>
     </row>
     <row r="23" spans="1:3" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="126" t="s">
-        <v>77</v>
+      <c r="C23" s="137" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -11039,7 +11523,7 @@
         <v>11</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="126"/>
+      <c r="C24" s="137"/>
     </row>
     <row r="25" spans="1:3" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
@@ -11048,106 +11532,106 @@
       <c r="B25" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="126"/>
+      <c r="C25" s="137"/>
     </row>
     <row r="26" spans="1:3" ht="242.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="C26" s="126"/>
+      <c r="C26" s="137"/>
     </row>
     <row r="27" spans="1:3" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="12"/>
-      <c r="C27" s="126"/>
+      <c r="C27" s="137"/>
     </row>
     <row r="28" spans="1:3" ht="224.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B28" s="12"/>
-      <c r="C28" s="126"/>
+      <c r="C28" s="137"/>
     </row>
     <row r="29" spans="1:3" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B29" s="12"/>
-      <c r="C29" s="127"/>
+      <c r="C29" s="132"/>
     </row>
     <row r="30" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="46"/>
       <c r="C30" s="47"/>
     </row>
     <row r="31" spans="1:3" ht="174" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B31" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="132" t="s">
-        <v>78</v>
+        <v>58</v>
+      </c>
+      <c r="C31" s="131" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="127"/>
+        <v>62</v>
+      </c>
+      <c r="C32" s="132"/>
     </row>
     <row r="33" spans="1:3" ht="234.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="133" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B33" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" s="132" t="s">
-        <v>79</v>
+        <v>66</v>
+      </c>
+      <c r="C33" s="131" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="226.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="134"/>
       <c r="B34" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C34" s="126"/>
+        <v>67</v>
+      </c>
+      <c r="C34" s="137"/>
     </row>
     <row r="35" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B35" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C35" s="127"/>
+      <c r="C35" s="132"/>
     </row>
     <row r="36" spans="1:3" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B36" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="135" t="s">
         <v>76</v>
-      </c>
-      <c r="C36" s="135" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B37" s="10"/>
       <c r="C37" s="136"/>
@@ -11155,11 +11639,6 @@
     <row r="38" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="C20:C22"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="C10:C13"/>
@@ -11167,6 +11646,11 @@
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="C20:C22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11189,75 +11673,75 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="140" t="s">
-        <v>115</v>
+      <c r="B3" s="151" t="s">
+        <v>114</v>
       </c>
       <c r="C3" s="90" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="142"/>
+      <c r="B4" s="153"/>
       <c r="C4" s="90" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="78" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C5" s="91"/>
     </row>
     <row r="6" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="140" t="s">
-        <v>116</v>
+      <c r="B6" s="151" t="s">
+        <v>115</v>
       </c>
       <c r="C6" s="90" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="141"/>
+      <c r="B7" s="152"/>
       <c r="C7" s="90" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="141"/>
+      <c r="B8" s="152"/>
       <c r="C8" s="90" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="142"/>
+      <c r="B9" s="153"/>
       <c r="C9" s="90" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="89" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C10" s="91"/>
     </row>
     <row r="11" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="89" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C11" s="91"/>
     </row>
     <row r="12" spans="2:3" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="143" t="s">
-        <v>77</v>
+      <c r="B12" s="154" t="s">
+        <v>76</v>
       </c>
       <c r="C12" s="92" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="144"/>
+      <c r="B13" s="155"/>
       <c r="C13" s="92" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -11265,17 +11749,17 @@
     </row>
     <row r="15" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="79" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="79" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="79" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -11293,7 +11777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CBC4C05-9556-48FE-9C05-49ABCBC207BE}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:F2"/>
     </sheetView>
   </sheetViews>
@@ -11314,45 +11798,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="203.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="156" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="148" t="s">
+      <c r="B1" s="164" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="147" t="s">
+      <c r="C1" s="163" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="147" t="s">
+      <c r="D1" s="163" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="147" t="s">
+      <c r="E1" s="163" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="147" t="s">
+      <c r="F1" s="163" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="147" t="s">
+      <c r="G1" s="163" t="s">
+        <v>173</v>
+      </c>
+      <c r="H1" s="108" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="108" t="s">
+      <c r="I1" s="107" t="s">
         <v>46</v>
-      </c>
-      <c r="I1" s="107" t="s">
-        <v>47</v>
       </c>
       <c r="J1" s="107"/>
       <c r="K1" s="107"/>
       <c r="L1" s="109"/>
     </row>
     <row r="2" spans="1:12" ht="287.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="151"/>
-      <c r="B2" s="146"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
+      <c r="A2" s="157"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
       <c r="H2" s="111" t="s">
         <v>41</v>
       </c>
@@ -11368,14 +11852,14 @@
       <c r="L2" s="113"/>
     </row>
     <row r="3" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="151"/>
-      <c r="B3" s="146"/>
-      <c r="C3" s="145"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145" t="s">
+      <c r="A3" s="157"/>
+      <c r="B3" s="162"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="161" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="149" t="s">
+      <c r="F3" s="165" t="s">
         <v>33</v>
       </c>
       <c r="G3" s="111" t="s">
@@ -11388,54 +11872,54 @@
       <c r="L3" s="113"/>
     </row>
     <row r="4" spans="1:12" ht="233.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="151"/>
-      <c r="B4" s="146"/>
-      <c r="C4" s="145"/>
-      <c r="D4" s="145"/>
-      <c r="E4" s="145"/>
-      <c r="F4" s="149"/>
-      <c r="G4" s="145" t="s">
+      <c r="A4" s="157"/>
+      <c r="B4" s="162"/>
+      <c r="C4" s="161"/>
+      <c r="D4" s="161"/>
+      <c r="E4" s="161"/>
+      <c r="F4" s="165"/>
+      <c r="G4" s="161" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="145" t="s">
-        <v>87</v>
+      <c r="H4" s="161" t="s">
+        <v>86</v>
       </c>
       <c r="I4" s="112" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J4" s="111" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K4" s="111"/>
       <c r="L4" s="113"/>
     </row>
     <row r="5" spans="1:12" ht="113.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="151"/>
-      <c r="B5" s="146"/>
-      <c r="C5" s="145"/>
-      <c r="D5" s="145"/>
-      <c r="E5" s="145"/>
-      <c r="F5" s="149"/>
-      <c r="G5" s="145"/>
-      <c r="H5" s="145"/>
+      <c r="A5" s="157"/>
+      <c r="B5" s="162"/>
+      <c r="C5" s="161"/>
+      <c r="D5" s="161"/>
+      <c r="E5" s="161"/>
+      <c r="F5" s="165"/>
+      <c r="G5" s="161"/>
+      <c r="H5" s="161"/>
       <c r="I5" s="112" t="s">
+        <v>87</v>
+      </c>
+      <c r="J5" s="111" t="s">
         <v>88</v>
       </c>
-      <c r="J5" s="111" t="s">
+      <c r="K5" s="112" t="s">
         <v>89</v>
       </c>
-      <c r="K5" s="112" t="s">
+      <c r="L5" s="113" t="s">
         <v>90</v>
-      </c>
-      <c r="L5" s="113" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="160.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="151"/>
-      <c r="B6" s="146"/>
-      <c r="C6" s="145"/>
-      <c r="D6" s="145"/>
+      <c r="A6" s="157"/>
+      <c r="B6" s="162"/>
+      <c r="C6" s="161"/>
+      <c r="D6" s="161"/>
       <c r="E6" s="111" t="s">
         <v>32</v>
       </c>
@@ -11448,8 +11932,8 @@
       <c r="L6" s="113"/>
     </row>
     <row r="7" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="151"/>
-      <c r="B7" s="146" t="s">
+      <c r="A7" s="157"/>
+      <c r="B7" s="162" t="s">
         <v>38</v>
       </c>
       <c r="C7" s="114" t="s">
@@ -11466,8 +11950,8 @@
       <c r="L7" s="113"/>
     </row>
     <row r="8" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="151"/>
-      <c r="B8" s="146"/>
+      <c r="A8" s="157"/>
+      <c r="B8" s="162"/>
       <c r="C8" s="114" t="s">
         <v>40</v>
       </c>
@@ -11482,10 +11966,10 @@
       <c r="L8" s="113"/>
     </row>
     <row r="9" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="151"/>
-      <c r="B9" s="146"/>
+      <c r="A9" s="157"/>
+      <c r="B9" s="162"/>
       <c r="C9" s="114" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D9" s="115"/>
       <c r="E9" s="114"/>
@@ -11498,10 +11982,10 @@
       <c r="L9" s="113"/>
     </row>
     <row r="10" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="151"/>
-      <c r="B10" s="146"/>
+      <c r="A10" s="157"/>
+      <c r="B10" s="162"/>
       <c r="C10" s="114" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D10" s="115"/>
       <c r="E10" s="114"/>
@@ -11514,12 +11998,12 @@
       <c r="L10" s="113"/>
     </row>
     <row r="11" spans="1:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="151"/>
+      <c r="A11" s="157"/>
       <c r="B11" s="110" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="114" t="s">
         <v>69</v>
-      </c>
-      <c r="C11" s="114" t="s">
-        <v>70</v>
       </c>
       <c r="D11" s="115"/>
       <c r="E11" s="114"/>
@@ -11532,12 +12016,12 @@
       <c r="L11" s="113"/>
     </row>
     <row r="12" spans="1:12" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="151"/>
+      <c r="A12" s="157"/>
       <c r="B12" s="110" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C12" s="114" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D12" s="115"/>
       <c r="E12" s="114"/>
@@ -11550,12 +12034,12 @@
       <c r="L12" s="113"/>
     </row>
     <row r="13" spans="1:12" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="151"/>
-      <c r="B13" s="153" t="s">
-        <v>167</v>
+      <c r="A13" s="157"/>
+      <c r="B13" s="159" t="s">
+        <v>166</v>
       </c>
       <c r="C13" s="114" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D13" s="115"/>
       <c r="E13" s="114"/>
@@ -11568,10 +12052,10 @@
       <c r="L13" s="113"/>
     </row>
     <row r="14" spans="1:12" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="152"/>
-      <c r="B14" s="154"/>
+      <c r="A14" s="158"/>
+      <c r="B14" s="160"/>
       <c r="C14" s="116" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D14" s="117"/>
       <c r="E14" s="116"/>
@@ -11621,73 +12105,73 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="155" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="157" t="s">
-        <v>50</v>
+      <c r="A2" s="166" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="168" t="s">
+        <v>49</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="26" t="s">
         <v>54</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>55</v>
       </c>
       <c r="F2" s="27" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="156"/>
-      <c r="B3" s="158"/>
+      <c r="A3" s="167"/>
+      <c r="B3" s="169"/>
       <c r="C3" s="40"/>
       <c r="D3" s="41"/>
       <c r="E3" s="41"/>
       <c r="F3" s="42"/>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="156"/>
-      <c r="B4" s="158" t="s">
-        <v>51</v>
+      <c r="A4" s="167"/>
+      <c r="B4" s="169" t="s">
+        <v>50</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E4" s="32" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="156"/>
-      <c r="B5" s="158"/>
+      <c r="A5" s="167"/>
+      <c r="B5" s="169"/>
       <c r="C5" s="34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
       <c r="F5" s="29"/>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="156" t="s">
+      <c r="A6" s="167" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="169" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="35" t="s">
         <v>53</v>
-      </c>
-      <c r="B6" s="158" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>54</v>
       </c>
       <c r="E6" s="32" t="s">
         <v>14</v>
@@ -11695,34 +12179,34 @@
       <c r="F6" s="29"/>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="156"/>
-      <c r="B7" s="158"/>
+      <c r="A7" s="167"/>
+      <c r="B7" s="169"/>
       <c r="C7" s="40"/>
       <c r="D7" s="41"/>
       <c r="E7" s="41"/>
       <c r="F7" s="42"/>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="156"/>
-      <c r="B8" s="158" t="s">
-        <v>51</v>
+      <c r="A8" s="167"/>
+      <c r="B8" s="169" t="s">
+        <v>50</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D8" s="32" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F8" s="29"/>
     </row>
     <row r="9" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="159"/>
-      <c r="B9" s="160"/>
+      <c r="A9" s="170"/>
+      <c r="B9" s="171"/>
       <c r="C9" s="37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D9" s="38"/>
       <c r="E9" s="38"/>
@@ -11747,7 +12231,7 @@
   <dimension ref="B2:F19"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11762,31 +12246,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="163" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="165"/>
+      <c r="B2" s="174" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="175"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="176"/>
     </row>
     <row r="3" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="53" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C3" s="62" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D3" s="51"/>
       <c r="E3" s="56" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F3" s="57"/>
     </row>
     <row r="4" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B4" s="52"/>
       <c r="C4" s="69" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D4" s="51"/>
       <c r="E4" s="51"/>
@@ -11795,7 +12279,7 @@
     <row r="5" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B5" s="52"/>
       <c r="C5" s="54" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D5" s="51"/>
       <c r="E5" s="51"/>
@@ -11804,56 +12288,56 @@
     <row r="6" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B6" s="52"/>
       <c r="C6" s="54" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D6" s="60"/>
       <c r="E6" s="60"/>
       <c r="F6" s="60" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="70"/>
       <c r="C7" s="54" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D7" s="60"/>
       <c r="E7" s="60"/>
       <c r="F7" s="60" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="71" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="66" t="s">
         <v>54</v>
-      </c>
-      <c r="D8" s="66" t="s">
-        <v>55</v>
       </c>
       <c r="E8" s="67" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="68" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B9" s="88"/>
       <c r="C9" s="83"/>
       <c r="D9" s="65" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E9" s="82"/>
       <c r="F9" s="73"/>
     </row>
     <row r="10" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B10" s="161" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="162"/>
+      <c r="B10" s="172" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="173"/>
       <c r="D10" s="65"/>
       <c r="E10" s="83"/>
       <c r="F10" s="73"/>
@@ -11861,7 +12345,7 @@
     <row r="11" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="87"/>
       <c r="C11" s="72" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D11" s="80"/>
       <c r="E11" s="84"/>
@@ -11871,7 +12355,7 @@
       <c r="B12" s="86"/>
       <c r="C12" s="85"/>
       <c r="D12" s="81" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E12" s="84"/>
       <c r="F12" s="73"/>
@@ -11881,7 +12365,7 @@
       <c r="C13" s="57"/>
       <c r="D13" s="76"/>
       <c r="E13" s="72" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F13" s="73"/>
     </row>
@@ -11895,18 +12379,18 @@
     <row r="15" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="77"/>
       <c r="C15" s="61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D15" s="57"/>
       <c r="E15" s="58"/>
       <c r="F15" s="63" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B16" s="77"/>
       <c r="C16" s="61" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D16" s="57"/>
       <c r="E16" s="58"/>
@@ -11915,19 +12399,19 @@
     <row r="17" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B17" s="77"/>
       <c r="C17" s="64" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D17" s="57"/>
       <c r="E17" s="58"/>
       <c r="F17" s="64" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B18" s="77"/>
       <c r="C18" s="57"/>
       <c r="D18" s="64" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E18" s="58"/>
       <c r="F18" s="57"/>
@@ -11937,7 +12421,7 @@
       <c r="C19" s="57"/>
       <c r="D19" s="57"/>
       <c r="E19" s="75" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F19" s="57"/>
     </row>
@@ -11955,8 +12439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ABC9983-6AED-4B25-8AB6-C5125DB391F9}">
   <dimension ref="B1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E5"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11972,180 +12456,224 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="150.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="180" t="s">
+      <c r="B2" s="190" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="192" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="181" t="s">
-        <v>159</v>
-      </c>
-      <c r="D2" s="182" t="s">
+      <c r="D2" s="120" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2" s="121" t="s">
         <v>170</v>
       </c>
-      <c r="E2" s="183" t="s">
-        <v>171</v>
-      </c>
-      <c r="F2" s="184"/>
-      <c r="G2" s="185"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="123"/>
     </row>
     <row r="3" spans="2:7" ht="176.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="186"/>
-      <c r="C3" s="187"/>
-      <c r="D3" s="188" t="s">
-        <v>161</v>
-      </c>
-      <c r="E3" s="188" t="s">
-        <v>163</v>
-      </c>
-      <c r="F3" s="189"/>
-      <c r="G3" s="190"/>
+      <c r="B3" s="191"/>
+      <c r="C3" s="193"/>
+      <c r="D3" s="124" t="s">
+        <v>160</v>
+      </c>
+      <c r="E3" s="124" t="s">
+        <v>162</v>
+      </c>
+      <c r="F3" s="125"/>
+      <c r="G3" s="126"/>
     </row>
     <row r="4" spans="2:7" ht="191.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="166" t="s">
-        <v>130</v>
-      </c>
-      <c r="C4" s="169" t="s">
+      <c r="B4" s="187" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="185" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" s="185"/>
+      <c r="E4" s="183" t="s">
+        <v>145</v>
+      </c>
+      <c r="F4" s="99" t="s">
         <v>134</v>
       </c>
-      <c r="D4" s="169"/>
-      <c r="E4" s="178" t="s">
-        <v>146</v>
-      </c>
-      <c r="F4" s="99" t="s">
-        <v>135</v>
-      </c>
       <c r="G4" s="100" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="167"/>
-      <c r="C5" s="170"/>
-      <c r="D5" s="170"/>
-      <c r="E5" s="179"/>
+      <c r="B5" s="188"/>
+      <c r="C5" s="186"/>
+      <c r="D5" s="186"/>
+      <c r="E5" s="184"/>
       <c r="F5" s="102" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G5" s="103" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="167"/>
-      <c r="C6" s="170" t="s">
+      <c r="B6" s="188"/>
+      <c r="C6" s="186" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" s="102" t="s">
         <v>131</v>
       </c>
-      <c r="D6" s="102" t="s">
-        <v>132</v>
-      </c>
-      <c r="E6" s="191" t="s">
-        <v>139</v>
-      </c>
-      <c r="F6" s="192"/>
-      <c r="G6" s="193"/>
+      <c r="E6" s="127" t="s">
+        <v>138</v>
+      </c>
+      <c r="F6" s="128"/>
+      <c r="G6" s="129"/>
     </row>
     <row r="7" spans="2:7" ht="155.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="167"/>
-      <c r="C7" s="170"/>
+      <c r="B7" s="188"/>
+      <c r="C7" s="186"/>
       <c r="D7" s="101" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E7" s="101" t="s">
-        <v>162</v>
-      </c>
-      <c r="F7" s="194"/>
+        <v>161</v>
+      </c>
+      <c r="F7" s="130"/>
       <c r="G7" s="104"/>
     </row>
     <row r="8" spans="2:7" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="167"/>
-      <c r="C8" s="170"/>
-      <c r="D8" s="175" t="s">
-        <v>160</v>
-      </c>
-      <c r="E8" s="172" t="s">
-        <v>133</v>
+      <c r="B8" s="188"/>
+      <c r="C8" s="186"/>
+      <c r="D8" s="180" t="s">
+        <v>159</v>
+      </c>
+      <c r="E8" s="177" t="s">
+        <v>132</v>
       </c>
       <c r="F8" s="101" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G8" s="103" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="167"/>
-      <c r="C9" s="170"/>
-      <c r="D9" s="176"/>
-      <c r="E9" s="173"/>
+      <c r="B9" s="188"/>
+      <c r="C9" s="186"/>
+      <c r="D9" s="181"/>
+      <c r="E9" s="178"/>
       <c r="F9" s="101" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G9" s="104" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="167"/>
-      <c r="C10" s="170"/>
-      <c r="D10" s="176"/>
-      <c r="E10" s="173"/>
+      <c r="B10" s="188"/>
+      <c r="C10" s="186"/>
+      <c r="D10" s="181"/>
+      <c r="E10" s="178"/>
       <c r="F10" s="101" t="s">
+        <v>143</v>
+      </c>
+      <c r="G10" s="103" t="s">
         <v>144</v>
-      </c>
-      <c r="G10" s="103" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="167"/>
-      <c r="C11" s="170"/>
-      <c r="D11" s="176"/>
-      <c r="E11" s="173"/>
+      <c r="B11" s="188"/>
+      <c r="C11" s="186"/>
+      <c r="D11" s="181"/>
+      <c r="E11" s="178"/>
       <c r="F11" s="101" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G11" s="104" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="167"/>
-      <c r="C12" s="170"/>
-      <c r="D12" s="176"/>
-      <c r="E12" s="173"/>
+      <c r="B12" s="188"/>
+      <c r="C12" s="186"/>
+      <c r="D12" s="181"/>
+      <c r="E12" s="178"/>
       <c r="F12" s="101" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G12" s="104" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="168"/>
-      <c r="C13" s="171"/>
-      <c r="D13" s="177"/>
-      <c r="E13" s="174"/>
+      <c r="B13" s="189"/>
+      <c r="C13" s="194"/>
+      <c r="D13" s="182"/>
+      <c r="E13" s="179"/>
       <c r="F13" s="105" t="s">
+        <v>139</v>
+      </c>
+      <c r="G13" s="106" t="s">
         <v>140</v>
-      </c>
-      <c r="G13" s="106" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="99" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" ht="138" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C13"/>
     <mergeCell ref="E8:E13"/>
     <mergeCell ref="D8:D13"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="B4:B13"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C13"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B93B66-2DE5-4D9B-84A7-32572C890515}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="70.875" style="196" customWidth="1"/>
+    <col min="2" max="2" width="95" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="384.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="195" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="144" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="195" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="96" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="261.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="195" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/BMW_SecOc.xlsx
+++ b/BMW_SecOc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_XuhuaRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B2155C-D2B7-4874-B31B-26CEAB943A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7688E1F1-A386-48ED-B48A-D472C0698CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-8640" windowWidth="38640" windowHeight="21240" activeTab="6" xr2:uid="{EE3554E5-5B85-4F6F-95D2-24E55C4E92D2}"/>
+    <workbookView xWindow="28680" yWindow="-8640" windowWidth="38640" windowHeight="21240" xr2:uid="{EE3554E5-5B85-4F6F-95D2-24E55C4E92D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Code" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="PDU" sheetId="6" r:id="rId4"/>
     <sheet name="PDU_Flow" sheetId="7" r:id="rId5"/>
     <sheet name="Sfn_SecOCMainSetup" sheetId="9" r:id="rId6"/>
-    <sheet name="Static&amp;Dynamic" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="177">
   <si>
     <t>DsBusCustomCode_onPduFeatureExecutionPrivate(pduFeatureHandle)</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -2408,6 +2407,130 @@
     </r>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">char *Name
+uint8 Ident
+int LinkedSlBlockId
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>DsBusCustomCodeCommunicationClusterHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> ComClusterHandle
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>UserDefsOfSecOCCounterMsgsStruct</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> *UserDefsOfSecOCCounterMsgs 
+uint8 *ClientCntManagerInstance
+boolean CounterMessageMacErrorIgnore
+unsigned long CounterMessageMacErrorCount
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>UserCode_FeatureData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> *TxCntMsgFeatData
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>UserCode_FeatureData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> *TxCntRespMsgFeatData
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>UserCode_FeatureData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> *RxCntMsgFeatData
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>UserCode_FeatureData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> *RxCntRespMsgFeatData</t>
+    </r>
+  </si>
+  <si>
     <t>UserDefsOfSecOCCounterMsgsStruct</t>
   </si>
   <si>
@@ -4129,396 +4252,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>UserCodeForCntMsgs_IdentifyProperRxFreshness</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>, &amp;freshnessValue)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-_____________________________________________________________
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>identifiedCounterVal = UserCodeForCntMsgs_ReadFreshnessValueFromPduData(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>)
-_______________________________
-if (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;IsCounterMessage) 
-freshnessVal = SecOCCounterMessageReadFreshnessValueFromPduData(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>userDefsOfSecOCCounterMsgs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;AuthenticIPdu_SduDataPtr)
-________________
-return (uint32)_CommonReadValueFromPduData(authPduDataPtr, bitPosition, bitLength)
-if (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;IsCounterResponseMessage)
-freshnessVal = SecOCCounterResponseMessageReadFreshnessValueFromPduData(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>userDefsOfSecOCCounterMsgs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;AuthenticIPdu_SduDataPtr)
-________________
-return (uint32)_CommonReadValueFromPduData(authPduDataPtr, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>bitPosition</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>bitLength</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>);</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>UserCode_IdentifyProperRxFreshness</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>, &amp;freshnessValue)
-_____________________________________________________________
-if (GetMasterIsIncludedInModelAndEnabled()) 
-*counterValue = GetMasterCntValueGlobal()
-else
-const uint8 *truncatedFreshnessValPtr = ((uint8*)(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;SecuredIPdu_SduDataPtr)) + (uint8)(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;FreshnessValuePosition / 8)
-UserCode_SecOC_GetRxFreshness(0, (const uint32*)truncatedFreshnessValPtr,
-                              </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;FreshnessValTruncatedLength, 0,
-                              GetClientCounterValue(clientCntMgInstance),
-                              &amp;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>identifiedCounterVal</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>,
-                              &amp;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;FreshnessValLength))
-*counterValue = </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>identifiedCounterVal</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>SecOCRxPduFeature</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -4571,120 +4304,6 @@
       </rPr>
       <t>-&gt;SecOCRxPduFeature.CalculatedFreshnessValue</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>DsBusCustomCode_onPduFeatureExecutionPrivateRxAuthenticationHandling(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>)
-_____________________________________________________________
-UserCode_Csm_CalculateAuthenticator(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>, &amp;authenticatorCalculatedPtr, &amp;authenticatorLengthInBytes)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>CompareBitsBE(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;SecuredIPdu_SduDataPtr, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;MacPosition,
-              authenticatorCalculatedPtr, 0, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;MacTruncatedLength)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>refer 20 -25</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -8660,131 +8279,596 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">char *Name
-uint8 Ident
-int LinkedSlBlockId
+    <t>CalculatedFreshnessValue</t>
+  </si>
+  <si>
+    <t>VerificationResult</t>
+  </si>
+  <si>
+    <t>EnableVerification</t>
+  </si>
+  <si>
+    <r>
+      <t>UserCodeForCntMsgs_IdentifyProperRxFreshness</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>, &amp;freshnessValue)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+_____________________________________________________________
 </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Cascadia Mono SemiBold"/>
-        <family val="3"/>
-      </rPr>
-      <t>DsBusCustomCodeCommunicationClusterHandle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> ComClusterHandle
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>identifiedCounterVal = UserCodeForCntMsgs_ReadFreshnessValueFromPduData(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>)
+_______________________________
+if (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;IsCounterMessage) 
+freshnessVal = SecOCCounterMessageReadFreshnessValueFromPduData(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>userDefsOfSecOCCounterMsgs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;AuthenticIPdu_SduDataPtr)
+________________
+return (uint32)_CommonReadValueFromPduData(authPduDataPtr, bitPosition, bitLength)
+if (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;IsCounterResponseMessage)
+freshnessVal = SecOCCounterResponseMessageReadFreshnessValueFromPduData(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>userDefsOfSecOCCounterMsgs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;AuthenticIPdu_SduDataPtr)
+________________
+return (uint32)_CommonReadValueFromPduData(authPduDataPtr, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>bitPosition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>bitLength</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">storedFreshnessValue =  GetClientCounterValue(clientCntMgInstance)
+receivedFreshnessValue = GetUInt64FromBytesBE((unsigned char*)SecOCTruncatedFreshnessValue, 0, SecOCTruncatedFreshnessValueLength)
+if (SecOCTruncatedFreshnessValueLength == *SecOCFreshnessValueLength)
+restoredFreshnessValue = receivedFreshnessValue
+else if (receivedFreshnessValue &gt;= storedFreshnessValue &amp;&amp; receivedFreshnessValue &lt; offs/2)
+restoredFreshnessValue = receivedFreshnessValue
+else if (receivedFreshnessValue &gt; (storedFreshnessValue &amp; maskPositive) + offs/2) 
+restoredFreshnessValue = (((storedFreshnessValue &amp; (~maskPositive))) | receivedFreshnessValue) - offs
+else if (receivedFreshnessValue &lt; (storedFreshnessValue &amp; (~maskPositive)+offs/2) &amp;&amp; (storedFreshnessValue &lt; offs)) 
+restoredFreshnessValue = (storedFreshnessValue &amp; (~maskPositive)) | receivedFreshnessValue + offs
+else 
+restoredFreshnessValue = ((storedFreshnessValue) &amp; (~maskPositive)) | receivedFreshnessValue
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiBold"/>
-        <family val="3"/>
-      </rPr>
-      <t>UserDefsOfSecOCCounterMsgsStruct</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> *UserDefsOfSecOCCounterMsgs 
-uint8 *ClientCntManagerInstance
-boolean CounterMessageMacErrorIgnore
-unsigned long CounterMessageMacErrorCount
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>&amp;identifiedCounterVal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = (uint32)restoredFreshnessValue
+*counterValue = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>identifiedCounterVal</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>DsBusCustomCode_onPduFeatureExecutionPrivateRxAuthenticationHandling(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>)
+_____________________________________________________________
+UserCode_CheckRxMacVerificationEnabling(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>, &amp;isVerificationEnabled)
+_______________________________
+if (!</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>GetGlobalRxMacVerificationIsEnabled</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>()) 
+DsBusCustomCodeSecOCRxPduFeature_setVerificationResult(pduFeatureHandle,SECOC_VERIFIC_DISABLED_GLOB)
+*isVerificationEnabled = FALSE;
+else if (!</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>GetEcuSpecificRxMacVerificationIsEnabled</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(pduFeatData-&gt;EcuIdOfListUsedForRxMacVerification)) {
+DsBusCustomCodeSecOCRxPduFeature_setVerificationResult(pduFeatureHandle,SECOC_VERIFIC_DISABLED_FOR_ECU)
+*isVerificationEnabled = FALSE;
+else {
+uint32 verificationEnable = 0;
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiBold"/>
-        <family val="3"/>
-      </rPr>
-      <t>UserCode_FeatureData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> *TxCntMsgFeatData
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>DsBusCustomCodeSecOCRxPduFeature_getEnableVerification</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>(pduFeatureHandle,&amp;verificationEnable));
+if (verificationEnable == 0) 
+DsBusCustomCodeSecOCRxPduFeature_setVerificationResult(pduFeatureHandle,SECOC_VERIFIC_DISABLED_FOR_PDU));
+*isVerificationEnabled = FALSE;
+}
+UserCode_Csm_CalculateAuthenticator(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, &amp;authenticatorCalculatedPtr, &amp;authenticatorLengthInBytes)
+CompareBitsBE(pduProps-&gt;SecuredIPdu_SduDataPtr, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;MacPosition,
+              authenticatorCalculatedPtr, 0, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;MacTruncatedLength)
+DsBusCustomCodeSecOCRxPduFeature_setVerificationResult(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;PduFeatureHandle,SECOC_VERIFICATION_SUCCESS)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UserCode_Csm_CalculateAuthenticator refer 20 -28
+DsBusCustomCodeSecOCRxPduFeature_setVerificationResult(pduProps-&gt;PduFeatureHandle,SECOC_VERIFICATION_SUCCESS)
+_______________________________
+SecOCRxPduFeature.VerificationResult = SECOC_VERIFICATION_SUCCESS
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiBold"/>
-        <family val="3"/>
-      </rPr>
-      <t>UserCode_FeatureData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> *TxCntRespMsgFeatData
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiBold"/>
-        <family val="3"/>
-      </rPr>
-      <t>UserCode_FeatureData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> *RxCntMsgFeatData
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiBold"/>
-        <family val="3"/>
-      </rPr>
-      <t>UserCode_FeatureData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> *RxCntRespMsgFeatData</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>映射至</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>BusManagerInspection PDU</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中，</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>SecOc State Port)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>UserCode_IdentifyProperRxFreshness</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>, &amp;freshnessValue)
+_____________________________________________________________
+if (GetMasterIsIncludedInModelAndEnabled()) 
+*counterValue = GetMasterCntValueGlobal()
+else
+const uint8 *truncatedFreshnessValPtr = ((uint8*)(</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -8802,8 +8886,7 @@
         <rFont val="Cascadia Mono SemiLight"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve">-&gt;IsCounterMessage
-</t>
+      <t>-&gt;SecuredIPdu_SduDataPtr)) + (uint8)(</t>
     </r>
     <r>
       <rPr>
@@ -8822,8 +8905,9 @@
         <rFont val="Cascadia Mono SemiLight"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve">-&gt;IsCounterResponseMessage 
-</t>
+      <t xml:space="preserve">-&gt;FreshnessValuePosition / 8)
+UserCode_SecOC_GetRxFreshness(0, (const uint32*)truncatedFreshnessValPtr,
+                              </t>
     </r>
     <r>
       <rPr>
@@ -8842,105 +8926,30 @@
         <rFont val="Cascadia Mono SemiLight"/>
         <family val="3"/>
       </rPr>
-      <t>-&gt;IsAnyCounterMessage
-pduProps-&gt;FreshnessValLength
-pduProps-&gt;FreshnessValTruncatedLength(freshnessValueTxLength)
-pduProps-&gt;SecuredIPdu_KeyId
-dataId</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>DsBusCustomCode_collect</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cascadia Mono SemiBold"/>
-        <family val="3"/>
-      </rPr>
-      <t>Static</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiBold"/>
-        <family val="3"/>
-      </rPr>
-      <t>PduPropertiesEx</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>DsBusCustomCode_collect</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cascadia Mono SemiBold"/>
-        <family val="3"/>
-      </rPr>
-      <t>Static</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiBold"/>
-        <family val="3"/>
-      </rPr>
-      <t>PduProperties</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cascadia Mono SemiBold"/>
-        <family val="3"/>
-      </rPr>
-      <t>DuringRuntime</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiBold"/>
-        <family val="3"/>
-      </rPr>
-      <t>Ex</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>DsBusCustomCode_collect</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cascadia Mono SemiBold"/>
-        <family val="3"/>
-      </rPr>
-      <t>Dynamic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiBold"/>
-        <family val="3"/>
-      </rPr>
-      <t>PduPropertiesEx</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
+      <t>-&gt;FreshnessValTruncatedLength, 0,
+                              GetClientCounterValue(clientCntMgInstance),
+                              &amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>identifiedCounterVal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>,
+                              &amp;</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -8958,285 +8967,8 @@
         <rFont val="Cascadia Mono SemiLight"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve">-&gt;SecuredIPdu_PduHandle = securedIPdu_PduHandle
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;IsTx = isTx
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;IsRx = !isTx
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;SecuredIPdu_SduDataPtr = securedIPdu_SduDataPtr
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;AuthenticIPdu_SduDataPtr = authenticIPdu_SduDataPtr
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;AuthenticIPdu_ActualSduLength = authenticIPdu_ActualLength
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>authenticIPdu_ActualLength</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>取决于</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>AuthPduHeaderLength,</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>若</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>AuthPduHeaderLength = 0,authenticIPdu_ActualLength = AuthenticIPdu_SduLength</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;FreshnessValuePosition
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;MacPosition = securedIPduAuthenticatorPosition
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;SecuredIPdu_MessageLinkPosition = securedIPduMessageLinkerPosition
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;SecuredAreaLength = actualSecuredAreaLength
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;SecuredAreaOffset = actualSecuredAreaOffset</t>
+      <t>-&gt;FreshnessValLength))
+______________________________</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -9245,7 +8977,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="45" x14ac:knownFonts="1">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9536,26 +9268,6 @@
       <name val="Cascadia Code Light"/>
       <family val="3"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Cascadia Mono SemiBold"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Cascadia Mono SemiBold"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF00B0F0"/>
-      <name val="Cascadia Mono SemiLight"/>
-      <family val="3"/>
-    </font>
   </fonts>
   <fills count="17">
     <fill>
@@ -10428,7 +10140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -10783,6 +10495,9 @@
     </xf>
     <xf numFmtId="0" fontId="34" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10794,12 +10509,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -10866,18 +10575,15 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -10887,6 +10593,15 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -10920,6 +10635,27 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -10944,12 +10680,6 @@
     <xf numFmtId="0" fontId="34" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -10958,27 +10688,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -11304,8 +11013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E38B81CE-79E3-4568-BB50-9E45BADB5D49}">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" x14ac:dyDescent="0.2"/>
@@ -11329,8 +11038,8 @@
       <c r="B2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="141" t="s">
-        <v>114</v>
+      <c r="C2" s="140" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11340,7 +11049,7 @@
       <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="142"/>
+      <c r="C3" s="141"/>
     </row>
     <row r="4" spans="1:3" ht="386.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
@@ -11349,7 +11058,7 @@
       <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="143"/>
+      <c r="C4" s="142"/>
     </row>
     <row r="5" spans="1:3" ht="200.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
@@ -11376,82 +11085,82 @@
     </row>
     <row r="8" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="16"/>
     </row>
     <row r="9" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="149" t="s">
-        <v>146</v>
-      </c>
-      <c r="B9" s="149"/>
-      <c r="C9" s="150"/>
+      <c r="A9" s="148" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" s="148"/>
+      <c r="C9" s="149"/>
     </row>
     <row r="10" spans="1:3" ht="287.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="95" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B10" s="96" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="144" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="143" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="159.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="95" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B11" s="96" t="s">
-        <v>147</v>
-      </c>
-      <c r="C11" s="145"/>
+        <v>143</v>
+      </c>
+      <c r="C11" s="144"/>
     </row>
     <row r="12" spans="1:3" ht="257.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="147" t="s">
-        <v>148</v>
+      <c r="A12" s="146" t="s">
+        <v>144</v>
       </c>
       <c r="B12" s="96" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" s="145"/>
+        <v>81</v>
+      </c>
+      <c r="C12" s="144"/>
     </row>
     <row r="13" spans="1:3" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="148"/>
+      <c r="A13" s="147"/>
       <c r="B13" s="96" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" s="146"/>
+        <v>80</v>
+      </c>
+      <c r="C13" s="145"/>
     </row>
     <row r="14" spans="1:3" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="98" t="s">
+        <v>146</v>
+      </c>
+      <c r="B14" s="96" t="s">
+        <v>147</v>
+      </c>
+      <c r="C14" s="143" t="s">
         <v>150</v>
-      </c>
-      <c r="B14" s="96" t="s">
-        <v>151</v>
-      </c>
-      <c r="C14" s="144" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="96" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B15" s="96" t="s">
-        <v>153</v>
-      </c>
-      <c r="C15" s="146"/>
+        <v>149</v>
+      </c>
+      <c r="C15" s="145"/>
     </row>
     <row r="16" spans="1:3" ht="378.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C16" s="141"/>
+        <v>105</v>
+      </c>
+      <c r="C16" s="140"/>
     </row>
     <row r="17" spans="1:3" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
@@ -11460,7 +11169,7 @@
       <c r="B17" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="142"/>
+      <c r="C17" s="141"/>
     </row>
     <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="43" t="s">
@@ -11471,7 +11180,7 @@
     </row>
     <row r="19" spans="1:3" ht="390.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>6</v>
@@ -11482,13 +11191,13 @@
     </row>
     <row r="20" spans="1:3" ht="223.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C20" s="138" t="s">
-        <v>78</v>
+        <v>124</v>
+      </c>
+      <c r="C20" s="137" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11498,24 +11207,24 @@
       <c r="B21" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="139"/>
+      <c r="C21" s="138"/>
     </row>
     <row r="22" spans="1:3" ht="370.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="140"/>
+        <v>66</v>
+      </c>
+      <c r="C22" s="139"/>
     </row>
     <row r="23" spans="1:3" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="137" t="s">
-        <v>76</v>
+      <c r="C23" s="136" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -11523,7 +11232,7 @@
         <v>11</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="137"/>
+      <c r="C24" s="136"/>
     </row>
     <row r="25" spans="1:3" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
@@ -11532,113 +11241,117 @@
       <c r="B25" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="137"/>
+      <c r="C25" s="136"/>
     </row>
     <row r="26" spans="1:3" ht="242.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="C26" s="137"/>
+        <v>121</v>
+      </c>
+      <c r="C26" s="136"/>
     </row>
     <row r="27" spans="1:3" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="12"/>
-      <c r="C27" s="137"/>
+      <c r="C27" s="136"/>
     </row>
     <row r="28" spans="1:3" ht="224.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B28" s="12"/>
-      <c r="C28" s="137"/>
+      <c r="C28" s="136"/>
     </row>
     <row r="29" spans="1:3" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B29" s="12"/>
-      <c r="C29" s="132"/>
+      <c r="C29" s="133"/>
     </row>
     <row r="30" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B30" s="46"/>
       <c r="C30" s="47"/>
     </row>
     <row r="31" spans="1:3" ht="174" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B31" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="131" t="s">
-        <v>77</v>
+        <v>59</v>
+      </c>
+      <c r="C31" s="132" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" s="132"/>
+      <c r="C32" s="133"/>
     </row>
-    <row r="33" spans="1:3" ht="234.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="133" t="s">
-        <v>64</v>
+    <row r="33" spans="1:3" ht="234.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="134" t="s">
+        <v>65</v>
       </c>
       <c r="B33" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" s="131" t="s">
-        <v>78</v>
+        <v>172</v>
+      </c>
+      <c r="C33" s="132" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="226.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="134"/>
+    <row r="34" spans="1:3" ht="215.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="135"/>
       <c r="B34" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" s="137"/>
+        <v>176</v>
+      </c>
+      <c r="C34" s="136"/>
     </row>
-    <row r="35" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="12" t="s">
+    <row r="35" spans="1:3" ht="297.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="135"/>
+      <c r="B35" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C35" s="136"/>
+    </row>
+    <row r="36" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="C36" s="133"/>
+    </row>
+    <row r="37" spans="1:3" ht="393.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C37" s="131" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="132"/>
-    </row>
-    <row r="36" spans="1:3" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C36" s="135" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="136"/>
     </row>
     <row r="38" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="11">
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="C20:C22"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="C10:C13"/>
@@ -11646,11 +11359,6 @@
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="C20:C22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11662,7 +11370,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B69B0A5-D451-48BD-90AF-D4A4F65335A9}">
   <dimension ref="B3:C17"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -11673,75 +11381,75 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="151" t="s">
-        <v>114</v>
+      <c r="B3" s="150" t="s">
+        <v>110</v>
       </c>
       <c r="C3" s="90" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="153"/>
+      <c r="B4" s="152"/>
       <c r="C4" s="90" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="78" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C5" s="91"/>
     </row>
     <row r="6" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="151" t="s">
-        <v>115</v>
+      <c r="B6" s="150" t="s">
+        <v>111</v>
       </c>
       <c r="C6" s="90" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="152"/>
+      <c r="B7" s="151"/>
       <c r="C7" s="90" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="152"/>
+      <c r="B8" s="151"/>
       <c r="C8" s="90" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="153"/>
+      <c r="B9" s="152"/>
       <c r="C9" s="90" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="89" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C10" s="91"/>
     </row>
     <row r="11" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="89" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C11" s="91"/>
     </row>
     <row r="12" spans="2:3" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="154" t="s">
-        <v>76</v>
+      <c r="B12" s="153" t="s">
+        <v>72</v>
       </c>
       <c r="C12" s="92" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="155"/>
+      <c r="B13" s="154"/>
       <c r="C13" s="92" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -11749,17 +11457,17 @@
     </row>
     <row r="15" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="79" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="79" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="79" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -11775,10 +11483,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CBC4C05-9556-48FE-9C05-49ABCBC207BE}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F2"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11798,45 +11506,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="203.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="155" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="164" t="s">
+      <c r="B1" s="162" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="163" t="s">
+      <c r="C1" s="161" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="163" t="s">
+      <c r="D1" s="161" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="163" t="s">
+      <c r="E1" s="161" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="163" t="s">
+      <c r="F1" s="161" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="163" t="s">
-        <v>173</v>
+      <c r="G1" s="161" t="s">
+        <v>45</v>
       </c>
       <c r="H1" s="108" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I1" s="107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J1" s="107"/>
       <c r="K1" s="107"/>
       <c r="L1" s="109"/>
     </row>
     <row r="2" spans="1:12" ht="287.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="157"/>
-      <c r="B2" s="162"/>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
+      <c r="A2" s="156"/>
+      <c r="B2" s="158"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
       <c r="H2" s="111" t="s">
         <v>41</v>
       </c>
@@ -11852,14 +11560,14 @@
       <c r="L2" s="113"/>
     </row>
     <row r="3" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="157"/>
-      <c r="B3" s="162"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161" t="s">
+      <c r="A3" s="156"/>
+      <c r="B3" s="158"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="160" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="165" t="s">
+      <c r="F3" s="163" t="s">
         <v>33</v>
       </c>
       <c r="G3" s="111" t="s">
@@ -11872,54 +11580,54 @@
       <c r="L3" s="113"/>
     </row>
     <row r="4" spans="1:12" ht="233.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="157"/>
-      <c r="B4" s="162"/>
-      <c r="C4" s="161"/>
-      <c r="D4" s="161"/>
-      <c r="E4" s="161"/>
-      <c r="F4" s="165"/>
-      <c r="G4" s="161" t="s">
+      <c r="A4" s="156"/>
+      <c r="B4" s="158"/>
+      <c r="C4" s="160"/>
+      <c r="D4" s="160"/>
+      <c r="E4" s="160"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="160" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="161" t="s">
-        <v>86</v>
+      <c r="H4" s="160" t="s">
+        <v>82</v>
       </c>
       <c r="I4" s="112" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J4" s="111" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K4" s="111"/>
       <c r="L4" s="113"/>
     </row>
     <row r="5" spans="1:12" ht="113.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="157"/>
-      <c r="B5" s="162"/>
-      <c r="C5" s="161"/>
-      <c r="D5" s="161"/>
-      <c r="E5" s="161"/>
-      <c r="F5" s="165"/>
-      <c r="G5" s="161"/>
-      <c r="H5" s="161"/>
+      <c r="A5" s="156"/>
+      <c r="B5" s="158"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="160"/>
+      <c r="F5" s="163"/>
+      <c r="G5" s="160"/>
+      <c r="H5" s="160"/>
       <c r="I5" s="112" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J5" s="111" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K5" s="112" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="L5" s="113" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="160.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="157"/>
-      <c r="B6" s="162"/>
-      <c r="C6" s="161"/>
-      <c r="D6" s="161"/>
+      <c r="A6" s="156"/>
+      <c r="B6" s="158"/>
+      <c r="C6" s="160"/>
+      <c r="D6" s="160"/>
       <c r="E6" s="111" t="s">
         <v>32</v>
       </c>
@@ -11931,9 +11639,9 @@
       <c r="K6" s="111"/>
       <c r="L6" s="113"/>
     </row>
-    <row r="7" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="157"/>
-      <c r="B7" s="162" t="s">
+    <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="156"/>
+      <c r="B7" s="158" t="s">
         <v>38</v>
       </c>
       <c r="C7" s="114" t="s">
@@ -11949,9 +11657,9 @@
       <c r="K7" s="111"/>
       <c r="L7" s="113"/>
     </row>
-    <row r="8" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="157"/>
-      <c r="B8" s="162"/>
+    <row r="8" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="156"/>
+      <c r="B8" s="158"/>
       <c r="C8" s="114" t="s">
         <v>40</v>
       </c>
@@ -11965,11 +11673,11 @@
       <c r="K8" s="111"/>
       <c r="L8" s="113"/>
     </row>
-    <row r="9" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="157"/>
-      <c r="B9" s="162"/>
+    <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="156"/>
+      <c r="B9" s="158"/>
       <c r="C9" s="114" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D9" s="115"/>
       <c r="E9" s="114"/>
@@ -11981,11 +11689,11 @@
       <c r="K9" s="111"/>
       <c r="L9" s="113"/>
     </row>
-    <row r="10" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="157"/>
-      <c r="B10" s="162"/>
+    <row r="10" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="156"/>
+      <c r="B10" s="158"/>
       <c r="C10" s="114" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D10" s="115"/>
       <c r="E10" s="114"/>
@@ -11997,13 +11705,13 @@
       <c r="K10" s="111"/>
       <c r="L10" s="113"/>
     </row>
-    <row r="11" spans="1:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="157"/>
-      <c r="B11" s="110" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="114" t="s">
-        <v>69</v>
+    <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="156"/>
+      <c r="B11" s="164" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>171</v>
       </c>
       <c r="D11" s="115"/>
       <c r="E11" s="114"/>
@@ -12015,13 +11723,11 @@
       <c r="K11" s="111"/>
       <c r="L11" s="113"/>
     </row>
-    <row r="12" spans="1:12" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="157"/>
-      <c r="B12" s="110" t="s">
-        <v>70</v>
-      </c>
+    <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="156"/>
+      <c r="B12" s="165"/>
       <c r="C12" s="114" t="s">
-        <v>69</v>
+        <v>169</v>
       </c>
       <c r="D12" s="115"/>
       <c r="E12" s="114"/>
@@ -12033,13 +11739,11 @@
       <c r="K12" s="111"/>
       <c r="L12" s="113"/>
     </row>
-    <row r="13" spans="1:12" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="157"/>
-      <c r="B13" s="159" t="s">
-        <v>166</v>
-      </c>
+    <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="156"/>
+      <c r="B13" s="166"/>
       <c r="C13" s="114" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D13" s="115"/>
       <c r="E13" s="114"/>
@@ -12051,26 +11755,62 @@
       <c r="K13" s="111"/>
       <c r="L13" s="113"/>
     </row>
-    <row r="14" spans="1:12" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="158"/>
-      <c r="B14" s="160"/>
-      <c r="C14" s="116" t="s">
-        <v>168</v>
-      </c>
-      <c r="D14" s="117"/>
-      <c r="E14" s="116"/>
-      <c r="F14" s="116"/>
-      <c r="G14" s="118"/>
-      <c r="H14" s="118"/>
-      <c r="I14" s="118"/>
-      <c r="J14" s="118"/>
-      <c r="K14" s="118"/>
-      <c r="L14" s="119"/>
+    <row r="14" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="156"/>
+      <c r="B14" s="110" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="114" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="115"/>
+      <c r="E14" s="114"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="111"/>
+      <c r="H14" s="111"/>
+      <c r="I14" s="111"/>
+      <c r="J14" s="111"/>
+      <c r="K14" s="111"/>
+      <c r="L14" s="113"/>
+    </row>
+    <row r="15" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="156"/>
+      <c r="B15" s="158" t="s">
+        <v>162</v>
+      </c>
+      <c r="C15" s="114" t="s">
+        <v>161</v>
+      </c>
+      <c r="D15" s="115"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="111"/>
+      <c r="H15" s="111"/>
+      <c r="I15" s="111"/>
+      <c r="J15" s="111"/>
+      <c r="K15" s="111"/>
+      <c r="L15" s="113"/>
+    </row>
+    <row r="16" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="157"/>
+      <c r="B16" s="159"/>
+      <c r="C16" s="116" t="s">
+        <v>164</v>
+      </c>
+      <c r="D16" s="117"/>
+      <c r="E16" s="116"/>
+      <c r="F16" s="116"/>
+      <c r="G16" s="118"/>
+      <c r="H16" s="118"/>
+      <c r="I16" s="118"/>
+      <c r="J16" s="118"/>
+      <c r="K16" s="118"/>
+      <c r="L16" s="119"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A1:A14"/>
-    <mergeCell ref="B13:B14"/>
+  <mergeCells count="14">
+    <mergeCell ref="A1:A16"/>
+    <mergeCell ref="B15:B16"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="G1:G2"/>
@@ -12082,6 +11822,7 @@
     <mergeCell ref="E3:E5"/>
     <mergeCell ref="F3:F5"/>
     <mergeCell ref="G4:G5"/>
+    <mergeCell ref="B11:B13"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12105,73 +11846,73 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="166" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="168" t="s">
-        <v>49</v>
+      <c r="A2" s="167" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="169" t="s">
+        <v>50</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F2" s="27" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="167"/>
-      <c r="B3" s="169"/>
+      <c r="A3" s="168"/>
+      <c r="B3" s="170"/>
       <c r="C3" s="40"/>
       <c r="D3" s="41"/>
       <c r="E3" s="41"/>
       <c r="F3" s="42"/>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="167"/>
-      <c r="B4" s="169" t="s">
-        <v>50</v>
+      <c r="A4" s="168"/>
+      <c r="B4" s="170" t="s">
+        <v>51</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E4" s="32" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="167"/>
-      <c r="B5" s="169"/>
+      <c r="A5" s="168"/>
+      <c r="B5" s="170"/>
       <c r="C5" s="34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
       <c r="F5" s="29"/>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="167" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="169" t="s">
-        <v>49</v>
+      <c r="A6" s="168" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="170" t="s">
+        <v>50</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E6" s="32" t="s">
         <v>14</v>
@@ -12179,34 +11920,34 @@
       <c r="F6" s="29"/>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="167"/>
-      <c r="B7" s="169"/>
+      <c r="A7" s="168"/>
+      <c r="B7" s="170"/>
       <c r="C7" s="40"/>
       <c r="D7" s="41"/>
       <c r="E7" s="41"/>
       <c r="F7" s="42"/>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="167"/>
-      <c r="B8" s="169" t="s">
-        <v>50</v>
+      <c r="A8" s="168"/>
+      <c r="B8" s="170" t="s">
+        <v>51</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D8" s="32" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F8" s="29"/>
     </row>
     <row r="9" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="170"/>
-      <c r="B9" s="171"/>
+      <c r="A9" s="171"/>
+      <c r="B9" s="172"/>
       <c r="C9" s="37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D9" s="38"/>
       <c r="E9" s="38"/>
@@ -12231,14 +11972,14 @@
   <dimension ref="B2:F19"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.75" customWidth="1"/>
     <col min="2" max="2" width="38.75" customWidth="1"/>
-    <col min="3" max="3" width="56.75" customWidth="1"/>
+    <col min="3" max="3" width="59.875" customWidth="1"/>
     <col min="4" max="4" width="48.75" customWidth="1"/>
     <col min="5" max="5" width="36.75" customWidth="1"/>
     <col min="6" max="6" width="62.375" customWidth="1"/>
@@ -12246,31 +11987,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="174" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="176"/>
+      <c r="B2" s="175" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="177"/>
     </row>
     <row r="3" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="53" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C3" s="62" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D3" s="51"/>
       <c r="E3" s="56" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F3" s="57"/>
     </row>
     <row r="4" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B4" s="52"/>
       <c r="C4" s="69" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D4" s="51"/>
       <c r="E4" s="51"/>
@@ -12279,7 +12020,7 @@
     <row r="5" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B5" s="52"/>
       <c r="C5" s="54" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D5" s="51"/>
       <c r="E5" s="51"/>
@@ -12288,56 +12029,56 @@
     <row r="6" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B6" s="52"/>
       <c r="C6" s="54" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D6" s="60"/>
       <c r="E6" s="60"/>
       <c r="F6" s="60" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="70"/>
       <c r="C7" s="54" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D7" s="60"/>
       <c r="E7" s="60"/>
       <c r="F7" s="60" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="71" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D8" s="66" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E8" s="67" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="68" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B9" s="88"/>
       <c r="C9" s="83"/>
       <c r="D9" s="65" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E9" s="82"/>
       <c r="F9" s="73"/>
     </row>
     <row r="10" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B10" s="172" t="s">
-        <v>99</v>
-      </c>
-      <c r="C10" s="173"/>
+      <c r="B10" s="173" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="174"/>
       <c r="D10" s="65"/>
       <c r="E10" s="83"/>
       <c r="F10" s="73"/>
@@ -12345,7 +12086,7 @@
     <row r="11" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="87"/>
       <c r="C11" s="72" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D11" s="80"/>
       <c r="E11" s="84"/>
@@ -12355,7 +12096,7 @@
       <c r="B12" s="86"/>
       <c r="C12" s="85"/>
       <c r="D12" s="81" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E12" s="84"/>
       <c r="F12" s="73"/>
@@ -12365,7 +12106,7 @@
       <c r="C13" s="57"/>
       <c r="D13" s="76"/>
       <c r="E13" s="72" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F13" s="73"/>
     </row>
@@ -12379,18 +12120,18 @@
     <row r="15" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="77"/>
       <c r="C15" s="61" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D15" s="57"/>
       <c r="E15" s="58"/>
       <c r="F15" s="63" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B16" s="77"/>
       <c r="C16" s="61" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D16" s="57"/>
       <c r="E16" s="58"/>
@@ -12399,19 +12140,19 @@
     <row r="17" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B17" s="77"/>
       <c r="C17" s="64" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D17" s="57"/>
       <c r="E17" s="58"/>
       <c r="F17" s="64" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B18" s="77"/>
       <c r="C18" s="57"/>
       <c r="D18" s="64" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E18" s="58"/>
       <c r="F18" s="57"/>
@@ -12421,7 +12162,7 @@
       <c r="C19" s="57"/>
       <c r="D19" s="57"/>
       <c r="E19" s="75" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F19" s="57"/>
     </row>
@@ -12439,8 +12180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ABC9983-6AED-4B25-8AB6-C5125DB391F9}">
   <dimension ref="B1:G17"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12456,163 +12197,163 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="150.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="190" t="s">
-        <v>157</v>
-      </c>
-      <c r="C2" s="192" t="s">
-        <v>158</v>
+      <c r="B2" s="178" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="180" t="s">
+        <v>154</v>
       </c>
       <c r="D2" s="120" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E2" s="121" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F2" s="122"/>
       <c r="G2" s="123"/>
     </row>
     <row r="3" spans="2:7" ht="176.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="191"/>
-      <c r="C3" s="193"/>
+      <c r="B3" s="179"/>
+      <c r="C3" s="181"/>
       <c r="D3" s="124" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E3" s="124" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F3" s="125"/>
       <c r="G3" s="126"/>
     </row>
     <row r="4" spans="2:7" ht="191.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="187" t="s">
+      <c r="B4" s="193" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="182" t="s">
         <v>129</v>
       </c>
-      <c r="C4" s="185" t="s">
-        <v>133</v>
-      </c>
-      <c r="D4" s="185"/>
-      <c r="E4" s="183" t="s">
-        <v>145</v>
+      <c r="D4" s="182"/>
+      <c r="E4" s="191" t="s">
+        <v>141</v>
       </c>
       <c r="F4" s="99" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G4" s="100" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="188"/>
-      <c r="C5" s="186"/>
-      <c r="D5" s="186"/>
-      <c r="E5" s="184"/>
+      <c r="B5" s="194"/>
+      <c r="C5" s="183"/>
+      <c r="D5" s="183"/>
+      <c r="E5" s="192"/>
       <c r="F5" s="102" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G5" s="103" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="188"/>
-      <c r="C6" s="186" t="s">
-        <v>130</v>
+      <c r="B6" s="194"/>
+      <c r="C6" s="183" t="s">
+        <v>126</v>
       </c>
       <c r="D6" s="102" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E6" s="127" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F6" s="128"/>
       <c r="G6" s="129"/>
     </row>
     <row r="7" spans="2:7" ht="155.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="188"/>
-      <c r="C7" s="186"/>
+      <c r="B7" s="194"/>
+      <c r="C7" s="183"/>
       <c r="D7" s="101" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E7" s="101" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F7" s="130"/>
       <c r="G7" s="104"/>
     </row>
     <row r="8" spans="2:7" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="188"/>
-      <c r="C8" s="186"/>
-      <c r="D8" s="180" t="s">
-        <v>159</v>
-      </c>
-      <c r="E8" s="177" t="s">
-        <v>132</v>
+      <c r="B8" s="194"/>
+      <c r="C8" s="183"/>
+      <c r="D8" s="188" t="s">
+        <v>155</v>
+      </c>
+      <c r="E8" s="185" t="s">
+        <v>128</v>
       </c>
       <c r="F8" s="101" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G8" s="103" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="188"/>
-      <c r="C9" s="186"/>
-      <c r="D9" s="181"/>
-      <c r="E9" s="178"/>
+      <c r="B9" s="194"/>
+      <c r="C9" s="183"/>
+      <c r="D9" s="189"/>
+      <c r="E9" s="186"/>
       <c r="F9" s="101" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G9" s="104" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="188"/>
-      <c r="C10" s="186"/>
-      <c r="D10" s="181"/>
-      <c r="E10" s="178"/>
+      <c r="B10" s="194"/>
+      <c r="C10" s="183"/>
+      <c r="D10" s="189"/>
+      <c r="E10" s="186"/>
       <c r="F10" s="101" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G10" s="103" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="188"/>
-      <c r="C11" s="186"/>
-      <c r="D11" s="181"/>
-      <c r="E11" s="178"/>
+      <c r="B11" s="194"/>
+      <c r="C11" s="183"/>
+      <c r="D11" s="189"/>
+      <c r="E11" s="186"/>
       <c r="F11" s="101" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G11" s="104" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="188"/>
-      <c r="C12" s="186"/>
-      <c r="D12" s="181"/>
-      <c r="E12" s="178"/>
+      <c r="B12" s="194"/>
+      <c r="C12" s="183"/>
+      <c r="D12" s="189"/>
+      <c r="E12" s="186"/>
       <c r="F12" s="101" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G12" s="104" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="189"/>
-      <c r="C13" s="194"/>
-      <c r="D13" s="182"/>
-      <c r="E13" s="179"/>
+      <c r="B13" s="195"/>
+      <c r="C13" s="184"/>
+      <c r="D13" s="190"/>
+      <c r="E13" s="187"/>
       <c r="F13" s="105" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G13" s="106" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="99" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12632,48 +12373,4 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B93B66-2DE5-4D9B-84A7-32572C890515}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="70.875" style="196" customWidth="1"/>
-    <col min="2" max="2" width="95" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="384.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="195" t="s">
-        <v>175</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="144" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="195" t="s">
-        <v>176</v>
-      </c>
-      <c r="B2" s="96" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="261.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="195" t="s">
-        <v>177</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>178</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/BMW_SecOc.xlsx
+++ b/BMW_SecOc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_XuhuaRepo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DspaceDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7688E1F1-A386-48ED-B48A-D472C0698CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E50AE2-281C-4779-A0F4-FB46AA634FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-8640" windowWidth="38640" windowHeight="21240" xr2:uid="{EE3554E5-5B85-4F6F-95D2-24E55C4E92D2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="6" xr2:uid="{EE3554E5-5B85-4F6F-95D2-24E55C4E92D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Code" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="PDU" sheetId="6" r:id="rId4"/>
     <sheet name="PDU_Flow" sheetId="7" r:id="rId5"/>
     <sheet name="Sfn_SecOCMainSetup" sheetId="9" r:id="rId6"/>
+    <sheet name="TxManipulation" sheetId="11" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="193">
   <si>
     <t>DsBusCustomCode_onPduFeatureExecutionPrivate(pduFeatureHandle)</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -567,7 +568,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3263,7 +3264,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4283,26 +4284,6 @@
         <family val="3"/>
       </rPr>
       <t>, (uint64)freshnessValue)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatureHandle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;SecOCRxPduFeature.CalculatedFreshnessValue</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -5830,348 +5811,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>uint16 dataId_BigEndian = USER_CODE_INT16_TO_BE(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>dataId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">)                        </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;SecuredIPdu_DataId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-uint64 freshnessValue_BigEndian = USER_CODE_INT64_TO_BE(freshnessValue)   
-*freshnessValuePtr = &amp;freshnessValue_BigEndian;
-freshnessValuePtr += (64 - freshnessValueLength) / 8                            </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>resultLengthPtr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> = sizeof(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>dataId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">) + </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>dataLength</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + freshnessValueLength / 8   </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>&amp;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>Crypto_Job</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;PrimitiveInputOutput-&gt;inputLength
-                                                                      </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;SecuredIPdu_DataId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-                                                                                </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;SecuredAreaLength</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>Crypto_Job</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;PrimitiveInputOutput-&gt;inputPtr
-memcpy(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>resultPtr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>, &amp;dataId_BigEndian, sizeof(dataId_BigEndian));                
-memcpy(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>resultPtr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + sizeof(dataId_BigEndian), </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>dataPtr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, dataLength)             </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;AuthenticIPdu_SduDataPtr + SecuredAreaOffset
-memcpy(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>resultPtr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + sizeof(dataId_BigEndian) + dataLength, freshnessValuePtr, freshnessValueLength / 8)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>DataID
 DataPtr = AuthenticIPdu_SduDataPtr + SecuredAreaOffset
 FreshnessValuePtr</t>
@@ -6937,291 +6576,6 @@
         <family val="3"/>
       </rPr>
       <t xml:space="preserve"> = handle</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="15"/>
-        <color rgb="FFFF00FF"/>
-        <rFont val="Cascadia Mono SemiBold"/>
-        <family val="3"/>
-      </rPr>
-      <t>CollectStaticPduProperties(S)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-DsBusCustomCode_collectStaticPduPropertiesDuringRuntime</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-DsBusCustomCode_collectStaticPduPropertiesDuringRuntime(UserCode_FeatureData *</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">)
-_____________________________________________________________
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>DsBusCustomCode_collectStaticPduPropertiesDuringRuntimeEx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>(UserCode_FeatureData *</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>)
-_____________________________________________________________</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>if (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;IsAnyCounterMessage)
-AddCounterMsgToCluster(pduFeatData)
-__________________________________
-if (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;IsCounterMessage)
-if (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;IsTx) clusterAgent-&gt;TxCntMsgFeatData = </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-else clusterAgent-&gt;RxCntMsgFeatData = </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-else if (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;IsCounterResponseMessage) {
-if (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;IsTx) clusterAgent-&gt;TxCntRespMsgFeatData = </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-else clusterAgent-&gt;RxCntRespMsgFeatData = </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -8568,6 +7922,1594 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>UserCode_IdentifyProperRxFreshness</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>, &amp;freshnessValue)
+_____________________________________________________________
+if (GetMasterIsIncludedInModelAndEnabled()) 
+*counterValue = GetMasterCntValueGlobal()
+else
+const uint8 *truncatedFreshnessValPtr = ((uint8*)(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;SecuredIPdu_SduDataPtr)) + (uint8)(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;FreshnessValuePosition / 8)
+UserCode_SecOC_GetRxFreshness(0, (const uint32*)truncatedFreshnessValPtr,
+                              </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;FreshnessValTruncatedLength, 0,
+                              GetClientCounterValue(clientCntMgInstance),
+                              &amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>identifiedCounterVal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>,
+                              &amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;FreshnessValLength))
+______________________________</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>UserCode_TxFreshnessUserManipulation(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>, &amp;freshnessValue)</t>
+    </r>
+  </si>
+  <si>
+    <t>UserCode_TxAuthenticationUserManipulation(pduFeatData, &amp;authenticatorPtr,  &amp;authenticatorLengthInBytes)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="15"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>CollectStaticPduProperties(S)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+DsBusCustomCode_collectStaticPduPropertiesDuringRuntime</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+DsBusCustomCode_collectStaticPduPropertiesDuringRuntime(UserCode_FeatureData *</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">)
+_____________________________________________________________
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>DsBusCustomCode_collectStaticPduPropertiesDuringRuntimeEx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>(UserCode_FeatureData *</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>)
+_____________________________________________________________</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>if (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;IsAnyCounterMessage)
+AddCounterMsgToCluster(pduFeatData)
+__________________________________
+if (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;IsCounterMessage)
+if (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;IsTx) clusterAgent-&gt;TxCntMsgFeatData = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+else clusterAgent-&gt;RxCntMsgFeatData = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+else if (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;IsCounterResponseMessage) {
+if (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;IsTx) clusterAgent-&gt;TxCntRespMsgFeatData = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+else clusterAgent-&gt;RxCntRespMsgFeatData = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>UserCode_CopyMessageLinkToCryptoPdu(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>)
+UserCode_CopyAuthPduDataToSecuredPduData(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>)
+if (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;IsAnyCounterMessage)  
+UserCodeForCntMsgs_IdentifyProperTxFreshness(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> &amp;freshnessValue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>)
+else
+UserCode_IdentifyProperTxFreshness(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>&amp;freshnessValue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>DsBusCustomCodeSecOCTxPduFeature_setCalculatedFreshnessValue(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;PduFeatureHandle,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>freshnessValue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>EnableAuthentication</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+userDefinedFreshness = 0,
+automaticFreshnessCalc = 1
+} </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>FreshnessCalculationMode</t>
+    </r>
+  </si>
+  <si>
+    <t>UserDefinedAuthenticatorPtr</t>
+  </si>
+  <si>
+    <r>
+      <t>DsBusCustomCodeSecOCTxPduFeature_getEnableAuthentication(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;PduFeatureHandle, &amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>authenticatorCalculationMode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>)
+if ((AuthenticatorCalculationMode)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>authenticatorCalculationMode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> == </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>automaticAuthenticatorCalc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>)
+UserCode_Csm_CalculateAuthenticator(pduFeatData, &amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>authenticatorPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>,&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>authenticatorLengthInBytes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">)
+else 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>UserCode_TxAuthenticationUserManipulation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>(pduFeatData, &amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>authenticatorPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>,&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>authenticatorLengthInBytes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>)
+_____________________________________________________________
+if(AuthenticatorCalculationMode)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>authenticatorCalculationMode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> == userDefinedAuthenticator)
+DsBusCustomCodeSecOCTxPduFeature_getUserDefinedAuthenticatorPtr(pduProps-&gt;PduFeatureHandle,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>authenticatorPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>)
+*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>authenticatorLengthInBytes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = (pduProps-&gt;MacTruncatedLength + 7) / 8</t>
+    </r>
+  </si>
+  <si>
+    <t>if (pduProps-&gt;IsAnyCounterMessage)
+UserCodeForCntMsgs_WriteTxFreshnessValueToPduData(pduFeatData, freshnessValue)
+else
+UserCode_WriteTxFreshnessValueToPduData(pduFeatData, freshnessValue)</t>
+  </si>
+  <si>
+    <t>CopyBitsBE(pduProps-&gt;SecuredIPdu_SduDataPtr, pduProps-&gt;MacPosition, authenticatorPtr, 0, pduProps-&gt;MacTruncatedLength)</t>
+  </si>
+  <si>
+    <t>Bus Configurations -&gt; Manipulation -&gt; Add Feature -&gt; SecOc FreshnessOverwrite Value</t>
+  </si>
+  <si>
+    <r>
+      <t>uint16 dataId_BigEndian = USER_CODE_INT16_TO_BE(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>dataId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">)                        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;SecuredIPdu_DataId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+uint64 freshnessValue_BigEndian = USER_CODE_INT64_TO_BE(freshnessValue)   
+*freshnessValuePtr = &amp;freshnessValue_BigEndian;
+freshnessValuePtr += (64 - freshnessValueLength) / 8                            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>resultLengthPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = sizeof(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>dataId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>dataLength</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + freshnessValueLength / 8   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_Job</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;PrimitiveInputOutput-&gt;inputLength
+                                                                      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;SecuredIPdu_DataId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+                                                                                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;SecuredAreaLength</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Crypto_Job</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;PrimitiveInputOutput-&gt;inputPtr
+memcpy(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>resultPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>, &amp;dataId_BigEndian, sizeof(dataId_BigEndian));                
+memcpy(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>resultPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + sizeof(dataId_BigEndian), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>dataPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, dataLength)             </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;AuthenticIPdu_SduDataPtr + SecuredAreaOffset
+memcpy(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>resultPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + sizeof(dataId_BigEndian) + dataLength, freshnessValuePtr, freshnessValueLength / 8)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+userDefinedAuthenticator = 0,
+automaticAuthenticatorCalc = 1
+} </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">AuthenticatorCalculationMode
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>*authenticatorPtr = Crypto_Job-&gt;PrimitiveInputOutput-&gt;outputPtr;
+*authenticatorLengthInBytes = Crypto_Job-&gt;jobPrimitiveInfo-&gt;primitiveInfo-&gt;resultLength
+resultLength = sizeof(dataId) + dataLength + freshnessValueLength / 8
+*authenticatorPtr = PtrSecOCTxPduFeature.UserDefinedAuthenticatorPtr
+*authenticatorLengthInBytes = (MacTruncatedLength + 7) / 8</t>
+    </r>
+  </si>
+  <si>
+    <t>freshnessValue</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>UserCode_TxFreshnessUserManipulation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>freshnessValue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>)
+_____________________________________________________________
+if (pduProps-&gt;IsAnyCounterMessage) return E_OK
+DsBusCustomCodeSecOCTxPduFeature_getEnableFreshnessValueCalculation(pduProps-&gt;PduFeatureHandle,&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>freshnessCalculationMode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>)
+if ((FreshnessCalculationMode)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>freshnessCalculationMode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> == userDefinedFreshness) 
+DsBusCustomCodeSecOCTxPduFeature_getUserDefinedFreshnessValue(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;PduFeatureHandle, &amp;freshnValTemp)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>*freshnVal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = (uint32)freshnValTemp
+DsBusCustomCodeSecOCTxPduFeature_getFreshnessValueOffset(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;PduFeatureHandle, &amp;freshnessValueOffset)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>*freshnVal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = *freshnVal + (sint32)freshnessValueOffset</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">SecOC Freshness Overwrite Value
+EnableState -&gt; DsBusCustomCodeSecOCTxPduFeature_
+getEnableFreshnessValueCalculation
+Freshness Overwrite Value -&gt; DsBusCustomCodeSecOCTxPduFeature_getUserDefinedFreshnessValue
+</t>
+  </si>
+  <si>
+    <t>For the SecOC Freshness Overwrite Value feature, the Recalculate SecOC information checkbox is selected and read-only. Therefore, when the feature is enabled at run time, the authentication information of the secured IPDU is always recalculated before the PDU is transmitted on the bus</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduFeatureHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;SecOCRxPduFeature.CalculatedFreshnessValue
+DsBusCustomCodeSecOCRxPduFeature_setCalculatedFreshnessValue
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(映射至BusManagerInspection PDU中，SecOc </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Calculated Freshness Value</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Port)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(SecOc </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Freshness Value</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Port是freshness value that is received on the bus)</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>DsBusCustomCode_onPduFeatureExecutionPrivateRxAuthenticationHandling(</t>
     </r>
     <r>
@@ -8761,7 +9703,6 @@
       </rPr>
       <t>-&gt;PduFeatureHandle,SECOC_VERIFICATION_SUCCESS)</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8779,18 +9720,18 @@
         <rFont val="Cascadia Mono SemiLight"/>
         <family val="3"/>
       </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve">(映射至BusManagerInspection PDU中，SecOc </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>映射至</t>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>State</t>
     </r>
     <r>
       <rPr>
@@ -8800,188 +9741,75 @@
         <rFont val="Cascadia Mono SemiLight"/>
         <family val="3"/>
       </rPr>
-      <t>BusManagerInspection PDU</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中，</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>SecOc State Port)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>UserCode_IdentifyProperRxFreshness</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduFeatData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>, &amp;freshnessValue)
-_____________________________________________________________
-if (GetMasterIsIncludedInModelAndEnabled()) 
-*counterValue = GetMasterCntValueGlobal()
-else
-const uint8 *truncatedFreshnessValPtr = ((uint8*)(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;SecuredIPdu_SduDataPtr)) + (uint8)(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">-&gt;FreshnessValuePosition / 8)
-UserCode_SecOC_GetRxFreshness(0, (const uint32*)truncatedFreshnessValPtr,
-                              </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;FreshnessValTruncatedLength, 0,
-                              GetClientCounterValue(clientCntMgInstance),
-                              &amp;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>identifiedCounterVal</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>,
-                              &amp;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>pduProps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiLight"/>
-        <family val="3"/>
-      </rPr>
-      <t>-&gt;FreshnessValLength))
-______________________________</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+      <t xml:space="preserve"> Port)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+DsBusCustomCodeSecOCRxPduFeature_getEnableVerification
+_______________________________
+SecOCRxPduFeature.EnableVerification 
+(映射至BusManagerInspection PDU中，SecOc </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>Enable Verification</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Port)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>三个层级的RxMAC Enable：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+GetGlobalRxMacVerificationIsEnabled
+GetEcuSpecificRxMacVerificationIsEnabled
+DsBusCustomCodeSecOCRxPduFeature_getEnableVerification</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="42">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -8989,7 +9817,7 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -8998,13 +9826,13 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -9152,7 +9980,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -9269,7 +10097,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9366,6 +10194,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFAFE7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="58">
     <border>
@@ -10140,7 +10974,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="196">
+  <cellXfs count="202">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -10435,9 +11269,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -10688,6 +11519,27 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10697,6 +11549,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCFAFE7"/>
       <color rgb="FFFF00FF"/>
       <color rgb="FFEB65BE"/>
       <color rgb="FFFF5050"/>
@@ -11011,56 +11864,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E38B81CE-79E3-4568-BB50-9E45BADB5D49}">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:A35"/>
+    <sheetView topLeftCell="A36" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="22.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="22"/>
   <cols>
-    <col min="1" max="1" width="138.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="154.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="54.875" style="19" customWidth="1"/>
+    <col min="1" max="1" width="138.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="154.6328125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="54.90625" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="20.149999999999999" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="16"/>
     </row>
-    <row r="2" spans="1:3" ht="275.10000000000002" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="275.14999999999998" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="140" t="s">
-        <v>110</v>
+      <c r="C2" s="139" t="s">
+        <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="409.5" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="141"/>
+      <c r="C3" s="140"/>
     </row>
-    <row r="4" spans="1:3" ht="386.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="386.25" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="142"/>
+      <c r="C4" s="141"/>
     </row>
-    <row r="5" spans="1:3" ht="200.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="200.25" customHeight="1">
       <c r="A5" s="10" t="s">
         <v>31</v>
       </c>
@@ -11071,114 +11924,114 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="22.5" customHeight="1">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="17"/>
     </row>
-    <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="20.149999999999999" customHeight="1">
       <c r="A7" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="16"/>
     </row>
-    <row r="8" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="20.149999999999999" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="16"/>
     </row>
-    <row r="9" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="148" t="s">
+    <row r="9" spans="1:3" ht="74.25" customHeight="1">
+      <c r="A9" s="147" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9" s="147"/>
+      <c r="C9" s="148"/>
+    </row>
+    <row r="10" spans="1:3" ht="287.25" customHeight="1">
+      <c r="A10" s="95" t="s">
+        <v>174</v>
+      </c>
+      <c r="B10" s="96" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="142" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="159.75" customHeight="1">
+      <c r="A11" s="95" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="96" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" s="143"/>
+    </row>
+    <row r="12" spans="1:3" ht="257.25" customHeight="1">
+      <c r="A12" s="145" t="s">
         <v>142</v>
       </c>
-      <c r="B9" s="148"/>
-      <c r="C9" s="149"/>
+      <c r="B12" s="96" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="143"/>
     </row>
-    <row r="10" spans="1:3" ht="287.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="95" t="s">
+    <row r="13" spans="1:3" ht="120.75" customHeight="1">
+      <c r="A13" s="146"/>
+      <c r="B13" s="96" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="144"/>
+    </row>
+    <row r="14" spans="1:3" ht="157.5" customHeight="1">
+      <c r="A14" s="98" t="s">
+        <v>143</v>
+      </c>
+      <c r="B14" s="96" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" s="142" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="123.75" customHeight="1">
+      <c r="A15" s="96" t="s">
         <v>145</v>
       </c>
-      <c r="B10" s="96" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="143" t="s">
-        <v>8</v>
-      </c>
+      <c r="B15" s="96" t="s">
+        <v>146</v>
+      </c>
+      <c r="C15" s="144"/>
     </row>
-    <row r="11" spans="1:3" ht="159.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="95" t="s">
-        <v>79</v>
-      </c>
-      <c r="B11" s="96" t="s">
-        <v>143</v>
-      </c>
-      <c r="C11" s="144"/>
-    </row>
-    <row r="12" spans="1:3" ht="257.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="146" t="s">
-        <v>144</v>
-      </c>
-      <c r="B12" s="96" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" s="144"/>
-    </row>
-    <row r="13" spans="1:3" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="147"/>
-      <c r="B13" s="96" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" s="145"/>
-    </row>
-    <row r="14" spans="1:3" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="98" t="s">
-        <v>146</v>
-      </c>
-      <c r="B14" s="96" t="s">
-        <v>147</v>
-      </c>
-      <c r="C14" s="143" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="96" t="s">
-        <v>148</v>
-      </c>
-      <c r="B15" s="96" t="s">
-        <v>149</v>
-      </c>
-      <c r="C15" s="145"/>
-    </row>
-    <row r="16" spans="1:3" ht="378.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="378.75" customHeight="1">
       <c r="A16" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C16" s="140"/>
+        <v>104</v>
+      </c>
+      <c r="C16" s="139"/>
     </row>
-    <row r="17" spans="1:3" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="110.15" customHeight="1">
       <c r="A17" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="141"/>
+      <c r="C17" s="140"/>
     </row>
-    <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="20.149999999999999" customHeight="1">
       <c r="A18" s="43" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="44"/>
       <c r="C18" s="45"/>
     </row>
-    <row r="19" spans="1:3" ht="390.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="390.75" customHeight="1">
       <c r="A19" s="8" t="s">
         <v>61</v>
       </c>
@@ -11189,173 +12042,187 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="223.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="223.5" customHeight="1">
       <c r="A20" s="8" t="s">
         <v>48</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C20" s="137" t="s">
-        <v>74</v>
+        <v>122</v>
+      </c>
+      <c r="C20" s="136" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
+    <row r="21" spans="1:3" ht="40" customHeight="1">
+      <c r="A21" s="195" t="s">
+        <v>172</v>
+      </c>
+      <c r="B21" s="196"/>
+      <c r="C21" s="137"/>
+    </row>
+    <row r="22" spans="1:3" ht="42.75" customHeight="1">
+      <c r="A22" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B22" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="138"/>
+      <c r="C22" s="137"/>
     </row>
-    <row r="22" spans="1:3" ht="370.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="10" t="s">
+    <row r="23" spans="1:3" ht="370.5" customHeight="1">
+      <c r="A23" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B23" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="139"/>
+      <c r="C23" s="138"/>
     </row>
-    <row r="23" spans="1:3" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="10" t="s">
+    <row r="24" spans="1:3" ht="78.75" customHeight="1">
+      <c r="A24" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="136" t="s">
+      <c r="B24" s="4"/>
+      <c r="C24" s="135" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="36.65" customHeight="1">
+      <c r="A25" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="135"/>
+    </row>
+    <row r="26" spans="1:3" ht="67.5" customHeight="1">
+      <c r="A26" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="135"/>
+    </row>
+    <row r="27" spans="1:3" ht="242.25" customHeight="1">
+      <c r="A27" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="C27" s="135"/>
+    </row>
+    <row r="28" spans="1:3" ht="110.15" customHeight="1">
+      <c r="A28" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="12"/>
+      <c r="C28" s="135"/>
+    </row>
+    <row r="29" spans="1:3" ht="224.5" customHeight="1">
+      <c r="A29" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="12"/>
+      <c r="C29" s="135"/>
+    </row>
+    <row r="30" spans="1:3" ht="40" customHeight="1">
+      <c r="A30" s="197" t="s">
+        <v>173</v>
+      </c>
+      <c r="B30" s="197"/>
+      <c r="C30" s="135"/>
+    </row>
+    <row r="31" spans="1:3" ht="70.5" customHeight="1">
+      <c r="A31" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" s="12"/>
+      <c r="C31" s="132"/>
+    </row>
+    <row r="32" spans="1:3" ht="20.149999999999999" customHeight="1">
+      <c r="A32" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="46"/>
+      <c r="C32" s="47"/>
+    </row>
+    <row r="33" spans="1:3" ht="174" customHeight="1">
+      <c r="A33" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="131" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="136"/>
+    <row r="34" spans="1:3" ht="102" customHeight="1">
+      <c r="A34" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="132"/>
     </row>
-    <row r="25" spans="1:3" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="136"/>
+    <row r="35" spans="1:3" ht="234.65" customHeight="1">
+      <c r="A35" s="133" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="C35" s="131" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="26" spans="1:3" ht="242.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="C26" s="136"/>
+    <row r="36" spans="1:3" ht="215.15" customHeight="1">
+      <c r="A36" s="134"/>
+      <c r="B36" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C36" s="135"/>
     </row>
-    <row r="27" spans="1:3" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="136"/>
+    <row r="37" spans="1:3" ht="297.75" customHeight="1">
+      <c r="A37" s="134"/>
+      <c r="B37" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C37" s="135"/>
     </row>
-    <row r="28" spans="1:3" ht="224.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="136"/>
+    <row r="38" spans="1:3" ht="135.5" customHeight="1">
+      <c r="A38" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C38" s="132"/>
     </row>
-    <row r="29" spans="1:3" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="133"/>
+    <row r="39" spans="1:3" ht="393.75" customHeight="1">
+      <c r="A39" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="C39" s="130" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="30" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" s="46"/>
-      <c r="C30" s="47"/>
-    </row>
-    <row r="31" spans="1:3" ht="174" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="132" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="102" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="133"/>
-    </row>
-    <row r="33" spans="1:3" ht="234.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="134" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="49" t="s">
-        <v>172</v>
-      </c>
-      <c r="C33" s="132" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="215.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="135"/>
-      <c r="B34" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="C34" s="136"/>
-    </row>
-    <row r="35" spans="1:3" ht="297.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="135"/>
-      <c r="B35" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="C35" s="136"/>
-    </row>
-    <row r="36" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36" s="133"/>
-    </row>
-    <row r="37" spans="1:3" ht="393.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="C37" s="131" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:3" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="C20:C23"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="C10:C13"/>
-    <mergeCell ref="C23:C29"/>
+    <mergeCell ref="C24:C31"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="C14:C15"/>
@@ -11374,100 +12241,100 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="49.25" style="50" customWidth="1"/>
-    <col min="3" max="3" width="65.5" customWidth="1"/>
+    <col min="2" max="2" width="49.26953125" style="50" customWidth="1"/>
+    <col min="3" max="3" width="65.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="150" t="s">
-        <v>110</v>
+    <row r="3" spans="2:3" ht="20.149999999999999" customHeight="1">
+      <c r="B3" s="149" t="s">
+        <v>109</v>
       </c>
       <c r="C3" s="90" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="152"/>
+    <row r="4" spans="2:3" ht="20.149999999999999" customHeight="1">
+      <c r="B4" s="151"/>
       <c r="C4" s="90" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:3" ht="20.149999999999999" customHeight="1">
       <c r="B5" s="78" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C5" s="91"/>
     </row>
-    <row r="6" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="150" t="s">
-        <v>111</v>
+    <row r="6" spans="2:3" ht="20.149999999999999" customHeight="1">
+      <c r="B6" s="149" t="s">
+        <v>110</v>
       </c>
       <c r="C6" s="90" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="20.149999999999999" customHeight="1">
+      <c r="B7" s="150"/>
+      <c r="C7" s="90" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="151"/>
-      <c r="C7" s="90" t="s">
+    <row r="8" spans="2:3" ht="20.149999999999999" customHeight="1">
+      <c r="B8" s="150"/>
+      <c r="C8" s="90" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="20.149999999999999" customHeight="1">
+      <c r="B9" s="151"/>
+      <c r="C9" s="90" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="151"/>
-      <c r="C8" s="90" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="152"/>
-      <c r="C9" s="90" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:3" ht="20.149999999999999" customHeight="1">
       <c r="B10" s="89" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C10" s="91"/>
     </row>
-    <row r="11" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:3" ht="20.149999999999999" customHeight="1">
       <c r="B11" s="89" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C11" s="91"/>
     </row>
-    <row r="12" spans="2:3" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="153" t="s">
-        <v>72</v>
+    <row r="12" spans="2:3" ht="65.25" customHeight="1">
+      <c r="B12" s="152" t="s">
+        <v>71</v>
       </c>
       <c r="C12" s="92" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="154"/>
+    <row r="13" spans="2:3" ht="80.25" customHeight="1">
+      <c r="B13" s="153"/>
       <c r="C13" s="92" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:3" ht="20.149999999999999" customHeight="1">
       <c r="B14" s="22"/>
     </row>
-    <row r="15" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:3" ht="20.149999999999999" customHeight="1">
       <c r="B15" s="79" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="20.149999999999999" customHeight="1">
+      <c r="B16" s="79" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="79" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2" ht="20.149999999999999" customHeight="1">
       <c r="B17" s="79" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -11483,48 +12350,48 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CBC4C05-9556-48FE-9C05-49ABCBC207BE}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="28.375" style="20" customWidth="1"/>
-    <col min="2" max="2" width="21.25" style="14" customWidth="1"/>
-    <col min="3" max="3" width="28.5" style="14" customWidth="1"/>
-    <col min="4" max="4" width="26.125" style="21" customWidth="1"/>
+    <col min="1" max="1" width="28.36328125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="21.26953125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="28.453125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="26.08984375" style="21" customWidth="1"/>
     <col min="5" max="5" width="63" style="14" customWidth="1"/>
-    <col min="6" max="6" width="37.625" style="14" customWidth="1"/>
-    <col min="7" max="7" width="70.625" style="13" customWidth="1"/>
-    <col min="8" max="8" width="57.875" style="13" customWidth="1"/>
-    <col min="9" max="9" width="82.5" style="13" customWidth="1"/>
-    <col min="10" max="10" width="89.625" style="13" customWidth="1"/>
-    <col min="11" max="11" width="46.125" style="13" customWidth="1"/>
-    <col min="12" max="12" width="51.5" style="13" customWidth="1"/>
+    <col min="6" max="6" width="37.6328125" style="14" customWidth="1"/>
+    <col min="7" max="7" width="70.6328125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="57.90625" style="13" customWidth="1"/>
+    <col min="9" max="9" width="82.453125" style="13" customWidth="1"/>
+    <col min="10" max="10" width="89.6328125" style="13" customWidth="1"/>
+    <col min="11" max="11" width="46.08984375" style="13" customWidth="1"/>
+    <col min="12" max="12" width="51.453125" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="203.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="155" t="s">
+    <row r="1" spans="1:12" ht="203.5" customHeight="1">
+      <c r="A1" s="154" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="162" t="s">
+      <c r="B1" s="161" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="161" t="s">
+      <c r="C1" s="160" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="161" t="s">
+      <c r="D1" s="160" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="161" t="s">
+      <c r="E1" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="161" t="s">
+      <c r="F1" s="160" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="161" t="s">
+      <c r="G1" s="160" t="s">
         <v>45</v>
       </c>
       <c r="H1" s="108" t="s">
@@ -11537,280 +12404,312 @@
       <c r="K1" s="107"/>
       <c r="L1" s="109"/>
     </row>
-    <row r="2" spans="1:12" ht="287.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="156"/>
-      <c r="B2" s="158"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="111" t="s">
+    <row r="2" spans="1:12" ht="287.5" customHeight="1">
+      <c r="A2" s="155"/>
+      <c r="B2" s="157"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="159"/>
+      <c r="G2" s="159"/>
+      <c r="H2" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="111" t="s">
+      <c r="I2" s="110" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="112" t="s">
+      <c r="J2" s="111" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="111" t="s">
+      <c r="K2" s="110" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="113"/>
+      <c r="L2" s="112"/>
     </row>
-    <row r="3" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="156"/>
-      <c r="B3" s="158"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="160" t="s">
+    <row r="3" spans="1:12" ht="53.25" customHeight="1">
+      <c r="A3" s="155"/>
+      <c r="B3" s="157"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="163" t="s">
+      <c r="F3" s="162" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="111" t="s">
+      <c r="G3" s="110" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="113"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="112"/>
     </row>
-    <row r="4" spans="1:12" ht="233.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="156"/>
-      <c r="B4" s="158"/>
-      <c r="C4" s="160"/>
-      <c r="D4" s="160"/>
-      <c r="E4" s="160"/>
-      <c r="F4" s="163"/>
-      <c r="G4" s="160" t="s">
+    <row r="4" spans="1:12" ht="233.15" customHeight="1">
+      <c r="A4" s="155"/>
+      <c r="B4" s="157"/>
+      <c r="C4" s="159"/>
+      <c r="D4" s="159"/>
+      <c r="E4" s="159"/>
+      <c r="F4" s="162"/>
+      <c r="G4" s="159" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="160" t="s">
+      <c r="H4" s="159" t="s">
+        <v>81</v>
+      </c>
+      <c r="I4" s="111" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="110" t="s">
+        <v>86</v>
+      </c>
+      <c r="K4" s="110"/>
+      <c r="L4" s="112"/>
+    </row>
+    <row r="5" spans="1:12" ht="113.15" customHeight="1">
+      <c r="A5" s="155"/>
+      <c r="B5" s="157"/>
+      <c r="C5" s="159"/>
+      <c r="D5" s="159"/>
+      <c r="E5" s="159"/>
+      <c r="F5" s="162"/>
+      <c r="G5" s="159"/>
+      <c r="H5" s="159"/>
+      <c r="I5" s="111" t="s">
         <v>82</v>
       </c>
-      <c r="I4" s="112" t="s">
-        <v>49</v>
-      </c>
-      <c r="J4" s="111" t="s">
-        <v>87</v>
-      </c>
-      <c r="K4" s="111"/>
-      <c r="L4" s="113"/>
+      <c r="J5" s="110" t="s">
+        <v>83</v>
+      </c>
+      <c r="K5" s="111" t="s">
+        <v>84</v>
+      </c>
+      <c r="L5" s="112" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" ht="113.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="156"/>
-      <c r="B5" s="158"/>
-      <c r="C5" s="160"/>
-      <c r="D5" s="160"/>
-      <c r="E5" s="160"/>
-      <c r="F5" s="163"/>
-      <c r="G5" s="160"/>
-      <c r="H5" s="160"/>
-      <c r="I5" s="112" t="s">
-        <v>83</v>
-      </c>
-      <c r="J5" s="111" t="s">
-        <v>84</v>
-      </c>
-      <c r="K5" s="112" t="s">
-        <v>85</v>
-      </c>
-      <c r="L5" s="113" t="s">
-        <v>86</v>
-      </c>
+    <row r="6" spans="1:12" ht="160.5" customHeight="1">
+      <c r="A6" s="155"/>
+      <c r="B6" s="157"/>
+      <c r="C6" s="159"/>
+      <c r="D6" s="159"/>
+      <c r="E6" s="110" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="110"/>
+      <c r="G6" s="110"/>
+      <c r="H6" s="110"/>
+      <c r="I6" s="110"/>
+      <c r="J6" s="110"/>
+      <c r="K6" s="110"/>
+      <c r="L6" s="112"/>
     </row>
-    <row r="6" spans="1:12" ht="160.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="156"/>
-      <c r="B6" s="158"/>
-      <c r="C6" s="160"/>
-      <c r="D6" s="160"/>
-      <c r="E6" s="111" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="111"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="111"/>
-      <c r="L6" s="113"/>
+    <row r="7" spans="1:12" ht="30" customHeight="1">
+      <c r="A7" s="155"/>
+      <c r="B7" s="157" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="113" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="114"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="110"/>
+      <c r="H7" s="110"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="110"/>
+      <c r="L7" s="112"/>
     </row>
-    <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="156"/>
-      <c r="B7" s="158" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="114" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="115"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="111"/>
-      <c r="I7" s="111"/>
-      <c r="J7" s="111"/>
-      <c r="K7" s="111"/>
-      <c r="L7" s="113"/>
+    <row r="8" spans="1:12" ht="30" customHeight="1">
+      <c r="A8" s="155"/>
+      <c r="B8" s="157"/>
+      <c r="C8" s="113" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="114"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="110"/>
+      <c r="L8" s="112"/>
     </row>
-    <row r="8" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="156"/>
-      <c r="B8" s="158"/>
-      <c r="C8" s="114" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="115"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="111"/>
-      <c r="H8" s="111"/>
-      <c r="I8" s="111"/>
-      <c r="J8" s="111"/>
-      <c r="K8" s="111"/>
-      <c r="L8" s="113"/>
+    <row r="9" spans="1:12" ht="30" customHeight="1">
+      <c r="A9" s="155"/>
+      <c r="B9" s="157"/>
+      <c r="C9" s="113" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="114"/>
+      <c r="E9" s="113"/>
+      <c r="F9" s="113"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="110"/>
+      <c r="K9" s="110"/>
+      <c r="L9" s="112"/>
     </row>
-    <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="156"/>
-      <c r="B9" s="158"/>
-      <c r="C9" s="114" t="s">
+    <row r="10" spans="1:12" ht="30" customHeight="1">
+      <c r="A10" s="155"/>
+      <c r="B10" s="157"/>
+      <c r="C10" s="113" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="115"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="114"/>
-      <c r="G9" s="111"/>
-      <c r="H9" s="111"/>
-      <c r="I9" s="111"/>
-      <c r="J9" s="111"/>
-      <c r="K9" s="111"/>
-      <c r="L9" s="113"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="113"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="110"/>
+      <c r="K10" s="110"/>
+      <c r="L10" s="112"/>
     </row>
-    <row r="10" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="156"/>
-      <c r="B10" s="158"/>
-      <c r="C10" s="114" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" s="115"/>
-      <c r="E10" s="114"/>
-      <c r="F10" s="114"/>
-      <c r="G10" s="111"/>
-      <c r="H10" s="111"/>
-      <c r="I10" s="111"/>
-      <c r="J10" s="111"/>
-      <c r="K10" s="111"/>
-      <c r="L10" s="113"/>
+    <row r="11" spans="1:12" ht="30" customHeight="1">
+      <c r="A11" s="155"/>
+      <c r="B11" s="163" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="D11" s="114"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="113"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="110"/>
+      <c r="K11" s="110"/>
+      <c r="L11" s="112"/>
     </row>
-    <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="156"/>
-      <c r="B11" s="164" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="D11" s="115"/>
-      <c r="E11" s="114"/>
-      <c r="F11" s="114"/>
-      <c r="G11" s="111"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="111"/>
-      <c r="J11" s="111"/>
-      <c r="K11" s="111"/>
-      <c r="L11" s="113"/>
+    <row r="12" spans="1:12" ht="30" customHeight="1">
+      <c r="A12" s="155"/>
+      <c r="B12" s="164"/>
+      <c r="C12" s="113" t="s">
+        <v>166</v>
+      </c>
+      <c r="D12" s="114"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="110"/>
+      <c r="H12" s="110"/>
+      <c r="I12" s="110"/>
+      <c r="J12" s="110"/>
+      <c r="K12" s="110"/>
+      <c r="L12" s="112"/>
     </row>
-    <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="156"/>
-      <c r="B12" s="165"/>
-      <c r="C12" s="114" t="s">
-        <v>169</v>
-      </c>
-      <c r="D12" s="115"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="114"/>
-      <c r="G12" s="111"/>
-      <c r="H12" s="111"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="111"/>
-      <c r="K12" s="111"/>
-      <c r="L12" s="113"/>
+    <row r="13" spans="1:12" ht="30" customHeight="1">
+      <c r="A13" s="155"/>
+      <c r="B13" s="165"/>
+      <c r="C13" s="113" t="s">
+        <v>167</v>
+      </c>
+      <c r="D13" s="114"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="110"/>
+      <c r="K13" s="110"/>
+      <c r="L13" s="112"/>
     </row>
-    <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="156"/>
-      <c r="B13" s="166"/>
-      <c r="C13" s="114" t="s">
-        <v>170</v>
-      </c>
-      <c r="D13" s="115"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="111"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="111"/>
-      <c r="K13" s="111"/>
-      <c r="L13" s="113"/>
+    <row r="14" spans="1:12" ht="30" customHeight="1">
+      <c r="A14" s="155"/>
+      <c r="B14" s="163" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="113" t="s">
+        <v>177</v>
+      </c>
+      <c r="D14" s="114"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="113"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="110"/>
+      <c r="I14" s="110"/>
+      <c r="J14" s="110"/>
+      <c r="K14" s="110"/>
+      <c r="L14" s="112"/>
     </row>
-    <row r="14" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="156"/>
-      <c r="B14" s="110" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="114" t="s">
+    <row r="15" spans="1:12" ht="30" customHeight="1">
+      <c r="A15" s="155"/>
+      <c r="B15" s="164"/>
+      <c r="C15" s="113" t="s">
+        <v>179</v>
+      </c>
+      <c r="D15" s="114"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="113"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="110"/>
+      <c r="J15" s="110"/>
+      <c r="K15" s="110"/>
+      <c r="L15" s="112"/>
+    </row>
+    <row r="16" spans="1:12" ht="30" customHeight="1">
+      <c r="A16" s="155"/>
+      <c r="B16" s="165"/>
+      <c r="C16" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="115"/>
-      <c r="E14" s="114"/>
-      <c r="F14" s="114"/>
-      <c r="G14" s="111"/>
-      <c r="H14" s="111"/>
-      <c r="I14" s="111"/>
-      <c r="J14" s="111"/>
-      <c r="K14" s="111"/>
-      <c r="L14" s="113"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="113"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="110"/>
+      <c r="I16" s="110"/>
+      <c r="J16" s="110"/>
+      <c r="K16" s="110"/>
+      <c r="L16" s="112"/>
     </row>
-    <row r="15" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="156"/>
-      <c r="B15" s="158" t="s">
-        <v>162</v>
-      </c>
-      <c r="C15" s="114" t="s">
+    <row r="17" spans="1:12" ht="30" customHeight="1">
+      <c r="A17" s="155"/>
+      <c r="B17" s="157" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" s="113" t="s">
+        <v>158</v>
+      </c>
+      <c r="D17" s="114"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="113"/>
+      <c r="G17" s="110"/>
+      <c r="H17" s="110"/>
+      <c r="I17" s="110"/>
+      <c r="J17" s="110"/>
+      <c r="K17" s="110"/>
+      <c r="L17" s="112"/>
+    </row>
+    <row r="18" spans="1:12" ht="30" customHeight="1">
+      <c r="A18" s="156"/>
+      <c r="B18" s="158"/>
+      <c r="C18" s="115" t="s">
         <v>161</v>
       </c>
-      <c r="D15" s="115"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="111"/>
-      <c r="H15" s="111"/>
-      <c r="I15" s="111"/>
-      <c r="J15" s="111"/>
-      <c r="K15" s="111"/>
-      <c r="L15" s="113"/>
-    </row>
-    <row r="16" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="157"/>
-      <c r="B16" s="159"/>
-      <c r="C16" s="116" t="s">
-        <v>164</v>
-      </c>
-      <c r="D16" s="117"/>
-      <c r="E16" s="116"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="118"/>
-      <c r="H16" s="118"/>
-      <c r="I16" s="118"/>
-      <c r="J16" s="118"/>
-      <c r="K16" s="118"/>
-      <c r="L16" s="119"/>
+      <c r="D18" s="116"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="115"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="117"/>
+      <c r="I18" s="117"/>
+      <c r="J18" s="117"/>
+      <c r="K18" s="117"/>
+      <c r="L18" s="118"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A1:A16"/>
-    <mergeCell ref="B15:B16"/>
+  <mergeCells count="15">
+    <mergeCell ref="A1:A18"/>
+    <mergeCell ref="B17:B18"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="G1:G2"/>
@@ -11823,6 +12722,7 @@
     <mergeCell ref="F3:F5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11837,19 +12737,19 @@
       <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.125" style="23" customWidth="1"/>
-    <col min="2" max="2" width="20.75" customWidth="1"/>
-    <col min="3" max="6" width="20.625" style="23" customWidth="1"/>
+    <col min="1" max="1" width="20.08984375" style="23" customWidth="1"/>
+    <col min="2" max="2" width="20.7265625" customWidth="1"/>
+    <col min="3" max="6" width="20.6328125" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="167" t="s">
+    <row r="1" spans="1:6" ht="15" thickBot="1"/>
+    <row r="2" spans="1:6" ht="30" customHeight="1">
+      <c r="A2" s="166" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="169" t="s">
+      <c r="B2" s="168" t="s">
         <v>50</v>
       </c>
       <c r="C2" s="24" t="s">
@@ -11865,17 +12765,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="168"/>
-      <c r="B3" s="170"/>
+    <row r="3" spans="1:6" ht="30" customHeight="1">
+      <c r="A3" s="167"/>
+      <c r="B3" s="169"/>
       <c r="C3" s="40"/>
       <c r="D3" s="41"/>
       <c r="E3" s="41"/>
       <c r="F3" s="42"/>
     </row>
-    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="168"/>
-      <c r="B4" s="170" t="s">
+    <row r="4" spans="1:6" ht="30" customHeight="1">
+      <c r="A4" s="167"/>
+      <c r="B4" s="169" t="s">
         <v>51</v>
       </c>
       <c r="C4" s="30" t="s">
@@ -11891,9 +12791,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="168"/>
-      <c r="B5" s="170"/>
+    <row r="5" spans="1:6" ht="30" customHeight="1">
+      <c r="A5" s="167"/>
+      <c r="B5" s="169"/>
       <c r="C5" s="34" t="s">
         <v>54</v>
       </c>
@@ -11901,11 +12801,11 @@
       <c r="E5" s="28"/>
       <c r="F5" s="29"/>
     </row>
-    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="168" t="s">
+    <row r="6" spans="1:6" ht="30" customHeight="1">
+      <c r="A6" s="167" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="170" t="s">
+      <c r="B6" s="169" t="s">
         <v>50</v>
       </c>
       <c r="C6" s="30" t="s">
@@ -11919,17 +12819,17 @@
       </c>
       <c r="F6" s="29"/>
     </row>
-    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="168"/>
-      <c r="B7" s="170"/>
+    <row r="7" spans="1:6" ht="30" customHeight="1">
+      <c r="A7" s="167"/>
+      <c r="B7" s="169"/>
       <c r="C7" s="40"/>
       <c r="D7" s="41"/>
       <c r="E7" s="41"/>
       <c r="F7" s="42"/>
     </row>
-    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="168"/>
-      <c r="B8" s="170" t="s">
+    <row r="8" spans="1:6" ht="30" customHeight="1">
+      <c r="A8" s="167"/>
+      <c r="B8" s="169" t="s">
         <v>51</v>
       </c>
       <c r="C8" s="30" t="s">
@@ -11943,9 +12843,9 @@
       </c>
       <c r="F8" s="29"/>
     </row>
-    <row r="9" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="171"/>
-      <c r="B9" s="172"/>
+    <row r="9" spans="1:6" ht="30" customHeight="1" thickBot="1">
+      <c r="A9" s="170"/>
+      <c r="B9" s="171"/>
       <c r="C9" s="37" t="s">
         <v>54</v>
       </c>
@@ -11975,80 +12875,80 @@
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="3.75" customWidth="1"/>
-    <col min="2" max="2" width="38.75" customWidth="1"/>
-    <col min="3" max="3" width="59.875" customWidth="1"/>
-    <col min="4" max="4" width="48.75" customWidth="1"/>
-    <col min="5" max="5" width="36.75" customWidth="1"/>
-    <col min="6" max="6" width="62.375" customWidth="1"/>
+    <col min="1" max="1" width="3.7265625" customWidth="1"/>
+    <col min="2" max="2" width="38.7265625" customWidth="1"/>
+    <col min="3" max="3" width="59.90625" customWidth="1"/>
+    <col min="4" max="4" width="48.7265625" customWidth="1"/>
+    <col min="5" max="5" width="36.7265625" customWidth="1"/>
+    <col min="6" max="6" width="62.36328125" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="175" t="s">
+    <row r="2" spans="2:6" ht="16">
+      <c r="B2" s="174" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="175"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="176"/>
+    </row>
+    <row r="3" spans="2:6" ht="16.5" thickBot="1">
+      <c r="B3" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="177"/>
-    </row>
-    <row r="3" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="53" t="s">
-        <v>89</v>
-      </c>
       <c r="C3" s="62" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D3" s="51"/>
       <c r="E3" s="56" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F3" s="57"/>
     </row>
-    <row r="4" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" ht="16">
       <c r="B4" s="52"/>
       <c r="C4" s="69" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4" s="51"/>
       <c r="E4" s="51"/>
       <c r="F4" s="57"/>
     </row>
-    <row r="5" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" ht="16">
       <c r="B5" s="52"/>
       <c r="C5" s="54" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D5" s="51"/>
       <c r="E5" s="51"/>
       <c r="F5" s="57"/>
     </row>
-    <row r="6" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" ht="16">
       <c r="B6" s="52"/>
       <c r="C6" s="54" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D6" s="60"/>
       <c r="E6" s="60"/>
       <c r="F6" s="60" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:6" ht="16.5" thickBot="1">
       <c r="B7" s="70"/>
       <c r="C7" s="54" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D7" s="60"/>
       <c r="E7" s="60"/>
       <c r="F7" s="60" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:6" ht="24.75" customHeight="1">
       <c r="B8" s="71" t="s">
         <v>58</v>
       </c>
@@ -12062,107 +12962,107 @@
         <v>14</v>
       </c>
       <c r="F8" s="68" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:6" ht="16">
       <c r="B9" s="88"/>
       <c r="C9" s="83"/>
       <c r="D9" s="65" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E9" s="82"/>
       <c r="F9" s="73"/>
     </row>
-    <row r="10" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B10" s="173" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10" s="174"/>
+    <row r="10" spans="2:6" ht="16">
+      <c r="B10" s="172" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="173"/>
       <c r="D10" s="65"/>
       <c r="E10" s="83"/>
       <c r="F10" s="73"/>
     </row>
-    <row r="11" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" ht="16.5" thickBot="1">
       <c r="B11" s="87"/>
       <c r="C11" s="72" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D11" s="80"/>
       <c r="E11" s="84"/>
       <c r="F11" s="73"/>
     </row>
-    <row r="12" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" ht="16.5" thickBot="1">
       <c r="B12" s="86"/>
       <c r="C12" s="85"/>
       <c r="D12" s="81" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E12" s="84"/>
       <c r="F12" s="73"/>
     </row>
-    <row r="13" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" ht="16.5" thickBot="1">
       <c r="B13" s="77"/>
       <c r="C13" s="57"/>
       <c r="D13" s="76"/>
       <c r="E13" s="72" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F13" s="73"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:6">
       <c r="B14" s="77"/>
       <c r="C14" s="57"/>
       <c r="D14" s="57"/>
       <c r="E14" s="76"/>
       <c r="F14" s="59"/>
     </row>
-    <row r="15" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" ht="16.5" thickBot="1">
       <c r="B15" s="77"/>
       <c r="C15" s="61" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D15" s="57"/>
       <c r="E15" s="58"/>
       <c r="F15" s="63" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:6" ht="16">
       <c r="B16" s="77"/>
       <c r="C16" s="61" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D16" s="57"/>
       <c r="E16" s="58"/>
       <c r="F16" s="74"/>
     </row>
-    <row r="17" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" ht="16">
       <c r="B17" s="77"/>
       <c r="C17" s="64" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D17" s="57"/>
       <c r="E17" s="58"/>
       <c r="F17" s="64" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" ht="16">
       <c r="B18" s="77"/>
       <c r="C18" s="57"/>
       <c r="D18" s="64" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E18" s="58"/>
       <c r="F18" s="57"/>
     </row>
-    <row r="19" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" ht="16">
       <c r="B19" s="77"/>
       <c r="C19" s="57"/>
       <c r="D19" s="57"/>
       <c r="E19" s="75" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F19" s="57"/>
     </row>
@@ -12184,180 +13084,180 @@
       <selection activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="2" max="2" width="36.5" style="93" customWidth="1"/>
-    <col min="3" max="3" width="35.5" style="93" customWidth="1"/>
-    <col min="4" max="4" width="89.125" style="93" customWidth="1"/>
-    <col min="5" max="5" width="85.875" style="94" customWidth="1"/>
-    <col min="6" max="6" width="86.375" style="94" customWidth="1"/>
-    <col min="7" max="7" width="85.875" style="97" customWidth="1"/>
+    <col min="1" max="1" width="2.6328125" customWidth="1"/>
+    <col min="2" max="2" width="36.453125" style="93" customWidth="1"/>
+    <col min="3" max="3" width="35.453125" style="93" customWidth="1"/>
+    <col min="4" max="4" width="89.08984375" style="93" customWidth="1"/>
+    <col min="5" max="5" width="85.90625" style="94" customWidth="1"/>
+    <col min="6" max="6" width="86.36328125" style="94" customWidth="1"/>
+    <col min="7" max="7" width="85.90625" style="97" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" ht="150.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="178" t="s">
+    <row r="1" spans="2:7" ht="15" customHeight="1"/>
+    <row r="2" spans="2:7" ht="150.75" customHeight="1">
+      <c r="B2" s="177" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="179" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="119" t="s">
+        <v>162</v>
+      </c>
+      <c r="E2" s="120" t="s">
+        <v>163</v>
+      </c>
+      <c r="F2" s="121"/>
+      <c r="G2" s="122"/>
+    </row>
+    <row r="3" spans="2:7" ht="176.25" customHeight="1">
+      <c r="B3" s="178"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="123" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="180" t="s">
+      <c r="E3" s="123" t="s">
+        <v>155</v>
+      </c>
+      <c r="F3" s="124"/>
+      <c r="G3" s="125"/>
+    </row>
+    <row r="4" spans="2:7" ht="191.25" customHeight="1">
+      <c r="B4" s="192" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="181" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="181"/>
+      <c r="E4" s="190" t="s">
+        <v>139</v>
+      </c>
+      <c r="F4" s="99" t="s">
+        <v>128</v>
+      </c>
+      <c r="G4" s="100" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="100" customHeight="1">
+      <c r="B5" s="193"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="191"/>
+      <c r="F5" s="102" t="s">
+        <v>129</v>
+      </c>
+      <c r="G5" s="103" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="79.5" customHeight="1">
+      <c r="B6" s="193"/>
+      <c r="C6" s="182" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" s="102" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" s="126" t="s">
+        <v>132</v>
+      </c>
+      <c r="F6" s="127"/>
+      <c r="G6" s="128"/>
+    </row>
+    <row r="7" spans="2:7" ht="155.25" customHeight="1">
+      <c r="B7" s="193"/>
+      <c r="C7" s="182"/>
+      <c r="D7" s="101" t="s">
+        <v>156</v>
+      </c>
+      <c r="E7" s="101" t="s">
         <v>154</v>
       </c>
-      <c r="D2" s="120" t="s">
-        <v>165</v>
-      </c>
-      <c r="E2" s="121" t="s">
-        <v>166</v>
-      </c>
-      <c r="F2" s="122"/>
-      <c r="G2" s="123"/>
-    </row>
-    <row r="3" spans="2:7" ht="176.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="179"/>
-      <c r="C3" s="181"/>
-      <c r="D3" s="124" t="s">
-        <v>156</v>
-      </c>
-      <c r="E3" s="124" t="s">
-        <v>158</v>
-      </c>
-      <c r="F3" s="125"/>
-      <c r="G3" s="126"/>
-    </row>
-    <row r="4" spans="2:7" ht="191.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="193" t="s">
-        <v>125</v>
-      </c>
-      <c r="C4" s="182" t="s">
-        <v>129</v>
-      </c>
-      <c r="D4" s="182"/>
-      <c r="E4" s="191" t="s">
-        <v>141</v>
-      </c>
-      <c r="F4" s="99" t="s">
-        <v>130</v>
-      </c>
-      <c r="G4" s="100" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="194"/>
-      <c r="C5" s="183"/>
-      <c r="D5" s="183"/>
-      <c r="E5" s="192"/>
-      <c r="F5" s="102" t="s">
-        <v>131</v>
-      </c>
-      <c r="G5" s="103" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="194"/>
-      <c r="C6" s="183" t="s">
-        <v>126</v>
-      </c>
-      <c r="D6" s="102" t="s">
-        <v>127</v>
-      </c>
-      <c r="E6" s="127" t="s">
-        <v>134</v>
-      </c>
-      <c r="F6" s="128"/>
-      <c r="G6" s="129"/>
-    </row>
-    <row r="7" spans="2:7" ht="155.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="194"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="101" t="s">
-        <v>159</v>
-      </c>
-      <c r="E7" s="101" t="s">
-        <v>157</v>
-      </c>
-      <c r="F7" s="130"/>
+      <c r="F7" s="129"/>
       <c r="G7" s="104"/>
     </row>
-    <row r="8" spans="2:7" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="194"/>
-      <c r="C8" s="183"/>
-      <c r="D8" s="188" t="s">
-        <v>155</v>
-      </c>
-      <c r="E8" s="185" t="s">
-        <v>128</v>
+    <row r="8" spans="2:7" ht="99.75" customHeight="1">
+      <c r="B8" s="193"/>
+      <c r="C8" s="182"/>
+      <c r="D8" s="187" t="s">
+        <v>152</v>
+      </c>
+      <c r="E8" s="184" t="s">
+        <v>126</v>
       </c>
       <c r="F8" s="101" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G8" s="103" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="194"/>
-      <c r="C9" s="183"/>
-      <c r="D9" s="189"/>
-      <c r="E9" s="186"/>
+    <row r="9" spans="2:7" ht="60" customHeight="1">
+      <c r="B9" s="193"/>
+      <c r="C9" s="182"/>
+      <c r="D9" s="188"/>
+      <c r="E9" s="185"/>
       <c r="F9" s="101" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G9" s="104" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="60" customHeight="1">
+      <c r="B10" s="193"/>
+      <c r="C10" s="182"/>
+      <c r="D10" s="188"/>
+      <c r="E10" s="185"/>
+      <c r="F10" s="101" t="s">
+        <v>137</v>
+      </c>
+      <c r="G10" s="103" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="60" customHeight="1">
+      <c r="B11" s="193"/>
+      <c r="C11" s="182"/>
+      <c r="D11" s="188"/>
+      <c r="E11" s="185"/>
+      <c r="F11" s="101" t="s">
+        <v>136</v>
+      </c>
+      <c r="G11" s="104" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="60" customHeight="1">
+      <c r="B12" s="193"/>
+      <c r="C12" s="182"/>
+      <c r="D12" s="188"/>
+      <c r="E12" s="185"/>
+      <c r="F12" s="101" t="s">
+        <v>135</v>
+      </c>
+      <c r="G12" s="104" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="194"/>
-      <c r="C10" s="183"/>
-      <c r="D10" s="189"/>
-      <c r="E10" s="186"/>
-      <c r="F10" s="101" t="s">
-        <v>139</v>
-      </c>
-      <c r="G10" s="103" t="s">
-        <v>140</v>
+    <row r="13" spans="2:7" ht="60" customHeight="1">
+      <c r="B13" s="194"/>
+      <c r="C13" s="183"/>
+      <c r="D13" s="189"/>
+      <c r="E13" s="186"/>
+      <c r="F13" s="105" t="s">
+        <v>133</v>
+      </c>
+      <c r="G13" s="106" t="s">
+        <v>134</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="194"/>
-      <c r="C11" s="183"/>
-      <c r="D11" s="189"/>
-      <c r="E11" s="186"/>
-      <c r="F11" s="101" t="s">
-        <v>138</v>
-      </c>
-      <c r="G11" s="104" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="194"/>
-      <c r="C12" s="183"/>
-      <c r="D12" s="189"/>
-      <c r="E12" s="186"/>
-      <c r="F12" s="101" t="s">
-        <v>137</v>
-      </c>
-      <c r="G12" s="104" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="195"/>
-      <c r="C13" s="184"/>
-      <c r="D13" s="190"/>
-      <c r="E13" s="187"/>
-      <c r="F13" s="105" t="s">
-        <v>135</v>
-      </c>
-      <c r="G13" s="106" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" ht="99" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="138" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="2:7" ht="99" customHeight="1"/>
+    <row r="17" ht="138" customHeight="1"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="B2:B3"/>
@@ -12373,4 +13273,85 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1315223-EA03-458B-929B-BCBCA8DFEC8C}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="144.1796875" customWidth="1"/>
+    <col min="2" max="2" width="101.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="99.5" customHeight="1">
+      <c r="A1" s="199" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="200" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="50" customFormat="1" ht="20" customHeight="1">
+      <c r="A2" s="198" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" s="198"/>
+    </row>
+    <row r="3" spans="1:2" ht="123.5" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" s="8"/>
+    </row>
+    <row r="4" spans="1:2" ht="213" customHeight="1">
+      <c r="A4" s="195" t="s">
+        <v>187</v>
+      </c>
+      <c r="B4" s="196" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="35" customHeight="1">
+      <c r="A5" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B5" s="8"/>
+    </row>
+    <row r="6" spans="1:2" ht="80" customHeight="1">
+      <c r="A6" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B6" s="8"/>
+    </row>
+    <row r="7" spans="1:2" s="50" customFormat="1" ht="60" customHeight="1">
+      <c r="A7" s="198" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="201" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="192.5" customHeight="1">
+      <c r="A8" s="197" t="s">
+        <v>180</v>
+      </c>
+      <c r="B8" s="197" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="32">
+      <c r="A9" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B9" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/BMW_SecOc.xlsx
+++ b/BMW_SecOc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DspaceDocument\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_XuhuaRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E50AE2-281C-4779-A0F4-FB46AA634FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C5642B-08C2-43DB-A481-3541F06A36E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="6" xr2:uid="{EE3554E5-5B85-4F6F-95D2-24E55C4E92D2}"/>
+    <workbookView xWindow="28680" yWindow="-8640" windowWidth="38640" windowHeight="21240" activeTab="6" xr2:uid="{EE3554E5-5B85-4F6F-95D2-24E55C4E92D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Code" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="PDU" sheetId="6" r:id="rId4"/>
     <sheet name="PDU_Flow" sheetId="7" r:id="rId5"/>
     <sheet name="Sfn_SecOCMainSetup" sheetId="9" r:id="rId6"/>
-    <sheet name="TxManipulation" sheetId="11" r:id="rId7"/>
+    <sheet name="Key-ID" sheetId="12" r:id="rId7"/>
+    <sheet name="TxManipulation" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="232">
   <si>
     <t>DsBusCustomCode_onPduFeatureExecutionPrivate(pduFeatureHandle)</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -568,7 +569,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3264,7 +3265,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -9800,16 +9801,521 @@
 DsBusCustomCodeSecOCRxPduFeature_getEnableVerification</t>
     </r>
   </si>
+  <si>
+    <t>mdlOutputs</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CollectStaticPduProperties</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CollectStaticPduPropertiesDuringRuntimeForAllSecOCMsgs</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CollectStaticPduPropertiesDuringRuntimeForAllSecOCMsgsPerCluster</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">for (unsigned int i = 0; i &lt; filteredSecOCMsgs-&gt;itemCount; i++) {
+    pduFeatData = (UserCode_FeatureData *)GetById(filteredSecOCMsgs, i);
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>DsBusCustomCode_collectStaticPduPropertiesDuringRuntime</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>(pduFeatData);
+     if (!pduFeatData-&gt;IsStaticRuntimePropertiesCollected) {
+     ("</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>Error at message initialization. Some properties could not be identified"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>);
+ }
+ if (pduFeatData-&gt;StaticRuntimeProperiesCollectionRtnVal != E_OK) {
+     ("</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>Error at message initialization. A getter-function return E_NOT_OK."</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>);
+ }</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DsBusCustomCode_onPduFeatureExecutionPrivate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_DsBusCustomCode_onPduFeatureExecutionPrivateFunc = DsBusCustomCode_onPduFeatureExecutionPrivate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DsBusCustomCode_onPduFeatureExecution(DsBusCustomCodePduFeatureHandle pduFeatureHandle) </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"internal"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataIdExists</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>!dataIdExists</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"external"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"DataID: %d is not found in dataID_file."</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"DataID is not defined in cluster database."</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Key-id for Message '%s' is missing"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>DsBusCustomCodeSecuredIPdu_getKeyId(securedIPdu_PduHandle, &amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>keyId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>);
+DsBusCustomCodeSecuredIPdu_getDataId(securedIPdu_PduHandle, &amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>dataId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>keyId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono Light"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> != 0</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>keyId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono Light"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> == 0</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEE0000"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>keyId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = GetKeyId(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEE0000"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>dataId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEE0000"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>keyId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono Light"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> &gt; 0</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEE0000"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>keyId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono Light"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> == 0</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>if (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEE0000"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>keyId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono Light"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;= 0)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">rtnVal = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>DsBusCustomCode_collectStaticPduPropertiesDuringRuntimeEx(pduFeatData)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono Light"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">;
+if (rtnVal != E_OK){
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Last error message refers to 'SecuredIPdu_Name'"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono Light"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+}</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(IsAnyCounterMessage)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>if!(IsAnyCounterMessage)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEE0000"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>keyId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono Light"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> != -1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"SecOCSetup"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>keyId == -1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"For Rx-Counter-Message '%s' key-id is missing. "
+"For Tx-Counter-Message '%s' key-id is missing. "</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mdlStart</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitDataKeyIdMapping</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(int)(*inDataKeyIdPairsDataPtr[0])==0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(int)(*inDataKeyIdPairsDataPtr[0])!=0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>if (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>externalKeyIdFileExists</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>externalKeyIdFileExists == 0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>externalKeyIdFileExists == 1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitKeyIdsStruct</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SetKeyId(Const_dataId, Const_keyId)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>g_keyids[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEE0000"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>dataId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>].</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEE0000"/>
+        <rFont val="Cascadia Code SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>keyId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono Light"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = (uint32)keyId</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="42">
+  <fonts count="50" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -9817,7 +10323,7 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -9826,13 +10332,13 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -9980,7 +10486,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -10096,6 +10602,54 @@
       <name val="Cascadia Code Light"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cascadia Mono Light"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Cascadia Mono Light"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Cascadia Mono SemiBold"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Cascadia Mono Light"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFEE0000"/>
+      <name val="Cascadia Mono SemiBold"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFEE0000"/>
+      <name val="Cascadia Mono Light"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFEE0000"/>
+      <name val="Cascadia Code SemiBold"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="Cascadia Mono SemiBold"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="18">
     <fill>
@@ -10201,7 +10755,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="58">
+  <borders count="67">
     <border>
       <left/>
       <right/>
@@ -10970,11 +11524,144 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="dashed">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="dashed">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top style="dashed">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="202">
+  <cellXfs count="239">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -11328,6 +12015,27 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -11520,26 +12228,110 @@
     <xf numFmtId="0" fontId="5" fillId="15" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="16" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="16" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="16" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="16" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="16" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="16" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="16" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -11866,54 +12658,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E38B81CE-79E3-4568-BB50-9E45BADB5D49}">
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="22"/>
+  <sheetFormatPr defaultRowHeight="22.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="138.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="154.6328125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="54.90625" style="19" customWidth="1"/>
+    <col min="1" max="1" width="138.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="154.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="54.875" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.149999999999999" customHeight="1">
+    <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="16"/>
     </row>
-    <row r="2" spans="1:3" ht="275.14999999999998" customHeight="1">
+    <row r="2" spans="1:3" ht="275.10000000000002" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="139" t="s">
+      <c r="C2" s="146" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="409.5" customHeight="1">
+    <row r="3" spans="1:3" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="140"/>
+      <c r="C3" s="147"/>
     </row>
-    <row r="4" spans="1:3" ht="386.25" customHeight="1">
+    <row r="4" spans="1:3" ht="386.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="141"/>
+      <c r="C4" s="148"/>
     </row>
-    <row r="5" spans="1:3" ht="200.25" customHeight="1">
+    <row r="5" spans="1:3" ht="200.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>31</v>
       </c>
@@ -11924,114 +12716,114 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="22.5" customHeight="1">
+    <row r="6" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="17"/>
     </row>
-    <row r="7" spans="1:3" ht="20.149999999999999" customHeight="1">
+    <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="16"/>
     </row>
-    <row r="8" spans="1:3" ht="20.149999999999999" customHeight="1">
+    <row r="8" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>77</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="16"/>
     </row>
-    <row r="9" spans="1:3" ht="74.25" customHeight="1">
-      <c r="A9" s="147" t="s">
+    <row r="9" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="154" t="s">
         <v>140</v>
       </c>
-      <c r="B9" s="147"/>
-      <c r="C9" s="148"/>
+      <c r="B9" s="154"/>
+      <c r="C9" s="155"/>
     </row>
-    <row r="10" spans="1:3" ht="287.25" customHeight="1">
+    <row r="10" spans="1:3" ht="287.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="95" t="s">
         <v>174</v>
       </c>
       <c r="B10" s="96" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="142" t="s">
+      <c r="C10" s="149" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="159.75" customHeight="1">
+    <row r="11" spans="1:3" ht="159.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="95" t="s">
         <v>78</v>
       </c>
       <c r="B11" s="96" t="s">
         <v>141</v>
       </c>
-      <c r="C11" s="143"/>
+      <c r="C11" s="150"/>
     </row>
-    <row r="12" spans="1:3" ht="257.25" customHeight="1">
-      <c r="A12" s="145" t="s">
+    <row r="12" spans="1:3" ht="257.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="152" t="s">
         <v>142</v>
       </c>
       <c r="B12" s="96" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="143"/>
+      <c r="C12" s="150"/>
     </row>
-    <row r="13" spans="1:3" ht="120.75" customHeight="1">
-      <c r="A13" s="146"/>
+    <row r="13" spans="1:3" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="153"/>
       <c r="B13" s="96" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="144"/>
+      <c r="C13" s="151"/>
     </row>
-    <row r="14" spans="1:3" ht="157.5" customHeight="1">
+    <row r="14" spans="1:3" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="98" t="s">
         <v>143</v>
       </c>
       <c r="B14" s="96" t="s">
         <v>144</v>
       </c>
-      <c r="C14" s="142" t="s">
+      <c r="C14" s="149" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="123.75" customHeight="1">
+    <row r="15" spans="1:3" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="96" t="s">
         <v>145</v>
       </c>
       <c r="B15" s="96" t="s">
         <v>146</v>
       </c>
-      <c r="C15" s="144"/>
+      <c r="C15" s="151"/>
     </row>
-    <row r="16" spans="1:3" ht="378.75" customHeight="1">
+    <row r="16" spans="1:3" ht="378.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C16" s="139"/>
+      <c r="C16" s="146"/>
     </row>
-    <row r="17" spans="1:3" ht="110.15" customHeight="1">
+    <row r="17" spans="1:3" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="140"/>
+      <c r="C17" s="147"/>
     </row>
-    <row r="18" spans="1:3" ht="20.149999999999999" customHeight="1">
+    <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="43" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="44"/>
       <c r="C18" s="45"/>
     </row>
-    <row r="19" spans="1:3" ht="390.75" customHeight="1">
+    <row r="19" spans="1:3" ht="390.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>61</v>
       </c>
@@ -12042,166 +12834,166 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="223.5" customHeight="1">
+    <row r="20" spans="1:3" ht="223.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>48</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="136" t="s">
+      <c r="C20" s="143" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="40" customHeight="1">
-      <c r="A21" s="195" t="s">
+    <row r="21" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="131" t="s">
         <v>172</v>
       </c>
-      <c r="B21" s="196"/>
-      <c r="C21" s="137"/>
+      <c r="B21" s="132"/>
+      <c r="C21" s="144"/>
     </row>
-    <row r="22" spans="1:3" ht="42.75" customHeight="1">
+    <row r="22" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="137"/>
+      <c r="C22" s="144"/>
     </row>
-    <row r="23" spans="1:3" ht="370.5" customHeight="1">
+    <row r="23" spans="1:3" ht="370.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="138"/>
+      <c r="C23" s="145"/>
     </row>
-    <row r="24" spans="1:3" ht="78.75" customHeight="1">
+    <row r="24" spans="1:3" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="135" t="s">
+      <c r="C24" s="142" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="36.65" customHeight="1">
+    <row r="25" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="135"/>
+      <c r="C25" s="142"/>
     </row>
-    <row r="26" spans="1:3" ht="67.5" customHeight="1">
+    <row r="26" spans="1:3" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="135"/>
+      <c r="C26" s="142"/>
     </row>
-    <row r="27" spans="1:3" ht="242.25" customHeight="1">
+    <row r="27" spans="1:3" ht="242.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>119</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="C27" s="135"/>
+      <c r="C27" s="142"/>
     </row>
-    <row r="28" spans="1:3" ht="110.15" customHeight="1">
+    <row r="28" spans="1:3" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B28" s="12"/>
-      <c r="C28" s="135"/>
+      <c r="C28" s="142"/>
     </row>
-    <row r="29" spans="1:3" ht="224.5" customHeight="1">
+    <row r="29" spans="1:3" ht="224.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
         <v>60</v>
       </c>
       <c r="B29" s="12"/>
-      <c r="C29" s="135"/>
+      <c r="C29" s="142"/>
     </row>
-    <row r="30" spans="1:3" ht="40" customHeight="1">
-      <c r="A30" s="197" t="s">
+    <row r="30" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="133" t="s">
         <v>173</v>
       </c>
-      <c r="B30" s="197"/>
-      <c r="C30" s="135"/>
+      <c r="B30" s="133"/>
+      <c r="C30" s="142"/>
     </row>
-    <row r="31" spans="1:3" ht="70.5" customHeight="1">
+    <row r="31" spans="1:3" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
         <v>98</v>
       </c>
       <c r="B31" s="12"/>
-      <c r="C31" s="132"/>
+      <c r="C31" s="139"/>
     </row>
-    <row r="32" spans="1:3" ht="20.149999999999999" customHeight="1">
+    <row r="32" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="43" t="s">
         <v>57</v>
       </c>
       <c r="B32" s="46"/>
       <c r="C32" s="47"/>
     </row>
-    <row r="33" spans="1:3" ht="174" customHeight="1">
+    <row r="33" spans="1:3" ht="174" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
         <v>62</v>
       </c>
       <c r="B33" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="C33" s="131" t="s">
+      <c r="C33" s="138" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="102" customHeight="1">
+    <row r="34" spans="1:3" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
         <v>64</v>
       </c>
       <c r="B34" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="132"/>
+      <c r="C34" s="139"/>
     </row>
-    <row r="35" spans="1:3" ht="234.65" customHeight="1">
-      <c r="A35" s="133" t="s">
+    <row r="35" spans="1:3" ht="234.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="140" t="s">
         <v>65</v>
       </c>
       <c r="B35" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="C35" s="131" t="s">
+      <c r="C35" s="138" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="215.15" customHeight="1">
-      <c r="A36" s="134"/>
+    <row r="36" spans="1:3" ht="215.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="141"/>
       <c r="B36" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="C36" s="135"/>
+      <c r="C36" s="142"/>
     </row>
-    <row r="37" spans="1:3" ht="297.75" customHeight="1">
-      <c r="A37" s="134"/>
+    <row r="37" spans="1:3" ht="297.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="141"/>
       <c r="B37" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C37" s="135"/>
+      <c r="C37" s="142"/>
     </row>
-    <row r="38" spans="1:3" ht="135.5" customHeight="1">
+    <row r="38" spans="1:3" ht="135.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
         <v>70</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="C38" s="132"/>
+      <c r="C38" s="139"/>
     </row>
-    <row r="39" spans="1:3" ht="393.75" customHeight="1">
+    <row r="39" spans="1:3" ht="393.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
         <v>191</v>
       </c>
@@ -12212,7 +13004,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="40" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="C33:C34"/>
@@ -12241,98 +13033,98 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="49.26953125" style="50" customWidth="1"/>
-    <col min="3" max="3" width="65.453125" customWidth="1"/>
+    <col min="2" max="2" width="49.25" style="50" customWidth="1"/>
+    <col min="3" max="3" width="65.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" ht="20.149999999999999" customHeight="1">
-      <c r="B3" s="149" t="s">
+    <row r="3" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="156" t="s">
         <v>109</v>
       </c>
       <c r="C3" s="90" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="20.149999999999999" customHeight="1">
-      <c r="B4" s="151"/>
+    <row r="4" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="158"/>
       <c r="C4" s="90" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="20.149999999999999" customHeight="1">
+    <row r="5" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="78" t="s">
         <v>111</v>
       </c>
       <c r="C5" s="91"/>
     </row>
-    <row r="6" spans="2:3" ht="20.149999999999999" customHeight="1">
-      <c r="B6" s="149" t="s">
+    <row r="6" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="156" t="s">
         <v>110</v>
       </c>
       <c r="C6" s="90" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="20.149999999999999" customHeight="1">
-      <c r="B7" s="150"/>
+    <row r="7" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="157"/>
       <c r="C7" s="90" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="20.149999999999999" customHeight="1">
-      <c r="B8" s="150"/>
+    <row r="8" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="157"/>
       <c r="C8" s="90" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="20.149999999999999" customHeight="1">
-      <c r="B9" s="151"/>
+    <row r="9" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="158"/>
       <c r="C9" s="90" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="20.149999999999999" customHeight="1">
+    <row r="10" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="89" t="s">
         <v>118</v>
       </c>
       <c r="C10" s="91"/>
     </row>
-    <row r="11" spans="2:3" ht="20.149999999999999" customHeight="1">
+    <row r="11" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="89" t="s">
         <v>73</v>
       </c>
       <c r="C11" s="91"/>
     </row>
-    <row r="12" spans="2:3" ht="65.25" customHeight="1">
-      <c r="B12" s="152" t="s">
+    <row r="12" spans="2:3" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="159" t="s">
         <v>71</v>
       </c>
       <c r="C12" s="92" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="80.25" customHeight="1">
-      <c r="B13" s="153"/>
+    <row r="13" spans="2:3" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="160"/>
       <c r="C13" s="92" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="20.149999999999999" customHeight="1">
+    <row r="14" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="22"/>
     </row>
-    <row r="15" spans="2:3" ht="20.149999999999999" customHeight="1">
+    <row r="15" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="79" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="2:3" ht="20.149999999999999" customHeight="1">
+    <row r="16" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="79" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="20.149999999999999" customHeight="1">
+    <row r="17" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="79" t="s">
         <v>71</v>
       </c>
@@ -12356,42 +13148,42 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.36328125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="21.26953125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="28.453125" style="14" customWidth="1"/>
-    <col min="4" max="4" width="26.08984375" style="21" customWidth="1"/>
+    <col min="1" max="1" width="28.375" style="20" customWidth="1"/>
+    <col min="2" max="2" width="21.25" style="14" customWidth="1"/>
+    <col min="3" max="3" width="28.5" style="14" customWidth="1"/>
+    <col min="4" max="4" width="26.125" style="21" customWidth="1"/>
     <col min="5" max="5" width="63" style="14" customWidth="1"/>
-    <col min="6" max="6" width="37.6328125" style="14" customWidth="1"/>
-    <col min="7" max="7" width="70.6328125" style="13" customWidth="1"/>
-    <col min="8" max="8" width="57.90625" style="13" customWidth="1"/>
-    <col min="9" max="9" width="82.453125" style="13" customWidth="1"/>
-    <col min="10" max="10" width="89.6328125" style="13" customWidth="1"/>
-    <col min="11" max="11" width="46.08984375" style="13" customWidth="1"/>
-    <col min="12" max="12" width="51.453125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="37.625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="70.625" style="13" customWidth="1"/>
+    <col min="8" max="8" width="57.875" style="13" customWidth="1"/>
+    <col min="9" max="9" width="82.5" style="13" customWidth="1"/>
+    <col min="10" max="10" width="89.625" style="13" customWidth="1"/>
+    <col min="11" max="11" width="46.125" style="13" customWidth="1"/>
+    <col min="12" max="12" width="51.5" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="203.5" customHeight="1">
-      <c r="A1" s="154" t="s">
+    <row r="1" spans="1:12" ht="203.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="161" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="161" t="s">
+      <c r="B1" s="168" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="160" t="s">
+      <c r="C1" s="167" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="160" t="s">
+      <c r="D1" s="167" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="160" t="s">
+      <c r="E1" s="167" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="160" t="s">
+      <c r="F1" s="167" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="160" t="s">
+      <c r="G1" s="167" t="s">
         <v>45</v>
       </c>
       <c r="H1" s="108" t="s">
@@ -12404,14 +13196,14 @@
       <c r="K1" s="107"/>
       <c r="L1" s="109"/>
     </row>
-    <row r="2" spans="1:12" ht="287.5" customHeight="1">
-      <c r="A2" s="155"/>
-      <c r="B2" s="157"/>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="159"/>
-      <c r="G2" s="159"/>
+    <row r="2" spans="1:12" ht="287.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="162"/>
+      <c r="B2" s="164"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
       <c r="H2" s="110" t="s">
         <v>41</v>
       </c>
@@ -12426,15 +13218,15 @@
       </c>
       <c r="L2" s="112"/>
     </row>
-    <row r="3" spans="1:12" ht="53.25" customHeight="1">
-      <c r="A3" s="155"/>
-      <c r="B3" s="157"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159" t="s">
+    <row r="3" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="162"/>
+      <c r="B3" s="164"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="162" t="s">
+      <c r="F3" s="169" t="s">
         <v>33</v>
       </c>
       <c r="G3" s="110" t="s">
@@ -12446,17 +13238,17 @@
       <c r="K3" s="110"/>
       <c r="L3" s="112"/>
     </row>
-    <row r="4" spans="1:12" ht="233.15" customHeight="1">
-      <c r="A4" s="155"/>
-      <c r="B4" s="157"/>
-      <c r="C4" s="159"/>
-      <c r="D4" s="159"/>
-      <c r="E4" s="159"/>
-      <c r="F4" s="162"/>
-      <c r="G4" s="159" t="s">
+    <row r="4" spans="1:12" ht="233.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="162"/>
+      <c r="B4" s="164"/>
+      <c r="C4" s="166"/>
+      <c r="D4" s="166"/>
+      <c r="E4" s="166"/>
+      <c r="F4" s="169"/>
+      <c r="G4" s="166" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="159" t="s">
+      <c r="H4" s="166" t="s">
         <v>81</v>
       </c>
       <c r="I4" s="111" t="s">
@@ -12468,15 +13260,15 @@
       <c r="K4" s="110"/>
       <c r="L4" s="112"/>
     </row>
-    <row r="5" spans="1:12" ht="113.15" customHeight="1">
-      <c r="A5" s="155"/>
-      <c r="B5" s="157"/>
-      <c r="C5" s="159"/>
-      <c r="D5" s="159"/>
-      <c r="E5" s="159"/>
-      <c r="F5" s="162"/>
-      <c r="G5" s="159"/>
-      <c r="H5" s="159"/>
+    <row r="5" spans="1:12" ht="113.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="162"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="166"/>
+      <c r="D5" s="166"/>
+      <c r="E5" s="166"/>
+      <c r="F5" s="169"/>
+      <c r="G5" s="166"/>
+      <c r="H5" s="166"/>
       <c r="I5" s="111" t="s">
         <v>82</v>
       </c>
@@ -12490,11 +13282,11 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="160.5" customHeight="1">
-      <c r="A6" s="155"/>
-      <c r="B6" s="157"/>
-      <c r="C6" s="159"/>
-      <c r="D6" s="159"/>
+    <row r="6" spans="1:12" ht="160.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="162"/>
+      <c r="B6" s="164"/>
+      <c r="C6" s="166"/>
+      <c r="D6" s="166"/>
       <c r="E6" s="110" t="s">
         <v>32</v>
       </c>
@@ -12506,9 +13298,9 @@
       <c r="K6" s="110"/>
       <c r="L6" s="112"/>
     </row>
-    <row r="7" spans="1:12" ht="30" customHeight="1">
-      <c r="A7" s="155"/>
-      <c r="B7" s="157" t="s">
+    <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="162"/>
+      <c r="B7" s="164" t="s">
         <v>38</v>
       </c>
       <c r="C7" s="113" t="s">
@@ -12524,9 +13316,9 @@
       <c r="K7" s="110"/>
       <c r="L7" s="112"/>
     </row>
-    <row r="8" spans="1:12" ht="30" customHeight="1">
-      <c r="A8" s="155"/>
-      <c r="B8" s="157"/>
+    <row r="8" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="162"/>
+      <c r="B8" s="164"/>
       <c r="C8" s="113" t="s">
         <v>40</v>
       </c>
@@ -12540,9 +13332,9 @@
       <c r="K8" s="110"/>
       <c r="L8" s="112"/>
     </row>
-    <row r="9" spans="1:12" ht="30" customHeight="1">
-      <c r="A9" s="155"/>
-      <c r="B9" s="157"/>
+    <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="162"/>
+      <c r="B9" s="164"/>
       <c r="C9" s="113" t="s">
         <v>75</v>
       </c>
@@ -12556,9 +13348,9 @@
       <c r="K9" s="110"/>
       <c r="L9" s="112"/>
     </row>
-    <row r="10" spans="1:12" ht="30" customHeight="1">
-      <c r="A10" s="155"/>
-      <c r="B10" s="157"/>
+    <row r="10" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="162"/>
+      <c r="B10" s="164"/>
       <c r="C10" s="113" t="s">
         <v>76</v>
       </c>
@@ -12572,9 +13364,9 @@
       <c r="K10" s="110"/>
       <c r="L10" s="112"/>
     </row>
-    <row r="11" spans="1:12" ht="30" customHeight="1">
-      <c r="A11" s="155"/>
-      <c r="B11" s="163" t="s">
+    <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="162"/>
+      <c r="B11" s="170" t="s">
         <v>67</v>
       </c>
       <c r="C11" s="14" t="s">
@@ -12590,9 +13382,9 @@
       <c r="K11" s="110"/>
       <c r="L11" s="112"/>
     </row>
-    <row r="12" spans="1:12" ht="30" customHeight="1">
-      <c r="A12" s="155"/>
-      <c r="B12" s="164"/>
+    <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="162"/>
+      <c r="B12" s="171"/>
       <c r="C12" s="113" t="s">
         <v>166</v>
       </c>
@@ -12606,9 +13398,9 @@
       <c r="K12" s="110"/>
       <c r="L12" s="112"/>
     </row>
-    <row r="13" spans="1:12" ht="30" customHeight="1">
-      <c r="A13" s="155"/>
-      <c r="B13" s="165"/>
+    <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="162"/>
+      <c r="B13" s="172"/>
       <c r="C13" s="113" t="s">
         <v>167</v>
       </c>
@@ -12622,9 +13414,9 @@
       <c r="K13" s="110"/>
       <c r="L13" s="112"/>
     </row>
-    <row r="14" spans="1:12" ht="30" customHeight="1">
-      <c r="A14" s="155"/>
-      <c r="B14" s="163" t="s">
+    <row r="14" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="162"/>
+      <c r="B14" s="170" t="s">
         <v>69</v>
       </c>
       <c r="C14" s="113" t="s">
@@ -12640,9 +13432,9 @@
       <c r="K14" s="110"/>
       <c r="L14" s="112"/>
     </row>
-    <row r="15" spans="1:12" ht="30" customHeight="1">
-      <c r="A15" s="155"/>
-      <c r="B15" s="164"/>
+    <row r="15" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="162"/>
+      <c r="B15" s="171"/>
       <c r="C15" s="113" t="s">
         <v>179</v>
       </c>
@@ -12656,9 +13448,9 @@
       <c r="K15" s="110"/>
       <c r="L15" s="112"/>
     </row>
-    <row r="16" spans="1:12" ht="30" customHeight="1">
-      <c r="A16" s="155"/>
-      <c r="B16" s="165"/>
+    <row r="16" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="162"/>
+      <c r="B16" s="172"/>
       <c r="C16" s="113" t="s">
         <v>68</v>
       </c>
@@ -12672,9 +13464,9 @@
       <c r="K16" s="110"/>
       <c r="L16" s="112"/>
     </row>
-    <row r="17" spans="1:12" ht="30" customHeight="1">
-      <c r="A17" s="155"/>
-      <c r="B17" s="157" t="s">
+    <row r="17" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="162"/>
+      <c r="B17" s="164" t="s">
         <v>159</v>
       </c>
       <c r="C17" s="113" t="s">
@@ -12690,9 +13482,9 @@
       <c r="K17" s="110"/>
       <c r="L17" s="112"/>
     </row>
-    <row r="18" spans="1:12" ht="30" customHeight="1">
-      <c r="A18" s="156"/>
-      <c r="B18" s="158"/>
+    <row r="18" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="163"/>
+      <c r="B18" s="165"/>
       <c r="C18" s="115" t="s">
         <v>161</v>
       </c>
@@ -12737,19 +13529,19 @@
       <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.08984375" style="23" customWidth="1"/>
-    <col min="2" max="2" width="20.7265625" customWidth="1"/>
-    <col min="3" max="6" width="20.6328125" style="23" customWidth="1"/>
+    <col min="1" max="1" width="20.125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="20.75" customWidth="1"/>
+    <col min="3" max="6" width="20.625" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1"/>
-    <row r="2" spans="1:6" ht="30" customHeight="1">
-      <c r="A2" s="166" t="s">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="173" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="168" t="s">
+      <c r="B2" s="175" t="s">
         <v>50</v>
       </c>
       <c r="C2" s="24" t="s">
@@ -12765,17 +13557,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30" customHeight="1">
-      <c r="A3" s="167"/>
-      <c r="B3" s="169"/>
+    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="174"/>
+      <c r="B3" s="176"/>
       <c r="C3" s="40"/>
       <c r="D3" s="41"/>
       <c r="E3" s="41"/>
       <c r="F3" s="42"/>
     </row>
-    <row r="4" spans="1:6" ht="30" customHeight="1">
-      <c r="A4" s="167"/>
-      <c r="B4" s="169" t="s">
+    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="174"/>
+      <c r="B4" s="176" t="s">
         <v>51</v>
       </c>
       <c r="C4" s="30" t="s">
@@ -12791,9 +13583,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1">
-      <c r="A5" s="167"/>
-      <c r="B5" s="169"/>
+    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="174"/>
+      <c r="B5" s="176"/>
       <c r="C5" s="34" t="s">
         <v>54</v>
       </c>
@@ -12801,11 +13593,11 @@
       <c r="E5" s="28"/>
       <c r="F5" s="29"/>
     </row>
-    <row r="6" spans="1:6" ht="30" customHeight="1">
-      <c r="A6" s="167" t="s">
+    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="174" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="169" t="s">
+      <c r="B6" s="176" t="s">
         <v>50</v>
       </c>
       <c r="C6" s="30" t="s">
@@ -12819,17 +13611,17 @@
       </c>
       <c r="F6" s="29"/>
     </row>
-    <row r="7" spans="1:6" ht="30" customHeight="1">
-      <c r="A7" s="167"/>
-      <c r="B7" s="169"/>
+    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="174"/>
+      <c r="B7" s="176"/>
       <c r="C7" s="40"/>
       <c r="D7" s="41"/>
       <c r="E7" s="41"/>
       <c r="F7" s="42"/>
     </row>
-    <row r="8" spans="1:6" ht="30" customHeight="1">
-      <c r="A8" s="167"/>
-      <c r="B8" s="169" t="s">
+    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="174"/>
+      <c r="B8" s="176" t="s">
         <v>51</v>
       </c>
       <c r="C8" s="30" t="s">
@@ -12843,9 +13635,9 @@
       </c>
       <c r="F8" s="29"/>
     </row>
-    <row r="9" spans="1:6" ht="30" customHeight="1" thickBot="1">
-      <c r="A9" s="170"/>
-      <c r="B9" s="171"/>
+    <row r="9" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="177"/>
+      <c r="B9" s="178"/>
       <c r="C9" s="37" t="s">
         <v>54</v>
       </c>
@@ -12875,27 +13667,27 @@
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7265625" customWidth="1"/>
-    <col min="2" max="2" width="38.7265625" customWidth="1"/>
-    <col min="3" max="3" width="59.90625" customWidth="1"/>
-    <col min="4" max="4" width="48.7265625" customWidth="1"/>
-    <col min="5" max="5" width="36.7265625" customWidth="1"/>
-    <col min="6" max="6" width="62.36328125" customWidth="1"/>
+    <col min="1" max="1" width="3.75" customWidth="1"/>
+    <col min="2" max="2" width="38.75" customWidth="1"/>
+    <col min="3" max="3" width="59.875" customWidth="1"/>
+    <col min="4" max="4" width="48.75" customWidth="1"/>
+    <col min="5" max="5" width="36.75" customWidth="1"/>
+    <col min="6" max="6" width="62.375" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="16">
-      <c r="B2" s="174" t="s">
+    <row r="2" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B2" s="181" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="176"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="183"/>
     </row>
-    <row r="3" spans="2:6" ht="16.5" thickBot="1">
+    <row r="3" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="53" t="s">
         <v>88</v>
       </c>
@@ -12908,7 +13700,7 @@
       </c>
       <c r="F3" s="57"/>
     </row>
-    <row r="4" spans="2:6" ht="16">
+    <row r="4" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B4" s="52"/>
       <c r="C4" s="69" t="s">
         <v>92</v>
@@ -12917,7 +13709,7 @@
       <c r="E4" s="51"/>
       <c r="F4" s="57"/>
     </row>
-    <row r="5" spans="2:6" ht="16">
+    <row r="5" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B5" s="52"/>
       <c r="C5" s="54" t="s">
         <v>102</v>
@@ -12926,7 +13718,7 @@
       <c r="E5" s="51"/>
       <c r="F5" s="57"/>
     </row>
-    <row r="6" spans="2:6" ht="16">
+    <row r="6" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B6" s="52"/>
       <c r="C6" s="54" t="s">
         <v>90</v>
@@ -12937,7 +13729,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="16.5" thickBot="1">
+    <row r="7" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="70"/>
       <c r="C7" s="54" t="s">
         <v>89</v>
@@ -12948,7 +13740,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="24.75" customHeight="1">
+    <row r="8" spans="2:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="71" t="s">
         <v>58</v>
       </c>
@@ -12965,7 +13757,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="16">
+    <row r="9" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B9" s="88"/>
       <c r="C9" s="83"/>
       <c r="D9" s="65" t="s">
@@ -12974,16 +13766,16 @@
       <c r="E9" s="82"/>
       <c r="F9" s="73"/>
     </row>
-    <row r="10" spans="2:6" ht="16">
-      <c r="B10" s="172" t="s">
+    <row r="10" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B10" s="179" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="173"/>
+      <c r="C10" s="180"/>
       <c r="D10" s="65"/>
       <c r="E10" s="83"/>
       <c r="F10" s="73"/>
     </row>
-    <row r="11" spans="2:6" ht="16.5" thickBot="1">
+    <row r="11" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="87"/>
       <c r="C11" s="72" t="s">
         <v>117</v>
@@ -12992,7 +13784,7 @@
       <c r="E11" s="84"/>
       <c r="F11" s="73"/>
     </row>
-    <row r="12" spans="2:6" ht="16.5" thickBot="1">
+    <row r="12" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="86"/>
       <c r="C12" s="85"/>
       <c r="D12" s="81" t="s">
@@ -13001,7 +13793,7 @@
       <c r="E12" s="84"/>
       <c r="F12" s="73"/>
     </row>
-    <row r="13" spans="2:6" ht="16.5" thickBot="1">
+    <row r="13" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="77"/>
       <c r="C13" s="57"/>
       <c r="D13" s="76"/>
@@ -13010,14 +13802,14 @@
       </c>
       <c r="F13" s="73"/>
     </row>
-    <row r="14" spans="2:6">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" s="77"/>
       <c r="C14" s="57"/>
       <c r="D14" s="57"/>
       <c r="E14" s="76"/>
       <c r="F14" s="59"/>
     </row>
-    <row r="15" spans="2:6" ht="16.5" thickBot="1">
+    <row r="15" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="77"/>
       <c r="C15" s="61" t="s">
         <v>95</v>
@@ -13028,7 +13820,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="16">
+    <row r="16" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B16" s="77"/>
       <c r="C16" s="61" t="s">
         <v>96</v>
@@ -13037,7 +13829,7 @@
       <c r="E16" s="58"/>
       <c r="F16" s="74"/>
     </row>
-    <row r="17" spans="2:6" ht="16">
+    <row r="17" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B17" s="77"/>
       <c r="C17" s="64" t="s">
         <v>116</v>
@@ -13048,7 +13840,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="16">
+    <row r="18" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B18" s="77"/>
       <c r="C18" s="57"/>
       <c r="D18" s="64" t="s">
@@ -13057,7 +13849,7 @@
       <c r="E18" s="58"/>
       <c r="F18" s="57"/>
     </row>
-    <row r="19" spans="2:6" ht="16">
+    <row r="19" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B19" s="77"/>
       <c r="C19" s="57"/>
       <c r="D19" s="57"/>
@@ -13081,26 +13873,26 @@
   <dimension ref="B1:G17"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.6328125" customWidth="1"/>
-    <col min="2" max="2" width="36.453125" style="93" customWidth="1"/>
-    <col min="3" max="3" width="35.453125" style="93" customWidth="1"/>
-    <col min="4" max="4" width="89.08984375" style="93" customWidth="1"/>
-    <col min="5" max="5" width="85.90625" style="94" customWidth="1"/>
-    <col min="6" max="6" width="86.36328125" style="94" customWidth="1"/>
-    <col min="7" max="7" width="85.90625" style="97" customWidth="1"/>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="2" max="2" width="36.5" style="93" customWidth="1"/>
+    <col min="3" max="3" width="35.5" style="93" customWidth="1"/>
+    <col min="4" max="4" width="89.125" style="93" customWidth="1"/>
+    <col min="5" max="5" width="85.875" style="94" customWidth="1"/>
+    <col min="6" max="6" width="86.375" style="94" customWidth="1"/>
+    <col min="7" max="7" width="85.875" style="97" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15" customHeight="1"/>
-    <row r="2" spans="2:7" ht="150.75" customHeight="1">
-      <c r="B2" s="177" t="s">
+    <row r="1" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" ht="150.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="184" t="s">
         <v>150</v>
       </c>
-      <c r="C2" s="179" t="s">
+      <c r="C2" s="186" t="s">
         <v>151</v>
       </c>
       <c r="D2" s="119" t="s">
@@ -13112,9 +13904,9 @@
       <c r="F2" s="121"/>
       <c r="G2" s="122"/>
     </row>
-    <row r="3" spans="2:7" ht="176.25" customHeight="1">
-      <c r="B3" s="178"/>
-      <c r="C3" s="180"/>
+    <row r="3" spans="2:7" ht="176.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="185"/>
+      <c r="C3" s="187"/>
       <c r="D3" s="123" t="s">
         <v>153</v>
       </c>
@@ -13124,15 +13916,15 @@
       <c r="F3" s="124"/>
       <c r="G3" s="125"/>
     </row>
-    <row r="4" spans="2:7" ht="191.25" customHeight="1">
-      <c r="B4" s="192" t="s">
+    <row r="4" spans="2:7" ht="191.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="199" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="181" t="s">
+      <c r="C4" s="188" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="181"/>
-      <c r="E4" s="190" t="s">
+      <c r="D4" s="188"/>
+      <c r="E4" s="197" t="s">
         <v>139</v>
       </c>
       <c r="F4" s="99" t="s">
@@ -13142,11 +13934,11 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="100" customHeight="1">
-      <c r="B5" s="193"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="191"/>
+    <row r="5" spans="2:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="200"/>
+      <c r="C5" s="189"/>
+      <c r="D5" s="189"/>
+      <c r="E5" s="198"/>
       <c r="F5" s="102" t="s">
         <v>129</v>
       </c>
@@ -13154,9 +13946,9 @@
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="79.5" customHeight="1">
-      <c r="B6" s="193"/>
-      <c r="C6" s="182" t="s">
+    <row r="6" spans="2:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="200"/>
+      <c r="C6" s="189" t="s">
         <v>124</v>
       </c>
       <c r="D6" s="102" t="s">
@@ -13168,9 +13960,9 @@
       <c r="F6" s="127"/>
       <c r="G6" s="128"/>
     </row>
-    <row r="7" spans="2:7" ht="155.25" customHeight="1">
-      <c r="B7" s="193"/>
-      <c r="C7" s="182"/>
+    <row r="7" spans="2:7" ht="155.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="200"/>
+      <c r="C7" s="189"/>
       <c r="D7" s="101" t="s">
         <v>156</v>
       </c>
@@ -13180,13 +13972,13 @@
       <c r="F7" s="129"/>
       <c r="G7" s="104"/>
     </row>
-    <row r="8" spans="2:7" ht="99.75" customHeight="1">
-      <c r="B8" s="193"/>
-      <c r="C8" s="182"/>
-      <c r="D8" s="187" t="s">
+    <row r="8" spans="2:7" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="200"/>
+      <c r="C8" s="189"/>
+      <c r="D8" s="194" t="s">
         <v>152</v>
       </c>
-      <c r="E8" s="184" t="s">
+      <c r="E8" s="191" t="s">
         <v>126</v>
       </c>
       <c r="F8" s="101" t="s">
@@ -13196,11 +13988,11 @@
         <v>164</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="60" customHeight="1">
-      <c r="B9" s="193"/>
-      <c r="C9" s="182"/>
-      <c r="D9" s="188"/>
-      <c r="E9" s="185"/>
+    <row r="9" spans="2:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="200"/>
+      <c r="C9" s="189"/>
+      <c r="D9" s="195"/>
+      <c r="E9" s="192"/>
       <c r="F9" s="101" t="s">
         <v>148</v>
       </c>
@@ -13208,11 +14000,11 @@
         <v>157</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="60" customHeight="1">
-      <c r="B10" s="193"/>
-      <c r="C10" s="182"/>
-      <c r="D10" s="188"/>
-      <c r="E10" s="185"/>
+    <row r="10" spans="2:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="200"/>
+      <c r="C10" s="189"/>
+      <c r="D10" s="195"/>
+      <c r="E10" s="192"/>
       <c r="F10" s="101" t="s">
         <v>137</v>
       </c>
@@ -13220,11 +14012,11 @@
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="60" customHeight="1">
-      <c r="B11" s="193"/>
-      <c r="C11" s="182"/>
-      <c r="D11" s="188"/>
-      <c r="E11" s="185"/>
+    <row r="11" spans="2:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="200"/>
+      <c r="C11" s="189"/>
+      <c r="D11" s="195"/>
+      <c r="E11" s="192"/>
       <c r="F11" s="101" t="s">
         <v>136</v>
       </c>
@@ -13232,11 +14024,11 @@
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="60" customHeight="1">
-      <c r="B12" s="193"/>
-      <c r="C12" s="182"/>
-      <c r="D12" s="188"/>
-      <c r="E12" s="185"/>
+    <row r="12" spans="2:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="200"/>
+      <c r="C12" s="189"/>
+      <c r="D12" s="195"/>
+      <c r="E12" s="192"/>
       <c r="F12" s="101" t="s">
         <v>135</v>
       </c>
@@ -13244,11 +14036,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="60" customHeight="1">
-      <c r="B13" s="194"/>
-      <c r="C13" s="183"/>
-      <c r="D13" s="189"/>
-      <c r="E13" s="186"/>
+    <row r="13" spans="2:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="201"/>
+      <c r="C13" s="190"/>
+      <c r="D13" s="196"/>
+      <c r="E13" s="193"/>
       <c r="F13" s="105" t="s">
         <v>133</v>
       </c>
@@ -13256,8 +14048,8 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="99" customHeight="1"/>
-    <row r="17" ht="138" customHeight="1"/>
+    <row r="16" spans="2:7" ht="99" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="138" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="B2:B3"/>
@@ -13276,82 +14068,362 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{170671FC-7126-4F53-9577-31F7E194AC02}">
+  <dimension ref="A1:L15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="101" style="202" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="202" customWidth="1"/>
+    <col min="3" max="3" width="74.75" style="202" customWidth="1"/>
+    <col min="4" max="4" width="84.625" style="202" customWidth="1"/>
+    <col min="5" max="5" width="41.375" style="202" customWidth="1"/>
+    <col min="6" max="6" width="33.75" style="204" customWidth="1"/>
+    <col min="7" max="7" width="43.125" style="203" customWidth="1"/>
+    <col min="8" max="8" width="46.375" style="203" customWidth="1"/>
+    <col min="9" max="9" width="27.25" style="203" customWidth="1"/>
+    <col min="10" max="10" width="16.125" style="203" customWidth="1"/>
+    <col min="11" max="11" width="14" style="203" customWidth="1"/>
+    <col min="12" max="12" width="53.375" style="203" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="203" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" s="203"/>
+      <c r="C1" s="203"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="203" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="203"/>
+      <c r="C2" s="203"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="203" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3" s="203"/>
+      <c r="C3" s="203"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="203" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="203"/>
+      <c r="C4" s="203"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="206" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="205" t="s">
+        <v>222</v>
+      </c>
+      <c r="C5" s="227" t="s">
+        <v>223</v>
+      </c>
+      <c r="D5" s="228" t="s">
+        <v>224</v>
+      </c>
+      <c r="E5" s="231" t="s">
+        <v>227</v>
+      </c>
+      <c r="F5" s="232"/>
+      <c r="G5" s="233"/>
+      <c r="H5" s="234"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="206"/>
+      <c r="B6" s="205"/>
+      <c r="C6" s="229"/>
+      <c r="D6" s="230" t="s">
+        <v>225</v>
+      </c>
+      <c r="E6" s="235" t="s">
+        <v>228</v>
+      </c>
+      <c r="F6" s="236" t="s">
+        <v>229</v>
+      </c>
+      <c r="G6" s="237" t="s">
+        <v>230</v>
+      </c>
+      <c r="H6" s="238" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="206"/>
+      <c r="B7" s="206" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" s="203" t="s">
+        <v>194</v>
+      </c>
+      <c r="D7" s="203"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="206"/>
+      <c r="B8" s="206"/>
+      <c r="C8" s="203" t="s">
+        <v>195</v>
+      </c>
+      <c r="D8" s="203"/>
+    </row>
+    <row r="9" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="206"/>
+      <c r="B9" s="206"/>
+      <c r="C9" s="206" t="s">
+        <v>196</v>
+      </c>
+      <c r="D9" s="207" t="s">
+        <v>197</v>
+      </c>
+      <c r="E9" s="207" t="s">
+        <v>215</v>
+      </c>
+      <c r="F9" s="208" t="s">
+        <v>208</v>
+      </c>
+      <c r="G9" s="209" t="s">
+        <v>209</v>
+      </c>
+      <c r="H9" s="210" t="s">
+        <v>201</v>
+      </c>
+      <c r="I9" s="209"/>
+      <c r="J9" s="209"/>
+      <c r="K9" s="209"/>
+      <c r="L9" s="211"/>
+    </row>
+    <row r="10" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="206"/>
+      <c r="B10" s="206"/>
+      <c r="C10" s="206"/>
+      <c r="D10" s="207"/>
+      <c r="E10" s="207"/>
+      <c r="F10" s="212"/>
+      <c r="G10" s="213" t="s">
+        <v>210</v>
+      </c>
+      <c r="H10" s="213" t="s">
+        <v>226</v>
+      </c>
+      <c r="I10" s="214" t="s">
+        <v>211</v>
+      </c>
+      <c r="J10" s="213" t="s">
+        <v>202</v>
+      </c>
+      <c r="K10" s="215" t="s">
+        <v>212</v>
+      </c>
+      <c r="L10" s="216" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="206"/>
+      <c r="B11" s="206"/>
+      <c r="C11" s="206"/>
+      <c r="D11" s="207"/>
+      <c r="E11" s="207"/>
+      <c r="F11" s="212"/>
+      <c r="G11" s="213"/>
+      <c r="H11" s="213"/>
+      <c r="I11" s="214"/>
+      <c r="J11" s="213"/>
+      <c r="K11" s="215" t="s">
+        <v>213</v>
+      </c>
+      <c r="L11" s="217" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="206"/>
+      <c r="B12" s="206"/>
+      <c r="C12" s="206"/>
+      <c r="D12" s="207"/>
+      <c r="E12" s="207"/>
+      <c r="F12" s="212"/>
+      <c r="G12" s="213"/>
+      <c r="H12" s="213"/>
+      <c r="I12" s="214"/>
+      <c r="J12" s="215" t="s">
+        <v>203</v>
+      </c>
+      <c r="K12" s="215"/>
+      <c r="L12" s="217" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="206"/>
+      <c r="B13" s="206"/>
+      <c r="C13" s="206"/>
+      <c r="D13" s="207"/>
+      <c r="E13" s="207"/>
+      <c r="F13" s="212"/>
+      <c r="G13" s="213"/>
+      <c r="H13" s="222" t="s">
+        <v>214</v>
+      </c>
+      <c r="I13" s="222" t="s">
+        <v>216</v>
+      </c>
+      <c r="J13" s="215"/>
+      <c r="K13" s="215" t="s">
+        <v>218</v>
+      </c>
+      <c r="L13" s="216" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="206"/>
+      <c r="B14" s="206"/>
+      <c r="C14" s="206"/>
+      <c r="D14" s="207"/>
+      <c r="E14" s="207"/>
+      <c r="F14" s="212"/>
+      <c r="G14" s="213"/>
+      <c r="H14" s="223"/>
+      <c r="I14" s="225"/>
+      <c r="J14" s="215"/>
+      <c r="K14" s="215" t="s">
+        <v>220</v>
+      </c>
+      <c r="L14" s="226" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="206"/>
+      <c r="B15" s="206"/>
+      <c r="C15" s="206"/>
+      <c r="D15" s="207"/>
+      <c r="E15" s="207"/>
+      <c r="F15" s="218"/>
+      <c r="G15" s="219"/>
+      <c r="H15" s="224"/>
+      <c r="I15" s="220" t="s">
+        <v>217</v>
+      </c>
+      <c r="J15" s="220"/>
+      <c r="K15" s="220"/>
+      <c r="L15" s="221" t="s">
+        <v>207</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="B7:B15"/>
+    <mergeCell ref="A5:A15"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="F9:F15"/>
+    <mergeCell ref="E9:E15"/>
+    <mergeCell ref="D9:D15"/>
+    <mergeCell ref="C9:C15"/>
+    <mergeCell ref="G10:G15"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="I13:I14"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1315223-EA03-458B-929B-BCBCA8DFEC8C}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="144.1796875" customWidth="1"/>
-    <col min="2" max="2" width="101.1796875" customWidth="1"/>
+    <col min="1" max="1" width="144.125" customWidth="1"/>
+    <col min="2" max="2" width="101.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="99.5" customHeight="1">
-      <c r="A1" s="199" t="s">
+    <row r="1" spans="1:2" ht="99.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="135" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="200" t="s">
+      <c r="B1" s="136" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="50" customFormat="1" ht="20" customHeight="1">
-      <c r="A2" s="198" t="s">
+    <row r="2" spans="1:2" s="50" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="134" t="s">
         <v>186</v>
       </c>
-      <c r="B2" s="198"/>
+      <c r="B2" s="134"/>
     </row>
-    <row r="3" spans="1:2" ht="123.5" customHeight="1">
+    <row r="3" spans="1:2" ht="123.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>175</v>
       </c>
       <c r="B3" s="8"/>
     </row>
-    <row r="4" spans="1:2" ht="213" customHeight="1">
-      <c r="A4" s="195" t="s">
+    <row r="4" spans="1:2" ht="213" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="131" t="s">
         <v>187</v>
       </c>
-      <c r="B4" s="196" t="s">
+      <c r="B4" s="132" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="35" customHeight="1">
+    <row r="5" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>176</v>
       </c>
       <c r="B5" s="8"/>
     </row>
-    <row r="6" spans="1:2" ht="80" customHeight="1">
+    <row r="6" spans="1:2" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>181</v>
       </c>
       <c r="B6" s="8"/>
     </row>
-    <row r="7" spans="1:2" s="50" customFormat="1" ht="60" customHeight="1">
-      <c r="A7" s="198" t="s">
+    <row r="7" spans="1:2" s="50" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="201" t="s">
+      <c r="B7" s="137" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="192.5" customHeight="1">
-      <c r="A8" s="197" t="s">
+    <row r="8" spans="1:2" ht="192.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="133" t="s">
         <v>180</v>
       </c>
-      <c r="B8" s="197" t="s">
+      <c r="B8" s="133" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="32">
+    <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>182</v>
       </c>
       <c r="B9" s="8"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/BMW_SecOc.xlsx
+++ b/BMW_SecOc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_XuhuaRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C5642B-08C2-43DB-A481-3541F06A36E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16A1949-0596-491B-B2EF-8033B9ADB236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-8640" windowWidth="38640" windowHeight="21240" activeTab="6" xr2:uid="{EE3554E5-5B85-4F6F-95D2-24E55C4E92D2}"/>
+    <workbookView xWindow="28680" yWindow="-8640" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{EE3554E5-5B85-4F6F-95D2-24E55C4E92D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Code" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="250">
   <si>
     <t>DsBusCustomCode_onPduFeatureExecutionPrivate(pduFeatureHandle)</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -9806,21 +9806,451 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>CollectStaticPduProperties</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CollectStaticPduPropertiesDuringRuntimeForAllSecOCMsgs</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CollectStaticPduPropertiesDuringRuntimeForAllSecOCMsgsPerCluster</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">for (unsigned int i = 0; i &lt; filteredSecOCMsgs-&gt;itemCount; i++) {
-    pduFeatData = (UserCode_FeatureData *)GetById(filteredSecOCMsgs, i);
+    <t>DsBusCustomCode_onPduFeatureExecutionPrivate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"internal"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataIdExists</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>!dataIdExists</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"external"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"DataID: %d is not found in dataID_file."</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"DataID is not defined in cluster database."</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Key-id for Message '%s' is missing"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>DsBusCustomCodeSecuredIPdu_getKeyId(securedIPdu_PduHandle, &amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>keyId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>);
+DsBusCustomCodeSecuredIPdu_getDataId(securedIPdu_PduHandle, &amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>dataId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>keyId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono Light"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> != 0</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>keyId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono Light"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> == 0</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEE0000"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>keyId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = GetKeyId(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEE0000"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>dataId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEE0000"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>keyId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono Light"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> &gt; 0</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEE0000"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>keyId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono Light"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> == 0</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>if (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEE0000"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>keyId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono Light"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;= 0)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">rtnVal = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>DsBusCustomCode_collectStaticPduPropertiesDuringRuntimeEx(pduFeatData)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono Light"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">;
+if (rtnVal != E_OK){
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Last error message refers to 'SecuredIPdu_Name'"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono Light"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+}</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(IsAnyCounterMessage)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>if!(IsAnyCounterMessage)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEE0000"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>keyId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono Light"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> != -1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"SecOCSetup"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>keyId == -1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"For Rx-Counter-Message '%s' key-id is missing. "
+"For Tx-Counter-Message '%s' key-id is missing. "</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mdlStart</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitDataKeyIdMapping</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(int)(*inDataKeyIdPairsDataPtr[0])==0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(int)(*inDataKeyIdPairsDataPtr[0])!=0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>if (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>externalKeyIdFileExists</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>externalKeyIdFileExists == 0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>externalKeyIdFileExists == 1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitKeyIdsStruct</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SetKeyId(Const_dataId, Const_keyId)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>g_keyids[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEE0000"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>dataId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>].</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEE0000"/>
+        <rFont val="Cascadia Code SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>keyId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono Light"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = (uint32)keyId</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CollectStaticPduProperties
+CollectStaticPduPropertiesDuringRuntimeForAllSecOCMsgs
+CollectStaticPduPropertiesDuringRuntimeForAllSecOCMsgsPerCluster</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrintCollectedPduProperties
+PrintListOfAllSecOCMsgs</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>for (unsigned int i = 0; i &lt; filteredSecOCMsgs-&gt;itemCount; i++) {
+    pduFeatData = (UserCode_FeatureData *)GetById(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="Cascadia Code SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>filteredSecOCMsgs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono Light"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, i);
     </t>
     </r>
     <r>
@@ -9886,103 +10316,267 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>DsBusCustomCode_onPduFeatureExecutionPrivate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_DsBusCustomCode_onPduFeatureExecutionPrivateFunc = DsBusCustomCode_onPduFeatureExecutionPrivate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">DsBusCustomCode_onPduFeatureExecution(DsBusCustomCodePduFeatureHandle pduFeatureHandle) </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"internal"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>dataIdExists</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>!dataIdExists</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"external"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"DataID: %d is not found in dataID_file."</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"DataID is not defined in cluster database."</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Key-id for Message '%s' is missing"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+    <r>
+      <t>GetFilteredClusterAgentsList</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
         <rFont val="Cascadia Mono SemiBold"/>
         <family val="3"/>
       </rPr>
-      <t>DsBusCustomCodeSecuredIPdu_getKeyId(securedIPdu_PduHandle, &amp;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
+      <t>filteredClusterList</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>, isClusterSlBlkAssigned</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DsBusCustomCode_onPduFeatureExecution</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>PrintListOfAllSecOCMsgsPerCluster
+(clusterAgent-&gt;Ident, "    ", "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEE0000"/>
+        <rFont val="Cascadia Mono Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>error</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>")</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>PrintListOfAllSecOCMsgsPerCluster
+(clusterAgent-&gt;Ident, NULL, "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>info</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>")</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>for (unsigned int i = 0; i &lt; DQueueSize(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
         <rFont val="Cascadia Mono SemiBold"/>
         <family val="3"/>
       </rPr>
-      <t>keyId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+      <t>filteredClusterList</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>); i++) {
+    clusterAgent = (ClusterAgentStruct*)GetById(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
         <rFont val="Cascadia Mono SemiBold"/>
         <family val="3"/>
       </rPr>
-      <t>);
-DsBusCustomCodeSecuredIPdu_getDataId(securedIPdu_PduHandle, &amp;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
+      <t>filteredClusterList</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>, i)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetClusterAgentById
+((unsigned char)clusterId, &amp;clusterAgent)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">if (clusterAgent != NULL)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>"List of all SecOC-Messages of cluster 'clusterAgent-&gt;Name 'found:"</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">isClusterSlBlkAssigned = TRUE
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>//Print Messages with clusters assigned to SL-Blocks</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>isClusterSlBlkAssigned = FALSE
+//Print Messages with missing cluster to SL-Blocks assignment</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">if (clusterAgent == NULL)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>"No SecOC-Messages assigned to cluster clusterAgent-&gt;Name found")</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>GetFilteredListOfConfiguredSecOCMsgs
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEB65BE"/>
         <rFont val="Cascadia Mono SemiBold"/>
         <family val="3"/>
       </rPr>
-      <t>dataId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+      <t>filteredSecOCMsgs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>, clusterId,"rx", ARG_NA)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>GetFilteredListOfConfiguredSecOCMsgs
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEB65BE"/>
         <rFont val="Cascadia Mono SemiBold"/>
         <family val="3"/>
       </rPr>
-      <t>);</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
+      <t>filteredSecOCMsgs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>, clusterId,"tx", ARG_NA)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>GetFilteredListOfConfiguredSecOCMsgs
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEB65BE"/>
         <rFont val="Cascadia Mono SemiBold"/>
         <family val="3"/>
       </rPr>
-      <t>keyId</t>
+      <t>filteredSecOCMsgs</t>
     </r>
     <r>
       <rPr>
@@ -9991,19 +10585,41 @@
         <rFont val="Cascadia Mono Light"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve"> != 0</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
+      <t xml:space="preserve">, clusterId,"rx", </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEE0000"/>
+        <rFont val="Cascadia Mono Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>errorFreePropCollected</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>GetFilteredListOfConfiguredSecOCMsgs
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEB65BE"/>
         <rFont val="Cascadia Mono SemiBold"/>
         <family val="3"/>
       </rPr>
-      <t>keyId</t>
+      <t>filteredSecOCMsgs</t>
     </r>
     <r>
       <rPr>
@@ -10012,79 +10628,41 @@
         <rFont val="Cascadia Mono Light"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve"> == 0</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
+      <t xml:space="preserve">, clusterId,"tx", </t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFEE0000"/>
-        <rFont val="Cascadia Mono SemiBold"/>
-        <family val="3"/>
-      </rPr>
-      <t>keyId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiBold"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> = GetKeyId(</t>
+        <rFont val="Cascadia Mono Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>errorFreePropCollected</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>PrintMsgList
+(</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFEE0000"/>
-        <rFont val="Cascadia Mono SemiBold"/>
-        <family val="3"/>
-      </rPr>
-      <t>dataId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiBold"/>
-        <family val="3"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFEE0000"/>
-        <rFont val="Cascadia Mono SemiBold"/>
-        <family val="3"/>
-      </rPr>
-      <t>keyId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Cascadia Mono Light"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve"> &gt; 0</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFEE0000"/>
-        <rFont val="Cascadia Mono SemiBold"/>
-        <family val="3"/>
-      </rPr>
-      <t>keyId</t>
+      <t>error</t>
     </r>
     <r>
       <rPr>
@@ -10093,22 +10671,16 @@
         <rFont val="Cascadia Mono Light"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve"> == 0</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>if (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFEE0000"/>
-        <rFont val="Cascadia Mono SemiBold"/>
-        <family val="3"/>
-      </rPr>
-      <t>keyId</t>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEB65BE"/>
+        <rFont val="Cascadia Code SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>filteredSecOCMsgs</t>
     </r>
     <r>
       <rPr>
@@ -10117,42 +10689,88 @@
         <rFont val="Cascadia Mono Light"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve"> &lt;= 0)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">rtnVal = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Mono SemiBold"/>
-        <family val="3"/>
-      </rPr>
-      <t>DsBusCustomCode_collectStaticPduPropertiesDuringRuntimeEx(pduFeatData)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+      <t>, "Rx/Tx")</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>PrintMsgList
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
         <rFont val="Cascadia Mono Light"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve">;
-if (rtnVal != E_OK){
-    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
+      <t>info</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Cascadia Mono Light"/>
         <family val="3"/>
       </rPr>
-      <t>"Last error message refers to 'SecuredIPdu_Name'"</t>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEB65BE"/>
+        <rFont val="Cascadia Code SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>filteredSecOCMsgs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>, "Rx/Tx")</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Tx/Rx-Messages configured as SecOC (secured-PDU-names) are:"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">for (unsigned int i = 0; i &lt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEB65BE"/>
+        <rFont val="Cascadia Code SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>filteredSecOCMsgs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono Light"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;itemCount; i++) {
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>"shortPduName (Key-Id=%d) (Key-Id-Source: %s)"</t>
     </r>
     <r>
       <rPr>
@@ -10167,22 +10785,39 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>if(IsAnyCounterMessage)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>if!(IsAnyCounterMessage)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>if (clusterAgent != NULL)</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFEE0000"/>
+        <rFont val="Cascadia Mono Light"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+"error", "%sList of faulty Tx/Rx-SecOC-Messages (not properly initialized):"</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">for (unsigned int i = 0; i &lt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEB65BE"/>
         <rFont val="Cascadia Mono SemiBold"/>
         <family val="3"/>
       </rPr>
-      <t>keyId</t>
+      <t>filteredSecOCMsgs</t>
     </r>
     <r>
       <rPr>
@@ -10191,109 +10826,54 @@
         <rFont val="Cascadia Mono Light"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve"> != -1</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"SecOCSetup"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>keyId == -1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"For Rx-Counter-Message '%s' key-id is missing. "
-"For Tx-Counter-Message '%s' key-id is missing. "</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>mdlStart</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>InitDataKeyIdMapping</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(int)(*inDataKeyIdPairsDataPtr[0])==0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(int)(*inDataKeyIdPairsDataPtr[0])!=0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>if (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8"/>
-        <rFont val="Cascadia Mono SemiBold"/>
-        <family val="3"/>
-      </rPr>
-      <t>externalKeyIdFileExists</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+      <t xml:space="preserve">-&gt;itemCount; i++) {
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEE0000"/>
         <rFont val="Cascadia Mono Light"/>
         <family val="3"/>
       </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>externalKeyIdFileExists == 0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>externalKeyIdFileExists == 1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>InitKeyIdsStruct</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SetKeyId(Const_dataId, Const_keyId)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>g_keyids[</t>
+      <t xml:space="preserve">"shortPduName (Key-Id=%d) (Key-Id-Source: %s)"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">"error", "List of messages linked to clusters with missing Simulink-block assignment:"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>for (unsigned int i = 0; i &lt; DQueueSize(filteredClusterList); i++) {
+    clusterAgent = (ClusterAgentStruct*)GetById(filteredClusterList, i);
+    PrintListOfAllSecOCMsgsPerCluster(clusterAgent-&gt;Ident, "    ", "</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFEE0000"/>
-        <rFont val="Cascadia Mono SemiBold"/>
-        <family val="3"/>
-      </rPr>
-      <t>dataId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Cascadia Mono Light"/>
         <family val="3"/>
       </rPr>
-      <t>].</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFEE0000"/>
-        <rFont val="Cascadia Code SemiBold"/>
-        <family val="3"/>
-      </rPr>
-      <t>keyId</t>
+      <t>error</t>
     </r>
     <r>
       <rPr>
@@ -10302,7 +10882,8 @@
         <rFont val="Cascadia Mono Light"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve"> = (uint32)keyId</t>
+      <t>");
+}</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -10311,7 +10892,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="50" x14ac:knownFonts="1">
+  <fonts count="56" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10650,6 +11231,44 @@
       <name val="Cascadia Mono SemiBold"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF00FF"/>
+      <name val="Cascadia Mono SemiBold"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF00FF"/>
+      <name val="Cascadia Mono SemiBold"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cascadia Mono Light"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFEB65BE"/>
+      <name val="Cascadia Mono SemiBold"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFEB65BE"/>
+      <name val="Cascadia Code SemiBold"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="18">
     <fill>
@@ -10755,7 +11374,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="67">
+  <borders count="68">
     <border>
       <left/>
       <right/>
@@ -11645,23 +12264,36 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
+      <left style="dashed">
         <color auto="1"/>
       </left>
       <right style="hair">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="dashed">
-        <color auto="1"/>
-      </bottom>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="239">
+  <cellXfs count="251">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -12036,6 +12668,51 @@
     <xf numFmtId="0" fontId="30" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="16" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="16" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="16" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="16" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="16" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="49" fillId="16" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -12228,110 +12905,101 @@
     <xf numFmtId="0" fontId="5" fillId="15" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="16" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="16" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="16" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="14" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="16" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="14" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="14" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="14" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="14" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="14" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="14" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="14" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="14" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="14" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="16" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="16" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="14" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="16" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="16" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="16" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="16" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="16" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="16" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="16" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="14" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="16" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="16" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="16" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="16" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="16" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="16" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="16" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="16" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="42" fillId="14" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -12341,9 +13009,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFEB65BE"/>
       <color rgb="FFCFAFE7"/>
       <color rgb="FFFF00FF"/>
-      <color rgb="FFEB65BE"/>
       <color rgb="FFFF5050"/>
       <color rgb="FFFDBC53"/>
     </mruColors>
@@ -12683,7 +13351,7 @@
       <c r="B2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="146" t="s">
+      <c r="C2" s="163" t="s">
         <v>109</v>
       </c>
     </row>
@@ -12694,7 +13362,7 @@
       <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="147"/>
+      <c r="C3" s="164"/>
     </row>
     <row r="4" spans="1:3" ht="386.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
@@ -12703,7 +13371,7 @@
       <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="148"/>
+      <c r="C4" s="165"/>
     </row>
     <row r="5" spans="1:3" ht="200.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
@@ -12736,11 +13404,11 @@
       <c r="C8" s="16"/>
     </row>
     <row r="9" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="154" t="s">
+      <c r="A9" s="171" t="s">
         <v>140</v>
       </c>
-      <c r="B9" s="154"/>
-      <c r="C9" s="155"/>
+      <c r="B9" s="171"/>
+      <c r="C9" s="172"/>
     </row>
     <row r="10" spans="1:3" ht="287.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="95" t="s">
@@ -12749,7 +13417,7 @@
       <c r="B10" s="96" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="149" t="s">
+      <c r="C10" s="166" t="s">
         <v>8</v>
       </c>
     </row>
@@ -12760,23 +13428,23 @@
       <c r="B11" s="96" t="s">
         <v>141</v>
       </c>
-      <c r="C11" s="150"/>
+      <c r="C11" s="167"/>
     </row>
     <row r="12" spans="1:3" ht="257.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="152" t="s">
+      <c r="A12" s="169" t="s">
         <v>142</v>
       </c>
       <c r="B12" s="96" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="150"/>
+      <c r="C12" s="167"/>
     </row>
     <row r="13" spans="1:3" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="153"/>
+      <c r="A13" s="170"/>
       <c r="B13" s="96" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="151"/>
+      <c r="C13" s="168"/>
     </row>
     <row r="14" spans="1:3" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="98" t="s">
@@ -12785,7 +13453,7 @@
       <c r="B14" s="96" t="s">
         <v>144</v>
       </c>
-      <c r="C14" s="149" t="s">
+      <c r="C14" s="166" t="s">
         <v>147</v>
       </c>
     </row>
@@ -12796,7 +13464,7 @@
       <c r="B15" s="96" t="s">
         <v>146</v>
       </c>
-      <c r="C15" s="151"/>
+      <c r="C15" s="168"/>
     </row>
     <row r="16" spans="1:3" ht="378.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
@@ -12805,7 +13473,7 @@
       <c r="B16" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C16" s="146"/>
+      <c r="C16" s="163"/>
     </row>
     <row r="17" spans="1:3" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
@@ -12814,7 +13482,7 @@
       <c r="B17" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="147"/>
+      <c r="C17" s="164"/>
     </row>
     <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="43" t="s">
@@ -12841,7 +13509,7 @@
       <c r="B20" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="143" t="s">
+      <c r="C20" s="160" t="s">
         <v>73</v>
       </c>
     </row>
@@ -12850,7 +13518,7 @@
         <v>172</v>
       </c>
       <c r="B21" s="132"/>
-      <c r="C21" s="144"/>
+      <c r="C21" s="161"/>
     </row>
     <row r="22" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
@@ -12859,7 +13527,7 @@
       <c r="B22" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="144"/>
+      <c r="C22" s="161"/>
     </row>
     <row r="23" spans="1:3" ht="370.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
@@ -12868,14 +13536,14 @@
       <c r="B23" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="145"/>
+      <c r="C23" s="162"/>
     </row>
     <row r="24" spans="1:3" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="142" t="s">
+      <c r="C24" s="159" t="s">
         <v>71</v>
       </c>
     </row>
@@ -12884,7 +13552,7 @@
         <v>11</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="142"/>
+      <c r="C25" s="159"/>
     </row>
     <row r="26" spans="1:3" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
@@ -12893,7 +13561,7 @@
       <c r="B26" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="142"/>
+      <c r="C26" s="159"/>
     </row>
     <row r="27" spans="1:3" ht="242.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
@@ -12902,35 +13570,35 @@
       <c r="B27" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="C27" s="142"/>
+      <c r="C27" s="159"/>
     </row>
     <row r="28" spans="1:3" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B28" s="12"/>
-      <c r="C28" s="142"/>
+      <c r="C28" s="159"/>
     </row>
     <row r="29" spans="1:3" ht="224.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
         <v>60</v>
       </c>
       <c r="B29" s="12"/>
-      <c r="C29" s="142"/>
+      <c r="C29" s="159"/>
     </row>
     <row r="30" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="133" t="s">
         <v>173</v>
       </c>
       <c r="B30" s="133"/>
-      <c r="C30" s="142"/>
+      <c r="C30" s="159"/>
     </row>
     <row r="31" spans="1:3" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
         <v>98</v>
       </c>
       <c r="B31" s="12"/>
-      <c r="C31" s="139"/>
+      <c r="C31" s="156"/>
     </row>
     <row r="32" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="43" t="s">
@@ -12946,7 +13614,7 @@
       <c r="B33" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="C33" s="138" t="s">
+      <c r="C33" s="155" t="s">
         <v>72</v>
       </c>
     </row>
@@ -12957,32 +13625,32 @@
       <c r="B34" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="139"/>
+      <c r="C34" s="156"/>
     </row>
     <row r="35" spans="1:3" ht="234.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="140" t="s">
+      <c r="A35" s="157" t="s">
         <v>65</v>
       </c>
       <c r="B35" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="C35" s="138" t="s">
+      <c r="C35" s="155" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="215.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="141"/>
+      <c r="A36" s="158"/>
       <c r="B36" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="C36" s="142"/>
+      <c r="C36" s="159"/>
     </row>
     <row r="37" spans="1:3" ht="297.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="141"/>
+      <c r="A37" s="158"/>
       <c r="B37" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C37" s="142"/>
+      <c r="C37" s="159"/>
     </row>
     <row r="38" spans="1:3" ht="135.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
@@ -12991,7 +13659,7 @@
       <c r="B38" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="C38" s="139"/>
+      <c r="C38" s="156"/>
     </row>
     <row r="39" spans="1:3" ht="393.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
@@ -13040,7 +13708,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="156" t="s">
+      <c r="B3" s="173" t="s">
         <v>109</v>
       </c>
       <c r="C3" s="90" t="s">
@@ -13048,7 +13716,7 @@
       </c>
     </row>
     <row r="4" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="158"/>
+      <c r="B4" s="175"/>
       <c r="C4" s="90" t="s">
         <v>114</v>
       </c>
@@ -13060,7 +13728,7 @@
       <c r="C5" s="91"/>
     </row>
     <row r="6" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="156" t="s">
+      <c r="B6" s="173" t="s">
         <v>110</v>
       </c>
       <c r="C6" s="90" t="s">
@@ -13068,19 +13736,19 @@
       </c>
     </row>
     <row r="7" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="157"/>
+      <c r="B7" s="174"/>
       <c r="C7" s="90" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="157"/>
+      <c r="B8" s="174"/>
       <c r="C8" s="90" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="158"/>
+      <c r="B9" s="175"/>
       <c r="C9" s="90" t="s">
         <v>114</v>
       </c>
@@ -13098,7 +13766,7 @@
       <c r="C11" s="91"/>
     </row>
     <row r="12" spans="2:3" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="159" t="s">
+      <c r="B12" s="176" t="s">
         <v>71</v>
       </c>
       <c r="C12" s="92" t="s">
@@ -13106,7 +13774,7 @@
       </c>
     </row>
     <row r="13" spans="2:3" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="160"/>
+      <c r="B13" s="177"/>
       <c r="C13" s="92" t="s">
         <v>121</v>
       </c>
@@ -13165,25 +13833,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="203.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="178" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="168" t="s">
+      <c r="B1" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="167" t="s">
+      <c r="C1" s="184" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="167" t="s">
+      <c r="D1" s="184" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="167" t="s">
+      <c r="E1" s="184" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="167" t="s">
+      <c r="F1" s="184" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="167" t="s">
+      <c r="G1" s="184" t="s">
         <v>45</v>
       </c>
       <c r="H1" s="108" t="s">
@@ -13197,13 +13865,13 @@
       <c r="L1" s="109"/>
     </row>
     <row r="2" spans="1:12" ht="287.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="162"/>
-      <c r="B2" s="164"/>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="166"/>
+      <c r="A2" s="179"/>
+      <c r="B2" s="181"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
       <c r="H2" s="110" t="s">
         <v>41</v>
       </c>
@@ -13219,14 +13887,14 @@
       <c r="L2" s="112"/>
     </row>
     <row r="3" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="162"/>
-      <c r="B3" s="164"/>
-      <c r="C3" s="166"/>
-      <c r="D3" s="166"/>
-      <c r="E3" s="166" t="s">
+      <c r="A3" s="179"/>
+      <c r="B3" s="181"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="183"/>
+      <c r="E3" s="183" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="169" t="s">
+      <c r="F3" s="186" t="s">
         <v>33</v>
       </c>
       <c r="G3" s="110" t="s">
@@ -13239,16 +13907,16 @@
       <c r="L3" s="112"/>
     </row>
     <row r="4" spans="1:12" ht="233.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="162"/>
-      <c r="B4" s="164"/>
-      <c r="C4" s="166"/>
-      <c r="D4" s="166"/>
-      <c r="E4" s="166"/>
-      <c r="F4" s="169"/>
-      <c r="G4" s="166" t="s">
+      <c r="A4" s="179"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="183"/>
+      <c r="D4" s="183"/>
+      <c r="E4" s="183"/>
+      <c r="F4" s="186"/>
+      <c r="G4" s="183" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="166" t="s">
+      <c r="H4" s="183" t="s">
         <v>81</v>
       </c>
       <c r="I4" s="111" t="s">
@@ -13261,14 +13929,14 @@
       <c r="L4" s="112"/>
     </row>
     <row r="5" spans="1:12" ht="113.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="162"/>
-      <c r="B5" s="164"/>
-      <c r="C5" s="166"/>
-      <c r="D5" s="166"/>
-      <c r="E5" s="166"/>
-      <c r="F5" s="169"/>
-      <c r="G5" s="166"/>
-      <c r="H5" s="166"/>
+      <c r="A5" s="179"/>
+      <c r="B5" s="181"/>
+      <c r="C5" s="183"/>
+      <c r="D5" s="183"/>
+      <c r="E5" s="183"/>
+      <c r="F5" s="186"/>
+      <c r="G5" s="183"/>
+      <c r="H5" s="183"/>
       <c r="I5" s="111" t="s">
         <v>82</v>
       </c>
@@ -13283,10 +13951,10 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="160.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="162"/>
-      <c r="B6" s="164"/>
-      <c r="C6" s="166"/>
-      <c r="D6" s="166"/>
+      <c r="A6" s="179"/>
+      <c r="B6" s="181"/>
+      <c r="C6" s="183"/>
+      <c r="D6" s="183"/>
       <c r="E6" s="110" t="s">
         <v>32</v>
       </c>
@@ -13299,8 +13967,8 @@
       <c r="L6" s="112"/>
     </row>
     <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="162"/>
-      <c r="B7" s="164" t="s">
+      <c r="A7" s="179"/>
+      <c r="B7" s="181" t="s">
         <v>38</v>
       </c>
       <c r="C7" s="113" t="s">
@@ -13317,8 +13985,8 @@
       <c r="L7" s="112"/>
     </row>
     <row r="8" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="162"/>
-      <c r="B8" s="164"/>
+      <c r="A8" s="179"/>
+      <c r="B8" s="181"/>
       <c r="C8" s="113" t="s">
         <v>40</v>
       </c>
@@ -13333,8 +14001,8 @@
       <c r="L8" s="112"/>
     </row>
     <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="162"/>
-      <c r="B9" s="164"/>
+      <c r="A9" s="179"/>
+      <c r="B9" s="181"/>
       <c r="C9" s="113" t="s">
         <v>75</v>
       </c>
@@ -13349,8 +14017,8 @@
       <c r="L9" s="112"/>
     </row>
     <row r="10" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="162"/>
-      <c r="B10" s="164"/>
+      <c r="A10" s="179"/>
+      <c r="B10" s="181"/>
       <c r="C10" s="113" t="s">
         <v>76</v>
       </c>
@@ -13365,8 +14033,8 @@
       <c r="L10" s="112"/>
     </row>
     <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="162"/>
-      <c r="B11" s="170" t="s">
+      <c r="A11" s="179"/>
+      <c r="B11" s="187" t="s">
         <v>67</v>
       </c>
       <c r="C11" s="14" t="s">
@@ -13383,8 +14051,8 @@
       <c r="L11" s="112"/>
     </row>
     <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="162"/>
-      <c r="B12" s="171"/>
+      <c r="A12" s="179"/>
+      <c r="B12" s="188"/>
       <c r="C12" s="113" t="s">
         <v>166</v>
       </c>
@@ -13399,8 +14067,8 @@
       <c r="L12" s="112"/>
     </row>
     <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="162"/>
-      <c r="B13" s="172"/>
+      <c r="A13" s="179"/>
+      <c r="B13" s="189"/>
       <c r="C13" s="113" t="s">
         <v>167</v>
       </c>
@@ -13415,8 +14083,8 @@
       <c r="L13" s="112"/>
     </row>
     <row r="14" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="162"/>
-      <c r="B14" s="170" t="s">
+      <c r="A14" s="179"/>
+      <c r="B14" s="187" t="s">
         <v>69</v>
       </c>
       <c r="C14" s="113" t="s">
@@ -13433,8 +14101,8 @@
       <c r="L14" s="112"/>
     </row>
     <row r="15" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="162"/>
-      <c r="B15" s="171"/>
+      <c r="A15" s="179"/>
+      <c r="B15" s="188"/>
       <c r="C15" s="113" t="s">
         <v>179</v>
       </c>
@@ -13449,8 +14117,8 @@
       <c r="L15" s="112"/>
     </row>
     <row r="16" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="162"/>
-      <c r="B16" s="172"/>
+      <c r="A16" s="179"/>
+      <c r="B16" s="189"/>
       <c r="C16" s="113" t="s">
         <v>68</v>
       </c>
@@ -13465,8 +14133,8 @@
       <c r="L16" s="112"/>
     </row>
     <row r="17" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="162"/>
-      <c r="B17" s="164" t="s">
+      <c r="A17" s="179"/>
+      <c r="B17" s="181" t="s">
         <v>159</v>
       </c>
       <c r="C17" s="113" t="s">
@@ -13483,8 +14151,8 @@
       <c r="L17" s="112"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="163"/>
-      <c r="B18" s="165"/>
+      <c r="A18" s="180"/>
+      <c r="B18" s="182"/>
       <c r="C18" s="115" t="s">
         <v>161</v>
       </c>
@@ -13538,10 +14206,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="173" t="s">
+      <c r="A2" s="190" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="175" t="s">
+      <c r="B2" s="192" t="s">
         <v>50</v>
       </c>
       <c r="C2" s="24" t="s">
@@ -13558,16 +14226,16 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="174"/>
-      <c r="B3" s="176"/>
+      <c r="A3" s="191"/>
+      <c r="B3" s="193"/>
       <c r="C3" s="40"/>
       <c r="D3" s="41"/>
       <c r="E3" s="41"/>
       <c r="F3" s="42"/>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="174"/>
-      <c r="B4" s="176" t="s">
+      <c r="A4" s="191"/>
+      <c r="B4" s="193" t="s">
         <v>51</v>
       </c>
       <c r="C4" s="30" t="s">
@@ -13584,8 +14252,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="174"/>
-      <c r="B5" s="176"/>
+      <c r="A5" s="191"/>
+      <c r="B5" s="193"/>
       <c r="C5" s="34" t="s">
         <v>54</v>
       </c>
@@ -13594,10 +14262,10 @@
       <c r="F5" s="29"/>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="174" t="s">
+      <c r="A6" s="191" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="176" t="s">
+      <c r="B6" s="193" t="s">
         <v>50</v>
       </c>
       <c r="C6" s="30" t="s">
@@ -13612,16 +14280,16 @@
       <c r="F6" s="29"/>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="174"/>
-      <c r="B7" s="176"/>
+      <c r="A7" s="191"/>
+      <c r="B7" s="193"/>
       <c r="C7" s="40"/>
       <c r="D7" s="41"/>
       <c r="E7" s="41"/>
       <c r="F7" s="42"/>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="174"/>
-      <c r="B8" s="176" t="s">
+      <c r="A8" s="191"/>
+      <c r="B8" s="193" t="s">
         <v>51</v>
       </c>
       <c r="C8" s="30" t="s">
@@ -13636,8 +14304,8 @@
       <c r="F8" s="29"/>
     </row>
     <row r="9" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="177"/>
-      <c r="B9" s="178"/>
+      <c r="A9" s="194"/>
+      <c r="B9" s="195"/>
       <c r="C9" s="37" t="s">
         <v>54</v>
       </c>
@@ -13679,13 +14347,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="181" t="s">
+      <c r="B2" s="198" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="182"/>
-      <c r="D2" s="182"/>
-      <c r="E2" s="182"/>
-      <c r="F2" s="183"/>
+      <c r="C2" s="199"/>
+      <c r="D2" s="199"/>
+      <c r="E2" s="199"/>
+      <c r="F2" s="200"/>
     </row>
     <row r="3" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="53" t="s">
@@ -13767,10 +14435,10 @@
       <c r="F9" s="73"/>
     </row>
     <row r="10" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B10" s="179" t="s">
+      <c r="B10" s="196" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="180"/>
+      <c r="C10" s="197"/>
       <c r="D10" s="65"/>
       <c r="E10" s="83"/>
       <c r="F10" s="73"/>
@@ -13872,8 +14540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ABC9983-6AED-4B25-8AB6-C5125DB391F9}">
   <dimension ref="B1:G17"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13889,10 +14557,10 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="150.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="184" t="s">
+      <c r="B2" s="201" t="s">
         <v>150</v>
       </c>
-      <c r="C2" s="186" t="s">
+      <c r="C2" s="203" t="s">
         <v>151</v>
       </c>
       <c r="D2" s="119" t="s">
@@ -13905,8 +14573,8 @@
       <c r="G2" s="122"/>
     </row>
     <row r="3" spans="2:7" ht="176.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="185"/>
-      <c r="C3" s="187"/>
+      <c r="B3" s="202"/>
+      <c r="C3" s="204"/>
       <c r="D3" s="123" t="s">
         <v>153</v>
       </c>
@@ -13917,14 +14585,14 @@
       <c r="G3" s="125"/>
     </row>
     <row r="4" spans="2:7" ht="191.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="199" t="s">
+      <c r="B4" s="216" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="188" t="s">
+      <c r="C4" s="205" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="188"/>
-      <c r="E4" s="197" t="s">
+      <c r="D4" s="205"/>
+      <c r="E4" s="214" t="s">
         <v>139</v>
       </c>
       <c r="F4" s="99" t="s">
@@ -13935,10 +14603,10 @@
       </c>
     </row>
     <row r="5" spans="2:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="200"/>
-      <c r="C5" s="189"/>
-      <c r="D5" s="189"/>
-      <c r="E5" s="198"/>
+      <c r="B5" s="217"/>
+      <c r="C5" s="206"/>
+      <c r="D5" s="206"/>
+      <c r="E5" s="215"/>
       <c r="F5" s="102" t="s">
         <v>129</v>
       </c>
@@ -13947,8 +14615,8 @@
       </c>
     </row>
     <row r="6" spans="2:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="200"/>
-      <c r="C6" s="189" t="s">
+      <c r="B6" s="217"/>
+      <c r="C6" s="206" t="s">
         <v>124</v>
       </c>
       <c r="D6" s="102" t="s">
@@ -13961,8 +14629,8 @@
       <c r="G6" s="128"/>
     </row>
     <row r="7" spans="2:7" ht="155.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="200"/>
-      <c r="C7" s="189"/>
+      <c r="B7" s="217"/>
+      <c r="C7" s="206"/>
       <c r="D7" s="101" t="s">
         <v>156</v>
       </c>
@@ -13973,12 +14641,12 @@
       <c r="G7" s="104"/>
     </row>
     <row r="8" spans="2:7" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="200"/>
-      <c r="C8" s="189"/>
-      <c r="D8" s="194" t="s">
+      <c r="B8" s="217"/>
+      <c r="C8" s="206"/>
+      <c r="D8" s="211" t="s">
         <v>152</v>
       </c>
-      <c r="E8" s="191" t="s">
+      <c r="E8" s="208" t="s">
         <v>126</v>
       </c>
       <c r="F8" s="101" t="s">
@@ -13989,10 +14657,10 @@
       </c>
     </row>
     <row r="9" spans="2:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="200"/>
-      <c r="C9" s="189"/>
-      <c r="D9" s="195"/>
-      <c r="E9" s="192"/>
+      <c r="B9" s="217"/>
+      <c r="C9" s="206"/>
+      <c r="D9" s="212"/>
+      <c r="E9" s="209"/>
       <c r="F9" s="101" t="s">
         <v>148</v>
       </c>
@@ -14001,10 +14669,10 @@
       </c>
     </row>
     <row r="10" spans="2:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="200"/>
-      <c r="C10" s="189"/>
-      <c r="D10" s="195"/>
-      <c r="E10" s="192"/>
+      <c r="B10" s="217"/>
+      <c r="C10" s="206"/>
+      <c r="D10" s="212"/>
+      <c r="E10" s="209"/>
       <c r="F10" s="101" t="s">
         <v>137</v>
       </c>
@@ -14013,10 +14681,10 @@
       </c>
     </row>
     <row r="11" spans="2:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="200"/>
-      <c r="C11" s="189"/>
-      <c r="D11" s="195"/>
-      <c r="E11" s="192"/>
+      <c r="B11" s="217"/>
+      <c r="C11" s="206"/>
+      <c r="D11" s="212"/>
+      <c r="E11" s="209"/>
       <c r="F11" s="101" t="s">
         <v>136</v>
       </c>
@@ -14025,10 +14693,10 @@
       </c>
     </row>
     <row r="12" spans="2:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="200"/>
-      <c r="C12" s="189"/>
-      <c r="D12" s="195"/>
-      <c r="E12" s="192"/>
+      <c r="B12" s="217"/>
+      <c r="C12" s="206"/>
+      <c r="D12" s="212"/>
+      <c r="E12" s="209"/>
       <c r="F12" s="101" t="s">
         <v>135</v>
       </c>
@@ -14037,10 +14705,10 @@
       </c>
     </row>
     <row r="13" spans="2:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="201"/>
-      <c r="C13" s="190"/>
-      <c r="D13" s="196"/>
-      <c r="E13" s="193"/>
+      <c r="B13" s="218"/>
+      <c r="C13" s="207"/>
+      <c r="D13" s="213"/>
+      <c r="E13" s="210"/>
       <c r="F13" s="105" t="s">
         <v>133</v>
       </c>
@@ -14069,276 +14737,448 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{170671FC-7126-4F53-9577-31F7E194AC02}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:D15"/>
+    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="101" style="202" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="202" customWidth="1"/>
-    <col min="3" max="3" width="74.75" style="202" customWidth="1"/>
-    <col min="4" max="4" width="84.625" style="202" customWidth="1"/>
-    <col min="5" max="5" width="41.375" style="202" customWidth="1"/>
-    <col min="6" max="6" width="33.75" style="204" customWidth="1"/>
-    <col min="7" max="7" width="43.125" style="203" customWidth="1"/>
-    <col min="8" max="8" width="46.375" style="203" customWidth="1"/>
-    <col min="9" max="9" width="27.25" style="203" customWidth="1"/>
-    <col min="10" max="10" width="16.125" style="203" customWidth="1"/>
-    <col min="11" max="11" width="14" style="203" customWidth="1"/>
-    <col min="12" max="12" width="53.375" style="203" customWidth="1"/>
+    <col min="1" max="1" width="57.625" style="138" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="138" customWidth="1"/>
+    <col min="3" max="3" width="68.375" style="138" customWidth="1"/>
+    <col min="4" max="4" width="84.625" style="138" customWidth="1"/>
+    <col min="5" max="5" width="42.25" style="138" customWidth="1"/>
+    <col min="6" max="6" width="69" style="140" customWidth="1"/>
+    <col min="7" max="7" width="41.5" style="139" customWidth="1"/>
+    <col min="8" max="8" width="44.625" style="139" customWidth="1"/>
+    <col min="9" max="9" width="43.5" style="139" customWidth="1"/>
+    <col min="10" max="10" width="41.625" style="139" customWidth="1"/>
+    <col min="11" max="11" width="37.5" style="139" customWidth="1"/>
+    <col min="12" max="12" width="56.25" style="139" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="203" t="s">
-        <v>200</v>
-      </c>
-      <c r="B1" s="203"/>
-      <c r="C1" s="203"/>
+      <c r="A1" s="139" t="s">
+        <v>230</v>
+      </c>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="203" t="s">
-        <v>199</v>
-      </c>
-      <c r="B2" s="203"/>
-      <c r="C2" s="203"/>
+      <c r="A2" s="139" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="203" t="s">
-        <v>198</v>
-      </c>
-      <c r="B3" s="203"/>
-      <c r="C3" s="203"/>
+      <c r="A3" s="139" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="139"/>
+      <c r="C3" s="139"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="203" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="203"/>
-      <c r="C4" s="203"/>
+      <c r="A4" s="219" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="220" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4" s="229" t="s">
+        <v>217</v>
+      </c>
+      <c r="D4" s="141" t="s">
+        <v>218</v>
+      </c>
+      <c r="E4" s="150" t="s">
+        <v>221</v>
+      </c>
+      <c r="F4" s="151"/>
+      <c r="G4" s="141"/>
+      <c r="H4" s="143"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="206" t="s">
-        <v>110</v>
-      </c>
-      <c r="B5" s="205" t="s">
+      <c r="A5" s="219"/>
+      <c r="B5" s="220"/>
+      <c r="C5" s="230"/>
+      <c r="D5" s="147" t="s">
+        <v>219</v>
+      </c>
+      <c r="E5" s="152" t="s">
         <v>222</v>
       </c>
-      <c r="C5" s="227" t="s">
+      <c r="F5" s="153" t="s">
         <v>223</v>
       </c>
-      <c r="D5" s="228" t="s">
+      <c r="G5" s="147" t="s">
         <v>224</v>
       </c>
-      <c r="E5" s="231" t="s">
-        <v>227</v>
-      </c>
-      <c r="F5" s="232"/>
-      <c r="G5" s="233"/>
-      <c r="H5" s="234"/>
+      <c r="H5" s="154" t="s">
+        <v>225</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="206"/>
-      <c r="B6" s="205"/>
-      <c r="C6" s="229"/>
-      <c r="D6" s="230" t="s">
-        <v>225</v>
-      </c>
-      <c r="E6" s="235" t="s">
+    <row r="6" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="219"/>
+      <c r="B6" s="219" t="s">
+        <v>193</v>
+      </c>
+      <c r="C6" s="223" t="s">
+        <v>226</v>
+      </c>
+      <c r="D6" s="223" t="s">
         <v>228</v>
       </c>
-      <c r="F6" s="236" t="s">
-        <v>229</v>
-      </c>
-      <c r="G6" s="237" t="s">
-        <v>230</v>
-      </c>
-      <c r="H6" s="238" t="s">
-        <v>231</v>
-      </c>
+      <c r="E6" s="223" t="s">
+        <v>209</v>
+      </c>
+      <c r="F6" s="221" t="s">
+        <v>202</v>
+      </c>
+      <c r="G6" s="141" t="s">
+        <v>203</v>
+      </c>
+      <c r="H6" s="142" t="s">
+        <v>195</v>
+      </c>
+      <c r="I6" s="141"/>
+      <c r="J6" s="141"/>
+      <c r="K6" s="141"/>
+      <c r="L6" s="143"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="206"/>
-      <c r="B7" s="206" t="s">
-        <v>193</v>
-      </c>
-      <c r="C7" s="203" t="s">
-        <v>194</v>
-      </c>
-      <c r="D7" s="203"/>
+    <row r="7" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="219"/>
+      <c r="B7" s="219"/>
+      <c r="C7" s="223"/>
+      <c r="D7" s="223"/>
+      <c r="E7" s="223"/>
+      <c r="F7" s="222"/>
+      <c r="G7" s="224" t="s">
+        <v>204</v>
+      </c>
+      <c r="H7" s="224" t="s">
+        <v>220</v>
+      </c>
+      <c r="I7" s="225" t="s">
+        <v>205</v>
+      </c>
+      <c r="J7" s="224" t="s">
+        <v>196</v>
+      </c>
+      <c r="K7" s="144" t="s">
+        <v>206</v>
+      </c>
+      <c r="L7" s="145" t="s">
+        <v>198</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="206"/>
-      <c r="B8" s="206"/>
-      <c r="C8" s="203" t="s">
-        <v>195</v>
-      </c>
-      <c r="D8" s="203"/>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="219"/>
+      <c r="B8" s="219"/>
+      <c r="C8" s="223"/>
+      <c r="D8" s="223"/>
+      <c r="E8" s="223"/>
+      <c r="F8" s="222"/>
+      <c r="G8" s="224"/>
+      <c r="H8" s="224"/>
+      <c r="I8" s="225"/>
+      <c r="J8" s="224"/>
+      <c r="K8" s="144" t="s">
+        <v>207</v>
+      </c>
+      <c r="L8" s="146" t="s">
+        <v>199</v>
+      </c>
     </row>
-    <row r="9" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="206"/>
-      <c r="B9" s="206"/>
-      <c r="C9" s="206" t="s">
-        <v>196</v>
-      </c>
-      <c r="D9" s="207" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="219"/>
+      <c r="B9" s="219"/>
+      <c r="C9" s="223"/>
+      <c r="D9" s="223"/>
+      <c r="E9" s="223"/>
+      <c r="F9" s="222"/>
+      <c r="G9" s="224"/>
+      <c r="H9" s="224"/>
+      <c r="I9" s="225"/>
+      <c r="J9" s="144" t="s">
         <v>197</v>
       </c>
-      <c r="E9" s="207" t="s">
+      <c r="K9" s="144"/>
+      <c r="L9" s="146" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="219"/>
+      <c r="B10" s="219"/>
+      <c r="C10" s="223"/>
+      <c r="D10" s="223"/>
+      <c r="E10" s="223"/>
+      <c r="F10" s="222"/>
+      <c r="G10" s="224"/>
+      <c r="H10" s="226" t="s">
+        <v>208</v>
+      </c>
+      <c r="I10" s="226" t="s">
+        <v>210</v>
+      </c>
+      <c r="J10" s="232"/>
+      <c r="K10" s="144" t="s">
+        <v>212</v>
+      </c>
+      <c r="L10" s="145" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="219"/>
+      <c r="B11" s="219"/>
+      <c r="C11" s="223"/>
+      <c r="D11" s="223"/>
+      <c r="E11" s="223"/>
+      <c r="F11" s="222"/>
+      <c r="G11" s="224"/>
+      <c r="H11" s="227"/>
+      <c r="I11" s="228"/>
+      <c r="J11" s="233"/>
+      <c r="K11" s="144" t="s">
+        <v>214</v>
+      </c>
+      <c r="L11" s="149" t="s">
         <v>215</v>
-      </c>
-      <c r="F9" s="208" t="s">
-        <v>208</v>
-      </c>
-      <c r="G9" s="209" t="s">
-        <v>209</v>
-      </c>
-      <c r="H9" s="210" t="s">
-        <v>201</v>
-      </c>
-      <c r="I9" s="209"/>
-      <c r="J9" s="209"/>
-      <c r="K9" s="209"/>
-      <c r="L9" s="211"/>
-    </row>
-    <row r="10" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="206"/>
-      <c r="B10" s="206"/>
-      <c r="C10" s="206"/>
-      <c r="D10" s="207"/>
-      <c r="E10" s="207"/>
-      <c r="F10" s="212"/>
-      <c r="G10" s="213" t="s">
-        <v>210</v>
-      </c>
-      <c r="H10" s="213" t="s">
-        <v>226</v>
-      </c>
-      <c r="I10" s="214" t="s">
-        <v>211</v>
-      </c>
-      <c r="J10" s="213" t="s">
-        <v>202</v>
-      </c>
-      <c r="K10" s="215" t="s">
-        <v>212</v>
-      </c>
-      <c r="L10" s="216" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="206"/>
-      <c r="B11" s="206"/>
-      <c r="C11" s="206"/>
-      <c r="D11" s="207"/>
-      <c r="E11" s="207"/>
-      <c r="F11" s="212"/>
-      <c r="G11" s="213"/>
-      <c r="H11" s="213"/>
-      <c r="I11" s="214"/>
-      <c r="J11" s="213"/>
-      <c r="K11" s="215" t="s">
-        <v>213</v>
-      </c>
-      <c r="L11" s="217" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="206"/>
-      <c r="B12" s="206"/>
-      <c r="C12" s="206"/>
-      <c r="D12" s="207"/>
-      <c r="E12" s="207"/>
-      <c r="F12" s="212"/>
-      <c r="G12" s="213"/>
-      <c r="H12" s="213"/>
-      <c r="I12" s="214"/>
-      <c r="J12" s="215" t="s">
-        <v>203</v>
-      </c>
-      <c r="K12" s="215"/>
-      <c r="L12" s="217" t="s">
-        <v>206</v>
+      <c r="A12" s="219"/>
+      <c r="B12" s="219"/>
+      <c r="C12" s="223"/>
+      <c r="D12" s="223"/>
+      <c r="E12" s="223"/>
+      <c r="F12" s="234"/>
+      <c r="G12" s="226"/>
+      <c r="H12" s="227"/>
+      <c r="I12" s="148" t="s">
+        <v>211</v>
+      </c>
+      <c r="J12" s="233"/>
+      <c r="K12" s="148"/>
+      <c r="L12" s="235" t="s">
+        <v>201</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="206"/>
-      <c r="B13" s="206"/>
-      <c r="C13" s="206"/>
-      <c r="D13" s="207"/>
-      <c r="E13" s="207"/>
-      <c r="F13" s="212"/>
-      <c r="G13" s="213"/>
-      <c r="H13" s="222" t="s">
-        <v>214</v>
-      </c>
-      <c r="I13" s="222" t="s">
-        <v>216</v>
-      </c>
-      <c r="J13" s="215"/>
-      <c r="K13" s="215" t="s">
-        <v>218</v>
-      </c>
-      <c r="L13" s="216" t="s">
-        <v>219</v>
-      </c>
+    <row r="13" spans="1:12" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="219"/>
+      <c r="B13" s="219"/>
+      <c r="C13" s="223" t="s">
+        <v>227</v>
+      </c>
+      <c r="D13" s="236" t="s">
+        <v>229</v>
+      </c>
+      <c r="E13" s="237" t="s">
+        <v>236</v>
+      </c>
+      <c r="F13" s="237" t="s">
+        <v>233</v>
+      </c>
+      <c r="G13" s="237" t="s">
+        <v>232</v>
+      </c>
+      <c r="H13" s="237" t="s">
+        <v>234</v>
+      </c>
+      <c r="I13" s="238" t="s">
+        <v>238</v>
+      </c>
+      <c r="J13" s="239"/>
+      <c r="K13" s="239"/>
+      <c r="L13" s="240"/>
     </row>
-    <row r="14" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="206"/>
-      <c r="B14" s="206"/>
-      <c r="C14" s="206"/>
-      <c r="D14" s="207"/>
-      <c r="E14" s="207"/>
-      <c r="F14" s="212"/>
-      <c r="G14" s="213"/>
-      <c r="H14" s="223"/>
-      <c r="I14" s="225"/>
-      <c r="J14" s="215"/>
-      <c r="K14" s="215" t="s">
-        <v>220</v>
-      </c>
-      <c r="L14" s="226" t="s">
-        <v>221</v>
+    <row r="14" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="219"/>
+      <c r="B14" s="219"/>
+      <c r="C14" s="223"/>
+      <c r="D14" s="241"/>
+      <c r="E14" s="242"/>
+      <c r="F14" s="242"/>
+      <c r="G14" s="242"/>
+      <c r="H14" s="242"/>
+      <c r="I14" s="242" t="s">
+        <v>235</v>
+      </c>
+      <c r="J14" s="242" t="s">
+        <v>239</v>
+      </c>
+      <c r="K14" s="242" t="s">
+        <v>244</v>
+      </c>
+      <c r="L14" s="243" t="s">
+        <v>245</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="206"/>
-      <c r="B15" s="206"/>
-      <c r="C15" s="206"/>
-      <c r="D15" s="207"/>
-      <c r="E15" s="207"/>
-      <c r="F15" s="218"/>
-      <c r="G15" s="219"/>
-      <c r="H15" s="224"/>
-      <c r="I15" s="220" t="s">
-        <v>217</v>
-      </c>
-      <c r="J15" s="220"/>
-      <c r="K15" s="220"/>
-      <c r="L15" s="221" t="s">
-        <v>207</v>
-      </c>
+    <row r="15" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="219"/>
+      <c r="B15" s="219"/>
+      <c r="C15" s="223"/>
+      <c r="D15" s="241"/>
+      <c r="E15" s="242"/>
+      <c r="F15" s="242"/>
+      <c r="G15" s="242"/>
+      <c r="H15" s="242"/>
+      <c r="I15" s="242"/>
+      <c r="J15" s="242"/>
+      <c r="K15" s="242"/>
+      <c r="L15" s="243"/>
+    </row>
+    <row r="16" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="219"/>
+      <c r="B16" s="219"/>
+      <c r="C16" s="223"/>
+      <c r="D16" s="241"/>
+      <c r="E16" s="242"/>
+      <c r="F16" s="242"/>
+      <c r="G16" s="242"/>
+      <c r="H16" s="242"/>
+      <c r="I16" s="242"/>
+      <c r="J16" s="242" t="s">
+        <v>240</v>
+      </c>
+      <c r="K16" s="242"/>
+      <c r="L16" s="244" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="219"/>
+      <c r="B17" s="219"/>
+      <c r="C17" s="223"/>
+      <c r="D17" s="241"/>
+      <c r="E17" s="242"/>
+      <c r="F17" s="242"/>
+      <c r="G17" s="242"/>
+      <c r="H17" s="242"/>
+      <c r="I17" s="242"/>
+      <c r="J17" s="242"/>
+      <c r="K17" s="242"/>
+      <c r="L17" s="244"/>
+    </row>
+    <row r="18" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="219"/>
+      <c r="B18" s="219"/>
+      <c r="C18" s="223"/>
+      <c r="D18" s="241"/>
+      <c r="E18" s="242" t="s">
+        <v>237</v>
+      </c>
+      <c r="F18" s="245" t="s">
+        <v>249</v>
+      </c>
+      <c r="G18" s="242" t="s">
+        <v>231</v>
+      </c>
+      <c r="H18" s="242"/>
+      <c r="I18" s="245" t="s">
+        <v>247</v>
+      </c>
+      <c r="J18" s="242" t="s">
+        <v>241</v>
+      </c>
+      <c r="K18" s="242" t="s">
+        <v>243</v>
+      </c>
+      <c r="L18" s="246" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="219"/>
+      <c r="B19" s="219"/>
+      <c r="C19" s="223"/>
+      <c r="D19" s="241"/>
+      <c r="E19" s="242"/>
+      <c r="F19" s="245"/>
+      <c r="G19" s="242"/>
+      <c r="H19" s="242"/>
+      <c r="I19" s="245"/>
+      <c r="J19" s="242"/>
+      <c r="K19" s="242"/>
+      <c r="L19" s="246"/>
+    </row>
+    <row r="20" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="219"/>
+      <c r="B20" s="219"/>
+      <c r="C20" s="223"/>
+      <c r="D20" s="241"/>
+      <c r="E20" s="242"/>
+      <c r="F20" s="245"/>
+      <c r="G20" s="242"/>
+      <c r="H20" s="242"/>
+      <c r="I20" s="245"/>
+      <c r="J20" s="242" t="s">
+        <v>242</v>
+      </c>
+      <c r="K20" s="242"/>
+      <c r="L20" s="244" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="219"/>
+      <c r="B21" s="219"/>
+      <c r="C21" s="223"/>
+      <c r="D21" s="247"/>
+      <c r="E21" s="248"/>
+      <c r="F21" s="249"/>
+      <c r="G21" s="248"/>
+      <c r="H21" s="248"/>
+      <c r="I21" s="249"/>
+      <c r="J21" s="248"/>
+      <c r="K21" s="248"/>
+      <c r="L21" s="250"/>
+    </row>
+    <row r="25" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="231"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="B7:B15"/>
-    <mergeCell ref="A5:A15"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="F9:F15"/>
-    <mergeCell ref="E9:E15"/>
-    <mergeCell ref="D9:D15"/>
-    <mergeCell ref="C9:C15"/>
-    <mergeCell ref="G10:G15"/>
-    <mergeCell ref="J10:J11"/>
+  <mergeCells count="36">
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K18:K21"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="H13:H21"/>
+    <mergeCell ref="I18:I21"/>
+    <mergeCell ref="K14:K17"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="I14:I17"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="G13:G17"/>
+    <mergeCell ref="F13:F17"/>
+    <mergeCell ref="E13:E17"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="C6:C12"/>
+    <mergeCell ref="D13:D21"/>
+    <mergeCell ref="C13:C21"/>
+    <mergeCell ref="G7:G12"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="I7:I9"/>
     <mergeCell ref="H10:H12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="F6:F12"/>
+    <mergeCell ref="E6:E12"/>
+    <mergeCell ref="D6:D12"/>
+    <mergeCell ref="B6:B21"/>
+    <mergeCell ref="A4:A21"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BMW_SecOc.xlsx
+++ b/BMW_SecOc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_XuhuaRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16A1949-0596-491B-B2EF-8033B9ADB236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239FF474-A0C3-433D-8B7B-FCB4B54E7C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-8640" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{EE3554E5-5B85-4F6F-95D2-24E55C4E92D2}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="8" xr2:uid="{EE3554E5-5B85-4F6F-95D2-24E55C4E92D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Code" sheetId="2" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Sfn_SecOCMainSetup" sheetId="9" r:id="rId6"/>
     <sheet name="Key-ID" sheetId="12" r:id="rId7"/>
     <sheet name="TxManipulation" sheetId="11" r:id="rId8"/>
+    <sheet name="CollectPduPropertiesList" sheetId="13" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="280">
   <si>
     <t>DsBusCustomCode_onPduFeatureExecutionPrivate(pduFeatureHandle)</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -10887,12 +10888,553 @@
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>securedIPdu_SduDataPtr</t>
+    <phoneticPr fontId="57" type="noConversion"/>
+  </si>
+  <si>
+    <t>AuthenticIPdu_SduDataPtr</t>
+    <phoneticPr fontId="57" type="noConversion"/>
+  </si>
+  <si>
+    <t>actualSecuredAreaOffset</t>
+  </si>
+  <si>
+    <t>actualSecuredAreaLength</t>
+  </si>
+  <si>
+    <t>authenticIPdu_ActualLength</t>
+  </si>
+  <si>
+    <t>keyId</t>
+    <phoneticPr fontId="57" type="noConversion"/>
+  </si>
+  <si>
+    <t>freshnessValueTxLength</t>
+  </si>
+  <si>
+    <t>freshnessValueLength</t>
+    <phoneticPr fontId="57" type="noConversion"/>
+  </si>
+  <si>
+    <t>AuthenticIPdu_SduLength</t>
+    <phoneticPr fontId="57" type="noConversion"/>
+  </si>
+  <si>
+    <t>AuthPduHeaderLength</t>
+    <phoneticPr fontId="57" type="noConversion"/>
+  </si>
+  <si>
+    <t>SecuredIPdu_AuthenticIPduPosition</t>
+    <phoneticPr fontId="57" type="noConversion"/>
+  </si>
+  <si>
+    <t>MessageLinkPosition</t>
+    <phoneticPr fontId="57" type="noConversion"/>
+  </si>
+  <si>
+    <t>MessageLinkLength</t>
+    <phoneticPr fontId="57" type="noConversion"/>
+  </si>
+  <si>
+    <t>UseSecuredPduAsCryptoPduForMsgSplitUp</t>
+    <phoneticPr fontId="57" type="noConversion"/>
+  </si>
+  <si>
+    <t>MacTruncatedLength</t>
+  </si>
+  <si>
+    <t>dataId</t>
+    <phoneticPr fontId="57" type="noConversion"/>
+  </si>
+  <si>
+    <t>SecuredIPdu_DataId</t>
+  </si>
+  <si>
+    <t>SecuredIPdu_SduLength</t>
+    <phoneticPr fontId="57" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tx/Rx</t>
+    <phoneticPr fontId="57" type="noConversion"/>
+  </si>
+  <si>
+    <t>SecuredIPdu_Name</t>
+    <phoneticPr fontId="57" type="noConversion"/>
+  </si>
+  <si>
+    <t>EcuName</t>
+  </si>
+  <si>
+    <t>ClusterAgentStruct.Ident</t>
+    <phoneticPr fontId="57" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClusterAgentStruct.Name</t>
+    <phoneticPr fontId="57" type="noConversion"/>
+  </si>
+  <si>
+    <t>AuthenticIPdu_Name</t>
+    <phoneticPr fontId="57" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FreshnessValuePosition
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>!IsAnyCounterMessage:
+UseSecuredPduAsCryptoPduForMsgSplitUp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+FreshnessValuePosition </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>AuthPduHeaderLength</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> * 8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>! UseSecuredPduAsCryptoPduForMsgSplitUp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+FreshnessValuePosition </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>authenticIPdu_ActualLength</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> * 8 + pduProps-&gt;SecuredIPdu_AuthenticIPduPosition</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SecuredIPdu_MessageLinkPosition
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">securedIPduMessageLinkerPosition = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>securedIPduAuthenticatorPosition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + pduProps-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>MacTruncatedLength</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>collectStaticPduPropertiesDuringRuntime</t>
+    <phoneticPr fontId="57" type="noConversion"/>
+  </si>
+  <si>
+    <t>collectStaticPduProperties</t>
+    <phoneticPr fontId="57" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>securedIPduAuthenticatorPosition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">IsAnyCounterMessage:
+UseSecuredPduAsCryptoPduForMsgSplitUp
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>securedIPduAuthenticatorPosition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = pduProps-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>AuthPduHeaderLength</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> * 8
+! UseSecuredPduAsCryptoPduForMsgSplitUp
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>securedIPduAuthenticatorPosition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>authenticIPdu_ActualLength</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> * 8 + pduProps-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>SecuredIPdu_AuthenticIPduPosition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>! IsAnyCounterMessage:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>securedIPduAuthenticatorPosition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiBold"/>
+        <family val="3"/>
+      </rPr>
+      <t>FreshnessValuePosition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>pduProps-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5"/>
+        <rFont val="Cascadia Mono SemiLight"/>
+        <family val="3"/>
+      </rPr>
+      <t>FreshnessValTruncatedLength</t>
+    </r>
+    <phoneticPr fontId="57" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">collectDynamicPduProperties
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“动态”指：根据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>UseCryptoSplitUp/IfCounterMessage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计算</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>FV,MAC,LINK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的位置</t>
+    </r>
+    <phoneticPr fontId="57" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="56" x14ac:knownFonts="1">
+  <fonts count="74" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -11269,8 +11811,125 @@
       <name val="Cascadia Code SemiBold"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Cascadia Mono SemiLight"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Cascadia Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Cascadia Mono SemiBold"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="Cascadia Mono SemiLight"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF00FF"/>
+      <name val="Cascadia Mono SemiLight"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF00FF"/>
+      <name val="Cascadia Mono SemiBold"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Cascadia Mono SemiLight"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="Cascadia Mono SemiBold"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Cascadia Mono SemiBold"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Cascadia Code SemiBold"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Cascadia Code SemiBold"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="5"/>
+      <name val="Cascadia Mono SemiLight"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="5"/>
+      <name val="Cascadia Mono SemiBold"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11373,6 +12032,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="68">
     <border>
@@ -12290,10 +12955,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="251">
+  <cellXfs count="276">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -12713,6 +13381,21 @@
     <xf numFmtId="0" fontId="42" fillId="16" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="16" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="14" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="14" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="14" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -12905,115 +13588,176 @@
     <xf numFmtId="0" fontId="5" fillId="15" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="42" fillId="14" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="14" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="14" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="14" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="14" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="14" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="14" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="14" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="14" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="14" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="18" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="61" fillId="18" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="16" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="62" fillId="16" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="16" borderId="49" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="16" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="16" borderId="51" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="16" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="16" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="16" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="16" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="16" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="69" fillId="16" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="16" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="16" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="16" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="16" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="16" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="62" fillId="16" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="16" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="16" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="16" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="16" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="16" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="16" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="14" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="14" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="14" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="14" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="14" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="14" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="14" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="14" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="14" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="14" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="14" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="14" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="14" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="61" fillId="18" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{C72AF51D-76DF-43A1-AC24-69E8576D25B0}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF00FF"/>
+      <color rgb="FFFDBC53"/>
       <color rgb="FFEB65BE"/>
       <color rgb="FFCFAFE7"/>
-      <color rgb="FFFF00FF"/>
       <color rgb="FFFF5050"/>
-      <color rgb="FFFDBC53"/>
     </mruColors>
   </colors>
   <extLst>
@@ -13351,7 +14095,7 @@
       <c r="B2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="163" t="s">
+      <c r="C2" s="168" t="s">
         <v>109</v>
       </c>
     </row>
@@ -13362,7 +14106,7 @@
       <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="164"/>
+      <c r="C3" s="169"/>
     </row>
     <row r="4" spans="1:3" ht="386.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
@@ -13371,7 +14115,7 @@
       <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="165"/>
+      <c r="C4" s="170"/>
     </row>
     <row r="5" spans="1:3" ht="200.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
@@ -13404,11 +14148,11 @@
       <c r="C8" s="16"/>
     </row>
     <row r="9" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="171" t="s">
+      <c r="A9" s="176" t="s">
         <v>140</v>
       </c>
-      <c r="B9" s="171"/>
-      <c r="C9" s="172"/>
+      <c r="B9" s="176"/>
+      <c r="C9" s="177"/>
     </row>
     <row r="10" spans="1:3" ht="287.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="95" t="s">
@@ -13417,7 +14161,7 @@
       <c r="B10" s="96" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="166" t="s">
+      <c r="C10" s="171" t="s">
         <v>8</v>
       </c>
     </row>
@@ -13428,23 +14172,23 @@
       <c r="B11" s="96" t="s">
         <v>141</v>
       </c>
-      <c r="C11" s="167"/>
+      <c r="C11" s="172"/>
     </row>
     <row r="12" spans="1:3" ht="257.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="169" t="s">
+      <c r="A12" s="174" t="s">
         <v>142</v>
       </c>
       <c r="B12" s="96" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="167"/>
+      <c r="C12" s="172"/>
     </row>
     <row r="13" spans="1:3" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="170"/>
+      <c r="A13" s="175"/>
       <c r="B13" s="96" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="168"/>
+      <c r="C13" s="173"/>
     </row>
     <row r="14" spans="1:3" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="98" t="s">
@@ -13453,7 +14197,7 @@
       <c r="B14" s="96" t="s">
         <v>144</v>
       </c>
-      <c r="C14" s="166" t="s">
+      <c r="C14" s="171" t="s">
         <v>147</v>
       </c>
     </row>
@@ -13464,7 +14208,7 @@
       <c r="B15" s="96" t="s">
         <v>146</v>
       </c>
-      <c r="C15" s="168"/>
+      <c r="C15" s="173"/>
     </row>
     <row r="16" spans="1:3" ht="378.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
@@ -13473,7 +14217,7 @@
       <c r="B16" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C16" s="163"/>
+      <c r="C16" s="168"/>
     </row>
     <row r="17" spans="1:3" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
@@ -13482,7 +14226,7 @@
       <c r="B17" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="164"/>
+      <c r="C17" s="169"/>
     </row>
     <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="43" t="s">
@@ -13509,7 +14253,7 @@
       <c r="B20" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="160" t="s">
+      <c r="C20" s="165" t="s">
         <v>73</v>
       </c>
     </row>
@@ -13518,7 +14262,7 @@
         <v>172</v>
       </c>
       <c r="B21" s="132"/>
-      <c r="C21" s="161"/>
+      <c r="C21" s="166"/>
     </row>
     <row r="22" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
@@ -13527,7 +14271,7 @@
       <c r="B22" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="161"/>
+      <c r="C22" s="166"/>
     </row>
     <row r="23" spans="1:3" ht="370.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
@@ -13536,14 +14280,14 @@
       <c r="B23" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="162"/>
+      <c r="C23" s="167"/>
     </row>
     <row r="24" spans="1:3" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="159" t="s">
+      <c r="C24" s="164" t="s">
         <v>71</v>
       </c>
     </row>
@@ -13552,7 +14296,7 @@
         <v>11</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="159"/>
+      <c r="C25" s="164"/>
     </row>
     <row r="26" spans="1:3" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
@@ -13561,7 +14305,7 @@
       <c r="B26" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="159"/>
+      <c r="C26" s="164"/>
     </row>
     <row r="27" spans="1:3" ht="242.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
@@ -13570,35 +14314,35 @@
       <c r="B27" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="C27" s="159"/>
+      <c r="C27" s="164"/>
     </row>
     <row r="28" spans="1:3" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B28" s="12"/>
-      <c r="C28" s="159"/>
+      <c r="C28" s="164"/>
     </row>
     <row r="29" spans="1:3" ht="224.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
         <v>60</v>
       </c>
       <c r="B29" s="12"/>
-      <c r="C29" s="159"/>
+      <c r="C29" s="164"/>
     </row>
     <row r="30" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="133" t="s">
         <v>173</v>
       </c>
       <c r="B30" s="133"/>
-      <c r="C30" s="159"/>
+      <c r="C30" s="164"/>
     </row>
     <row r="31" spans="1:3" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
         <v>98</v>
       </c>
       <c r="B31" s="12"/>
-      <c r="C31" s="156"/>
+      <c r="C31" s="161"/>
     </row>
     <row r="32" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="43" t="s">
@@ -13614,7 +14358,7 @@
       <c r="B33" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="C33" s="155" t="s">
+      <c r="C33" s="160" t="s">
         <v>72</v>
       </c>
     </row>
@@ -13625,32 +14369,32 @@
       <c r="B34" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="156"/>
+      <c r="C34" s="161"/>
     </row>
     <row r="35" spans="1:3" ht="234.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="157" t="s">
+      <c r="A35" s="162" t="s">
         <v>65</v>
       </c>
       <c r="B35" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="C35" s="155" t="s">
+      <c r="C35" s="160" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="215.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="158"/>
+      <c r="A36" s="163"/>
       <c r="B36" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="C36" s="159"/>
+      <c r="C36" s="164"/>
     </row>
     <row r="37" spans="1:3" ht="297.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="158"/>
+      <c r="A37" s="163"/>
       <c r="B37" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C37" s="159"/>
+      <c r="C37" s="164"/>
     </row>
     <row r="38" spans="1:3" ht="135.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
@@ -13659,7 +14403,7 @@
       <c r="B38" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="C38" s="156"/>
+      <c r="C38" s="161"/>
     </row>
     <row r="39" spans="1:3" ht="393.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
@@ -13708,7 +14452,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="173" t="s">
+      <c r="B3" s="178" t="s">
         <v>109</v>
       </c>
       <c r="C3" s="90" t="s">
@@ -13716,7 +14460,7 @@
       </c>
     </row>
     <row r="4" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="175"/>
+      <c r="B4" s="180"/>
       <c r="C4" s="90" t="s">
         <v>114</v>
       </c>
@@ -13728,7 +14472,7 @@
       <c r="C5" s="91"/>
     </row>
     <row r="6" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="173" t="s">
+      <c r="B6" s="178" t="s">
         <v>110</v>
       </c>
       <c r="C6" s="90" t="s">
@@ -13736,19 +14480,19 @@
       </c>
     </row>
     <row r="7" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="174"/>
+      <c r="B7" s="179"/>
       <c r="C7" s="90" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="174"/>
+      <c r="B8" s="179"/>
       <c r="C8" s="90" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="175"/>
+      <c r="B9" s="180"/>
       <c r="C9" s="90" t="s">
         <v>114</v>
       </c>
@@ -13766,7 +14510,7 @@
       <c r="C11" s="91"/>
     </row>
     <row r="12" spans="2:3" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="176" t="s">
+      <c r="B12" s="181" t="s">
         <v>71</v>
       </c>
       <c r="C12" s="92" t="s">
@@ -13774,7 +14518,7 @@
       </c>
     </row>
     <row r="13" spans="2:3" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="177"/>
+      <c r="B13" s="182"/>
       <c r="C13" s="92" t="s">
         <v>121</v>
       </c>
@@ -13833,25 +14577,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="203.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="178" t="s">
+      <c r="A1" s="183" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="185" t="s">
+      <c r="B1" s="190" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="184" t="s">
+      <c r="C1" s="189" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="184" t="s">
+      <c r="D1" s="189" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="184" t="s">
+      <c r="E1" s="189" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="184" t="s">
+      <c r="F1" s="189" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="184" t="s">
+      <c r="G1" s="189" t="s">
         <v>45</v>
       </c>
       <c r="H1" s="108" t="s">
@@ -13865,13 +14609,13 @@
       <c r="L1" s="109"/>
     </row>
     <row r="2" spans="1:12" ht="287.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="179"/>
-      <c r="B2" s="181"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
+      <c r="A2" s="184"/>
+      <c r="B2" s="186"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="188"/>
+      <c r="G2" s="188"/>
       <c r="H2" s="110" t="s">
         <v>41</v>
       </c>
@@ -13887,14 +14631,14 @@
       <c r="L2" s="112"/>
     </row>
     <row r="3" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="179"/>
-      <c r="B3" s="181"/>
-      <c r="C3" s="183"/>
-      <c r="D3" s="183"/>
-      <c r="E3" s="183" t="s">
+      <c r="A3" s="184"/>
+      <c r="B3" s="186"/>
+      <c r="C3" s="188"/>
+      <c r="D3" s="188"/>
+      <c r="E3" s="188" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="186" t="s">
+      <c r="F3" s="191" t="s">
         <v>33</v>
       </c>
       <c r="G3" s="110" t="s">
@@ -13907,16 +14651,16 @@
       <c r="L3" s="112"/>
     </row>
     <row r="4" spans="1:12" ht="233.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="179"/>
-      <c r="B4" s="181"/>
-      <c r="C4" s="183"/>
-      <c r="D4" s="183"/>
-      <c r="E4" s="183"/>
-      <c r="F4" s="186"/>
-      <c r="G4" s="183" t="s">
+      <c r="A4" s="184"/>
+      <c r="B4" s="186"/>
+      <c r="C4" s="188"/>
+      <c r="D4" s="188"/>
+      <c r="E4" s="188"/>
+      <c r="F4" s="191"/>
+      <c r="G4" s="188" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="183" t="s">
+      <c r="H4" s="188" t="s">
         <v>81</v>
       </c>
       <c r="I4" s="111" t="s">
@@ -13929,14 +14673,14 @@
       <c r="L4" s="112"/>
     </row>
     <row r="5" spans="1:12" ht="113.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="179"/>
-      <c r="B5" s="181"/>
-      <c r="C5" s="183"/>
-      <c r="D5" s="183"/>
-      <c r="E5" s="183"/>
-      <c r="F5" s="186"/>
-      <c r="G5" s="183"/>
-      <c r="H5" s="183"/>
+      <c r="A5" s="184"/>
+      <c r="B5" s="186"/>
+      <c r="C5" s="188"/>
+      <c r="D5" s="188"/>
+      <c r="E5" s="188"/>
+      <c r="F5" s="191"/>
+      <c r="G5" s="188"/>
+      <c r="H5" s="188"/>
       <c r="I5" s="111" t="s">
         <v>82</v>
       </c>
@@ -13951,10 +14695,10 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="160.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="179"/>
-      <c r="B6" s="181"/>
-      <c r="C6" s="183"/>
-      <c r="D6" s="183"/>
+      <c r="A6" s="184"/>
+      <c r="B6" s="186"/>
+      <c r="C6" s="188"/>
+      <c r="D6" s="188"/>
       <c r="E6" s="110" t="s">
         <v>32</v>
       </c>
@@ -13967,8 +14711,8 @@
       <c r="L6" s="112"/>
     </row>
     <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="179"/>
-      <c r="B7" s="181" t="s">
+      <c r="A7" s="184"/>
+      <c r="B7" s="186" t="s">
         <v>38</v>
       </c>
       <c r="C7" s="113" t="s">
@@ -13985,8 +14729,8 @@
       <c r="L7" s="112"/>
     </row>
     <row r="8" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="179"/>
-      <c r="B8" s="181"/>
+      <c r="A8" s="184"/>
+      <c r="B8" s="186"/>
       <c r="C8" s="113" t="s">
         <v>40</v>
       </c>
@@ -14001,8 +14745,8 @@
       <c r="L8" s="112"/>
     </row>
     <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="179"/>
-      <c r="B9" s="181"/>
+      <c r="A9" s="184"/>
+      <c r="B9" s="186"/>
       <c r="C9" s="113" t="s">
         <v>75</v>
       </c>
@@ -14017,8 +14761,8 @@
       <c r="L9" s="112"/>
     </row>
     <row r="10" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="179"/>
-      <c r="B10" s="181"/>
+      <c r="A10" s="184"/>
+      <c r="B10" s="186"/>
       <c r="C10" s="113" t="s">
         <v>76</v>
       </c>
@@ -14033,8 +14777,8 @@
       <c r="L10" s="112"/>
     </row>
     <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="179"/>
-      <c r="B11" s="187" t="s">
+      <c r="A11" s="184"/>
+      <c r="B11" s="192" t="s">
         <v>67</v>
       </c>
       <c r="C11" s="14" t="s">
@@ -14051,8 +14795,8 @@
       <c r="L11" s="112"/>
     </row>
     <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="179"/>
-      <c r="B12" s="188"/>
+      <c r="A12" s="184"/>
+      <c r="B12" s="193"/>
       <c r="C12" s="113" t="s">
         <v>166</v>
       </c>
@@ -14067,8 +14811,8 @@
       <c r="L12" s="112"/>
     </row>
     <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="179"/>
-      <c r="B13" s="189"/>
+      <c r="A13" s="184"/>
+      <c r="B13" s="194"/>
       <c r="C13" s="113" t="s">
         <v>167</v>
       </c>
@@ -14083,8 +14827,8 @@
       <c r="L13" s="112"/>
     </row>
     <row r="14" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="179"/>
-      <c r="B14" s="187" t="s">
+      <c r="A14" s="184"/>
+      <c r="B14" s="192" t="s">
         <v>69</v>
       </c>
       <c r="C14" s="113" t="s">
@@ -14101,8 +14845,8 @@
       <c r="L14" s="112"/>
     </row>
     <row r="15" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="179"/>
-      <c r="B15" s="188"/>
+      <c r="A15" s="184"/>
+      <c r="B15" s="193"/>
       <c r="C15" s="113" t="s">
         <v>179</v>
       </c>
@@ -14117,8 +14861,8 @@
       <c r="L15" s="112"/>
     </row>
     <row r="16" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="179"/>
-      <c r="B16" s="189"/>
+      <c r="A16" s="184"/>
+      <c r="B16" s="194"/>
       <c r="C16" s="113" t="s">
         <v>68</v>
       </c>
@@ -14133,8 +14877,8 @@
       <c r="L16" s="112"/>
     </row>
     <row r="17" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="179"/>
-      <c r="B17" s="181" t="s">
+      <c r="A17" s="184"/>
+      <c r="B17" s="186" t="s">
         <v>159</v>
       </c>
       <c r="C17" s="113" t="s">
@@ -14151,8 +14895,8 @@
       <c r="L17" s="112"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="180"/>
-      <c r="B18" s="182"/>
+      <c r="A18" s="185"/>
+      <c r="B18" s="187"/>
       <c r="C18" s="115" t="s">
         <v>161</v>
       </c>
@@ -14193,7 +14937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96D232CB-C49D-45B0-951E-55C71D1ABED0}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
@@ -14206,10 +14950,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="190" t="s">
+      <c r="A2" s="195" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="192" t="s">
+      <c r="B2" s="197" t="s">
         <v>50</v>
       </c>
       <c r="C2" s="24" t="s">
@@ -14226,16 +14970,16 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="191"/>
-      <c r="B3" s="193"/>
+      <c r="A3" s="196"/>
+      <c r="B3" s="198"/>
       <c r="C3" s="40"/>
       <c r="D3" s="41"/>
       <c r="E3" s="41"/>
       <c r="F3" s="42"/>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="191"/>
-      <c r="B4" s="193" t="s">
+      <c r="A4" s="196"/>
+      <c r="B4" s="198" t="s">
         <v>51</v>
       </c>
       <c r="C4" s="30" t="s">
@@ -14252,8 +14996,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="191"/>
-      <c r="B5" s="193"/>
+      <c r="A5" s="196"/>
+      <c r="B5" s="198"/>
       <c r="C5" s="34" t="s">
         <v>54</v>
       </c>
@@ -14262,10 +15006,10 @@
       <c r="F5" s="29"/>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="191" t="s">
+      <c r="A6" s="196" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="193" t="s">
+      <c r="B6" s="198" t="s">
         <v>50</v>
       </c>
       <c r="C6" s="30" t="s">
@@ -14280,16 +15024,16 @@
       <c r="F6" s="29"/>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="191"/>
-      <c r="B7" s="193"/>
+      <c r="A7" s="196"/>
+      <c r="B7" s="198"/>
       <c r="C7" s="40"/>
       <c r="D7" s="41"/>
       <c r="E7" s="41"/>
       <c r="F7" s="42"/>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="191"/>
-      <c r="B8" s="193" t="s">
+      <c r="A8" s="196"/>
+      <c r="B8" s="198" t="s">
         <v>51</v>
       </c>
       <c r="C8" s="30" t="s">
@@ -14304,8 +15048,8 @@
       <c r="F8" s="29"/>
     </row>
     <row r="9" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="194"/>
-      <c r="B9" s="195"/>
+      <c r="A9" s="199"/>
+      <c r="B9" s="200"/>
       <c r="C9" s="37" t="s">
         <v>54</v>
       </c>
@@ -14332,7 +15076,7 @@
   <dimension ref="B2:F19"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="B10" sqref="B10:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14347,13 +15091,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="198" t="s">
+      <c r="B2" s="203" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="199"/>
-      <c r="D2" s="199"/>
-      <c r="E2" s="199"/>
-      <c r="F2" s="200"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="205"/>
     </row>
     <row r="3" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="53" t="s">
@@ -14435,10 +15179,10 @@
       <c r="F9" s="73"/>
     </row>
     <row r="10" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B10" s="196" t="s">
+      <c r="B10" s="201" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="197"/>
+      <c r="C10" s="202"/>
       <c r="D10" s="65"/>
       <c r="E10" s="83"/>
       <c r="F10" s="73"/>
@@ -14540,7 +15284,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ABC9983-6AED-4B25-8AB6-C5125DB391F9}">
   <dimension ref="B1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -14557,10 +15301,10 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="150.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="201" t="s">
+      <c r="B2" s="206" t="s">
         <v>150</v>
       </c>
-      <c r="C2" s="203" t="s">
+      <c r="C2" s="208" t="s">
         <v>151</v>
       </c>
       <c r="D2" s="119" t="s">
@@ -14573,8 +15317,8 @@
       <c r="G2" s="122"/>
     </row>
     <row r="3" spans="2:7" ht="176.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="202"/>
-      <c r="C3" s="204"/>
+      <c r="B3" s="207"/>
+      <c r="C3" s="209"/>
       <c r="D3" s="123" t="s">
         <v>153</v>
       </c>
@@ -14585,14 +15329,14 @@
       <c r="G3" s="125"/>
     </row>
     <row r="4" spans="2:7" ht="191.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="216" t="s">
+      <c r="B4" s="221" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="205" t="s">
+      <c r="C4" s="210" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="205"/>
-      <c r="E4" s="214" t="s">
+      <c r="D4" s="210"/>
+      <c r="E4" s="219" t="s">
         <v>139</v>
       </c>
       <c r="F4" s="99" t="s">
@@ -14603,10 +15347,10 @@
       </c>
     </row>
     <row r="5" spans="2:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="217"/>
-      <c r="C5" s="206"/>
-      <c r="D5" s="206"/>
-      <c r="E5" s="215"/>
+      <c r="B5" s="222"/>
+      <c r="C5" s="211"/>
+      <c r="D5" s="211"/>
+      <c r="E5" s="220"/>
       <c r="F5" s="102" t="s">
         <v>129</v>
       </c>
@@ -14615,8 +15359,8 @@
       </c>
     </row>
     <row r="6" spans="2:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="217"/>
-      <c r="C6" s="206" t="s">
+      <c r="B6" s="222"/>
+      <c r="C6" s="211" t="s">
         <v>124</v>
       </c>
       <c r="D6" s="102" t="s">
@@ -14629,8 +15373,8 @@
       <c r="G6" s="128"/>
     </row>
     <row r="7" spans="2:7" ht="155.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="217"/>
-      <c r="C7" s="206"/>
+      <c r="B7" s="222"/>
+      <c r="C7" s="211"/>
       <c r="D7" s="101" t="s">
         <v>156</v>
       </c>
@@ -14641,12 +15385,12 @@
       <c r="G7" s="104"/>
     </row>
     <row r="8" spans="2:7" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="217"/>
-      <c r="C8" s="206"/>
-      <c r="D8" s="211" t="s">
+      <c r="B8" s="222"/>
+      <c r="C8" s="211"/>
+      <c r="D8" s="216" t="s">
         <v>152</v>
       </c>
-      <c r="E8" s="208" t="s">
+      <c r="E8" s="213" t="s">
         <v>126</v>
       </c>
       <c r="F8" s="101" t="s">
@@ -14657,10 +15401,10 @@
       </c>
     </row>
     <row r="9" spans="2:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="217"/>
-      <c r="C9" s="206"/>
-      <c r="D9" s="212"/>
-      <c r="E9" s="209"/>
+      <c r="B9" s="222"/>
+      <c r="C9" s="211"/>
+      <c r="D9" s="217"/>
+      <c r="E9" s="214"/>
       <c r="F9" s="101" t="s">
         <v>148</v>
       </c>
@@ -14669,10 +15413,10 @@
       </c>
     </row>
     <row r="10" spans="2:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="217"/>
-      <c r="C10" s="206"/>
-      <c r="D10" s="212"/>
-      <c r="E10" s="209"/>
+      <c r="B10" s="222"/>
+      <c r="C10" s="211"/>
+      <c r="D10" s="217"/>
+      <c r="E10" s="214"/>
       <c r="F10" s="101" t="s">
         <v>137</v>
       </c>
@@ -14681,10 +15425,10 @@
       </c>
     </row>
     <row r="11" spans="2:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="217"/>
-      <c r="C11" s="206"/>
-      <c r="D11" s="212"/>
-      <c r="E11" s="209"/>
+      <c r="B11" s="222"/>
+      <c r="C11" s="211"/>
+      <c r="D11" s="217"/>
+      <c r="E11" s="214"/>
       <c r="F11" s="101" t="s">
         <v>136</v>
       </c>
@@ -14693,10 +15437,10 @@
       </c>
     </row>
     <row r="12" spans="2:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="217"/>
-      <c r="C12" s="206"/>
-      <c r="D12" s="212"/>
-      <c r="E12" s="209"/>
+      <c r="B12" s="222"/>
+      <c r="C12" s="211"/>
+      <c r="D12" s="217"/>
+      <c r="E12" s="214"/>
       <c r="F12" s="101" t="s">
         <v>135</v>
       </c>
@@ -14705,10 +15449,10 @@
       </c>
     </row>
     <row r="13" spans="2:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="218"/>
-      <c r="C13" s="207"/>
-      <c r="D13" s="213"/>
-      <c r="E13" s="210"/>
+      <c r="B13" s="223"/>
+      <c r="C13" s="212"/>
+      <c r="D13" s="218"/>
+      <c r="E13" s="215"/>
       <c r="F13" s="105" t="s">
         <v>133</v>
       </c>
@@ -14740,7 +15484,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F6" sqref="F6:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14781,13 +15525,13 @@
       <c r="C3" s="139"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="219" t="s">
+      <c r="A4" s="250" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="220" t="s">
+      <c r="B4" s="244" t="s">
         <v>216</v>
       </c>
-      <c r="C4" s="229" t="s">
+      <c r="C4" s="245" t="s">
         <v>217</v>
       </c>
       <c r="D4" s="141" t="s">
@@ -14801,9 +15545,9 @@
       <c r="H4" s="143"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="219"/>
-      <c r="B5" s="220"/>
-      <c r="C5" s="230"/>
+      <c r="A5" s="250"/>
+      <c r="B5" s="244"/>
+      <c r="C5" s="246"/>
       <c r="D5" s="147" t="s">
         <v>219</v>
       </c>
@@ -14821,20 +15565,20 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="219"/>
-      <c r="B6" s="219" t="s">
+      <c r="A6" s="250"/>
+      <c r="B6" s="250" t="s">
         <v>193</v>
       </c>
-      <c r="C6" s="223" t="s">
+      <c r="C6" s="235" t="s">
         <v>226</v>
       </c>
-      <c r="D6" s="223" t="s">
+      <c r="D6" s="235" t="s">
         <v>228</v>
       </c>
-      <c r="E6" s="223" t="s">
+      <c r="E6" s="235" t="s">
         <v>209</v>
       </c>
-      <c r="F6" s="221" t="s">
+      <c r="F6" s="247" t="s">
         <v>202</v>
       </c>
       <c r="G6" s="141" t="s">
@@ -14849,22 +15593,22 @@
       <c r="L6" s="143"/>
     </row>
     <row r="7" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="219"/>
-      <c r="B7" s="219"/>
-      <c r="C7" s="223"/>
-      <c r="D7" s="223"/>
-      <c r="E7" s="223"/>
-      <c r="F7" s="222"/>
-      <c r="G7" s="224" t="s">
+      <c r="A7" s="250"/>
+      <c r="B7" s="250"/>
+      <c r="C7" s="235"/>
+      <c r="D7" s="235"/>
+      <c r="E7" s="235"/>
+      <c r="F7" s="248"/>
+      <c r="G7" s="239" t="s">
         <v>204</v>
       </c>
-      <c r="H7" s="224" t="s">
+      <c r="H7" s="239" t="s">
         <v>220</v>
       </c>
-      <c r="I7" s="225" t="s">
+      <c r="I7" s="241" t="s">
         <v>205</v>
       </c>
-      <c r="J7" s="224" t="s">
+      <c r="J7" s="239" t="s">
         <v>196</v>
       </c>
       <c r="K7" s="144" t="s">
@@ -14875,16 +15619,16 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="219"/>
-      <c r="B8" s="219"/>
-      <c r="C8" s="223"/>
-      <c r="D8" s="223"/>
-      <c r="E8" s="223"/>
-      <c r="F8" s="222"/>
-      <c r="G8" s="224"/>
-      <c r="H8" s="224"/>
-      <c r="I8" s="225"/>
-      <c r="J8" s="224"/>
+      <c r="A8" s="250"/>
+      <c r="B8" s="250"/>
+      <c r="C8" s="235"/>
+      <c r="D8" s="235"/>
+      <c r="E8" s="235"/>
+      <c r="F8" s="248"/>
+      <c r="G8" s="239"/>
+      <c r="H8" s="239"/>
+      <c r="I8" s="241"/>
+      <c r="J8" s="239"/>
       <c r="K8" s="144" t="s">
         <v>207</v>
       </c>
@@ -14893,15 +15637,15 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="219"/>
-      <c r="B9" s="219"/>
-      <c r="C9" s="223"/>
-      <c r="D9" s="223"/>
-      <c r="E9" s="223"/>
-      <c r="F9" s="222"/>
-      <c r="G9" s="224"/>
-      <c r="H9" s="224"/>
-      <c r="I9" s="225"/>
+      <c r="A9" s="250"/>
+      <c r="B9" s="250"/>
+      <c r="C9" s="235"/>
+      <c r="D9" s="235"/>
+      <c r="E9" s="235"/>
+      <c r="F9" s="248"/>
+      <c r="G9" s="239"/>
+      <c r="H9" s="239"/>
+      <c r="I9" s="241"/>
       <c r="J9" s="144" t="s">
         <v>197</v>
       </c>
@@ -14911,20 +15655,20 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="219"/>
-      <c r="B10" s="219"/>
-      <c r="C10" s="223"/>
-      <c r="D10" s="223"/>
-      <c r="E10" s="223"/>
-      <c r="F10" s="222"/>
-      <c r="G10" s="224"/>
-      <c r="H10" s="226" t="s">
+      <c r="A10" s="250"/>
+      <c r="B10" s="250"/>
+      <c r="C10" s="235"/>
+      <c r="D10" s="235"/>
+      <c r="E10" s="235"/>
+      <c r="F10" s="248"/>
+      <c r="G10" s="239"/>
+      <c r="H10" s="240" t="s">
         <v>208</v>
       </c>
-      <c r="I10" s="226" t="s">
+      <c r="I10" s="240" t="s">
         <v>210</v>
       </c>
-      <c r="J10" s="232"/>
+      <c r="J10" s="233"/>
       <c r="K10" s="144" t="s">
         <v>212</v>
       </c>
@@ -14933,16 +15677,16 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="219"/>
-      <c r="B11" s="219"/>
-      <c r="C11" s="223"/>
-      <c r="D11" s="223"/>
-      <c r="E11" s="223"/>
-      <c r="F11" s="222"/>
-      <c r="G11" s="224"/>
-      <c r="H11" s="227"/>
-      <c r="I11" s="228"/>
-      <c r="J11" s="233"/>
+      <c r="A11" s="250"/>
+      <c r="B11" s="250"/>
+      <c r="C11" s="235"/>
+      <c r="D11" s="235"/>
+      <c r="E11" s="235"/>
+      <c r="F11" s="248"/>
+      <c r="G11" s="239"/>
+      <c r="H11" s="242"/>
+      <c r="I11" s="243"/>
+      <c r="J11" s="234"/>
       <c r="K11" s="144" t="s">
         <v>214</v>
       </c>
@@ -14951,218 +15695,205 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="219"/>
-      <c r="B12" s="219"/>
-      <c r="C12" s="223"/>
-      <c r="D12" s="223"/>
-      <c r="E12" s="223"/>
-      <c r="F12" s="234"/>
-      <c r="G12" s="226"/>
-      <c r="H12" s="227"/>
+      <c r="A12" s="250"/>
+      <c r="B12" s="250"/>
+      <c r="C12" s="235"/>
+      <c r="D12" s="235"/>
+      <c r="E12" s="235"/>
+      <c r="F12" s="249"/>
+      <c r="G12" s="240"/>
+      <c r="H12" s="242"/>
       <c r="I12" s="148" t="s">
         <v>211</v>
       </c>
-      <c r="J12" s="233"/>
+      <c r="J12" s="234"/>
       <c r="K12" s="148"/>
-      <c r="L12" s="235" t="s">
+      <c r="L12" s="156" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="219"/>
-      <c r="B13" s="219"/>
-      <c r="C13" s="223" t="s">
+      <c r="A13" s="250"/>
+      <c r="B13" s="250"/>
+      <c r="C13" s="235" t="s">
         <v>227</v>
       </c>
       <c r="D13" s="236" t="s">
         <v>229</v>
       </c>
-      <c r="E13" s="237" t="s">
+      <c r="E13" s="230" t="s">
         <v>236</v>
       </c>
-      <c r="F13" s="237" t="s">
+      <c r="F13" s="230" t="s">
         <v>233</v>
       </c>
-      <c r="G13" s="237" t="s">
+      <c r="G13" s="230" t="s">
         <v>232</v>
       </c>
-      <c r="H13" s="237" t="s">
+      <c r="H13" s="230" t="s">
         <v>234</v>
       </c>
-      <c r="I13" s="238" t="s">
+      <c r="I13" s="157" t="s">
         <v>238</v>
       </c>
-      <c r="J13" s="239"/>
-      <c r="K13" s="239"/>
-      <c r="L13" s="240"/>
+      <c r="J13" s="158"/>
+      <c r="K13" s="158"/>
+      <c r="L13" s="159"/>
     </row>
     <row r="14" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="219"/>
-      <c r="B14" s="219"/>
-      <c r="C14" s="223"/>
-      <c r="D14" s="241"/>
-      <c r="E14" s="242"/>
-      <c r="F14" s="242"/>
-      <c r="G14" s="242"/>
-      <c r="H14" s="242"/>
-      <c r="I14" s="242" t="s">
+      <c r="A14" s="250"/>
+      <c r="B14" s="250"/>
+      <c r="C14" s="235"/>
+      <c r="D14" s="237"/>
+      <c r="E14" s="226"/>
+      <c r="F14" s="226"/>
+      <c r="G14" s="226"/>
+      <c r="H14" s="226"/>
+      <c r="I14" s="226" t="s">
         <v>235</v>
       </c>
-      <c r="J14" s="242" t="s">
+      <c r="J14" s="226" t="s">
         <v>239</v>
       </c>
-      <c r="K14" s="242" t="s">
+      <c r="K14" s="226" t="s">
         <v>244</v>
       </c>
-      <c r="L14" s="243" t="s">
+      <c r="L14" s="225" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="219"/>
-      <c r="B15" s="219"/>
-      <c r="C15" s="223"/>
-      <c r="D15" s="241"/>
-      <c r="E15" s="242"/>
-      <c r="F15" s="242"/>
-      <c r="G15" s="242"/>
-      <c r="H15" s="242"/>
-      <c r="I15" s="242"/>
-      <c r="J15" s="242"/>
-      <c r="K15" s="242"/>
-      <c r="L15" s="243"/>
+      <c r="A15" s="250"/>
+      <c r="B15" s="250"/>
+      <c r="C15" s="235"/>
+      <c r="D15" s="237"/>
+      <c r="E15" s="226"/>
+      <c r="F15" s="226"/>
+      <c r="G15" s="226"/>
+      <c r="H15" s="226"/>
+      <c r="I15" s="226"/>
+      <c r="J15" s="226"/>
+      <c r="K15" s="226"/>
+      <c r="L15" s="225"/>
     </row>
     <row r="16" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="219"/>
-      <c r="B16" s="219"/>
-      <c r="C16" s="223"/>
-      <c r="D16" s="241"/>
-      <c r="E16" s="242"/>
-      <c r="F16" s="242"/>
-      <c r="G16" s="242"/>
-      <c r="H16" s="242"/>
-      <c r="I16" s="242"/>
-      <c r="J16" s="242" t="s">
+      <c r="A16" s="250"/>
+      <c r="B16" s="250"/>
+      <c r="C16" s="235"/>
+      <c r="D16" s="237"/>
+      <c r="E16" s="226"/>
+      <c r="F16" s="226"/>
+      <c r="G16" s="226"/>
+      <c r="H16" s="226"/>
+      <c r="I16" s="226"/>
+      <c r="J16" s="226" t="s">
         <v>240</v>
       </c>
-      <c r="K16" s="242"/>
-      <c r="L16" s="244" t="s">
+      <c r="K16" s="226"/>
+      <c r="L16" s="224" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="219"/>
-      <c r="B17" s="219"/>
-      <c r="C17" s="223"/>
-      <c r="D17" s="241"/>
-      <c r="E17" s="242"/>
-      <c r="F17" s="242"/>
-      <c r="G17" s="242"/>
-      <c r="H17" s="242"/>
-      <c r="I17" s="242"/>
-      <c r="J17" s="242"/>
-      <c r="K17" s="242"/>
-      <c r="L17" s="244"/>
+      <c r="A17" s="250"/>
+      <c r="B17" s="250"/>
+      <c r="C17" s="235"/>
+      <c r="D17" s="237"/>
+      <c r="E17" s="226"/>
+      <c r="F17" s="226"/>
+      <c r="G17" s="226"/>
+      <c r="H17" s="226"/>
+      <c r="I17" s="226"/>
+      <c r="J17" s="226"/>
+      <c r="K17" s="226"/>
+      <c r="L17" s="224"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="219"/>
-      <c r="B18" s="219"/>
-      <c r="C18" s="223"/>
-      <c r="D18" s="241"/>
-      <c r="E18" s="242" t="s">
+      <c r="A18" s="250"/>
+      <c r="B18" s="250"/>
+      <c r="C18" s="235"/>
+      <c r="D18" s="237"/>
+      <c r="E18" s="226" t="s">
         <v>237</v>
       </c>
-      <c r="F18" s="245" t="s">
+      <c r="F18" s="231" t="s">
         <v>249</v>
       </c>
-      <c r="G18" s="242" t="s">
+      <c r="G18" s="226" t="s">
         <v>231</v>
       </c>
-      <c r="H18" s="242"/>
-      <c r="I18" s="245" t="s">
+      <c r="H18" s="226"/>
+      <c r="I18" s="231" t="s">
         <v>247</v>
       </c>
-      <c r="J18" s="242" t="s">
+      <c r="J18" s="226" t="s">
         <v>241</v>
       </c>
-      <c r="K18" s="242" t="s">
+      <c r="K18" s="226" t="s">
         <v>243</v>
       </c>
-      <c r="L18" s="246" t="s">
+      <c r="L18" s="228" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="219"/>
-      <c r="B19" s="219"/>
-      <c r="C19" s="223"/>
-      <c r="D19" s="241"/>
-      <c r="E19" s="242"/>
-      <c r="F19" s="245"/>
-      <c r="G19" s="242"/>
-      <c r="H19" s="242"/>
-      <c r="I19" s="245"/>
-      <c r="J19" s="242"/>
-      <c r="K19" s="242"/>
-      <c r="L19" s="246"/>
+      <c r="A19" s="250"/>
+      <c r="B19" s="250"/>
+      <c r="C19" s="235"/>
+      <c r="D19" s="237"/>
+      <c r="E19" s="226"/>
+      <c r="F19" s="231"/>
+      <c r="G19" s="226"/>
+      <c r="H19" s="226"/>
+      <c r="I19" s="231"/>
+      <c r="J19" s="226"/>
+      <c r="K19" s="226"/>
+      <c r="L19" s="228"/>
     </row>
     <row r="20" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="219"/>
-      <c r="B20" s="219"/>
-      <c r="C20" s="223"/>
-      <c r="D20" s="241"/>
-      <c r="E20" s="242"/>
-      <c r="F20" s="245"/>
-      <c r="G20" s="242"/>
-      <c r="H20" s="242"/>
-      <c r="I20" s="245"/>
-      <c r="J20" s="242" t="s">
+      <c r="A20" s="250"/>
+      <c r="B20" s="250"/>
+      <c r="C20" s="235"/>
+      <c r="D20" s="237"/>
+      <c r="E20" s="226"/>
+      <c r="F20" s="231"/>
+      <c r="G20" s="226"/>
+      <c r="H20" s="226"/>
+      <c r="I20" s="231"/>
+      <c r="J20" s="226" t="s">
         <v>242</v>
       </c>
-      <c r="K20" s="242"/>
-      <c r="L20" s="244" t="s">
+      <c r="K20" s="226"/>
+      <c r="L20" s="224" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="219"/>
-      <c r="B21" s="219"/>
-      <c r="C21" s="223"/>
-      <c r="D21" s="247"/>
-      <c r="E21" s="248"/>
-      <c r="F21" s="249"/>
-      <c r="G21" s="248"/>
-      <c r="H21" s="248"/>
-      <c r="I21" s="249"/>
-      <c r="J21" s="248"/>
-      <c r="K21" s="248"/>
-      <c r="L21" s="250"/>
+      <c r="A21" s="250"/>
+      <c r="B21" s="250"/>
+      <c r="C21" s="235"/>
+      <c r="D21" s="238"/>
+      <c r="E21" s="227"/>
+      <c r="F21" s="232"/>
+      <c r="G21" s="227"/>
+      <c r="H21" s="227"/>
+      <c r="I21" s="232"/>
+      <c r="J21" s="227"/>
+      <c r="K21" s="227"/>
+      <c r="L21" s="229"/>
     </row>
     <row r="25" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="231"/>
+      <c r="C25" s="155"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K18:K21"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="H13:H21"/>
-    <mergeCell ref="I18:I21"/>
-    <mergeCell ref="K14:K17"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="I14:I17"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="G13:G17"/>
-    <mergeCell ref="F13:F17"/>
-    <mergeCell ref="E13:E17"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="A4:A21"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="F6:F12"/>
+    <mergeCell ref="E6:E12"/>
+    <mergeCell ref="D6:D12"/>
+    <mergeCell ref="B6:B21"/>
     <mergeCell ref="C6:C12"/>
     <mergeCell ref="D13:D21"/>
     <mergeCell ref="C13:C21"/>
@@ -15172,13 +15903,26 @@
     <mergeCell ref="I7:I9"/>
     <mergeCell ref="H10:H12"/>
     <mergeCell ref="I10:I11"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="F6:F12"/>
-    <mergeCell ref="E6:E12"/>
-    <mergeCell ref="D6:D12"/>
-    <mergeCell ref="B6:B21"/>
-    <mergeCell ref="A4:A21"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="G13:G17"/>
+    <mergeCell ref="F13:F17"/>
+    <mergeCell ref="E13:E17"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="H13:H21"/>
+    <mergeCell ref="I18:I21"/>
+    <mergeCell ref="K14:K17"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="I14:I17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K18:K21"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="L20:L21"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15266,4 +16010,230 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37DE18C-5A4D-4B20-AE81-AC21649CDBCC}">
+  <dimension ref="A1:C28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="40.625" style="251" customWidth="1"/>
+    <col min="2" max="2" width="49.875" style="251" customWidth="1"/>
+    <col min="3" max="3" width="114.625" style="251" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="251"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="253" t="s">
+        <v>277</v>
+      </c>
+      <c r="B1" s="254" t="s">
+        <v>276</v>
+      </c>
+      <c r="C1" s="275" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="252" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="255" t="s">
+        <v>269</v>
+      </c>
+      <c r="B2" s="270"/>
+      <c r="C2" s="264"/>
+    </row>
+    <row r="3" spans="1:3" s="252" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="255" t="s">
+        <v>273</v>
+      </c>
+      <c r="B3" s="270"/>
+      <c r="C3" s="264"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="256" t="s">
+        <v>272</v>
+      </c>
+      <c r="B4" s="271"/>
+      <c r="C4" s="265"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="256" t="s">
+        <v>271</v>
+      </c>
+      <c r="B5" s="271"/>
+      <c r="C5" s="265"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="256" t="s">
+        <v>270</v>
+      </c>
+      <c r="B6" s="271"/>
+      <c r="C6" s="265"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="256" t="s">
+        <v>269</v>
+      </c>
+      <c r="B7" s="271"/>
+      <c r="C7" s="265"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="256" t="s">
+        <v>268</v>
+      </c>
+      <c r="B8" s="271"/>
+      <c r="C8" s="265" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="256" t="s">
+        <v>267</v>
+      </c>
+      <c r="B9" s="271"/>
+      <c r="C9" s="265"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="256" t="s">
+        <v>266</v>
+      </c>
+      <c r="B10" s="271" t="s">
+        <v>265</v>
+      </c>
+      <c r="C10" s="265"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="262" t="s">
+        <v>264</v>
+      </c>
+      <c r="B11" s="271"/>
+      <c r="C11" s="265"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="256" t="s">
+        <v>263</v>
+      </c>
+      <c r="B12" s="271"/>
+      <c r="C12" s="265"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="256" t="s">
+        <v>262</v>
+      </c>
+      <c r="B13" s="271"/>
+      <c r="C13" s="265"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="256" t="s">
+        <v>261</v>
+      </c>
+      <c r="B14" s="271"/>
+      <c r="C14" s="265"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="261" t="s">
+        <v>260</v>
+      </c>
+      <c r="B15" s="271"/>
+      <c r="C15" s="265"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="260" t="s">
+        <v>259</v>
+      </c>
+      <c r="B16" s="271"/>
+      <c r="C16" s="265"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="256" t="s">
+        <v>258</v>
+      </c>
+      <c r="B17" s="271"/>
+      <c r="C17" s="265"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="257"/>
+      <c r="B18" s="270" t="s">
+        <v>257</v>
+      </c>
+      <c r="C18" s="265"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="257"/>
+      <c r="B19" s="274" t="s">
+        <v>256</v>
+      </c>
+      <c r="C19" s="265"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="257"/>
+      <c r="B20" s="271" t="s">
+        <v>255</v>
+      </c>
+      <c r="C20" s="265"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="257"/>
+      <c r="B21" s="272"/>
+      <c r="C21" s="266" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="257"/>
+      <c r="B22" s="272"/>
+      <c r="C22" s="266" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="257"/>
+      <c r="B23" s="272"/>
+      <c r="C23" s="266" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="257"/>
+      <c r="B24" s="272"/>
+      <c r="C24" s="263" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="140.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="257"/>
+      <c r="B25" s="272"/>
+      <c r="C25" s="258" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="257"/>
+      <c r="B26" s="272"/>
+      <c r="C26" s="267" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="257"/>
+      <c r="B27" s="272"/>
+      <c r="C27" s="268" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="259"/>
+      <c r="B28" s="273"/>
+      <c r="C28" s="269" t="s">
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>